--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1024,7 +1024,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 02-04-2020, 13:19</t>
+    <t>Last update: 07-04-2020, 13:56</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1024,7 +1024,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-04-2020, 13:56</t>
+    <t>Last update: 21-04-2020, 13:22</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1568,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1024,7 +1024,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 21-04-2020, 13:22</t>
+    <t>Last update: 21-04-2020, 15:41</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="337">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -511,9 +511,16 @@
     <t>Ministry of Agriculture and Rural Development</t>
   </si>
   <si>
+    <t>Increase in disposable water resources, improvement of its ecological state
+  and chemical quality</t>
+  </si>
+  <si>
     <t>6.1.b Percentage of population supplied with water not meeting requirements</t>
   </si>
   <si>
+    <t>&lt;p&gt;Ministry of Health&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Creation of legal and financial mechanism conducive to rational use of water and implementation of water efficiency technologies as well as development and modernization of wastewater treatment plants</t>
   </si>
   <si>
@@ -577,6 +584,11 @@
     <t>8.1.a Share of export of high technology products in total exports</t>
   </si>
   <si>
+    <t>Search for new competitive adventages based on products' technological
+  advancement, quality and innovativeness as well as mechanisms for
+  internationalization of enterprises</t>
+  </si>
+  <si>
     <t>8.1.b Ratio expenditures on innovation activities in enterprises to GDP</t>
   </si>
   <si>
@@ -724,7 +736,7 @@
     <t>9.5.a Index of multimodal accessibility of transport</t>
   </si>
   <si>
-    <t>The Polish Academy of Sciences / Ministry of Investment and Economic Development</t>
+    <t>&lt;p&gt;Polish Academy of Sciences / Ministry of Funds and Regional Policy&lt;/p&gt;</t>
   </si>
   <si>
     <t>9.5.b Density of expressways and motorways per 1000 km2</t>
@@ -1024,7 +1036,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 21-04-2020, 15:41</t>
+    <t>Last update: 28-04-2020, 11:11</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1580,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2101,9 @@
       <c r="N12" s="5">
         <v>0.36</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="2" t="s">
         <v>44</v>
@@ -3148,7 +3162,9 @@
       <c r="N33" s="4">
         <v>434.8</v>
       </c>
-      <c r="O33" s="3"/>
+      <c r="O33" s="4">
+        <v>437.2</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="2" t="s">
         <v>24</v>
@@ -3197,7 +3213,9 @@
       <c r="N34" s="4">
         <v>259.3</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="4">
+        <v>263.89999999999998</v>
+      </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="2" t="s">
         <v>24</v>
@@ -3246,7 +3264,9 @@
       <c r="N35" s="4">
         <v>22.9</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35" s="4">
+        <v>23.5</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="2" t="s">
         <v>24</v>
@@ -3295,7 +3315,9 @@
       <c r="N36" s="4">
         <v>26.4</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36" s="4">
+        <v>24.6</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="2" t="s">
         <v>24</v>
@@ -3449,7 +3471,9 @@
       <c r="O39" s="4">
         <v>4.2</v>
       </c>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4">
+        <v>4.2</v>
+      </c>
       <c r="Q39" s="2" t="s">
         <v>24</v>
       </c>
@@ -4951,7 +4975,9 @@
       <c r="N72" s="4">
         <v>7.2</v>
       </c>
-      <c r="O72" s="3"/>
+      <c r="O72" s="4">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="2" t="s">
         <v>82</v>
@@ -5208,15 +5234,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>28</v>
@@ -5256,7 +5282,7 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="36" x14ac:dyDescent="0.25">
@@ -5264,10 +5290,10 @@
         <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>28</v>
@@ -5315,10 +5341,10 @@
         <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>28</v>
@@ -5363,13 +5389,13 @@
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>28</v>
@@ -5378,7 +5404,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G81" s="7">
         <v>0.31900000000000001</v>
@@ -5412,13 +5438,13 @@
     </row>
     <row r="82" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>28</v>
@@ -5463,13 +5489,13 @@
     </row>
     <row r="83" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>28</v>
@@ -5509,18 +5535,18 @@
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>28</v>
@@ -5529,7 +5555,7 @@
         <v>22</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G84" s="4">
         <v>316.10000000000002</v>
@@ -5558,18 +5584,18 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>28</v>
@@ -5614,13 +5640,13 @@
     </row>
     <row r="86" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>28</v>
@@ -5665,13 +5691,13 @@
     </row>
     <row r="87" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>28</v>
@@ -5706,21 +5732,23 @@
       <c r="N87" s="4">
         <v>8.4</v>
       </c>
-      <c r="O87" s="3"/>
+      <c r="O87" s="4">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>28</v>
@@ -5755,7 +5783,9 @@
       <c r="N88" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="O88" s="3"/>
+      <c r="O88" s="5">
+        <v>1.72</v>
+      </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="2" t="s">
         <v>24</v>
@@ -5763,13 +5793,13 @@
     </row>
     <row r="89" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>28</v>
@@ -5778,7 +5808,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G89" s="6">
         <v>39</v>
@@ -5811,18 +5841,18 @@
         <v>37</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>28</v>
@@ -5831,7 +5861,7 @@
         <v>22</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -5860,18 +5890,18 @@
         <v>40</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>73</v>
@@ -5916,13 +5946,13 @@
     </row>
     <row r="92" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>73</v>
@@ -5967,13 +5997,13 @@
     </row>
     <row r="93" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>73</v>
@@ -6018,19 +6048,19 @@
     </row>
     <row r="94" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>23</v>
@@ -6069,19 +6099,19 @@
     </row>
     <row r="95" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>23</v>
@@ -6120,19 +6150,19 @@
     </row>
     <row r="96" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>23</v>
@@ -6171,19 +6201,19 @@
     </row>
     <row r="97" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>23</v>
@@ -6222,19 +6252,19 @@
     </row>
     <row r="98" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>23</v>
@@ -6273,13 +6303,13 @@
     </row>
     <row r="99" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>21</v>
@@ -6324,19 +6354,19 @@
     </row>
     <row r="100" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>23</v>
@@ -6375,13 +6405,13 @@
     </row>
     <row r="101" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>28</v>
@@ -6426,13 +6456,13 @@
     </row>
     <row r="102" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>28</v>
@@ -6477,13 +6507,13 @@
     </row>
     <row r="103" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>28</v>
@@ -6520,16 +6550,16 @@
     </row>
     <row r="104" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>22</v>
@@ -6571,16 +6601,16 @@
     </row>
     <row r="105" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>76</v>
@@ -6622,19 +6652,19 @@
     </row>
     <row r="106" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>23</v>
@@ -6673,19 +6703,19 @@
     </row>
     <row r="107" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>23</v>
@@ -6724,19 +6754,19 @@
     </row>
     <row r="108" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>23</v>
@@ -6775,13 +6805,13 @@
     </row>
     <row r="109" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>28</v>
@@ -6826,13 +6856,13 @@
     </row>
     <row r="110" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>28</v>
@@ -6877,13 +6907,13 @@
     </row>
     <row r="111" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>28</v>
@@ -6928,13 +6958,13 @@
     </row>
     <row r="112" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>28</v>
@@ -6977,13 +7007,13 @@
     </row>
     <row r="113" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>28</v>
@@ -6992,11 +7022,15 @@
         <v>22</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="H113" s="6">
+        <v>43</v>
+      </c>
+      <c r="I113" s="6">
+        <v>44</v>
+      </c>
       <c r="J113" s="6">
         <v>49</v>
       </c>
@@ -7019,18 +7053,18 @@
         <v>39</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>28</v>
@@ -7075,13 +7109,13 @@
     </row>
     <row r="115" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>28</v>
@@ -7126,13 +7160,13 @@
     </row>
     <row r="116" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>28</v>
@@ -7177,13 +7211,13 @@
     </row>
     <row r="117" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>28</v>
@@ -7218,7 +7252,9 @@
       <c r="N117" s="4">
         <v>8.4</v>
       </c>
-      <c r="O117" s="3"/>
+      <c r="O117" s="4">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="2" t="s">
         <v>24</v>
@@ -7226,13 +7262,13 @@
     </row>
     <row r="118" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>28</v>
@@ -7272,18 +7308,18 @@
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>28</v>
@@ -7328,13 +7364,13 @@
     </row>
     <row r="120" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>28</v>
@@ -7368,18 +7404,18 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>28</v>
@@ -7424,13 +7460,13 @@
     </row>
     <row r="122" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>28</v>
@@ -7465,13 +7501,13 @@
     </row>
     <row r="123" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>28</v>
@@ -7516,13 +7552,13 @@
     </row>
     <row r="124" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>28</v>
@@ -7563,13 +7599,13 @@
     </row>
     <row r="125" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>28</v>
@@ -7578,7 +7614,7 @@
         <v>22</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G125" s="4">
         <v>31.1</v>
@@ -7614,13 +7650,13 @@
     </row>
     <row r="126" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>28</v>
@@ -7665,13 +7701,13 @@
     </row>
     <row r="127" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>28</v>
@@ -7716,13 +7752,13 @@
     </row>
     <row r="128" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>28</v>
@@ -7767,13 +7803,13 @@
     </row>
     <row r="129" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>28</v>
@@ -7818,13 +7854,13 @@
     </row>
     <row r="130" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>28</v>
@@ -7864,24 +7900,24 @@
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>23</v>
@@ -7920,19 +7956,19 @@
     </row>
     <row r="132" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>23</v>
@@ -7971,19 +8007,19 @@
     </row>
     <row r="133" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>23</v>
@@ -8022,19 +8058,19 @@
     </row>
     <row r="134" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>23</v>
@@ -8073,13 +8109,13 @@
     </row>
     <row r="135" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>28</v>
@@ -8124,13 +8160,13 @@
     </row>
     <row r="136" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>28</v>
@@ -8139,7 +8175,7 @@
         <v>22</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G136" s="4">
         <v>20.8</v>
@@ -8175,13 +8211,13 @@
     </row>
     <row r="137" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>28</v>
@@ -8190,7 +8226,7 @@
         <v>22</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G137" s="5">
         <v>0.56000000000000005</v>
@@ -8226,13 +8262,13 @@
     </row>
     <row r="138" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>28</v>
@@ -8241,7 +8277,7 @@
         <v>22</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G138" s="5">
         <v>16.95</v>
@@ -8277,13 +8313,13 @@
     </row>
     <row r="139" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>28</v>
@@ -8319,18 +8355,18 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>28</v>
@@ -8375,13 +8411,13 @@
     </row>
     <row r="141" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>28</v>
@@ -8390,16 +8426,16 @@
         <v>22</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G141" s="4">
         <v>100</v>
       </c>
       <c r="H141" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I141" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="J141" s="4">
         <v>96.3</v>
@@ -8408,29 +8444,31 @@
         <v>92.6</v>
       </c>
       <c r="L141" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="M141" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="N141" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O141" s="4">
         <v>100.9</v>
       </c>
-      <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>28</v>
@@ -8439,7 +8477,7 @@
         <v>22</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G142" s="4">
         <v>100</v>
@@ -8448,38 +8486,40 @@
         <v>99.8</v>
       </c>
       <c r="I142" s="4">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="J142" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="K142" s="4">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="L142" s="4">
         <v>94.9</v>
       </c>
       <c r="M142" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="N142" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="O142" s="3"/>
+        <v>100.4</v>
+      </c>
+      <c r="O142" s="4">
+        <v>100</v>
+      </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>28</v>
@@ -8524,13 +8564,13 @@
     </row>
     <row r="144" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>28</v>
@@ -8539,7 +8579,7 @@
         <v>22</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G144" s="6">
         <v>563</v>
@@ -8575,19 +8615,19 @@
     </row>
     <row r="145" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>23</v>
@@ -8621,24 +8661,24 @@
       </c>
       <c r="P145" s="3"/>
       <c r="Q145" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>23</v>
@@ -8672,24 +8712,24 @@
       </c>
       <c r="P146" s="3"/>
       <c r="Q146" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>23</v>
@@ -8723,24 +8763,24 @@
       </c>
       <c r="P147" s="3"/>
       <c r="Q147" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="72" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>23</v>
@@ -8774,18 +8814,18 @@
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>28</v>
@@ -8794,7 +8834,7 @@
         <v>22</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G149" s="4">
         <v>100</v>
@@ -8830,13 +8870,13 @@
     </row>
     <row r="150" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>28</v>
@@ -8845,7 +8885,7 @@
         <v>22</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G150" s="4">
         <v>59.5</v>
@@ -8881,13 +8921,13 @@
     </row>
     <row r="151" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>28</v>
@@ -8896,7 +8936,7 @@
         <v>22</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G151" s="4">
         <v>88</v>
@@ -8927,18 +8967,18 @@
       </c>
       <c r="P151" s="3"/>
       <c r="Q151" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>28</v>
@@ -8978,18 +9018,18 @@
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>28</v>
@@ -9034,13 +9074,13 @@
     </row>
     <row r="154" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>28</v>
@@ -9085,13 +9125,13 @@
     </row>
     <row r="155" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>28</v>
@@ -9136,13 +9176,13 @@
     </row>
     <row r="156" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>28</v>
@@ -9187,13 +9227,13 @@
     </row>
     <row r="157" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>28</v>
@@ -9235,18 +9275,18 @@
         <v>89</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>28</v>
@@ -9278,18 +9318,18 @@
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>28</v>
@@ -9298,7 +9338,7 @@
         <v>22</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G159" s="5">
         <v>0.98</v>
@@ -9329,18 +9369,18 @@
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>28</v>
@@ -9349,7 +9389,7 @@
         <v>22</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G160" s="6">
         <v>830</v>
@@ -9382,18 +9422,18 @@
         <v>685</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>28</v>
@@ -9402,7 +9442,7 @@
         <v>22</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G161" s="5">
         <v>0.64</v>
@@ -9433,18 +9473,18 @@
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>28</v>
@@ -9491,13 +9531,13 @@
     </row>
     <row r="163" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>28</v>
@@ -9542,13 +9582,13 @@
     </row>
     <row r="164" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>28</v>
@@ -9557,7 +9597,7 @@
         <v>22</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G164" s="5">
         <v>377.75</v>
@@ -9588,18 +9628,18 @@
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>28</v>
@@ -9608,7 +9648,7 @@
         <v>22</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G165" s="5">
         <v>96.04</v>
@@ -9639,18 +9679,18 @@
       </c>
       <c r="P165" s="3"/>
       <c r="Q165" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>28</v>
@@ -9690,14 +9730,14 @@
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B169" s="8"/>
     </row>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -205,7 +205,8 @@
     <t>2.5.a Percentage of length of public improved hard surface roads in non-urban areas</t>
   </si>
   <si>
-    <t>Respect for biodiversity through its increase or  at least non-deterioration of its sate</t>
+    <t>Respect for biodiversity through its increase or at least non-deterioration of
+  its sate</t>
   </si>
   <si>
     <t>2.6.a Number of plant and animal genetic resources for food and agriculture secured in gene banks collections</t>
@@ -217,7 +218,7 @@
     <t>pieces</t>
   </si>
   <si>
-    <t>Ministry of Agriculture and Rural Development / Plant Breeding and Acclimatization Institute - NRI in Radzików / Research Institute of Horticulture in Skierniewice</t>
+    <t>Ministry of Agriculture and Rural Development / Plant Breeding and  Acclimatization Institute - NRI in Radzików / Research Institute of  Horticulture in Skierniewice/ National Research Institute of Animal Production</t>
   </si>
   <si>
     <t>animal genetic resources</t>
@@ -1036,7 +1037,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 28-04-2020, 11:11</t>
+    <t>Last update: 12-05-2020, 07:42</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1037,7 +1037,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 26-05-2020, 08:22</t>
+    <t>Last update: 02-06-2020, 12:45</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1055,7 +1055,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 21-07-2020, 12:08</t>
+    <t>Last update: 04-08-2020, 09:17</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1599,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,7 +10299,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1055,7 +1055,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 04-08-2020, 09:17</t>
+    <t>Last update: 11-08-2020, 08:53</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1599,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10299,7 +10299,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="341">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t>6.1.b Percentage of population supplied with water not meeting requirements</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ministry of Health&lt;/p&gt;</t>
   </si>
   <si>
     <t>Creation of legal and financial mechanism conducive to rational use of water and implementation of water efficiency technologies as well as development and modernization of wastewater treatment plants</t>
@@ -755,7 +752,7 @@
     <t>9.5.a Index of multimodal accessibility of transport</t>
   </si>
   <si>
-    <t>&lt;p&gt;Polish Academy of Sciences / Ministry of Funds and Regional Policy&lt;/p&gt;</t>
+    <t>Polish Academy of Sciences / Ministry of Funds and Regional Policy</t>
   </si>
   <si>
     <t>9.5.b Density of expressways and motorways per 1000 km2</t>
@@ -863,9 +860,6 @@
     <t>12.1.c Circular material use rate</t>
   </si>
   <si>
-    <t>EUROSTAT</t>
-  </si>
-  <si>
     <t>Development of ecological agriculture</t>
   </si>
   <si>
@@ -1055,7 +1049,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 10-11-2020, 11:04</t>
+    <t>Last update: 15-12-2020, 08:04</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1593,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5699,7 +5693,7 @@
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="36" x14ac:dyDescent="0.25">
@@ -5707,10 +5701,10 @@
         <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5761,10 +5755,10 @@
         <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5812,22 +5806,22 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5864,13 +5858,13 @@
     </row>
     <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5916,13 +5910,13 @@
     </row>
     <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -5963,27 +5957,27 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6015,18 +6009,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6072,13 +6066,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6126,13 +6120,13 @@
     </row>
     <row r="93" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6178,13 +6172,13 @@
     </row>
     <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -6230,22 +6224,22 @@
     </row>
     <row r="95" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6279,27 +6273,27 @@
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6329,18 +6323,18 @@
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>74</v>
@@ -6388,13 +6382,13 @@
     </row>
     <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>74</v>
@@ -6442,13 +6436,13 @@
     </row>
     <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>74</v>
@@ -6496,19 +6490,19 @@
     </row>
     <row r="100" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>24</v>
@@ -6550,19 +6544,19 @@
     </row>
     <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -6604,19 +6598,19 @@
     </row>
     <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>24</v>
@@ -6658,19 +6652,19 @@
     </row>
     <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>24</v>
@@ -6712,19 +6706,19 @@
     </row>
     <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>24</v>
@@ -6766,13 +6760,13 @@
     </row>
     <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>22</v>
@@ -6820,19 +6814,19 @@
     </row>
     <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>24</v>
@@ -6874,13 +6868,13 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -6926,13 +6920,13 @@
     </row>
     <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>29</v>
@@ -6980,13 +6974,13 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>29</v>
@@ -7024,16 +7018,16 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>23</v>
@@ -7078,16 +7072,16 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>77</v>
@@ -7132,19 +7126,19 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E112" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>24</v>
@@ -7186,19 +7180,19 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>24</v>
@@ -7240,19 +7234,19 @@
     </row>
     <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>24</v>
@@ -7294,13 +7288,13 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>29</v>
@@ -7348,13 +7342,13 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>29</v>
@@ -7402,13 +7396,13 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>29</v>
@@ -7456,13 +7450,13 @@
     </row>
     <row r="118" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
@@ -7508,14 +7502,14 @@
     </row>
     <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D119" s="2" t="s">
         <v>29</v>
       </c>
@@ -7523,7 +7517,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7557,18 +7551,18 @@
         <v>38</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>29</v>
@@ -7614,13 +7608,13 @@
     </row>
     <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>29</v>
@@ -7666,13 +7660,13 @@
     </row>
     <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -7718,13 +7712,13 @@
     </row>
     <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -7770,13 +7764,13 @@
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>29</v>
@@ -7819,18 +7813,18 @@
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>29</v>
@@ -7874,15 +7868,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>29</v>
@@ -7917,18 +7911,18 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>29</v>
@@ -7976,13 +7970,13 @@
     </row>
     <row r="128" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>29</v>
@@ -8018,13 +8012,13 @@
     </row>
     <row r="129" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8070,13 +8064,13 @@
     </row>
     <row r="130" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8118,22 +8112,22 @@
     </row>
     <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8170,13 +8164,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8222,13 +8216,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8276,13 +8270,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8328,13 +8322,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8382,13 +8376,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8431,24 +8425,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C137" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8490,19 +8484,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C138" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8544,19 +8538,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8598,19 +8592,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E140" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8652,13 +8646,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8706,22 +8700,22 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8760,22 +8754,22 @@
     </row>
     <row r="143" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8812,22 +8806,22 @@
     </row>
     <row r="144" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8864,13 +8858,13 @@
     </row>
     <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8909,18 +8903,18 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="2" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -8968,22 +8962,22 @@
     </row>
     <row r="147" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9015,18 +9009,18 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9035,7 +9029,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9067,18 +9061,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9124,14 +9118,14 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
       </c>
@@ -9139,7 +9133,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9176,19 +9170,19 @@
     </row>
     <row r="151" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9225,24 +9219,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9279,24 +9273,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9333,24 +9327,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9387,18 +9381,18 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
@@ -9407,7 +9401,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9444,22 +9438,22 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9498,22 +9492,22 @@
     </row>
     <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9547,18 +9541,18 @@
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9601,18 +9595,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9660,13 +9654,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9714,13 +9708,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9768,13 +9762,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9822,13 +9816,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9873,18 +9867,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -9919,18 +9913,18 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -9939,7 +9933,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -9971,27 +9965,27 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10025,18 +10019,18 @@
       </c>
       <c r="Q166" s="3"/>
       <c r="R166" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
@@ -10045,7 +10039,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10077,18 +10071,18 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10136,13 +10130,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10190,22 +10184,22 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="D170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10239,27 +10233,27 @@
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10293,18 +10287,18 @@
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10347,14 +10341,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10369,7 +10363,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1049,7 +1049,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 22-12-2020, 14:19</t>
+    <t>Last update: 12-01-2021, 12:01</t>
   </si>
 </sst>
 </file>
@@ -1592,8 +1592,8 @@
   <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1049,7 +1049,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 12-01-2021, 12:01</t>
+    <t>Last update: 26-01-2021, 12:46</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -8083,25 +8083,25 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <v>120451</v>
+        <v>10166</v>
       </c>
       <c r="I130" s="6">
-        <v>-63307</v>
+        <v>-27471</v>
       </c>
       <c r="J130" s="6">
-        <v>63845</v>
+        <v>11803</v>
       </c>
       <c r="K130" s="6">
-        <v>295265</v>
+        <v>35266</v>
       </c>
       <c r="L130" s="6">
-        <v>250661</v>
+        <v>24986</v>
       </c>
       <c r="M130" s="6">
-        <v>433179</v>
+        <v>49727</v>
       </c>
       <c r="N130" s="6">
-        <v>1127454</v>
+        <v>46034</v>
       </c>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
@@ -10363,7 +10363,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="342">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -573,7 +573,7 @@
     <t>7.3.a Relation of energy acquisition in general to the global energy consumption</t>
   </si>
   <si>
-    <t>Ministry of Energy / Statistics Poland</t>
+    <t>Ministry of Climate and Environment / Statistics Poland</t>
   </si>
   <si>
     <t>7.3.b SAIDI (System Average Interruption Duration Index)</t>
@@ -725,7 +725,7 @@
     <t>9.2.b Business enterprise expenditure on R&amp;D in relation to GDP</t>
   </si>
   <si>
-    <t>9.2.c Share of net revenues from sales of new or significantly improved products in total turnover in industrial enterprises</t>
+    <t>9.2.c Share of net revenues from sales of new or improved products in total turnover in industrial enterprises</t>
   </si>
   <si>
     <t>9.2.d Share of export of high technology products in total export</t>
@@ -761,12 +761,16 @@
     <t>Goal 10. Reduce inequalities</t>
   </si>
   <si>
+    <t>Overcoming of regional socio-economic disparities, prevention of new
+  development disproportions</t>
+  </si>
+  <si>
+    <t>10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
+  </si>
+  <si>
     <t>Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
   </si>
   <si>
-    <t>10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
-  </si>
-  <si>
     <t>10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
   </si>
   <si>
@@ -1049,7 +1053,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 26-01-2021, 12:46</t>
+    <t>Last update: 02-02-2021, 09:09</t>
   </si>
 </sst>
 </file>
@@ -1856,33 +1860,35 @@
         <v>30</v>
       </c>
       <c r="G7" s="5">
-        <v>107.05</v>
+        <v>107.56</v>
       </c>
       <c r="H7" s="5">
-        <v>107.44</v>
+        <v>107.93</v>
       </c>
       <c r="I7" s="5">
-        <v>108.58</v>
+        <v>108.78</v>
       </c>
       <c r="J7" s="5">
-        <v>110.19</v>
+        <v>110.25</v>
       </c>
       <c r="K7" s="5">
-        <v>113.39</v>
+        <v>113.67</v>
       </c>
       <c r="L7" s="5">
-        <v>117.66</v>
+        <v>118.48</v>
       </c>
       <c r="M7" s="5">
-        <v>124.68</v>
+        <v>125.18</v>
       </c>
       <c r="N7" s="5">
-        <v>128.55000000000001</v>
+        <v>129.18</v>
       </c>
       <c r="O7" s="5">
-        <v>132.25</v>
-      </c>
-      <c r="P7" s="3"/>
+        <v>133.29</v>
+      </c>
+      <c r="P7" s="5">
+        <v>141.4</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
         <v>25</v>
@@ -1978,7 +1984,9 @@
       <c r="O9" s="4">
         <v>116.1</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="4">
+        <v>115.4</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
         <v>25</v>
@@ -2188,7 +2196,9 @@
       <c r="O13" s="5">
         <v>0.05</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="5">
+        <v>0.06</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
         <v>25</v>
@@ -2615,7 +2625,9 @@
       <c r="P21" s="6">
         <v>85876</v>
       </c>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="6">
+        <v>85876</v>
+      </c>
       <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
@@ -2669,7 +2681,9 @@
       <c r="P22" s="6">
         <v>4453</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="6">
+        <v>4350</v>
+      </c>
       <c r="R22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2737,9 @@
       <c r="P23" s="6">
         <v>1497</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="6">
+        <v>1578</v>
+      </c>
       <c r="R23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2777,7 +2793,9 @@
       <c r="P24" s="6">
         <v>8198</v>
       </c>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="6">
+        <v>8160</v>
+      </c>
       <c r="R24" s="2" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +2849,9 @@
       <c r="P25" s="6">
         <v>144</v>
       </c>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="6">
+        <v>156</v>
+      </c>
       <c r="R25" s="2" t="s">
         <v>65</v>
       </c>
@@ -2885,7 +2905,9 @@
       <c r="P26" s="6">
         <v>37589</v>
       </c>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="6">
+        <v>40100</v>
+      </c>
       <c r="R26" s="2" t="s">
         <v>65</v>
       </c>
@@ -3440,7 +3462,9 @@
       <c r="O37" s="4">
         <v>23.3</v>
       </c>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4">
+        <v>23.7</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="2" t="s">
         <v>25</v>
@@ -3492,7 +3516,9 @@
       <c r="O38" s="4">
         <v>56.2</v>
       </c>
-      <c r="P38" s="3"/>
+      <c r="P38" s="4">
+        <v>56.3</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2" t="s">
         <v>25</v>
@@ -4392,7 +4418,9 @@
       <c r="O58" s="4">
         <v>87.3</v>
       </c>
-      <c r="P58" s="3"/>
+      <c r="P58" s="4">
+        <v>88.5</v>
+      </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
         <v>131</v>
@@ -4444,7 +4472,9 @@
       <c r="O59" s="4">
         <v>101.9</v>
       </c>
-      <c r="P59" s="3"/>
+      <c r="P59" s="4">
+        <v>102.7</v>
+      </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
         <v>131</v>
@@ -4496,7 +4526,9 @@
       <c r="O60" s="4">
         <v>67</v>
       </c>
-      <c r="P60" s="3"/>
+      <c r="P60" s="4">
+        <v>68.5</v>
+      </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
         <v>131</v>
@@ -5065,7 +5097,9 @@
       <c r="P71" s="6">
         <v>21</v>
       </c>
-      <c r="Q71" s="3"/>
+      <c r="Q71" s="6">
+        <v>26</v>
+      </c>
       <c r="R71" s="2" t="s">
         <v>25</v>
       </c>
@@ -5108,7 +5142,7 @@
         <v>7.4</v>
       </c>
       <c r="M72" s="4">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="N72" s="4">
         <v>7.2</v>
@@ -5116,10 +5150,12 @@
       <c r="O72" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P72" s="3"/>
+      <c r="P72" s="4">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -5876,39 +5912,41 @@
         <v>24</v>
       </c>
       <c r="G88" s="5">
-        <v>9.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H88" s="5">
-        <v>10.29</v>
+        <v>10.35</v>
       </c>
       <c r="I88" s="5">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="J88" s="5">
-        <v>11.37</v>
+        <v>11.46</v>
       </c>
       <c r="K88" s="5">
-        <v>11.5</v>
+        <v>11.61</v>
       </c>
       <c r="L88" s="5">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="M88" s="5">
-        <v>11.27</v>
+        <v>11.4</v>
       </c>
       <c r="N88" s="5">
-        <v>10.96</v>
+        <v>11.12</v>
       </c>
       <c r="O88" s="5">
-        <v>11.28</v>
-      </c>
-      <c r="P88" s="3"/>
+        <v>11.48</v>
+      </c>
+      <c r="P88" s="5">
+        <v>12.16</v>
+      </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>174</v>
       </c>
@@ -5954,7 +5992,9 @@
       <c r="O89" s="6">
         <v>58</v>
       </c>
-      <c r="P89" s="3"/>
+      <c r="P89" s="6">
+        <v>57</v>
+      </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
         <v>182</v>
@@ -6321,7 +6361,9 @@
       <c r="P96" s="6">
         <v>40</v>
       </c>
-      <c r="Q96" s="3"/>
+      <c r="Q96" s="6">
+        <v>40</v>
+      </c>
       <c r="R96" s="2" t="s">
         <v>200</v>
       </c>
@@ -6912,7 +6954,9 @@
       <c r="O107" s="4">
         <v>73.900000000000006</v>
       </c>
-      <c r="P107" s="3"/>
+      <c r="P107" s="4">
+        <v>74.2</v>
+      </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2" t="s">
         <v>25</v>
@@ -7583,7 +7627,7 @@
         <v>0.88</v>
       </c>
       <c r="J120" s="5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K120" s="5">
         <v>0.94</v>
@@ -7600,7 +7644,9 @@
       <c r="O120" s="5">
         <v>1.21</v>
       </c>
-      <c r="P120" s="3"/>
+      <c r="P120" s="5">
+        <v>1.32</v>
+      </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2" t="s">
         <v>25</v>
@@ -7652,7 +7698,9 @@
       <c r="O121" s="5">
         <v>0.8</v>
       </c>
-      <c r="P121" s="3"/>
+      <c r="P121" s="5">
+        <v>0.83</v>
+      </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2" t="s">
         <v>25</v>
@@ -7704,7 +7752,9 @@
       <c r="O122" s="4">
         <v>9.1</v>
       </c>
-      <c r="P122" s="3"/>
+      <c r="P122" s="4">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2" t="s">
         <v>25</v>
@@ -7968,7 +8018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>243</v>
       </c>
@@ -7987,24 +8037,36 @@
       <c r="F128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="G128" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="H128" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="I128" s="4">
+        <v>16</v>
+      </c>
+      <c r="J128" s="4">
+        <v>15.7</v>
+      </c>
       <c r="K128" s="4">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="L128" s="4">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="M128" s="4">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N128" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
+        <v>14.7</v>
+      </c>
+      <c r="O128" s="4">
+        <v>15</v>
+      </c>
+      <c r="P128" s="4">
+        <v>15</v>
+      </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2" t="s">
         <v>25</v>
@@ -8015,10 +8077,10 @@
         <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8054,9 +8116,11 @@
         <v>68.900000000000006</v>
       </c>
       <c r="O129" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="P129" s="3"/>
+        <v>71.7</v>
+      </c>
+      <c r="P129" s="4">
+        <v>77.099999999999994</v>
+      </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2" t="s">
         <v>25</v>
@@ -8067,10 +8131,10 @@
         <v>243</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8115,10 +8179,10 @@
         <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -8127,7 +8191,7 @@
         <v>23</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8156,7 +8220,9 @@
       <c r="O131" s="4">
         <v>27.8</v>
       </c>
-      <c r="P131" s="3"/>
+      <c r="P131" s="4">
+        <v>28.5</v>
+      </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2" t="s">
         <v>25</v>
@@ -8164,13 +8230,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8208,7 +8274,9 @@
       <c r="O132" s="4">
         <v>13.8</v>
       </c>
-      <c r="P132" s="3"/>
+      <c r="P132" s="4">
+        <v>12.6</v>
+      </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2" t="s">
         <v>25</v>
@@ -8216,13 +8284,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8270,13 +8338,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8314,7 +8382,9 @@
       <c r="O134" s="4">
         <v>10.5</v>
       </c>
-      <c r="P134" s="3"/>
+      <c r="P134" s="4">
+        <v>10.4</v>
+      </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2" t="s">
         <v>25</v>
@@ -8322,13 +8392,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8376,13 +8446,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8425,24 +8495,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8484,19 +8554,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8538,19 +8608,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8592,19 +8662,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8646,13 +8716,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8700,13 +8770,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8715,7 +8785,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8754,13 +8824,13 @@
     </row>
     <row r="143" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>29</v>
@@ -8769,7 +8839,7 @@
         <v>23</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8796,9 +8866,11 @@
         <v>0.64</v>
       </c>
       <c r="O143" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="P143" s="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.71</v>
+      </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2" t="s">
         <v>83</v>
@@ -8806,13 +8878,13 @@
     </row>
     <row r="144" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>29</v>
@@ -8821,7 +8893,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8845,12 +8917,14 @@
         <v>17.7</v>
       </c>
       <c r="N144" s="5">
-        <v>18.760000000000002</v>
+        <v>18.71</v>
       </c>
       <c r="O144" s="5">
-        <v>20.37</v>
-      </c>
-      <c r="P144" s="3"/>
+        <v>19.34</v>
+      </c>
+      <c r="P144" s="5">
+        <v>18.489999999999998</v>
+      </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2" t="s">
         <v>83</v>
@@ -8858,13 +8932,13 @@
     </row>
     <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8897,10 +8971,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="N145" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="O145" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P145" s="4">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2" t="s">
         <v>83</v>
@@ -8908,13 +8986,13 @@
     </row>
     <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -8962,13 +9040,13 @@
     </row>
     <row r="147" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>29</v>
@@ -8977,7 +9055,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9009,18 +9087,18 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9029,7 +9107,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9061,18 +9139,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9084,33 +9162,35 @@
         <v>24</v>
       </c>
       <c r="G149" s="5">
-        <v>9.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H149" s="5">
-        <v>10.29</v>
+        <v>10.35</v>
       </c>
       <c r="I149" s="5">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="J149" s="5">
-        <v>11.37</v>
+        <v>11.46</v>
       </c>
       <c r="K149" s="5">
-        <v>11.5</v>
+        <v>11.61</v>
       </c>
       <c r="L149" s="5">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="M149" s="5">
-        <v>11.27</v>
+        <v>11.4</v>
       </c>
       <c r="N149" s="5">
-        <v>10.96</v>
+        <v>11.12</v>
       </c>
       <c r="O149" s="5">
-        <v>11.28</v>
-      </c>
-      <c r="P149" s="3"/>
+        <v>11.48</v>
+      </c>
+      <c r="P149" s="5">
+        <v>12.16</v>
+      </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2" t="s">
         <v>25</v>
@@ -9118,13 +9198,13 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
@@ -9133,7 +9213,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9162,7 +9242,9 @@
       <c r="O150" s="6">
         <v>991</v>
       </c>
-      <c r="P150" s="3"/>
+      <c r="P150" s="6">
+        <v>1050</v>
+      </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2" t="s">
         <v>25</v>
@@ -9170,19 +9252,19 @@
     </row>
     <row r="151" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9219,24 +9301,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9273,24 +9355,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9327,24 +9409,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9381,18 +9463,18 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
@@ -9401,7 +9483,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9430,7 +9512,9 @@
       <c r="O155" s="4">
         <v>130</v>
       </c>
-      <c r="P155" s="3"/>
+      <c r="P155" s="4">
+        <v>189.5</v>
+      </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2" t="s">
         <v>25</v>
@@ -9438,13 +9522,13 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>29</v>
@@ -9453,7 +9537,7 @@
         <v>23</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9492,13 +9576,13 @@
     </row>
     <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>29</v>
@@ -9507,7 +9591,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9541,18 +9625,18 @@
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9595,18 +9679,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9654,13 +9738,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9708,13 +9792,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9762,13 +9846,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9816,13 +9900,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9867,18 +9951,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -9913,18 +9997,18 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -9933,7 +10017,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -9962,7 +10046,9 @@
       <c r="O165" s="5">
         <v>0.88</v>
       </c>
-      <c r="P165" s="3"/>
+      <c r="P165" s="5">
+        <v>1.01</v>
+      </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
         <v>200</v>
@@ -9970,13 +10056,13 @@
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>29</v>
@@ -9985,7 +10071,7 @@
         <v>23</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10024,13 +10110,13 @@
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
@@ -10039,7 +10125,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10068,7 +10154,9 @@
       <c r="O167" s="5">
         <v>0.66</v>
       </c>
-      <c r="P167" s="3"/>
+      <c r="P167" s="5">
+        <v>0.6</v>
+      </c>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
         <v>200</v>
@@ -10076,13 +10164,13 @@
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10123,20 +10211,22 @@
       <c r="P168" s="6">
         <v>31</v>
       </c>
-      <c r="Q168" s="3"/>
+      <c r="Q168" s="6">
+        <v>34</v>
+      </c>
       <c r="R168" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10184,13 +10274,13 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>29</v>
@@ -10199,7 +10289,7 @@
         <v>23</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10229,22 +10319,22 @@
         <v>766.04</v>
       </c>
       <c r="P170" s="5">
-        <v>765.54</v>
+        <v>776.56</v>
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10253,7 +10343,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10283,22 +10373,22 @@
         <v>244.93</v>
       </c>
       <c r="P171" s="5">
-        <v>221.73</v>
+        <v>223.31</v>
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10341,14 +10431,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B175" s="8"/>
     </row>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1053,7 +1053,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 02-02-2021, 09:09</t>
+    <t>Last update: 09-02-2021, 08:30</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1936,9 @@
       <c r="O8" s="4">
         <v>2.7</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="4">
+        <v>2.7</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
         <v>25</v>
@@ -10453,7 +10455,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="343">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -133,13 +133,14 @@
     <t>persons</t>
   </si>
   <si>
-    <t>Improvement of access to public services (e.g. support for families with children, child and elderly care) and health services</t>
+    <t>Improvement of access to public services (e.g. support for families with
+  children, child and elderly care) and health services</t>
   </si>
   <si>
     <t>1.3.a Percentage of children aged 1-3 covered by different kinds of institutional care</t>
   </si>
   <si>
-    <t>The Ministry of Family, Labour and Social Policy</t>
+    <t>The Ministry of Family and Social Policy</t>
   </si>
   <si>
     <t>Improvement of housing situation</t>
@@ -353,7 +354,7 @@
     <t>3.6.a Percentage of medical entities with IT solutions that enable keeping medical records in electronic form</t>
   </si>
   <si>
-    <t>Center of Information Systems for Health Care</t>
+    <t>Center of e-Health (CeZ)</t>
   </si>
   <si>
     <t>Comprehensive improvement of air quality  reaching the state of no risk to health and environment in accordance with EU legislation and, in a longer-term perspective, WHO guidelines</t>
@@ -383,36 +384,37 @@
     <t>4.2.a Percentage of foreign students studying in Polish higher education institutions in Poland</t>
   </si>
   <si>
+    <t>Creation of conditions for education development all over the country and
+  equalization of educational opportunities</t>
+  </si>
+  <si>
+    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>The Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
+  </si>
+  <si>
+    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
+  </si>
+  <si>
+    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
+  </si>
+  <si>
+    <t>Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
+  </si>
+  <si>
     <t>Creation of conditions for education development all over the country and equalization of educational opportunities</t>
   </si>
   <si>
-    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>The Organisation for Economic Co-operation and Development / the Ministry of Education</t>
-  </si>
-  <si>
-    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>The Organisation for Economic Co-operation and Development / Ministry of Education</t>
-  </si>
-  <si>
-    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
-  </si>
-  <si>
-    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
-  </si>
-  <si>
-    <t>Organisation for Economic Co-operation and Development / Ministry of Education</t>
-  </si>
-  <si>
     <t>4.3.g Percentage of children aged 3-5 covered by pre-primary education</t>
   </si>
   <si>
@@ -513,6 +515,9 @@
   </si>
   <si>
     <t>5.2.a Percentage of children aged 1-3 covered by different kinds of institutional care</t>
+  </si>
+  <si>
+    <t>the Ministry of Family and Social Policy</t>
   </si>
   <si>
     <t>Ensurance of conditions for women's return to labour market after a break from employment due to childbirth and childcare</t>
@@ -582,7 +587,7 @@
     <t xml:space="preserve">minutes </t>
   </si>
   <si>
-    <t>Ministry of Energy</t>
+    <t>the Ministry of Climate and Environment</t>
   </si>
   <si>
     <t>Fulfillment of enterprises and households' energy needs</t>
@@ -1053,7 +1058,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 09-02-2021, 08:30</t>
+    <t>Last update: 16-02-2021, 11:23</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1602,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +4127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
@@ -4164,7 +4169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>114</v>
       </c>
@@ -4206,7 +4211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>114</v>
       </c>
@@ -4248,7 +4253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>114</v>
       </c>
@@ -4287,10 +4292,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>114</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>119</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>29</v>
@@ -4332,7 +4337,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>114</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>29</v>
@@ -4371,7 +4376,7 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4379,7 +4384,7 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>129</v>
@@ -4433,7 +4438,7 @@
         <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>129</v>
@@ -4487,7 +4492,7 @@
         <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>129</v>
@@ -5571,7 +5576,7 @@
       </c>
       <c r="Q81" s="3"/>
       <c r="R81" s="2" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -5579,10 +5584,10 @@
         <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -5630,13 +5635,13 @@
     </row>
     <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -5645,7 +5650,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5677,18 +5682,18 @@
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -5736,13 +5741,13 @@
     </row>
     <row r="85" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5790,13 +5795,13 @@
     </row>
     <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5844,13 +5849,13 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -5859,7 +5864,7 @@
         <v>23</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5896,13 +5901,13 @@
     </row>
     <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5950,13 +5955,13 @@
     </row>
     <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -5999,18 +6004,18 @@
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -6019,7 +6024,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6051,18 +6056,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6108,13 +6113,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6162,13 +6167,13 @@
     </row>
     <row r="93" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6214,13 +6219,13 @@
     </row>
     <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -6266,13 +6271,13 @@
     </row>
     <row r="95" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>29</v>
@@ -6281,7 +6286,7 @@
         <v>23</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6315,18 +6320,18 @@
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
@@ -6335,7 +6340,7 @@
         <v>23</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6367,18 +6372,18 @@
         <v>40</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>74</v>
@@ -6426,13 +6431,13 @@
     </row>
     <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>74</v>
@@ -6480,13 +6485,13 @@
     </row>
     <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>74</v>
@@ -6534,19 +6539,19 @@
     </row>
     <row r="100" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>24</v>
@@ -6588,19 +6593,19 @@
     </row>
     <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -6642,19 +6647,19 @@
     </row>
     <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>24</v>
@@ -6696,19 +6701,19 @@
     </row>
     <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>24</v>
@@ -6750,19 +6755,19 @@
     </row>
     <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>24</v>
@@ -6804,13 +6809,13 @@
     </row>
     <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>22</v>
@@ -6858,19 +6863,19 @@
     </row>
     <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>24</v>
@@ -6912,13 +6917,13 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -6966,13 +6971,13 @@
     </row>
     <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>29</v>
@@ -7020,13 +7025,13 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>29</v>
@@ -7064,16 +7069,16 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>23</v>
@@ -7118,16 +7123,16 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>77</v>
@@ -7172,19 +7177,19 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>24</v>
@@ -7226,19 +7231,19 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>24</v>
@@ -7280,19 +7285,19 @@
     </row>
     <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>24</v>
@@ -7334,13 +7339,13 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>29</v>
@@ -7388,13 +7393,13 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>29</v>
@@ -7442,13 +7447,13 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>29</v>
@@ -7496,13 +7501,13 @@
     </row>
     <row r="118" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
@@ -7548,13 +7553,13 @@
     </row>
     <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>29</v>
@@ -7563,7 +7568,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7597,18 +7602,18 @@
         <v>38</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>29</v>
@@ -7656,13 +7661,13 @@
     </row>
     <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>29</v>
@@ -7710,13 +7715,13 @@
     </row>
     <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -7764,13 +7769,13 @@
     </row>
     <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -7816,13 +7821,13 @@
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>29</v>
@@ -7865,18 +7870,18 @@
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>29</v>
@@ -7922,13 +7927,13 @@
     </row>
     <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>29</v>
@@ -7963,18 +7968,18 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>29</v>
@@ -8022,13 +8027,13 @@
     </row>
     <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>29</v>
@@ -8076,13 +8081,13 @@
     </row>
     <row r="129" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8130,13 +8135,13 @@
     </row>
     <row r="130" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8178,13 +8183,13 @@
     </row>
     <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -8193,7 +8198,7 @@
         <v>23</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8232,13 +8237,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8286,13 +8291,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8340,13 +8345,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8394,13 +8399,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8448,13 +8453,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8497,24 +8502,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8556,19 +8561,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8610,19 +8615,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8664,19 +8669,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8718,13 +8723,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8772,13 +8777,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8787,7 +8792,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8826,13 +8831,13 @@
     </row>
     <row r="143" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>29</v>
@@ -8841,7 +8846,7 @@
         <v>23</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8880,13 +8885,13 @@
     </row>
     <row r="144" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>29</v>
@@ -8895,7 +8900,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8934,13 +8939,13 @@
     </row>
     <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8988,13 +8993,13 @@
     </row>
     <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -9042,13 +9047,13 @@
     </row>
     <row r="147" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>29</v>
@@ -9057,7 +9062,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9089,18 +9094,18 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9109,7 +9114,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9141,18 +9146,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9200,13 +9205,13 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
@@ -9215,7 +9220,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9254,19 +9259,19 @@
     </row>
     <row r="151" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9303,24 +9308,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9357,24 +9362,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9411,24 +9416,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9465,18 +9470,18 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
@@ -9485,7 +9490,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9524,13 +9529,13 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>29</v>
@@ -9539,7 +9544,7 @@
         <v>23</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9578,13 +9583,13 @@
     </row>
     <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>29</v>
@@ -9593,7 +9598,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9627,18 +9632,18 @@
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9681,18 +9686,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9740,13 +9745,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9794,13 +9799,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9848,13 +9853,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9902,13 +9907,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9953,18 +9958,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -9999,18 +10004,18 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -10019,7 +10024,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10053,18 +10058,18 @@
       </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>29</v>
@@ -10073,7 +10078,7 @@
         <v>23</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10107,18 +10112,18 @@
       </c>
       <c r="Q166" s="3"/>
       <c r="R166" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
@@ -10127,7 +10132,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10161,18 +10166,18 @@
       </c>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10222,13 +10227,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10276,13 +10281,13 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>29</v>
@@ -10291,7 +10296,7 @@
         <v>23</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10325,18 +10330,18 @@
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10345,7 +10350,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10379,18 +10384,18 @@
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10433,14 +10438,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10455,7 +10460,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1058,7 +1058,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 16-02-2021, 11:23</t>
+    <t>Last update: 16-03-2021, 19:57</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2046,9 @@
       <c r="P10" s="4">
         <v>22.6</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="4">
+        <v>25.9</v>
+      </c>
       <c r="R10" s="2" t="s">
         <v>38</v>
       </c>
@@ -5574,7 +5576,9 @@
       <c r="P81" s="4">
         <v>22.6</v>
       </c>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="4">
+        <v>25.9</v>
+      </c>
       <c r="R81" s="2" t="s">
         <v>163</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1058,7 +1058,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 16-03-2021, 19:57</t>
+    <t>Last update: 30-03-2021, 09:23</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1602,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10464,7 +10464,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1058,7 +1058,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 30-03-2021, 09:23</t>
+    <t>Last update: 20-04-2021, 08:15</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="340">
   <si>
     <t xml:space="preserve">sdg.gov.pl/en</t>
   </si>
@@ -755,12 +755,16 @@
     <t xml:space="preserve">Goal 10. Reduce inequalities</t>
   </si>
   <si>
+    <t xml:space="preserve">Overcoming of regional socio-economic disparities, prevention of new
+  development disproportions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
   </si>
   <si>
@@ -1043,7 +1047,7 @@
     <t xml:space="preserve">17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 27-04-2021, 10:09</t>
+    <t xml:space="preserve">Last update: 29-04-2021, 07:01</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1362,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B174" activeCellId="0" sqref="B174"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2108,9 +2112,15 @@
       <c r="N16" s="6" t="n">
         <v>12.1</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>16.5</v>
+      </c>
       <c r="R16" s="4" t="s">
         <v>51</v>
       </c>
@@ -5717,8 +5727,12 @@
       <c r="O90" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
+      <c r="P90" s="6" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="Q90" s="6" t="n">
+        <v>118.7</v>
+      </c>
       <c r="R90" s="4" t="s">
         <v>184</v>
       </c>
@@ -7710,10 +7724,10 @@
         <v>241</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5" t="s">
@@ -7762,10 +7776,10 @@
         <v>241</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="5" t="s">
@@ -7808,17 +7822,17 @@
         <v>241</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G131" s="6" t="n">
         <v>31.1</v>
@@ -7857,13 +7871,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
@@ -7909,13 +7923,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
@@ -7961,13 +7975,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="5" t="s">
@@ -8013,13 +8027,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="5" t="s">
@@ -8065,13 +8079,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
@@ -8112,24 +8126,24 @@
       </c>
       <c r="Q136" s="5"/>
       <c r="R136" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>24</v>
@@ -8171,19 +8185,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>24</v>
@@ -8225,19 +8239,19 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>24</v>
@@ -8279,19 +8293,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>24</v>
@@ -8333,13 +8347,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
@@ -8385,20 +8399,20 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G142" s="6" t="n">
         <v>20.8</v>
@@ -8437,20 +8451,20 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G143" s="7" t="n">
         <v>0.56</v>
@@ -8489,20 +8503,20 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G144" s="7" t="n">
         <v>16.95</v>
@@ -8541,13 +8555,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
@@ -8593,13 +8607,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
@@ -8645,20 +8659,20 @@
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G147" s="6" t="n">
         <v>100</v>
@@ -8692,25 +8706,25 @@
       </c>
       <c r="Q147" s="5"/>
       <c r="R147" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G148" s="6" t="n">
         <v>100</v>
@@ -8744,18 +8758,18 @@
       </c>
       <c r="Q148" s="5"/>
       <c r="R148" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
@@ -8801,20 +8815,20 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G150" s="8" t="n">
         <v>563</v>
@@ -8853,19 +8867,19 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>24</v>
@@ -8902,24 +8916,24 @@
       </c>
       <c r="Q151" s="5"/>
       <c r="R151" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>24</v>
@@ -8956,24 +8970,24 @@
       </c>
       <c r="Q152" s="5"/>
       <c r="R152" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>24</v>
@@ -9010,24 +9024,24 @@
       </c>
       <c r="Q153" s="5"/>
       <c r="R153" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>24</v>
@@ -9064,25 +9078,25 @@
       </c>
       <c r="Q154" s="5"/>
       <c r="R154" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G155" s="6" t="n">
         <v>100</v>
@@ -9121,20 +9135,20 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G156" s="6" t="n">
         <v>59.5</v>
@@ -9173,20 +9187,20 @@
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G157" s="6" t="n">
         <v>88.4</v>
@@ -9220,18 +9234,18 @@
       </c>
       <c r="Q157" s="5"/>
       <c r="R157" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
@@ -9272,18 +9286,18 @@
       </c>
       <c r="Q158" s="5"/>
       <c r="R158" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
@@ -9329,13 +9343,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
@@ -9381,13 +9395,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
@@ -9433,13 +9447,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
@@ -9485,13 +9499,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
@@ -9534,18 +9548,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
@@ -9578,25 +9592,25 @@
         <v>74</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G165" s="7" t="n">
         <v>0.98</v>
@@ -9635,20 +9649,20 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G166" s="8" t="n">
         <v>830</v>
@@ -9687,20 +9701,20 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G167" s="7" t="n">
         <v>0.64</v>
@@ -9739,13 +9753,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="5" t="s">
@@ -9793,13 +9807,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="5" t="s">
@@ -9845,20 +9859,20 @@
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G170" s="7" t="n">
         <v>377.75</v>
@@ -9894,25 +9908,25 @@
         <v>802.9</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G171" s="7" t="n">
         <v>96.04</v>
@@ -9948,18 +9962,18 @@
         <v>206.01</v>
       </c>
       <c r="R171" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="5" t="s">
@@ -10000,14 +10014,14 @@
       </c>
       <c r="Q172" s="5"/>
       <c r="R172" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="0.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="175" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B175" s="10"/>
     </row>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="339">
   <si>
     <t xml:space="preserve">sdg.gov.pl/en</t>
   </si>
@@ -755,16 +755,12 @@
     <t xml:space="preserve">Goal 10. Reduce inequalities</t>
   </si>
   <si>
-    <t xml:space="preserve">Overcoming of regional socio-economic disparities, prevention of new
-  development disproportions</t>
+    <t xml:space="preserve">Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
   </si>
   <si>
     <t xml:space="preserve">10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
   </si>
   <si>
@@ -1047,7 +1043,7 @@
     <t xml:space="preserve">17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 29-04-2021, 07:01</t>
+    <t xml:space="preserve">Last update: 11-05-2021, 07:18</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1617840</xdr:colOff>
+      <xdr:colOff>1620000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
@@ -1337,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="2547000" cy="457920"/>
+          <a:ext cx="2549160" cy="457920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,7 +2009,9 @@
       <c r="O14" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="8" t="n">
+        <v>43</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4" t="s">
         <v>25</v>
@@ -2903,7 +2901,9 @@
       <c r="O31" s="6" t="n">
         <v>60.5</v>
       </c>
-      <c r="P31" s="5"/>
+      <c r="P31" s="6" t="n">
+        <v>60.9</v>
+      </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="4" t="s">
         <v>82</v>
@@ -2953,7 +2953,9 @@
       <c r="O32" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="P32" s="6" t="n">
+        <v>64.1</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="4" t="s">
         <v>82</v>
@@ -6094,7 +6096,9 @@
       <c r="P97" s="6" t="n">
         <v>54.4</v>
       </c>
-      <c r="Q97" s="5"/>
+      <c r="Q97" s="6" t="n">
+        <v>54.3</v>
+      </c>
       <c r="R97" s="4" t="s">
         <v>25</v>
       </c>
@@ -6148,7 +6152,9 @@
       <c r="P98" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="Q98" s="5"/>
+      <c r="Q98" s="6" t="n">
+        <v>63.1</v>
+      </c>
       <c r="R98" s="4" t="s">
         <v>25</v>
       </c>
@@ -6202,7 +6208,9 @@
       <c r="P99" s="6" t="n">
         <v>46.4</v>
       </c>
-      <c r="Q99" s="5"/>
+      <c r="Q99" s="6" t="n">
+        <v>46.3</v>
+      </c>
       <c r="R99" s="4" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +6264,9 @@
       <c r="P100" s="6" t="n">
         <v>31.7</v>
       </c>
-      <c r="Q100" s="5"/>
+      <c r="Q100" s="6" t="n">
+        <v>28.4</v>
+      </c>
       <c r="R100" s="4" t="s">
         <v>25</v>
       </c>
@@ -6310,7 +6320,9 @@
       <c r="P101" s="6" t="n">
         <v>68.2</v>
       </c>
-      <c r="Q101" s="5"/>
+      <c r="Q101" s="6" t="n">
+        <v>68.7</v>
+      </c>
       <c r="R101" s="4" t="s">
         <v>25</v>
       </c>
@@ -6418,7 +6430,9 @@
       <c r="P103" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="Q103" s="5"/>
+      <c r="Q103" s="6" t="n">
+        <v>73.6</v>
+      </c>
       <c r="R103" s="4" t="s">
         <v>25</v>
       </c>
@@ -6472,7 +6486,9 @@
       <c r="P104" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="Q104" s="5"/>
+      <c r="Q104" s="6" t="n">
+        <v>33</v>
+      </c>
       <c r="R104" s="4" t="s">
         <v>25</v>
       </c>
@@ -6526,7 +6542,9 @@
       <c r="P105" s="6" t="n">
         <v>49.5</v>
       </c>
-      <c r="Q105" s="5"/>
+      <c r="Q105" s="6" t="n">
+        <v>51.8</v>
+      </c>
       <c r="R105" s="4" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +6798,9 @@
       <c r="P110" s="6" t="n">
         <v>56.2</v>
       </c>
-      <c r="Q110" s="5"/>
+      <c r="Q110" s="6" t="n">
+        <v>56.1</v>
+      </c>
       <c r="R110" s="4" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6854,9 @@
       <c r="P111" s="6" t="n">
         <v>48.2</v>
       </c>
-      <c r="Q111" s="5"/>
+      <c r="Q111" s="6" t="n">
+        <v>47.9</v>
+      </c>
       <c r="R111" s="4" t="s">
         <v>25</v>
       </c>
@@ -6888,7 +6910,9 @@
       <c r="P112" s="6" t="n">
         <v>35.2</v>
       </c>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="6" t="n">
+        <v>31.8</v>
+      </c>
       <c r="R112" s="4" t="s">
         <v>25</v>
       </c>
@@ -6942,7 +6966,9 @@
       <c r="P113" s="6" t="n">
         <v>33.4</v>
       </c>
-      <c r="Q113" s="5"/>
+      <c r="Q113" s="6" t="n">
+        <v>33.7</v>
+      </c>
       <c r="R113" s="4" t="s">
         <v>25</v>
       </c>
@@ -6996,7 +7022,9 @@
       <c r="P114" s="6" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q114" s="5"/>
+      <c r="Q114" s="6" t="n">
+        <v>17.5</v>
+      </c>
       <c r="R114" s="4" t="s">
         <v>25</v>
       </c>
@@ -7724,10 +7752,10 @@
         <v>241</v>
       </c>
       <c r="B129" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="5" t="s">
@@ -7776,10 +7804,10 @@
         <v>241</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="5" t="s">
@@ -7822,17 +7850,17 @@
         <v>241</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G131" s="6" t="n">
         <v>31.1</v>
@@ -7871,13 +7899,13 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="5" t="s">
@@ -7923,13 +7951,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C133" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="5" t="s">
@@ -7975,13 +8003,13 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C134" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="5" t="s">
@@ -8027,13 +8055,13 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C135" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="5" t="s">
@@ -8079,13 +8107,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C136" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="5" t="s">
@@ -8126,24 +8154,24 @@
       </c>
       <c r="Q136" s="5"/>
       <c r="R136" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C137" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>24</v>
@@ -8185,19 +8213,19 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C138" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E138" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>24</v>
@@ -8239,19 +8267,19 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C139" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E139" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>24</v>
@@ -8293,19 +8321,19 @@
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C140" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E140" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>24</v>
@@ -8347,13 +8375,13 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="5" t="s">
@@ -8399,20 +8427,20 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G142" s="6" t="n">
         <v>20.8</v>
@@ -8451,20 +8479,20 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G143" s="7" t="n">
         <v>0.56</v>
@@ -8503,20 +8531,20 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="C144" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G144" s="7" t="n">
         <v>16.95</v>
@@ -8555,13 +8583,13 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B145" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="C145" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="5" t="s">
@@ -8607,13 +8635,13 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="5" t="s">
@@ -8659,20 +8687,20 @@
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G147" s="6" t="n">
         <v>100</v>
@@ -8706,25 +8734,25 @@
       </c>
       <c r="Q147" s="5"/>
       <c r="R147" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="C148" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G148" s="6" t="n">
         <v>100</v>
@@ -8758,18 +8786,18 @@
       </c>
       <c r="Q148" s="5"/>
       <c r="R148" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="5" t="s">
@@ -8815,20 +8843,20 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G150" s="8" t="n">
         <v>563</v>
@@ -8867,19 +8895,19 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="E151" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>24</v>
@@ -8916,24 +8944,24 @@
       </c>
       <c r="Q151" s="5"/>
       <c r="R151" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E152" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>24</v>
@@ -8970,24 +8998,24 @@
       </c>
       <c r="Q152" s="5"/>
       <c r="R152" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E153" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>24</v>
@@ -9024,24 +9052,24 @@
       </c>
       <c r="Q153" s="5"/>
       <c r="R153" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="D154" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>293</v>
-      </c>
       <c r="E154" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>24</v>
@@ -9078,25 +9106,25 @@
       </c>
       <c r="Q154" s="5"/>
       <c r="R154" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B155" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G155" s="6" t="n">
         <v>100</v>
@@ -9135,20 +9163,20 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G156" s="6" t="n">
         <v>59.5</v>
@@ -9187,20 +9215,20 @@
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G157" s="6" t="n">
         <v>88.4</v>
@@ -9234,18 +9262,18 @@
       </c>
       <c r="Q157" s="5"/>
       <c r="R157" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="C158" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="5" t="s">
@@ -9286,18 +9314,18 @@
       </c>
       <c r="Q158" s="5"/>
       <c r="R158" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>305</v>
-      </c>
       <c r="C159" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="5" t="s">
@@ -9343,13 +9371,13 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B160" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="5" t="s">
@@ -9395,13 +9423,13 @@
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="5" t="s">
@@ -9447,13 +9475,13 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="5" t="s">
@@ -9499,13 +9527,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="5" t="s">
@@ -9548,18 +9576,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="C164" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="5" t="s">
@@ -9592,25 +9620,25 @@
         <v>74</v>
       </c>
       <c r="R164" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G165" s="7" t="n">
         <v>0.98</v>
@@ -9649,20 +9677,20 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B166" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G166" s="8" t="n">
         <v>830</v>
@@ -9701,20 +9729,20 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G167" s="7" t="n">
         <v>0.64</v>
@@ -9753,13 +9781,13 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B168" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>328</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="5" t="s">
@@ -9807,13 +9835,13 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B169" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>330</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="5" t="s">
@@ -9859,20 +9887,20 @@
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G170" s="7" t="n">
         <v>377.75</v>
@@ -9908,25 +9936,25 @@
         <v>802.9</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="C171" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G171" s="7" t="n">
         <v>96.04</v>
@@ -9962,18 +9990,18 @@
         <v>206.01</v>
       </c>
       <c r="R171" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="5" t="s">
@@ -10014,14 +10042,14 @@
       </c>
       <c r="Q172" s="5"/>
       <c r="R172" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="0.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="175" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B175" s="10"/>
     </row>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="342">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -133,8 +133,7 @@
     <t>persons</t>
   </si>
   <si>
-    <t>Improvement of access to public services (e.g. support for families with
-  children, child and elderly care) and health services</t>
+    <t>Improvement of access to public services (e.g. support for families with children, child and elderly care) and health services</t>
   </si>
   <si>
     <t>1.3.a Percentage of children aged 1-3 covered by different kinds of institutional care</t>
@@ -209,8 +208,7 @@
     <t>2.5.a Percentage of length of public improved hard surface roads in non-urban areas</t>
   </si>
   <si>
-    <t>Respect for biodiversity through its increase or at least non-deterioration of
-  its sate</t>
+    <t>Respect for biodiversity through its increase or at least non-deterioration of its sate</t>
   </si>
   <si>
     <t>2.6.a Number of plant and animal genetic resources for food and agriculture secured in gene banks collections</t>
@@ -382,36 +380,39 @@
   </si>
   <si>
     <t>4.2.a Percentage of foreign students studying in Polish higher education institutions in Poland</t>
+  </si>
+  <si>
+    <t>Creation of conditions for education development all over the country and equalization of educational opportunities</t>
+  </si>
+  <si>
+    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>The Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
+  </si>
+  <si>
+    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
+  </si>
+  <si>
+    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
+  </si>
+  <si>
+    <t>Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
   </si>
   <si>
     <t>Creation of conditions for education development all over the country and
   equalization of educational opportunities</t>
   </si>
   <si>
-    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>The Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
-  </si>
-  <si>
-    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
-  </si>
-  <si>
-    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
-  </si>
-  <si>
-    <t>Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
-  </si>
-  <si>
     <t>4.3.g Percentage of children aged 3-5 covered by pre-primary education</t>
   </si>
   <si>
@@ -526,8 +527,7 @@
     <t>Goal 6. Clear water and sanitation</t>
   </si>
   <si>
-    <t>Increase in disposable water resources, improvement of its ecological state
-  and chemical quality</t>
+    <t>Increase in disposable water resources, improvement of its ecological state and chemical quality</t>
   </si>
   <si>
     <t>6.1.a Capacity of small water retention facilities</t>
@@ -606,11 +606,6 @@
     <t>8.1.a Share of export of high technology products in total exports</t>
   </si>
   <si>
-    <t>Search for new competitive adventages based on products' technological
-  advancement, quality and innovativeness as well as mechanisms for
-  internationalization of enterprises</t>
-  </si>
-  <si>
     <t>8.1.b Ratio expenditures on innovation activities in enterprises to GDP</t>
   </si>
   <si>
@@ -764,14 +759,10 @@
     <t>Goal 10. Reduce inequalities</t>
   </si>
   <si>
-    <t>Overcoming of regional socio-economic disparities, prevention of new
-  development disproportions</t>
+    <t>Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
   </si>
   <si>
     <t>10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
-  </si>
-  <si>
-    <t>Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
   </si>
   <si>
     <t>10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
@@ -1062,7 +1053,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 18-05-2021, 10:34</t>
+    <t>Last update: 25-05-2021, 10:57</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1597,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,7 +3674,9 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="4">
+        <v>21.6</v>
+      </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="2" t="s">
         <v>25</v>
@@ -3721,7 +3714,9 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="4">
+        <v>51.3</v>
+      </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="2" t="s">
         <v>25</v>
@@ -3759,7 +3754,9 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="4">
+        <v>88.6</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="2" t="s">
         <v>25</v>
@@ -3795,7 +3792,9 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="P44" s="4">
+        <v>40.200000000000003</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2" t="s">
         <v>25</v>
@@ -4412,13 +4411,13 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>23</v>
@@ -4458,7 +4457,7 @@
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4466,16 +4465,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>24</v>
@@ -4512,7 +4511,7 @@
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4520,16 +4519,16 @@
         <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>24</v>
@@ -4566,7 +4565,7 @@
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -4574,10 +4573,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -4628,16 +4627,16 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>24</v>
@@ -4682,16 +4681,16 @@
         <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>24</v>
@@ -4736,16 +4735,16 @@
         <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>24</v>
@@ -4790,16 +4789,16 @@
         <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>24</v>
@@ -4844,16 +4843,16 @@
         <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>24</v>
@@ -4898,16 +4897,16 @@
         <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>24</v>
@@ -4952,16 +4951,16 @@
         <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>24</v>
@@ -5006,16 +5005,16 @@
         <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>24</v>
@@ -5060,10 +5059,10 @@
         <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>29</v>
@@ -5098,10 +5097,10 @@
         <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -5141,13 +5140,13 @@
     </row>
     <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -5195,13 +5194,13 @@
     </row>
     <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -5210,7 +5209,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G73" s="4">
         <v>10.8</v>
@@ -5249,16 +5248,16 @@
     </row>
     <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>23</v>
@@ -5293,19 +5292,19 @@
     </row>
     <row r="75" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>24</v>
@@ -5337,19 +5336,19 @@
     </row>
     <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>24</v>
@@ -5381,19 +5380,19 @@
     </row>
     <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>24</v>
@@ -5425,19 +5424,19 @@
     </row>
     <row r="78" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>24</v>
@@ -5469,19 +5468,19 @@
     </row>
     <row r="79" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>24</v>
@@ -5513,19 +5512,19 @@
     </row>
     <row r="80" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>24</v>
@@ -5557,13 +5556,13 @@
     </row>
     <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -5606,18 +5605,18 @@
         <v>25.9</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -5665,13 +5664,13 @@
     </row>
     <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -5680,7 +5679,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5712,18 +5711,18 @@
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -5771,13 +5770,13 @@
     </row>
     <row r="85" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5825,13 +5824,13 @@
     </row>
     <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5879,13 +5878,13 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -5894,7 +5893,7 @@
         <v>23</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5931,13 +5930,13 @@
     </row>
     <row r="88" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5985,13 +5984,13 @@
     </row>
     <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -6034,18 +6033,18 @@
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -6054,7 +6053,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6090,18 +6089,18 @@
         <v>118.7</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6149,13 +6148,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6203,13 +6202,13 @@
     </row>
     <row r="93" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6255,12 +6254,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>193</v>
@@ -6309,10 +6308,10 @@
     </row>
     <row r="95" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>194</v>
@@ -6363,7 +6362,7 @@
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>197</v>
@@ -6415,7 +6414,7 @@
     </row>
     <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>201</v>
@@ -6471,7 +6470,7 @@
     </row>
     <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>201</v>
@@ -6527,7 +6526,7 @@
     </row>
     <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>201</v>
@@ -6583,7 +6582,7 @@
     </row>
     <row r="100" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>201</v>
@@ -6639,7 +6638,7 @@
     </row>
     <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>201</v>
@@ -6695,7 +6694,7 @@
     </row>
     <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>201</v>
@@ -6749,7 +6748,7 @@
     </row>
     <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>201</v>
@@ -6805,7 +6804,7 @@
     </row>
     <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>201</v>
@@ -6861,7 +6860,7 @@
     </row>
     <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>201</v>
@@ -6873,7 +6872,7 @@
         <v>22</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>24</v>
@@ -6917,7 +6916,7 @@
     </row>
     <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>201</v>
@@ -6971,7 +6970,7 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>209</v>
@@ -7025,7 +7024,7 @@
     </row>
     <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>211</v>
@@ -7079,7 +7078,7 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>213</v>
@@ -7123,7 +7122,7 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>215</v>
@@ -7179,7 +7178,7 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>215</v>
@@ -7235,7 +7234,7 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>215</v>
@@ -7291,7 +7290,7 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>215</v>
@@ -7347,7 +7346,7 @@
     </row>
     <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>215</v>
@@ -7403,7 +7402,7 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>215</v>
@@ -7457,7 +7456,7 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>215</v>
@@ -7511,7 +7510,7 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>221</v>
@@ -7565,7 +7564,7 @@
     </row>
     <row r="118" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>223</v>
@@ -7983,10 +7982,10 @@
         <v>15.4</v>
       </c>
       <c r="O125" s="4">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="P125" s="4">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2" t="s">
@@ -8093,7 +8092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>243</v>
       </c>
@@ -8152,10 +8151,10 @@
         <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8206,10 +8205,10 @@
         <v>243</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8256,19 +8255,19 @@
         <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8307,13 +8306,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8361,13 +8360,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8415,13 +8414,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8469,13 +8468,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8523,13 +8522,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8572,24 +8571,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C137" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8631,19 +8630,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C138" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8685,19 +8684,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8739,19 +8738,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="E140" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8793,13 +8792,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8847,22 +8846,22 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8901,22 +8900,22 @@
     </row>
     <row r="143" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8955,22 +8954,22 @@
     </row>
     <row r="144" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -9009,13 +9008,13 @@
     </row>
     <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -9063,13 +9062,13 @@
     </row>
     <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -9117,22 +9116,22 @@
     </row>
     <row r="147" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9166,27 +9165,27 @@
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C148" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9220,18 +9219,18 @@
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9279,22 +9278,22 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9333,19 +9332,19 @@
     </row>
     <row r="151" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9382,24 +9381,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9436,24 +9435,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9490,24 +9489,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9544,19 +9543,19 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9603,22 +9602,22 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9657,22 +9656,22 @@
     </row>
     <row r="157" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9706,18 +9705,18 @@
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9760,18 +9759,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9819,13 +9818,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9873,13 +9872,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9927,13 +9926,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9981,13 +9980,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -10032,18 +10031,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -10078,19 +10077,19 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
       </c>
@@ -10098,7 +10097,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10137,22 +10136,22 @@
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10191,13 +10190,13 @@
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
@@ -10206,7 +10205,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10245,13 +10244,13 @@
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10301,13 +10300,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10355,22 +10354,22 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10406,18 +10405,18 @@
         <v>802.9</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10426,7 +10425,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10462,18 +10461,18 @@
         <v>206.01</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10516,14 +10515,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10538,7 +10537,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -513,7 +513,7 @@
     <t xml:space="preserve">Active pro-family policy</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.a Percentage of children aged 1-3 covered by different kinds of institutional care</t>
+    <t xml:space="preserve">5.2.a Percentage of children aged 1-2 covered by different kinds of institutional care</t>
   </si>
   <si>
     <t xml:space="preserve">the Ministry of Family and Social Policy</t>
@@ -1054,7 +1054,7 @@
     <t xml:space="preserve">17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 08-06-2021, 08:32</t>
+    <t xml:space="preserve">Last update: 13-07-2021, 08:08</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1369,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B88" activeCellId="0" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4846,16 +4846,16 @@
         <v>24</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="K72" s="6" t="n">
         <v>7.7</v>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="345">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>Source of data</t>
@@ -1062,7 +1065,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 20-07-2021, 10:18</t>
+    <t>Last update: 27-07-2021, 10:03</t>
   </si>
 </sst>
 </file>
@@ -1086,22 +1089,30 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1602,11 +1613,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,21 +1628,22 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1686,25 +1698,28 @@
       <c r="R3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>17.399999999999999</v>
@@ -1739,28 +1754,29 @@
       <c r="Q4" s="4">
         <v>11.8</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R4" s="3"/>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4">
         <v>23.7</v>
@@ -1795,28 +1811,29 @@
       <c r="Q5" s="4">
         <v>13.4</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+      <c r="S5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
         <v>12</v>
@@ -1851,28 +1868,29 @@
       <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R6" s="3"/>
+      <c r="S6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5">
         <v>107.56</v>
@@ -1905,28 +1923,29 @@
         <v>141.4</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+      <c r="S7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1955,28 +1974,29 @@
         <v>2.7</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+      <c r="S8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2005,28 +2025,29 @@
         <v>115.4</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+      <c r="S9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
@@ -2059,28 +2080,29 @@
       <c r="Q10" s="4">
         <v>25.9</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+      <c r="S10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4">
         <v>349.6</v>
@@ -2112,29 +2134,32 @@
       <c r="P11" s="4">
         <v>385.9</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>392.4</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="5">
         <v>0.51</v>
@@ -2167,28 +2192,29 @@
         <v>0.44</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+      <c r="S12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5">
         <v>0.06</v>
@@ -2221,28 +2247,29 @@
         <v>0.06</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+      <c r="S13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="6">
         <v>39</v>
@@ -2275,28 +2302,29 @@
         <v>43</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+      <c r="S14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5">
         <v>2.0699999999999998</v>
@@ -2329,28 +2357,29 @@
         <v>2.66</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+      <c r="S15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4">
         <v>16.2</v>
@@ -2385,28 +2414,29 @@
       <c r="Q16" s="4">
         <v>16.5</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+      <c r="S16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4">
         <v>53.9</v>
@@ -2439,28 +2469,29 @@
         <v>55.1</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+      <c r="S17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5">
         <v>1401.46</v>
@@ -2493,28 +2524,29 @@
         <v>3555.37</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+      <c r="S18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5">
         <v>11.22</v>
@@ -2547,28 +2579,29 @@
         <v>13.34</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+      <c r="S19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4">
         <v>48.6</v>
@@ -2601,28 +2634,29 @@
         <v>53.2</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+      <c r="S20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="6">
         <v>73660</v>
@@ -2657,28 +2691,29 @@
       <c r="Q21" s="6">
         <v>85876</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="3"/>
+      <c r="S21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G22" s="6">
         <v>3681</v>
@@ -2713,28 +2748,29 @@
       <c r="Q22" s="6">
         <v>4350</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="3"/>
+      <c r="S22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G23" s="6">
         <v>1293</v>
@@ -2769,28 +2805,29 @@
       <c r="Q23" s="6">
         <v>1578</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G24" s="6">
         <v>7225</v>
@@ -2825,28 +2862,29 @@
       <c r="Q24" s="6">
         <v>8160</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="3"/>
+      <c r="S24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G25" s="6">
         <v>31</v>
@@ -2881,28 +2919,29 @@
       <c r="Q25" s="6">
         <v>156</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="3"/>
+      <c r="S25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="81" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="G26" s="6">
         <v>7565</v>
@@ -2937,28 +2976,29 @@
       <c r="Q26" s="6">
         <v>40100</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+      <c r="S26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4">
         <v>22.5</v>
@@ -2985,28 +3025,29 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="3"/>
+      <c r="S27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4">
         <v>21.6</v>
@@ -3033,28 +3074,29 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="3"/>
+      <c r="S28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="4">
         <v>23.3</v>
@@ -3081,28 +3123,29 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+      <c r="S29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G30" s="4">
         <v>9.5</v>
@@ -3129,28 +3172,29 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+      <c r="S30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" s="4">
         <v>58.5</v>
@@ -3183,28 +3227,29 @@
         <v>60.9</v>
       </c>
       <c r="Q31" s="3"/>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="3"/>
+      <c r="S31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G32" s="4">
         <v>62.3</v>
@@ -3237,28 +3282,29 @@
         <v>64.099999999999994</v>
       </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+      <c r="S32" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" s="4">
         <v>451.8</v>
@@ -3291,28 +3337,29 @@
         <v>421</v>
       </c>
       <c r="Q33" s="3"/>
-      <c r="R33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+      <c r="S33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" s="4">
         <v>240.4</v>
@@ -3345,28 +3392,29 @@
         <v>261.3</v>
       </c>
       <c r="Q34" s="3"/>
-      <c r="R34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+      <c r="S34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4">
         <v>16.899999999999999</v>
@@ -3399,28 +3447,29 @@
         <v>24.2</v>
       </c>
       <c r="Q35" s="3"/>
-      <c r="R35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="S35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" s="4">
         <v>25.3</v>
@@ -3453,28 +3502,29 @@
         <v>22.6</v>
       </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G37" s="4">
         <v>20.6</v>
@@ -3507,28 +3557,29 @@
         <v>23.7</v>
       </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+      <c r="S37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" s="4">
         <v>53.7</v>
@@ -3561,28 +3612,29 @@
         <v>56.3</v>
       </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+      <c r="S38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G39" s="4">
         <v>8.3000000000000007</v>
@@ -3615,28 +3667,29 @@
         <v>4.2</v>
       </c>
       <c r="Q39" s="3"/>
-      <c r="R39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+      <c r="S39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="4">
         <v>28.2</v>
@@ -3653,28 +3706,29 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+      <c r="S40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="4">
         <v>21.9</v>
@@ -3693,28 +3747,29 @@
         <v>21.3</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="R41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+      <c r="S41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" s="4">
         <v>40.700000000000003</v>
@@ -3733,28 +3788,29 @@
         <v>49.1</v>
       </c>
       <c r="Q42" s="3"/>
-      <c r="R42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+      <c r="S42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" s="4">
         <v>79.3</v>
@@ -3773,28 +3829,29 @@
         <v>86.7</v>
       </c>
       <c r="Q43" s="3"/>
-      <c r="R43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+      <c r="S43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3811,28 +3868,29 @@
         <v>40.200000000000003</v>
       </c>
       <c r="Q44" s="3"/>
-      <c r="R44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+      <c r="S44" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G45" s="4">
         <v>28.6</v>
@@ -3863,28 +3921,29 @@
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+      <c r="S45" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G46" s="5">
         <v>3.18</v>
@@ -3919,28 +3978,29 @@
       <c r="Q46" s="5">
         <v>27.22</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+      <c r="S46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3965,28 +4025,29 @@
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+      <c r="S47" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -4005,28 +4066,29 @@
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+      <c r="S48" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G49" s="6">
         <v>28</v>
@@ -4059,28 +4121,29 @@
         <v>21</v>
       </c>
       <c r="Q49" s="3"/>
-      <c r="R49" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+      <c r="S49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="4">
         <v>36.1</v>
@@ -4115,28 +4178,29 @@
       <c r="Q50" s="4">
         <v>22</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+      <c r="S50" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="4">
         <v>1.2</v>
@@ -4171,28 +4235,29 @@
       <c r="Q51" s="4">
         <v>6.8</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+      <c r="S51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G52" s="4">
         <v>7.2</v>
@@ -4213,28 +4278,29 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+      <c r="S52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" s="4">
         <v>10.4</v>
@@ -4255,28 +4321,29 @@
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+      <c r="S53" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G54" s="4">
         <v>15</v>
@@ -4297,28 +4364,29 @@
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+      <c r="S54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G55" s="4">
         <v>20.5</v>
@@ -4339,28 +4407,29 @@
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+      <c r="S55" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G56" s="4">
         <v>85</v>
@@ -4381,28 +4450,29 @@
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+      <c r="S56" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G57" s="4">
         <v>79.5</v>
@@ -4423,28 +4493,29 @@
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+      <c r="S57" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" s="4">
         <v>62.6</v>
@@ -4477,28 +4548,29 @@
         <v>88.5</v>
       </c>
       <c r="Q58" s="3"/>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="3"/>
+      <c r="S58" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" s="4">
         <v>78.8</v>
@@ -4531,28 +4603,29 @@
         <v>102.7</v>
       </c>
       <c r="Q59" s="3"/>
-      <c r="R59" s="2" t="s">
+      <c r="R59" s="3"/>
+      <c r="S59" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G60" s="4">
         <v>41</v>
@@ -4585,28 +4658,29 @@
         <v>68.5</v>
       </c>
       <c r="Q60" s="3"/>
-      <c r="R60" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R60" s="3"/>
+      <c r="S60" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G61" s="4">
         <v>5.4</v>
@@ -4641,28 +4715,29 @@
       <c r="Q61" s="4">
         <v>5.4</v>
       </c>
-      <c r="R61" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+      <c r="S61" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G62" s="4">
         <v>5.2</v>
@@ -4697,28 +4772,29 @@
       <c r="Q62" s="4">
         <v>3.7</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R62" s="3"/>
+      <c r="S62" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G63" s="4">
         <v>11.2</v>
@@ -4753,28 +4829,29 @@
       <c r="Q63" s="4">
         <v>6.3</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+      <c r="S63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G64" s="4">
         <v>7.5</v>
@@ -4809,28 +4886,29 @@
       <c r="Q64" s="4">
         <v>4.8</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R64" s="3"/>
+      <c r="S64" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" s="4">
         <v>4.5999999999999996</v>
@@ -4865,28 +4943,29 @@
       <c r="Q65" s="4">
         <v>3.1</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+      <c r="S65" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G66" s="4">
         <v>5.2</v>
@@ -4921,28 +5000,29 @@
       <c r="Q66" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R66" s="3"/>
+      <c r="S66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G67" s="4">
         <v>2.7</v>
@@ -4977,28 +5057,29 @@
       <c r="Q67" s="4">
         <v>2.6</v>
       </c>
-      <c r="R67" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+      <c r="S67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G68" s="4">
         <v>1.2</v>
@@ -5033,28 +5114,29 @@
       <c r="Q68" s="4">
         <v>1.2</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R68" s="3"/>
+      <c r="S68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -5089,28 +5171,29 @@
       <c r="Q69" s="4">
         <v>1.4</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="R69" s="3"/>
+      <c r="S69" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="4">
@@ -5127,28 +5210,29 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="R70" s="3"/>
+      <c r="S70" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -5173,28 +5257,29 @@
       <c r="Q71" s="6">
         <v>26</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R71" s="3"/>
+      <c r="S71" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G72" s="4">
         <v>4.9000000000000004</v>
@@ -5227,28 +5312,29 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="Q72" s="3"/>
-      <c r="R72" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R72" s="3"/>
+      <c r="S72" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G73" s="4">
         <v>10.8</v>
@@ -5283,28 +5369,29 @@
       <c r="Q73" s="4">
         <v>13</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R73" s="3"/>
+      <c r="S73" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G74" s="4">
         <v>45.3</v>
@@ -5327,28 +5414,29 @@
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R74" s="3"/>
+      <c r="S74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G75" s="4">
         <v>27.6</v>
@@ -5371,28 +5459,29 @@
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+      <c r="S75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G76" s="4">
         <v>45.3</v>
@@ -5415,28 +5504,29 @@
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R76" s="3"/>
+      <c r="S76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G77" s="4">
         <v>25.4</v>
@@ -5459,28 +5549,29 @@
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+      <c r="S77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G78" s="4">
         <v>60.7</v>
@@ -5503,28 +5594,29 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R78" s="3"/>
+      <c r="S78" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G79" s="4">
         <v>38.299999999999997</v>
@@ -5547,28 +5639,29 @@
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+      <c r="S79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G80" s="4">
         <v>55.5</v>
@@ -5591,28 +5684,29 @@
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R80" s="3"/>
+      <c r="S80" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="4">
@@ -5645,28 +5739,29 @@
       <c r="Q81" s="4">
         <v>25.9</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+      <c r="S81" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G82" s="4">
         <v>58.5</v>
@@ -5701,28 +5796,29 @@
       <c r="Q82" s="4">
         <v>62.9</v>
       </c>
-      <c r="R82" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R82" s="3"/>
+      <c r="S82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5755,28 +5851,29 @@
       <c r="Q83" s="4">
         <v>852978.8</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R83" s="3"/>
+      <c r="S83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" s="4">
         <v>6.4</v>
@@ -5809,28 +5906,29 @@
         <v>0.3</v>
       </c>
       <c r="Q84" s="3"/>
-      <c r="R84" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R84" s="3"/>
+      <c r="S84" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G85" s="4">
         <v>64.7</v>
@@ -5863,28 +5961,29 @@
         <v>74.5</v>
       </c>
       <c r="Q85" s="3"/>
-      <c r="R85" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+      <c r="S85" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G86" s="5">
         <v>65.73</v>
@@ -5917,80 +6016,84 @@
         <v>73.930000000000007</v>
       </c>
       <c r="Q86" s="3"/>
-      <c r="R86" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R86" s="3"/>
+      <c r="S86" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
       </c>
       <c r="H87" s="7">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="I87" s="7">
-        <v>0.29599999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="J87" s="7">
-        <v>0.29099999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="K87" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L87" s="7">
-        <v>0.27</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M87" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N87" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="O87" s="7">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="P87" s="3"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.249</v>
+      </c>
       <c r="Q87" s="3"/>
-      <c r="R87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+      <c r="S87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G88" s="5">
         <v>9.3000000000000007</v>
@@ -6023,28 +6126,29 @@
         <v>12.16</v>
       </c>
       <c r="Q88" s="3"/>
-      <c r="R88" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R88" s="3"/>
+      <c r="S88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G89" s="6">
         <v>66</v>
@@ -6077,28 +6181,29 @@
         <v>57</v>
       </c>
       <c r="Q89" s="3"/>
-      <c r="R89" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R89" s="3"/>
+      <c r="S89" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6133,28 +6238,29 @@
       <c r="Q90" s="4">
         <v>118.7</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R90" s="3"/>
+      <c r="S90" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G91" s="4">
         <v>30.7</v>
@@ -6187,28 +6293,29 @@
         <v>11.5</v>
       </c>
       <c r="Q91" s="3"/>
-      <c r="R91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R91" s="3"/>
+      <c r="S91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" s="4">
         <v>11.9</v>
@@ -6241,28 +6348,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Q92" s="3"/>
-      <c r="R92" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R92" s="3"/>
+      <c r="S92" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" s="4">
         <v>6</v>
@@ -6295,28 +6403,29 @@
         <v>8.6</v>
       </c>
       <c r="Q93" s="3"/>
-      <c r="R93" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R93" s="3"/>
+      <c r="S93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G94" s="5">
         <v>2.39</v>
@@ -6347,28 +6456,29 @@
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R94" s="3"/>
+      <c r="S94" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6401,28 +6511,29 @@
         <v>37</v>
       </c>
       <c r="Q95" s="3"/>
-      <c r="R95" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R95" s="3"/>
+      <c r="S95" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6453,28 +6564,29 @@
       <c r="Q96" s="6">
         <v>40</v>
       </c>
-      <c r="R96" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R96" s="3"/>
+      <c r="S96" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G97" s="4">
         <v>50</v>
@@ -6509,28 +6621,29 @@
       <c r="Q97" s="4">
         <v>54.3</v>
       </c>
-      <c r="R97" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R97" s="3"/>
+      <c r="S97" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G98" s="4">
         <v>57.8</v>
@@ -6565,28 +6678,29 @@
       <c r="Q98" s="4">
         <v>63.1</v>
       </c>
-      <c r="R98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R98" s="3"/>
+      <c r="S98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G99" s="4">
         <v>42.8</v>
@@ -6621,28 +6735,29 @@
       <c r="Q99" s="4">
         <v>46.3</v>
       </c>
-      <c r="R99" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R99" s="3"/>
+      <c r="S99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G100" s="4">
         <v>26.4</v>
@@ -6677,28 +6792,29 @@
       <c r="Q100" s="4">
         <v>28.4</v>
       </c>
-      <c r="R100" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R100" s="3"/>
+      <c r="S100" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G101" s="4">
         <v>58.9</v>
@@ -6733,28 +6849,29 @@
       <c r="Q101" s="4">
         <v>68.7</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R101" s="3"/>
+      <c r="S101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" s="4">
         <v>44.7</v>
@@ -6789,28 +6906,29 @@
       <c r="Q102" s="4">
         <v>50.4</v>
       </c>
-      <c r="R102" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R102" s="3"/>
+      <c r="S102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G103" s="4">
         <v>64.3</v>
@@ -6845,28 +6963,29 @@
       <c r="Q103" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="R103" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R103" s="3"/>
+      <c r="S103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4">
         <v>30.3</v>
@@ -6901,28 +7020,29 @@
       <c r="Q104" s="4">
         <v>33</v>
       </c>
-      <c r="R104" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R104" s="3"/>
+      <c r="S104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G105" s="4">
         <v>34.1</v>
@@ -6957,28 +7077,29 @@
       <c r="Q105" s="4">
         <v>51.8</v>
       </c>
-      <c r="R105" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R105" s="3"/>
+      <c r="S105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G106" s="4">
         <v>9.4</v>
@@ -7013,28 +7134,29 @@
       <c r="Q106" s="4">
         <v>11.3</v>
       </c>
-      <c r="R106" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R106" s="3"/>
+      <c r="S106" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G107" s="4">
         <v>73.8</v>
@@ -7067,28 +7189,29 @@
         <v>74.2</v>
       </c>
       <c r="Q107" s="3"/>
-      <c r="R107" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R107" s="3"/>
+      <c r="S107" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G108" s="4">
         <v>58.5</v>
@@ -7123,28 +7246,29 @@
       <c r="Q108" s="4">
         <v>62.9</v>
       </c>
-      <c r="R108" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R108" s="3"/>
+      <c r="S108" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G109" s="4">
         <v>17.899999999999999</v>
@@ -7167,28 +7291,29 @@
       </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
+      <c r="S109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" s="4">
         <v>55.3</v>
@@ -7223,28 +7348,29 @@
       <c r="Q110" s="4">
         <v>56.1</v>
       </c>
-      <c r="R110" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+      <c r="S110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G111" s="4">
         <v>47.6</v>
@@ -7279,28 +7405,29 @@
       <c r="Q111" s="4">
         <v>47.9</v>
       </c>
-      <c r="R111" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+      <c r="S111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G112" s="4">
         <v>34.6</v>
@@ -7335,28 +7462,29 @@
       <c r="Q112" s="4">
         <v>31.8</v>
       </c>
-      <c r="R112" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+      <c r="S112" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G113" s="4">
         <v>32.700000000000003</v>
@@ -7391,28 +7519,29 @@
       <c r="Q113" s="4">
         <v>33.700000000000003</v>
       </c>
-      <c r="R113" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+      <c r="S113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G114" s="4">
         <v>16.899999999999999</v>
@@ -7447,28 +7576,29 @@
       <c r="Q114" s="4">
         <v>17.5</v>
       </c>
-      <c r="R114" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+      <c r="S114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G115" s="4">
         <v>31.8</v>
@@ -7503,28 +7633,29 @@
       <c r="Q115" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="R115" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+      <c r="S115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G116" s="4">
         <v>10.8</v>
@@ -7559,28 +7690,29 @@
       <c r="Q116" s="4">
         <v>8.6</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+      <c r="S116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G117" s="4">
         <v>69</v>
@@ -7615,28 +7747,29 @@
       <c r="Q117" s="4">
         <v>78.2</v>
       </c>
-      <c r="R117" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+      <c r="S117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G118" s="6">
         <v>-2114</v>
@@ -7669,28 +7802,29 @@
       <c r="Q118" s="6">
         <v>4483</v>
       </c>
-      <c r="R118" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+      <c r="S118" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7723,28 +7857,29 @@
       <c r="Q119" s="6">
         <v>38</v>
       </c>
-      <c r="R119" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R119" s="3"/>
+      <c r="S119" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G120" s="5">
         <v>0.72</v>
@@ -7777,28 +7912,29 @@
         <v>1.32</v>
       </c>
       <c r="Q120" s="3"/>
-      <c r="R120" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R120" s="3"/>
+      <c r="S120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G121" s="5">
         <v>0.19</v>
@@ -7831,28 +7967,29 @@
         <v>0.83</v>
       </c>
       <c r="Q121" s="3"/>
-      <c r="R121" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R121" s="3"/>
+      <c r="S121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G122" s="4">
         <v>11.3</v>
@@ -7885,28 +8022,29 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="Q122" s="3"/>
-      <c r="R122" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R122" s="3"/>
+      <c r="S122" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G123" s="4">
         <v>6</v>
@@ -7939,28 +8077,29 @@
         <v>8.6</v>
       </c>
       <c r="Q123" s="3"/>
-      <c r="R123" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R123" s="3"/>
+      <c r="S123" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G124" s="4">
         <v>0.1</v>
@@ -7995,28 +8134,29 @@
       <c r="Q124" s="4">
         <v>28.3</v>
       </c>
-      <c r="R124" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R124" s="3"/>
+      <c r="S124" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G125" s="4">
         <v>11.3</v>
@@ -8049,28 +8189,29 @@
         <v>15.3</v>
       </c>
       <c r="Q125" s="3"/>
-      <c r="R125" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R125" s="3"/>
+      <c r="S125" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G126" s="4">
         <v>30.8</v>
@@ -8101,28 +8242,29 @@
       <c r="Q126" s="4">
         <v>38.700000000000003</v>
       </c>
-      <c r="R126" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R126" s="3"/>
+      <c r="S126" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G127" s="4">
         <v>4.9000000000000004</v>
@@ -8155,28 +8297,29 @@
         <v>13.1</v>
       </c>
       <c r="Q127" s="3"/>
-      <c r="R127" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R127" s="3"/>
+      <c r="S127" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G128" s="4">
         <v>16.2</v>
@@ -8209,28 +8352,29 @@
         <v>15</v>
       </c>
       <c r="Q128" s="3"/>
-      <c r="R128" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R128" s="3"/>
+      <c r="S128" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G129" s="4">
         <v>66.5</v>
@@ -8263,28 +8407,29 @@
         <v>77.099999999999994</v>
       </c>
       <c r="Q129" s="3"/>
-      <c r="R129" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R129" s="3"/>
+      <c r="S129" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
@@ -8313,28 +8458,29 @@
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R130" s="3"/>
+      <c r="S130" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8367,28 +8513,29 @@
         <v>28.5</v>
       </c>
       <c r="Q131" s="3"/>
-      <c r="R131" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R131" s="3"/>
+      <c r="S131" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G132" s="4">
         <v>16.2</v>
@@ -8421,28 +8568,29 @@
         <v>12.6</v>
       </c>
       <c r="Q132" s="3"/>
-      <c r="R132" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R132" s="3"/>
+      <c r="S132" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8474,29 +8622,32 @@
       <c r="P133" s="4">
         <v>28.1</v>
       </c>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="Q133" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="R133" s="3"/>
+      <c r="S133" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G134" s="4">
         <v>13</v>
@@ -8529,28 +8680,29 @@
         <v>10.4</v>
       </c>
       <c r="Q134" s="3"/>
-      <c r="R134" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R134" s="3"/>
+      <c r="S134" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G135" s="4">
         <v>2.2999999999999998</v>
@@ -8583,28 +8735,29 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="Q135" s="3"/>
-      <c r="R135" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R135" s="3"/>
+      <c r="S135" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136" s="4">
         <v>166.5</v>
@@ -8637,28 +8790,29 @@
         <v>167.6</v>
       </c>
       <c r="Q136" s="3"/>
-      <c r="R136" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R136" s="3"/>
+      <c r="S136" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G137" s="5">
         <v>14.82</v>
@@ -8691,28 +8845,29 @@
         <v>25.03</v>
       </c>
       <c r="Q137" s="3"/>
-      <c r="R137" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R137" s="3"/>
+      <c r="S137" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G138" s="5">
         <v>1.5</v>
@@ -8745,28 +8900,29 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="Q138" s="3"/>
-      <c r="R138" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R138" s="3"/>
+      <c r="S138" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G139" s="5">
         <v>0.32</v>
@@ -8799,28 +8955,29 @@
         <v>22.9</v>
       </c>
       <c r="Q139" s="3"/>
-      <c r="R139" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R139" s="3"/>
+      <c r="S139" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G140" s="5">
         <v>66.8</v>
@@ -8853,28 +9010,29 @@
         <v>43.03</v>
       </c>
       <c r="Q140" s="3"/>
-      <c r="R140" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R140" s="3"/>
+      <c r="S140" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G141" s="6">
         <v>28</v>
@@ -8907,28 +9065,29 @@
         <v>21</v>
       </c>
       <c r="Q141" s="3"/>
-      <c r="R141" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R141" s="3"/>
+      <c r="S141" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8961,28 +9120,29 @@
         <v>22.2</v>
       </c>
       <c r="Q142" s="3"/>
-      <c r="R142" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R142" s="3"/>
+      <c r="S142" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -9015,28 +9175,29 @@
         <v>0.71</v>
       </c>
       <c r="Q143" s="3"/>
-      <c r="R143" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R143" s="3"/>
+      <c r="S143" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -9069,28 +9230,29 @@
         <v>18.489999999999998</v>
       </c>
       <c r="Q144" s="3"/>
-      <c r="R144" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R144" s="3"/>
+      <c r="S144" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G145" s="4">
         <v>10.8</v>
@@ -9123,28 +9285,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Q145" s="3"/>
-      <c r="R145" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R145" s="3"/>
+      <c r="S145" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G146" s="5">
         <v>2.0699999999999998</v>
@@ -9177,28 +9340,29 @@
         <v>2.66</v>
       </c>
       <c r="Q146" s="3"/>
-      <c r="R146" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R146" s="3"/>
+      <c r="S146" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9231,28 +9395,29 @@
         <v>95.4</v>
       </c>
       <c r="Q147" s="3"/>
-      <c r="R147" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R147" s="3"/>
+      <c r="S147" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9285,28 +9450,29 @@
         <v>94.5</v>
       </c>
       <c r="Q148" s="3"/>
-      <c r="R148" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R148" s="3"/>
+      <c r="S148" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G149" s="5">
         <v>9.3000000000000007</v>
@@ -9339,28 +9505,29 @@
         <v>12.16</v>
       </c>
       <c r="Q149" s="3"/>
-      <c r="R149" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R149" s="3"/>
+      <c r="S149" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9393,28 +9560,29 @@
         <v>1050</v>
       </c>
       <c r="Q150" s="3"/>
-      <c r="R150" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R150" s="3"/>
+      <c r="S150" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G151" s="6">
         <v>40</v>
@@ -9447,28 +9615,29 @@
         <v>40</v>
       </c>
       <c r="Q151" s="3"/>
-      <c r="R151" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R151" s="3"/>
+      <c r="S151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G152" s="6">
         <v>40</v>
@@ -9501,28 +9670,29 @@
         <v>25</v>
       </c>
       <c r="Q152" s="3"/>
-      <c r="R152" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R152" s="3"/>
+      <c r="S152" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G153" s="6">
         <v>0</v>
@@ -9555,28 +9725,29 @@
         <v>0</v>
       </c>
       <c r="Q153" s="3"/>
-      <c r="R153" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R153" s="3"/>
+      <c r="S153" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G154" s="6">
         <v>60</v>
@@ -9609,28 +9780,29 @@
         <v>75</v>
       </c>
       <c r="Q154" s="3"/>
-      <c r="R154" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R154" s="3"/>
+      <c r="S154" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9663,28 +9835,29 @@
         <v>189.5</v>
       </c>
       <c r="Q155" s="3"/>
-      <c r="R155" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R155" s="3"/>
+      <c r="S155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9717,28 +9890,29 @@
         <v>93.9</v>
       </c>
       <c r="Q156" s="3"/>
-      <c r="R156" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R156" s="3"/>
+      <c r="S156" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9771,28 +9945,29 @@
         <v>77.400000000000006</v>
       </c>
       <c r="Q157" s="3"/>
-      <c r="R157" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R157" s="3"/>
+      <c r="S157" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G158" s="7">
         <v>0.19600000000000001</v>
@@ -9827,28 +10002,29 @@
       <c r="Q158" s="7">
         <v>0.2</v>
       </c>
-      <c r="R158" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R158" s="3"/>
+      <c r="S158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G159" s="4">
         <v>30.5</v>
@@ -9883,28 +10059,29 @@
       <c r="Q159" s="4">
         <v>30.9</v>
       </c>
-      <c r="R159" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R159" s="3"/>
+      <c r="S159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G160" s="6">
         <v>28</v>
@@ -9937,28 +10114,29 @@
         <v>21</v>
       </c>
       <c r="Q160" s="3"/>
-      <c r="R160" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R160" s="3"/>
+      <c r="S160" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G161" s="4">
         <v>64.7</v>
@@ -9991,28 +10169,29 @@
         <v>74.5</v>
       </c>
       <c r="Q161" s="3"/>
-      <c r="R161" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R161" s="3"/>
+      <c r="S161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G162" s="5">
         <v>65.73</v>
@@ -10045,28 +10224,29 @@
         <v>73.930000000000007</v>
       </c>
       <c r="Q162" s="3"/>
-      <c r="R162" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R162" s="3"/>
+      <c r="S162" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G163" s="6">
         <v>70</v>
@@ -10101,28 +10281,29 @@
       <c r="Q163" s="6">
         <v>85</v>
       </c>
-      <c r="R163" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R163" s="3"/>
+      <c r="S163" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G164" s="6">
         <v>55</v>
@@ -10147,28 +10328,29 @@
       <c r="Q164" s="6">
         <v>74</v>
       </c>
-      <c r="R164" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R164" s="3"/>
+      <c r="S164" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10201,28 +10383,29 @@
         <v>1.01</v>
       </c>
       <c r="Q165" s="3"/>
-      <c r="R165" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R165" s="3"/>
+      <c r="S165" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10255,28 +10438,29 @@
         <v>685</v>
       </c>
       <c r="Q166" s="3"/>
-      <c r="R166" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R166" s="3"/>
+      <c r="S166" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10309,28 +10493,29 @@
         <v>0.6</v>
       </c>
       <c r="Q167" s="3"/>
-      <c r="R167" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R167" s="3"/>
+      <c r="S167" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G168" s="6">
         <v>10</v>
@@ -10365,28 +10550,29 @@
       <c r="Q168" s="6">
         <v>34</v>
       </c>
-      <c r="R168" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R168" s="3"/>
+      <c r="S168" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G169" s="4">
         <v>5.7</v>
@@ -10421,28 +10607,29 @@
       <c r="Q169" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R169" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R169" s="3"/>
+      <c r="S169" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10477,28 +10664,29 @@
       <c r="Q170" s="5">
         <v>802.9</v>
       </c>
-      <c r="R170" s="2" t="s">
+      <c r="R170" s="3"/>
+      <c r="S170" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10533,28 +10721,29 @@
       <c r="Q171" s="5">
         <v>206.01</v>
       </c>
-      <c r="R171" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="R171" s="3"/>
+      <c r="S171" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G172" s="5">
         <v>0.08</v>
@@ -10589,15 +10778,16 @@
       <c r="Q172" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R172" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R172" s="3"/>
+      <c r="S172" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10612,7 +10802,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -586,16 +586,20 @@
     <t>Goal 6. Clear water and sanitation</t>
   </si>
   <si>
+    <t>Increase in disposable water resources, improvement of its ecological state
+  and chemical quality</t>
+  </si>
+  <si>
+    <t>6.1.a Capacity of small water retention facilities</t>
+  </si>
+  <si>
+    <t>dam3</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture and Rural Development</t>
+  </si>
+  <si>
     <t>Increase in disposable water resources, improvement of its ecological state and chemical quality</t>
-  </si>
-  <si>
-    <t>6.1.a Capacity of small water retention facilities</t>
-  </si>
-  <si>
-    <t>dam3</t>
-  </si>
-  <si>
-    <t>Ministry of Agriculture and Rural Development / Ministry of Maritime  Economy and Inland Navigation</t>
   </si>
   <si>
     <t>6.1.b Percentage of population supplied with water not meeting requirements</t>
@@ -999,7 +1003,11 @@
     <t>Goal 14. Life below water</t>
   </si>
   <si>
-    <t>Effective and sustainable exploitation of marine resources for different social and economic purposes, while ensuring conservation of non-renewable resources natural process for the present and future generations; ensurance of coordination of entities' activities and methods of sea exploitation, coherent management of sea and coastal areas, including the Baltic Sea resources</t>
+    <t>Effective and sustainable exploitation of marine resources for different
+  social and economic purposes, while ensuring conservation of non-renewable
+  resources natural process for the present and future generations; ensurance of
+  coordination of entities' activities and methods of sea exploitation, coherent
+  management of sea and coastal areas, including the Baltic Sea resources</t>
   </si>
   <si>
     <t>14.1.a Proportion of fish stocks within biologically sustainable levels</t>
@@ -1009,9 +1017,6 @@
   </si>
   <si>
     <t>proportion of stocks fully exploited on the Baltic Sea</t>
-  </si>
-  <si>
-    <t>Ministry of Maritime Economy and Inland Navigation</t>
   </si>
   <si>
     <t>proportion of stocks non-fully exploited on the Baltic Sea</t>
@@ -1113,7 +1118,8 @@
     <t>16.3.b Government effectiveness index</t>
   </si>
   <si>
-    <t>Wider use of ICT for state governance and communication with its citizens (including entrepreneurs)</t>
+    <t>Wider use of ICT for state governance and communication with its citizens
+  (including entrepreneurs)</t>
   </si>
   <si>
     <t>16.4.a Percentage of individuals using the Internet for contacts with public authorities or public services for submitting completed forms</t>
@@ -1176,7 +1182,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-09-2021, 13:38</t>
+    <t>Last update: 21-09-2021, 08:25</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1726,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,7 +8414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>185</v>
       </c>
@@ -8468,10 +8474,10 @@
         <v>185</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>45</v>
@@ -8523,10 +8529,10 @@
         <v>185</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>30</v>
@@ -8580,10 +8586,10 @@
         <v>185</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>30</v>
@@ -8637,10 +8643,10 @@
         <v>185</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>30</v>
@@ -8694,10 +8700,10 @@
         <v>185</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>45</v>
@@ -8746,13 +8752,13 @@
     </row>
     <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>45</v>
@@ -8761,7 +8767,7 @@
         <v>24</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G141" s="7">
         <v>0.318</v>
@@ -8801,13 +8807,13 @@
     </row>
     <row r="142" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>45</v>
@@ -8856,13 +8862,13 @@
     </row>
     <row r="143" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>45</v>
@@ -8906,18 +8912,18 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
       <c r="S143" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>45</v>
@@ -8926,7 +8932,7 @@
         <v>24</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G144" s="4">
         <v>316.10000000000002</v>
@@ -8963,18 +8969,18 @@
       </c>
       <c r="R144" s="3"/>
       <c r="S144" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>45</v>
@@ -9023,13 +9029,13 @@
     </row>
     <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>45</v>
@@ -9078,13 +9084,13 @@
     </row>
     <row r="147" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>45</v>
@@ -9133,13 +9139,13 @@
     </row>
     <row r="148" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>45</v>
@@ -9186,13 +9192,13 @@
     </row>
     <row r="149" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>45</v>
@@ -9201,7 +9207,7 @@
         <v>24</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G149" s="6">
         <v>39</v>
@@ -9236,18 +9242,18 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
       <c r="S149" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>45</v>
@@ -9256,7 +9262,7 @@
         <v>24</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -9287,18 +9293,18 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
       <c r="S150" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>90</v>
@@ -9349,13 +9355,13 @@
     </row>
     <row r="152" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>90</v>
@@ -9406,13 +9412,13 @@
     </row>
     <row r="153" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>90</v>
@@ -9463,19 +9469,19 @@
     </row>
     <row r="154" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>25</v>
@@ -9520,19 +9526,19 @@
     </row>
     <row r="155" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>25</v>
@@ -9577,19 +9583,19 @@
     </row>
     <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>25</v>
@@ -9634,19 +9640,19 @@
     </row>
     <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>25</v>
@@ -9691,19 +9697,19 @@
     </row>
     <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>25</v>
@@ -9748,16 +9754,16 @@
     </row>
     <row r="159" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>163</v>
@@ -9805,19 +9811,19 @@
     </row>
     <row r="160" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>25</v>
@@ -9862,13 +9868,13 @@
     </row>
     <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>45</v>
@@ -9917,13 +9923,13 @@
     </row>
     <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>30</v>
@@ -9974,13 +9980,13 @@
     </row>
     <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>30</v>
@@ -10009,13 +10015,13 @@
     </row>
     <row r="164" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>30</v>
@@ -10044,13 +10050,13 @@
     </row>
     <row r="165" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>45</v>
@@ -10089,16 +10095,16 @@
     </row>
     <row r="166" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>24</v>
@@ -10146,16 +10152,16 @@
     </row>
     <row r="167" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>93</v>
@@ -10203,19 +10209,19 @@
     </row>
     <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>25</v>
@@ -10260,19 +10266,19 @@
     </row>
     <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>25</v>
@@ -10317,19 +10323,19 @@
     </row>
     <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>25</v>
@@ -10374,13 +10380,13 @@
     </row>
     <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>45</v>
@@ -10431,13 +10437,13 @@
     </row>
     <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>45</v>
@@ -10488,13 +10494,13 @@
     </row>
     <row r="173" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>45</v>
@@ -10545,13 +10551,13 @@
     </row>
     <row r="174" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>45</v>
@@ -10600,13 +10606,13 @@
     </row>
     <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>45</v>
@@ -10615,7 +10621,7 @@
         <v>24</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="6">
@@ -10650,18 +10656,18 @@
       </c>
       <c r="R175" s="3"/>
       <c r="S175" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>45</v>
@@ -10710,13 +10716,13 @@
     </row>
     <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>45</v>
@@ -10765,13 +10771,13 @@
     </row>
     <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>45</v>
@@ -10820,13 +10826,13 @@
     </row>
     <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>45</v>
@@ -10875,13 +10881,13 @@
     </row>
     <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>45</v>
@@ -10927,18 +10933,18 @@
       </c>
       <c r="R180" s="3"/>
       <c r="S180" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>45</v>
@@ -10987,13 +10993,13 @@
     </row>
     <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>45</v>
@@ -11035,18 +11041,18 @@
       </c>
       <c r="R182" s="3"/>
       <c r="S182" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>45</v>
@@ -11095,13 +11101,13 @@
     </row>
     <row r="184" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>45</v>
@@ -11150,13 +11156,13 @@
     </row>
     <row r="185" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>45</v>
@@ -11205,13 +11211,13 @@
     </row>
     <row r="186" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>45</v>
@@ -11256,13 +11262,13 @@
     </row>
     <row r="187" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>30</v>
@@ -11271,7 +11277,7 @@
         <v>24</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G187" s="4">
         <v>31.1</v>
@@ -11311,13 +11317,13 @@
     </row>
     <row r="188" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>30</v>
@@ -11326,7 +11332,7 @@
         <v>31</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -11356,13 +11362,13 @@
     </row>
     <row r="189" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>30</v>
@@ -11371,7 +11377,7 @@
         <v>32</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -11401,22 +11407,22 @@
     </row>
     <row r="190" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -11444,22 +11450,22 @@
     </row>
     <row r="191" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -11487,22 +11493,22 @@
     </row>
     <row r="192" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D192" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -11530,22 +11536,22 @@
     </row>
     <row r="193" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D193" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F193" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -11573,22 +11579,22 @@
     </row>
     <row r="194" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D194" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F194" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -11616,22 +11622,22 @@
     </row>
     <row r="195" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -11659,22 +11665,22 @@
     </row>
     <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D196" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -11702,13 +11708,13 @@
     </row>
     <row r="197" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>45</v>
@@ -11757,13 +11763,13 @@
     </row>
     <row r="198" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>45</v>
@@ -11814,13 +11820,13 @@
     </row>
     <row r="199" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>45</v>
@@ -11869,13 +11875,13 @@
     </row>
     <row r="200" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>45</v>
@@ -11924,13 +11930,13 @@
     </row>
     <row r="201" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>45</v>
@@ -11974,24 +11980,24 @@
       <c r="Q201" s="3"/>
       <c r="R201" s="3"/>
       <c r="S201" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="202" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>25</v>
@@ -12034,19 +12040,19 @@
     </row>
     <row r="203" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>25</v>
@@ -12089,19 +12095,19 @@
     </row>
     <row r="204" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>25</v>
@@ -12144,19 +12150,19 @@
     </row>
     <row r="205" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>25</v>
@@ -12199,13 +12205,13 @@
     </row>
     <row r="206" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>45</v>
@@ -12254,13 +12260,13 @@
     </row>
     <row r="207" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>45</v>
@@ -12269,7 +12275,7 @@
         <v>24</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G207" s="4">
         <v>20.8</v>
@@ -12309,13 +12315,13 @@
     </row>
     <row r="208" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>45</v>
@@ -12324,7 +12330,7 @@
         <v>24</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G208" s="5">
         <v>0.56000000000000005</v>
@@ -12364,13 +12370,13 @@
     </row>
     <row r="209" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>45</v>
@@ -12379,7 +12385,7 @@
         <v>24</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G209" s="5">
         <v>16.95</v>
@@ -12419,13 +12425,13 @@
     </row>
     <row r="210" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>45</v>
@@ -12474,13 +12480,13 @@
     </row>
     <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>45</v>
@@ -12529,13 +12535,13 @@
     </row>
     <row r="212" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>45</v>
@@ -12544,7 +12550,7 @@
         <v>24</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G212" s="4">
         <v>100</v>
@@ -12579,18 +12585,18 @@
       <c r="Q212" s="3"/>
       <c r="R212" s="3"/>
       <c r="S212" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>45</v>
@@ -12599,7 +12605,7 @@
         <v>24</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G213" s="4">
         <v>100</v>
@@ -12634,18 +12640,18 @@
       <c r="Q213" s="3"/>
       <c r="R213" s="3"/>
       <c r="S213" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>45</v>
@@ -12694,13 +12700,13 @@
     </row>
     <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>45</v>
@@ -12709,7 +12715,7 @@
         <v>24</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G215" s="6">
         <v>563</v>
@@ -12747,21 +12753,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>25</v>
@@ -12799,21 +12805,21 @@
       <c r="Q216" s="3"/>
       <c r="R216" s="3"/>
       <c r="S216" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>327</v>
@@ -12854,21 +12860,21 @@
       <c r="Q217" s="3"/>
       <c r="R217" s="3"/>
       <c r="S217" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>328</v>
@@ -12909,21 +12915,21 @@
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
       <c r="S218" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>329</v>
@@ -12964,12 +12970,12 @@
       <c r="Q219" s="3"/>
       <c r="R219" s="3"/>
       <c r="S219" s="2" t="s">
-        <v>326</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>330</v>
@@ -12984,7 +12990,7 @@
         <v>24</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G220" s="4">
         <v>100</v>
@@ -13024,7 +13030,7 @@
     </row>
     <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>332</v>
@@ -13648,7 +13654,7 @@
         <v>24</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G232" s="5">
         <v>0.98</v>
@@ -13683,7 +13689,7 @@
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
       <c r="S232" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
@@ -13738,7 +13744,7 @@
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
@@ -13758,7 +13764,7 @@
         <v>24</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G234" s="5">
         <v>0.64</v>
@@ -13793,7 +13799,7 @@
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
       <c r="S234" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
@@ -13872,11 +13878,21 @@
       <c r="F236" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
-      <c r="K236" s="3"/>
+      <c r="G236" s="6">
+        <v>10</v>
+      </c>
+      <c r="H236" s="6">
+        <v>9</v>
+      </c>
+      <c r="I236" s="6">
+        <v>11</v>
+      </c>
+      <c r="J236" s="6">
+        <v>12</v>
+      </c>
+      <c r="K236" s="6">
+        <v>14</v>
+      </c>
       <c r="L236" s="6">
         <v>15</v>
       </c>
@@ -13919,11 +13935,21 @@
       <c r="F237" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="J237" s="3"/>
-      <c r="K237" s="3"/>
+      <c r="G237" s="6">
+        <v>10</v>
+      </c>
+      <c r="H237" s="6">
+        <v>9</v>
+      </c>
+      <c r="I237" s="6">
+        <v>10</v>
+      </c>
+      <c r="J237" s="6">
+        <v>11</v>
+      </c>
+      <c r="K237" s="6">
+        <v>15</v>
+      </c>
       <c r="L237" s="6">
         <v>16</v>
       </c>
@@ -13966,11 +13992,21 @@
       <c r="F238" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="G238" s="6">
+        <v>12</v>
+      </c>
+      <c r="H238" s="6">
+        <v>11</v>
+      </c>
+      <c r="I238" s="6">
+        <v>13</v>
+      </c>
+      <c r="J238" s="6">
+        <v>15</v>
+      </c>
+      <c r="K238" s="6">
+        <v>18</v>
+      </c>
       <c r="L238" s="6">
         <v>19</v>
       </c>
@@ -14013,11 +14049,21 @@
       <c r="F239" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="3"/>
-      <c r="K239" s="3"/>
+      <c r="G239" s="6">
+        <v>6</v>
+      </c>
+      <c r="H239" s="6">
+        <v>5</v>
+      </c>
+      <c r="I239" s="6">
+        <v>6</v>
+      </c>
+      <c r="J239" s="6">
+        <v>6</v>
+      </c>
+      <c r="K239" s="6">
+        <v>9</v>
+      </c>
       <c r="L239" s="6">
         <v>10</v>
       </c>
@@ -14060,11 +14106,21 @@
       <c r="F240" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
+      <c r="G240" s="6">
+        <v>10</v>
+      </c>
+      <c r="H240" s="6">
+        <v>6</v>
+      </c>
+      <c r="I240" s="6">
+        <v>8</v>
+      </c>
+      <c r="J240" s="6">
+        <v>9</v>
+      </c>
+      <c r="K240" s="6">
+        <v>9</v>
+      </c>
       <c r="L240" s="6">
         <v>8</v>
       </c>
@@ -14107,11 +14163,21 @@
       <c r="F241" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
+      <c r="G241" s="6">
+        <v>18</v>
+      </c>
+      <c r="H241" s="6">
+        <v>16</v>
+      </c>
+      <c r="I241" s="6">
+        <v>19</v>
+      </c>
+      <c r="J241" s="6">
+        <v>20</v>
+      </c>
+      <c r="K241" s="6">
+        <v>28</v>
+      </c>
       <c r="L241" s="6">
         <v>28</v>
       </c>
@@ -14154,11 +14220,21 @@
       <c r="F242" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="J242" s="3"/>
-      <c r="K242" s="3"/>
+      <c r="G242" s="6">
+        <v>13</v>
+      </c>
+      <c r="H242" s="6">
+        <v>13</v>
+      </c>
+      <c r="I242" s="6">
+        <v>16</v>
+      </c>
+      <c r="J242" s="6">
+        <v>19</v>
+      </c>
+      <c r="K242" s="6">
+        <v>24</v>
+      </c>
       <c r="L242" s="6">
         <v>25</v>
       </c>
@@ -14201,11 +14277,21 @@
       <c r="F243" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="J243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="G243" s="6">
+        <v>9</v>
+      </c>
+      <c r="H243" s="6">
+        <v>9</v>
+      </c>
+      <c r="I243" s="6">
+        <v>11</v>
+      </c>
+      <c r="J243" s="6">
+        <v>12</v>
+      </c>
+      <c r="K243" s="6">
+        <v>15</v>
+      </c>
       <c r="L243" s="6">
         <v>15</v>
       </c>
@@ -14248,11 +14334,21 @@
       <c r="F244" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="J244" s="3"/>
-      <c r="K244" s="3"/>
+      <c r="G244" s="6">
+        <v>4</v>
+      </c>
+      <c r="H244" s="6">
+        <v>5</v>
+      </c>
+      <c r="I244" s="6">
+        <v>6</v>
+      </c>
+      <c r="J244" s="6">
+        <v>6</v>
+      </c>
+      <c r="K244" s="6">
+        <v>7</v>
+      </c>
       <c r="L244" s="6">
         <v>10</v>
       </c>
@@ -14295,11 +14391,21 @@
       <c r="F245" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
-      <c r="K245" s="3"/>
+      <c r="G245" s="6">
+        <v>2</v>
+      </c>
+      <c r="H245" s="6">
+        <v>2</v>
+      </c>
+      <c r="I245" s="6">
+        <v>2</v>
+      </c>
+      <c r="J245" s="6">
+        <v>2</v>
+      </c>
+      <c r="K245" s="6">
+        <v>4</v>
+      </c>
       <c r="L245" s="6">
         <v>3</v>
       </c>
@@ -14342,11 +14448,21 @@
       <c r="F246" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="3"/>
-      <c r="K246" s="3"/>
+      <c r="G246" s="6">
+        <v>27</v>
+      </c>
+      <c r="H246" s="6">
+        <v>27</v>
+      </c>
+      <c r="I246" s="6">
+        <v>28</v>
+      </c>
+      <c r="J246" s="6">
+        <v>30</v>
+      </c>
+      <c r="K246" s="6">
+        <v>39</v>
+      </c>
       <c r="L246" s="6">
         <v>41</v>
       </c>
@@ -14389,11 +14505,21 @@
       <c r="F247" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="J247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="G247" s="6">
+        <v>7</v>
+      </c>
+      <c r="H247" s="6">
+        <v>6</v>
+      </c>
+      <c r="I247" s="6">
+        <v>8</v>
+      </c>
+      <c r="J247" s="6">
+        <v>8</v>
+      </c>
+      <c r="K247" s="6">
+        <v>10</v>
+      </c>
       <c r="L247" s="6">
         <v>10</v>
       </c>
@@ -14436,11 +14562,21 @@
       <c r="F248" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="J248" s="3"/>
-      <c r="K248" s="3"/>
+      <c r="G248" s="6">
+        <v>2</v>
+      </c>
+      <c r="H248" s="6">
+        <v>1</v>
+      </c>
+      <c r="I248" s="6">
+        <v>2</v>
+      </c>
+      <c r="J248" s="6">
+        <v>1</v>
+      </c>
+      <c r="K248" s="6">
+        <v>1</v>
+      </c>
       <c r="L248" s="6">
         <v>2</v>
       </c>
@@ -14483,11 +14619,21 @@
       <c r="F249" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="3"/>
-      <c r="K249" s="3"/>
+      <c r="G249" s="6">
+        <v>14</v>
+      </c>
+      <c r="H249" s="6">
+        <v>13</v>
+      </c>
+      <c r="I249" s="6">
+        <v>15</v>
+      </c>
+      <c r="J249" s="6">
+        <v>17</v>
+      </c>
+      <c r="K249" s="6">
+        <v>21</v>
+      </c>
       <c r="L249" s="6">
         <v>23</v>
       </c>
@@ -14530,11 +14676,21 @@
       <c r="F250" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
+      <c r="G250" s="6">
+        <v>15</v>
+      </c>
+      <c r="H250" s="6">
+        <v>14</v>
+      </c>
+      <c r="I250" s="6">
+        <v>16</v>
+      </c>
+      <c r="J250" s="6">
+        <v>18</v>
+      </c>
+      <c r="K250" s="6">
+        <v>23</v>
+      </c>
       <c r="L250" s="6">
         <v>25</v>
       </c>
@@ -14577,11 +14733,21 @@
       <c r="F251" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="G251" s="6">
+        <v>8</v>
+      </c>
+      <c r="H251" s="6">
+        <v>5</v>
+      </c>
+      <c r="I251" s="6">
+        <v>6</v>
+      </c>
+      <c r="J251" s="6">
+        <v>7</v>
+      </c>
+      <c r="K251" s="6">
+        <v>7</v>
+      </c>
       <c r="L251" s="6">
         <v>7</v>
       </c>
@@ -14624,11 +14790,21 @@
       <c r="F252" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="3"/>
-      <c r="K252" s="3"/>
+      <c r="G252" s="6">
+        <v>4</v>
+      </c>
+      <c r="H252" s="6">
+        <v>3</v>
+      </c>
+      <c r="I252" s="6">
+        <v>5</v>
+      </c>
+      <c r="J252" s="6">
+        <v>4</v>
+      </c>
+      <c r="K252" s="6">
+        <v>5</v>
+      </c>
       <c r="L252" s="6">
         <v>5</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="391">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -762,6 +762,21 @@
     <t>aged 50 and more</t>
   </si>
   <si>
+    <t>aged 65-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urban/rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by education level of the head of the household</t>
+  </si>
+  <si>
+    <t>post-secondary and secondary vocational</t>
+  </si>
+  <si>
+    <t>lower secondary or primary or without formal education</t>
+  </si>
+  <si>
     <t>Promotion of stable forms of employment</t>
   </si>
   <si>
@@ -784,6 +799,12 @@
   </si>
   <si>
     <t>8.7.a Activity rate (LFS)</t>
+  </si>
+  <si>
+    <t>disabled persons</t>
+  </si>
+  <si>
+    <t>aged 16 and more</t>
   </si>
   <si>
     <t>8.7.b Long-term unemployment as a percentage of the total unempolyment (LFS)</t>
@@ -1193,7 +1214,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 12-10-2021, 14:02</t>
+    <t>Last update: 19-10-2021, 08:30</t>
   </si>
 </sst>
 </file>
@@ -1733,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S285"/>
+  <dimension ref="A1:S313"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10905,37 +10926,37 @@
         <v>25</v>
       </c>
       <c r="G183" s="4">
-        <v>44.7</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="H183" s="4">
-        <v>42.3</v>
+        <v>65</v>
       </c>
       <c r="I183" s="4">
-        <v>41.9</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="J183" s="4">
-        <v>41</v>
+        <v>65.7</v>
       </c>
       <c r="K183" s="4">
-        <v>43.8</v>
+        <v>67.5</v>
       </c>
       <c r="L183" s="4">
-        <v>44.5</v>
+        <v>68.7</v>
       </c>
       <c r="M183" s="4">
-        <v>48.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="N183" s="4">
-        <v>50.7</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="O183" s="4">
-        <v>53.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="P183" s="4">
-        <v>55.5</v>
+        <v>74.5</v>
       </c>
       <c r="Q183" s="4">
-        <v>50.4</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="2" t="s">
@@ -10962,37 +10983,37 @@
         <v>25</v>
       </c>
       <c r="G184" s="4">
-        <v>64.3</v>
+        <v>44.7</v>
       </c>
       <c r="H184" s="4">
-        <v>64.5</v>
+        <v>42.3</v>
       </c>
       <c r="I184" s="4">
-        <v>64.7</v>
+        <v>41.9</v>
       </c>
       <c r="J184" s="4">
-        <v>64.900000000000006</v>
+        <v>41</v>
       </c>
       <c r="K184" s="4">
-        <v>66.5</v>
+        <v>43.8</v>
       </c>
       <c r="L184" s="4">
-        <v>67.8</v>
+        <v>44.5</v>
       </c>
       <c r="M184" s="4">
-        <v>69.3</v>
+        <v>48.4</v>
       </c>
       <c r="N184" s="4">
-        <v>70.900000000000006</v>
+        <v>50.7</v>
       </c>
       <c r="O184" s="4">
-        <v>72.2</v>
+        <v>53.5</v>
       </c>
       <c r="P184" s="4">
-        <v>73</v>
+        <v>55.5</v>
       </c>
       <c r="Q184" s="4">
-        <v>73.599999999999994</v>
+        <v>50.4</v>
       </c>
       <c r="R184" s="3"/>
       <c r="S184" s="2" t="s">
@@ -11019,37 +11040,37 @@
         <v>25</v>
       </c>
       <c r="G185" s="4">
-        <v>30.3</v>
+        <v>64.3</v>
       </c>
       <c r="H185" s="4">
-        <v>31.2</v>
+        <v>64.5</v>
       </c>
       <c r="I185" s="4">
-        <v>31.5</v>
+        <v>64.7</v>
       </c>
       <c r="J185" s="4">
-        <v>31.6</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="K185" s="4">
-        <v>32.1</v>
+        <v>66.5</v>
       </c>
       <c r="L185" s="4">
-        <v>32.5</v>
+        <v>67.8</v>
       </c>
       <c r="M185" s="4">
-        <v>32.6</v>
+        <v>69.3</v>
       </c>
       <c r="N185" s="4">
-        <v>33.200000000000003</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="O185" s="4">
-        <v>32.9</v>
+        <v>72.2</v>
       </c>
       <c r="P185" s="4">
-        <v>32.6</v>
+        <v>73</v>
       </c>
       <c r="Q185" s="4">
-        <v>33</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="2" t="s">
@@ -11076,37 +11097,37 @@
         <v>25</v>
       </c>
       <c r="G186" s="4">
-        <v>34.1</v>
+        <v>30.3</v>
       </c>
       <c r="H186" s="4">
-        <v>36.9</v>
+        <v>31.2</v>
       </c>
       <c r="I186" s="4">
-        <v>38.700000000000003</v>
+        <v>31.5</v>
       </c>
       <c r="J186" s="4">
-        <v>40.6</v>
+        <v>31.6</v>
       </c>
       <c r="K186" s="4">
-        <v>42.5</v>
+        <v>32.1</v>
       </c>
       <c r="L186" s="4">
-        <v>44.3</v>
+        <v>32.5</v>
       </c>
       <c r="M186" s="4">
-        <v>46.1</v>
+        <v>32.6</v>
       </c>
       <c r="N186" s="4">
-        <v>48.3</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O186" s="4">
-        <v>48.9</v>
+        <v>32.9</v>
       </c>
       <c r="P186" s="4">
-        <v>49.5</v>
+        <v>32.6</v>
       </c>
       <c r="Q186" s="4">
-        <v>51.8</v>
+        <v>33</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="2" t="s">
@@ -11133,93 +11154,95 @@
         <v>25</v>
       </c>
       <c r="G187" s="4">
-        <v>9.4</v>
+        <v>34.1</v>
       </c>
       <c r="H187" s="4">
-        <v>9.4</v>
+        <v>36.9</v>
       </c>
       <c r="I187" s="4">
-        <v>9.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J187" s="4">
-        <v>9.4</v>
+        <v>40.6</v>
       </c>
       <c r="K187" s="4">
-        <v>9.6999999999999993</v>
+        <v>42.5</v>
       </c>
       <c r="L187" s="4">
-        <v>9.5</v>
+        <v>44.3</v>
       </c>
       <c r="M187" s="4">
-        <v>9.9</v>
+        <v>46.1</v>
       </c>
       <c r="N187" s="4">
-        <v>11</v>
+        <v>48.3</v>
       </c>
       <c r="O187" s="4">
-        <v>10.5</v>
+        <v>48.9</v>
       </c>
       <c r="P187" s="4">
-        <v>10.8</v>
+        <v>49.5</v>
       </c>
       <c r="Q187" s="4">
-        <v>11.3</v>
+        <v>51.8</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F188" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G188" s="4">
-        <v>73.8</v>
+        <v>9.4</v>
       </c>
       <c r="H188" s="4">
-        <v>73.400000000000006</v>
+        <v>9.4</v>
       </c>
       <c r="I188" s="4">
-        <v>73</v>
+        <v>9.5</v>
       </c>
       <c r="J188" s="4">
-        <v>73</v>
+        <v>9.4</v>
       </c>
       <c r="K188" s="4">
-        <v>73.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L188" s="4">
-        <v>73.2</v>
+        <v>9.5</v>
       </c>
       <c r="M188" s="4">
-        <v>73.599999999999994</v>
+        <v>9.9</v>
       </c>
       <c r="N188" s="4">
-        <v>73.7</v>
+        <v>11</v>
       </c>
       <c r="O188" s="4">
-        <v>73.900000000000006</v>
+        <v>10.5</v>
       </c>
       <c r="P188" s="4">
-        <v>74.2</v>
-      </c>
-      <c r="Q188" s="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="Q188" s="4">
+        <v>11.3</v>
+      </c>
       <c r="R188" s="3"/>
       <c r="S188" s="2" t="s">
         <v>26</v>
@@ -11230,52 +11253,52 @@
         <v>222</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G189" s="4">
-        <v>58.5</v>
+        <v>49.7</v>
       </c>
       <c r="H189" s="4">
-        <v>57.7</v>
+        <v>50.1</v>
       </c>
       <c r="I189" s="4">
-        <v>58.3</v>
+        <v>50.1</v>
       </c>
       <c r="J189" s="4">
-        <v>59.1</v>
+        <v>50.1</v>
       </c>
       <c r="K189" s="4">
-        <v>61.8</v>
+        <v>51.4</v>
       </c>
       <c r="L189" s="4">
-        <v>64.099999999999994</v>
+        <v>52.2</v>
       </c>
       <c r="M189" s="4">
-        <v>63</v>
+        <v>52.9</v>
       </c>
       <c r="N189" s="4">
-        <v>63.4</v>
+        <v>53.8</v>
       </c>
       <c r="O189" s="4">
-        <v>62.4</v>
+        <v>54.4</v>
       </c>
       <c r="P189" s="4">
-        <v>62.5</v>
+        <v>54.4</v>
       </c>
       <c r="Q189" s="4">
-        <v>62.9</v>
+        <v>54.2</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="2" t="s">
@@ -11287,109 +11310,109 @@
         <v>222</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G190" s="4">
-        <v>61.5</v>
+        <v>50.4</v>
       </c>
       <c r="H190" s="4">
-        <v>61.7</v>
+        <v>50.4</v>
       </c>
       <c r="I190" s="4">
-        <v>62.2</v>
+        <v>50.4</v>
       </c>
       <c r="J190" s="4">
-        <v>63</v>
+        <v>50.3</v>
       </c>
       <c r="K190" s="4">
-        <v>65.900000000000006</v>
+        <v>50.9</v>
       </c>
       <c r="L190" s="4">
-        <v>69.099999999999994</v>
+        <v>51.6</v>
       </c>
       <c r="M190" s="4">
-        <v>67.8</v>
+        <v>52.6</v>
       </c>
       <c r="N190" s="4">
-        <v>68.400000000000006</v>
+        <v>53.5</v>
       </c>
       <c r="O190" s="4">
-        <v>66.599999999999994</v>
+        <v>53.8</v>
       </c>
       <c r="P190" s="4">
-        <v>67.099999999999994</v>
+        <v>54.2</v>
       </c>
       <c r="Q190" s="4">
-        <v>69.5</v>
+        <v>54.5</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E191" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G191" s="4">
-        <v>54.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="H191" s="4">
-        <v>51.6</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="I191" s="4">
-        <v>52.4</v>
+        <v>75.5</v>
       </c>
       <c r="J191" s="4">
-        <v>53.3</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="K191" s="4">
-        <v>55.7</v>
+        <v>76.5</v>
       </c>
       <c r="L191" s="4">
-        <v>56.7</v>
+        <v>77.2</v>
       </c>
       <c r="M191" s="4">
-        <v>56.4</v>
+        <v>77.8</v>
       </c>
       <c r="N191" s="4">
-        <v>56.4</v>
+        <v>78.2</v>
       </c>
       <c r="O191" s="4">
-        <v>56.5</v>
+        <v>78.8</v>
       </c>
       <c r="P191" s="4">
-        <v>55.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="Q191" s="4">
-        <v>53.5</v>
+        <v>78.2</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="2" t="s">
@@ -11401,41 +11424,53 @@
         <v>222</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G192" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H192" s="3"/>
+        <v>60.9</v>
+      </c>
+      <c r="H192" s="4">
+        <v>61</v>
+      </c>
       <c r="I192" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J192" s="3"/>
+        <v>60.5</v>
+      </c>
+      <c r="J192" s="4">
+        <v>59.6</v>
+      </c>
       <c r="K192" s="4">
-        <v>19</v>
-      </c>
-      <c r="L192" s="3"/>
+        <v>59.7</v>
+      </c>
+      <c r="L192" s="4">
+        <v>59.9</v>
+      </c>
       <c r="M192" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N192" s="3"/>
+        <v>60.8</v>
+      </c>
+      <c r="N192" s="4">
+        <v>60.6</v>
+      </c>
       <c r="O192" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="P192" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="Q192" s="4">
+        <v>58.6</v>
+      </c>
       <c r="R192" s="3"/>
       <c r="S192" s="2" t="s">
         <v>26</v>
@@ -11446,52 +11481,52 @@
         <v>222</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G193" s="4">
-        <v>55.3</v>
+        <v>41.4</v>
       </c>
       <c r="H193" s="4">
-        <v>55.5</v>
+        <v>41.1</v>
       </c>
       <c r="I193" s="4">
-        <v>55.9</v>
+        <v>41.7</v>
       </c>
       <c r="J193" s="4">
-        <v>55.9</v>
+        <v>42.2</v>
       </c>
       <c r="K193" s="4">
-        <v>56.2</v>
+        <v>43.9</v>
       </c>
       <c r="L193" s="4">
-        <v>56.2</v>
+        <v>44.2</v>
       </c>
       <c r="M193" s="4">
-        <v>56.2</v>
+        <v>45.8</v>
       </c>
       <c r="N193" s="4">
-        <v>56.4</v>
+        <v>47.5</v>
       </c>
       <c r="O193" s="4">
-        <v>56.3</v>
+        <v>49.2</v>
       </c>
       <c r="P193" s="4">
-        <v>56.2</v>
+        <v>49.9</v>
       </c>
       <c r="Q193" s="4">
-        <v>56.1</v>
+        <v>49.3</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="2" t="s">
@@ -11503,109 +11538,109 @@
         <v>222</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G194" s="4">
-        <v>47.6</v>
+        <v>56.8</v>
       </c>
       <c r="H194" s="4">
-        <v>47.8</v>
+        <v>56.3</v>
       </c>
       <c r="I194" s="4">
-        <v>48.1</v>
+        <v>54.9</v>
       </c>
       <c r="J194" s="4">
-        <v>48.2</v>
+        <v>53.7</v>
       </c>
       <c r="K194" s="4">
-        <v>48.5</v>
+        <v>54.3</v>
       </c>
       <c r="L194" s="4">
-        <v>48.4</v>
+        <v>54.6</v>
       </c>
       <c r="M194" s="4">
-        <v>48.3</v>
+        <v>54.4</v>
       </c>
       <c r="N194" s="4">
-        <v>48.4</v>
+        <v>54.7</v>
       </c>
       <c r="O194" s="4">
-        <v>48.5</v>
+        <v>54.3</v>
       </c>
       <c r="P194" s="4">
-        <v>48.2</v>
+        <v>53.2</v>
       </c>
       <c r="Q194" s="4">
-        <v>47.9</v>
+        <v>52.9</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G195" s="4">
-        <v>34.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H195" s="4">
-        <v>33.5</v>
+        <v>16</v>
       </c>
       <c r="I195" s="4">
-        <v>33.6</v>
+        <v>15.7</v>
       </c>
       <c r="J195" s="4">
-        <v>33.299999999999997</v>
+        <v>14.9</v>
       </c>
       <c r="K195" s="4">
-        <v>33.9</v>
+        <v>14.8</v>
       </c>
       <c r="L195" s="4">
-        <v>32.799999999999997</v>
+        <v>15.1</v>
       </c>
       <c r="M195" s="4">
-        <v>34.5</v>
+        <v>14.6</v>
       </c>
       <c r="N195" s="4">
-        <v>34.799999999999997</v>
+        <v>14.8</v>
       </c>
       <c r="O195" s="4">
-        <v>35.1</v>
+        <v>14.9</v>
       </c>
       <c r="P195" s="4">
-        <v>35.200000000000003</v>
+        <v>15.6</v>
       </c>
       <c r="Q195" s="4">
-        <v>31.8</v>
+        <v>15.3</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="2" t="s">
@@ -11617,52 +11652,52 @@
         <v>222</v>
       </c>
       <c r="B196" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D196" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G196" s="4">
-        <v>32.700000000000003</v>
+        <v>73.8</v>
       </c>
       <c r="H196" s="4">
-        <v>33.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I196" s="4">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J196" s="4">
-        <v>34.200000000000003</v>
+        <v>73</v>
       </c>
       <c r="K196" s="4">
-        <v>34.299999999999997</v>
+        <v>73.2</v>
       </c>
       <c r="L196" s="4">
-        <v>34.4</v>
+        <v>73.2</v>
       </c>
       <c r="M196" s="4">
-        <v>34.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="N196" s="4">
-        <v>34.4</v>
+        <v>73.7</v>
       </c>
       <c r="O196" s="4">
-        <v>33.799999999999997</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="P196" s="4">
-        <v>33.4</v>
+        <v>74.2</v>
       </c>
       <c r="Q196" s="4">
-        <v>33.700000000000003</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="2" t="s">
@@ -11674,52 +11709,52 @@
         <v>222</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D197" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G197" s="4">
-        <v>16.899999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="H197" s="4">
-        <v>17</v>
+        <v>75.3</v>
       </c>
       <c r="I197" s="4">
-        <v>17.399999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="J197" s="4">
-        <v>17.3</v>
+        <v>75.3</v>
       </c>
       <c r="K197" s="4">
-        <v>17.399999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="L197" s="4">
-        <v>16.5</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="M197" s="4">
-        <v>16.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="N197" s="4">
-        <v>17.600000000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="O197" s="4">
-        <v>17.3</v>
+        <v>76.5</v>
       </c>
       <c r="P197" s="4">
-        <v>17.100000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="Q197" s="4">
-        <v>17.5</v>
+        <v>76.7</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="2" t="s">
@@ -11731,70 +11766,70 @@
         <v>222</v>
       </c>
       <c r="B198" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G198" s="4">
-        <v>31.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="H198" s="4">
-        <v>38</v>
+        <v>71.7</v>
       </c>
       <c r="I198" s="4">
-        <v>41.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J198" s="4">
-        <v>43.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K198" s="4">
-        <v>43.5</v>
+        <v>71.2</v>
       </c>
       <c r="L198" s="4">
-        <v>40.200000000000003</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="M198" s="4">
-        <v>36</v>
+        <v>71.3</v>
       </c>
       <c r="N198" s="4">
-        <v>31.7</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="O198" s="4">
-        <v>27.5</v>
+        <v>71.7</v>
       </c>
       <c r="P198" s="4">
-        <v>22</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="Q198" s="4">
-        <v>20.399999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>24</v>
@@ -11803,94 +11838,94 @@
         <v>25</v>
       </c>
       <c r="G199" s="4">
-        <v>10.8</v>
+        <v>58.5</v>
       </c>
       <c r="H199" s="4">
-        <v>11.5</v>
+        <v>57.7</v>
       </c>
       <c r="I199" s="4">
-        <v>11.8</v>
+        <v>58.3</v>
       </c>
       <c r="J199" s="4">
-        <v>12.2</v>
+        <v>59.1</v>
       </c>
       <c r="K199" s="4">
-        <v>12</v>
+        <v>61.8</v>
       </c>
       <c r="L199" s="4">
-        <v>11</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="M199" s="4">
-        <v>10.5</v>
+        <v>63</v>
       </c>
       <c r="N199" s="4">
-        <v>9.5</v>
+        <v>63.4</v>
       </c>
       <c r="O199" s="4">
-        <v>8.6999999999999993</v>
+        <v>62.4</v>
       </c>
       <c r="P199" s="4">
-        <v>8.1</v>
+        <v>62.5</v>
       </c>
       <c r="Q199" s="4">
-        <v>8.6</v>
+        <v>62.9</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G200" s="4">
-        <v>69</v>
+        <v>61.5</v>
       </c>
       <c r="H200" s="4">
-        <v>69.599999999999994</v>
+        <v>61.7</v>
       </c>
       <c r="I200" s="4">
-        <v>70.3</v>
+        <v>62.2</v>
       </c>
       <c r="J200" s="4">
-        <v>71.8</v>
+        <v>63</v>
       </c>
       <c r="K200" s="4">
-        <v>73.099999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="L200" s="4">
-        <v>72.900000000000006</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="M200" s="4">
-        <v>75.7</v>
+        <v>67.8</v>
       </c>
       <c r="N200" s="4">
-        <v>76.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="O200" s="4">
-        <v>77.8</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="P200" s="4">
-        <v>78.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="Q200" s="4">
-        <v>78.2</v>
+        <v>69.5</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="2" t="s">
@@ -11902,50 +11937,52 @@
         <v>222</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G201" s="6">
-        <v>-2114</v>
-      </c>
-      <c r="H201" s="6">
-        <v>-4334</v>
-      </c>
-      <c r="I201" s="6">
-        <v>-6617</v>
-      </c>
-      <c r="J201" s="6">
-        <v>-19904</v>
-      </c>
-      <c r="K201" s="6">
-        <v>-15750</v>
-      </c>
-      <c r="L201" s="3"/>
-      <c r="M201" s="6">
-        <v>1505</v>
-      </c>
-      <c r="N201" s="6">
-        <v>1436</v>
-      </c>
-      <c r="O201" s="6">
-        <v>3612</v>
-      </c>
-      <c r="P201" s="6">
-        <v>6183</v>
-      </c>
-      <c r="Q201" s="6">
-        <v>4483</v>
+        <v>25</v>
+      </c>
+      <c r="G201" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="H201" s="4">
+        <v>51.6</v>
+      </c>
+      <c r="I201" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="J201" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="K201" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="L201" s="4">
+        <v>56.7</v>
+      </c>
+      <c r="M201" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="N201" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="O201" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="P201" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="Q201" s="4">
+        <v>53.5</v>
       </c>
       <c r="R201" s="3"/>
       <c r="S201" s="2" t="s">
@@ -11954,108 +11991,88 @@
     </row>
     <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="6">
-        <v>43</v>
-      </c>
-      <c r="I202" s="6">
-        <v>44</v>
-      </c>
-      <c r="J202" s="6">
-        <v>49</v>
-      </c>
-      <c r="K202" s="6">
-        <v>45</v>
-      </c>
-      <c r="L202" s="6">
-        <v>46</v>
-      </c>
-      <c r="M202" s="6">
-        <v>39</v>
-      </c>
-      <c r="N202" s="6">
-        <v>38</v>
-      </c>
-      <c r="O202" s="6">
-        <v>39</v>
-      </c>
-      <c r="P202" s="6">
-        <v>39</v>
-      </c>
-      <c r="Q202" s="6">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G202" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H202" s="3"/>
+      <c r="I202" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J202" s="3"/>
+      <c r="K202" s="4">
+        <v>19</v>
+      </c>
+      <c r="L202" s="3"/>
+      <c r="M202" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="N202" s="3"/>
+      <c r="O202" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
       <c r="S202" s="2" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G203" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="H203" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I203" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="J203" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="K203" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="L203" s="5">
-        <v>1</v>
-      </c>
-      <c r="M203" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="N203" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="O203" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="P203" s="5">
-        <v>1.32</v>
-      </c>
+      <c r="G203" s="4">
+        <v>19</v>
+      </c>
+      <c r="H203" s="3"/>
+      <c r="I203" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J203" s="3"/>
+      <c r="K203" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L203" s="3"/>
+      <c r="M203" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="2" t="s">
@@ -12064,53 +12081,43 @@
     </row>
     <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G204" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="H204" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="I204" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="J204" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="K204" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="L204" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="M204" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="N204" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="O204" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="P204" s="5">
-        <v>0.83</v>
-      </c>
+      <c r="G204" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="H204" s="3"/>
+      <c r="I204" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J204" s="3"/>
+      <c r="K204" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L204" s="3"/>
+      <c r="M204" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="N204" s="3"/>
+      <c r="O204" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="2" t="s">
@@ -12119,53 +12126,43 @@
     </row>
     <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G205" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="H205" s="4">
-        <v>8.9</v>
-      </c>
+        <v>16.5</v>
+      </c>
+      <c r="H205" s="3"/>
       <c r="I205" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J205" s="4">
-        <v>8.6999999999999993</v>
-      </c>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J205" s="3"/>
       <c r="K205" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L205" s="4">
-        <v>9.5</v>
-      </c>
+        <v>17.5</v>
+      </c>
+      <c r="L205" s="3"/>
       <c r="M205" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="N205" s="4">
-        <v>7.1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N205" s="3"/>
       <c r="O205" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="P205" s="4">
-        <v>9.3000000000000007</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="2" t="s">
@@ -12174,53 +12171,43 @@
     </row>
     <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G206" s="4">
-        <v>6</v>
-      </c>
-      <c r="H206" s="4">
-        <v>5.0999999999999996</v>
-      </c>
+        <v>24.4</v>
+      </c>
+      <c r="H206" s="3"/>
       <c r="I206" s="4">
-        <v>6</v>
-      </c>
-      <c r="J206" s="4">
-        <v>6.7</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="J206" s="3"/>
       <c r="K206" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="L206" s="4">
-        <v>8.5</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="L206" s="3"/>
       <c r="M206" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="N206" s="4">
-        <v>8.4</v>
-      </c>
+        <v>24.1</v>
+      </c>
+      <c r="N206" s="3"/>
       <c r="O206" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P206" s="4">
-        <v>8.6</v>
-      </c>
+        <v>23.3</v>
+      </c>
+      <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
       <c r="S206" s="2" t="s">
@@ -12229,16 +12216,16 @@
     </row>
     <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>24</v>
@@ -12247,93 +12234,95 @@
         <v>25</v>
       </c>
       <c r="G207" s="4">
-        <v>0.1</v>
+        <v>55.3</v>
       </c>
       <c r="H207" s="4">
-        <v>0.2</v>
+        <v>55.5</v>
       </c>
       <c r="I207" s="4">
-        <v>0.5</v>
+        <v>55.9</v>
       </c>
       <c r="J207" s="4">
-        <v>1</v>
+        <v>55.9</v>
       </c>
       <c r="K207" s="4">
-        <v>2.2000000000000002</v>
+        <v>56.2</v>
       </c>
       <c r="L207" s="4">
-        <v>5.5</v>
+        <v>56.2</v>
       </c>
       <c r="M207" s="4">
-        <v>7.8</v>
+        <v>56.2</v>
       </c>
       <c r="N207" s="4">
-        <v>12.8</v>
+        <v>56.4</v>
       </c>
       <c r="O207" s="4">
-        <v>19.3</v>
+        <v>56.3</v>
       </c>
       <c r="P207" s="4">
-        <v>23.3</v>
+        <v>56.2</v>
       </c>
       <c r="Q207" s="4">
-        <v>28.3</v>
+        <v>56.1</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="2" t="s">
-        <v>269</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G208" s="4">
-        <v>11.3</v>
+        <v>47.6</v>
       </c>
       <c r="H208" s="4">
-        <v>12.4</v>
+        <v>47.8</v>
       </c>
       <c r="I208" s="4">
-        <v>13.1</v>
+        <v>48.1</v>
       </c>
       <c r="J208" s="4">
-        <v>14.1</v>
+        <v>48.2</v>
       </c>
       <c r="K208" s="4">
-        <v>14.5</v>
+        <v>48.5</v>
       </c>
       <c r="L208" s="4">
-        <v>14</v>
+        <v>48.4</v>
       </c>
       <c r="M208" s="4">
-        <v>15.3</v>
+        <v>48.3</v>
       </c>
       <c r="N208" s="4">
-        <v>15.4</v>
+        <v>48.4</v>
       </c>
       <c r="O208" s="4">
-        <v>14.8</v>
+        <v>48.5</v>
       </c>
       <c r="P208" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="Q208" s="3"/>
+        <v>48.2</v>
+      </c>
+      <c r="Q208" s="4">
+        <v>47.9</v>
+      </c>
       <c r="R208" s="3"/>
       <c r="S208" s="2" t="s">
         <v>26</v>
@@ -12341,671 +12330,797 @@
     </row>
     <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G209" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
+        <v>63.7</v>
+      </c>
+      <c r="H209" s="4">
+        <v>64</v>
+      </c>
+      <c r="I209" s="4">
+        <v>64.3</v>
+      </c>
       <c r="J209" s="4">
-        <v>33.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K209" s="4">
-        <v>34.5</v>
+        <v>64.7</v>
       </c>
       <c r="L209" s="4">
-        <v>35.200000000000003</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="M209" s="4">
-        <v>35.9</v>
+        <v>64.8</v>
       </c>
       <c r="N209" s="4">
-        <v>36.6</v>
+        <v>65.2</v>
       </c>
       <c r="O209" s="4">
-        <v>37.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P209" s="4">
-        <v>38.799999999999997</v>
+        <v>65</v>
       </c>
       <c r="Q209" s="4">
-        <v>38.700000000000003</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="2" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="G210" s="4">
-        <v>4.9000000000000004</v>
+        <v>55.2</v>
       </c>
       <c r="H210" s="4">
-        <v>5.8</v>
+        <v>55.4</v>
       </c>
       <c r="I210" s="4">
-        <v>7.7</v>
+        <v>55.7</v>
       </c>
       <c r="J210" s="4">
-        <v>8.6999999999999993</v>
+        <v>55.8</v>
       </c>
       <c r="K210" s="4">
-        <v>9.6</v>
+        <v>56.2</v>
       </c>
       <c r="L210" s="4">
-        <v>9.8000000000000007</v>
+        <v>56.3</v>
       </c>
       <c r="M210" s="4">
-        <v>10.1</v>
+        <v>56.2</v>
       </c>
       <c r="N210" s="4">
-        <v>10.9</v>
+        <v>56.4</v>
       </c>
       <c r="O210" s="4">
-        <v>11.9</v>
+        <v>56.5</v>
       </c>
       <c r="P210" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="Q210" s="3"/>
+        <v>56.2</v>
+      </c>
+      <c r="Q210" s="4">
+        <v>55.9</v>
+      </c>
       <c r="R210" s="3"/>
       <c r="S210" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G211" s="4">
-        <v>16.2</v>
+        <v>55.5</v>
       </c>
       <c r="H211" s="4">
-        <v>16.2</v>
+        <v>55.7</v>
       </c>
       <c r="I211" s="4">
-        <v>16</v>
+        <v>56.1</v>
       </c>
       <c r="J211" s="4">
-        <v>15.7</v>
+        <v>56.1</v>
       </c>
       <c r="K211" s="4">
-        <v>15.7</v>
+        <v>56.3</v>
       </c>
       <c r="L211" s="4">
-        <v>15.5</v>
+        <v>56</v>
       </c>
       <c r="M211" s="4">
-        <v>15</v>
+        <v>56.2</v>
       </c>
       <c r="N211" s="4">
-        <v>14.7</v>
+        <v>56.5</v>
       </c>
       <c r="O211" s="4">
-        <v>15</v>
+        <v>56.2</v>
       </c>
       <c r="P211" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q211" s="3"/>
+        <v>56.2</v>
+      </c>
+      <c r="Q211" s="4">
+        <v>56.3</v>
+      </c>
       <c r="R211" s="3"/>
       <c r="S211" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G212" s="4">
-        <v>66.5</v>
+        <v>34.6</v>
       </c>
       <c r="H212" s="4">
-        <v>67.5</v>
+        <v>33.5</v>
       </c>
       <c r="I212" s="4">
-        <v>67.2</v>
+        <v>33.6</v>
       </c>
       <c r="J212" s="4">
-        <v>69</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K212" s="4">
-        <v>68</v>
+        <v>33.9</v>
       </c>
       <c r="L212" s="4">
-        <v>69.5</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M212" s="4">
-        <v>71.599999999999994</v>
+        <v>34.5</v>
       </c>
       <c r="N212" s="4">
-        <v>68.900000000000006</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="O212" s="4">
-        <v>71.7</v>
+        <v>35.1</v>
       </c>
       <c r="P212" s="4">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="Q212" s="3"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Q212" s="4">
+        <v>31.8</v>
+      </c>
       <c r="R212" s="3"/>
       <c r="S212" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="6">
-        <v>9009</v>
-      </c>
-      <c r="I213" s="6">
-        <v>-32498</v>
-      </c>
-      <c r="J213" s="6">
-        <v>13290</v>
-      </c>
-      <c r="K213" s="6">
-        <v>35266</v>
-      </c>
-      <c r="L213" s="6">
-        <v>28601</v>
-      </c>
-      <c r="M213" s="6">
-        <v>49727</v>
-      </c>
-      <c r="N213" s="6">
-        <v>44900</v>
-      </c>
-      <c r="O213" s="6">
-        <v>34350</v>
-      </c>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G213" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H213" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I213" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="J213" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="K213" s="4">
+        <v>74.3</v>
+      </c>
+      <c r="L213" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="M213" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="N213" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="O213" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P213" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Q213" s="4">
+        <v>77.400000000000006</v>
+      </c>
       <c r="R213" s="3"/>
       <c r="S213" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="G214" s="4">
-        <v>31.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H214" s="4">
-        <v>31.1</v>
+        <v>33.6</v>
       </c>
       <c r="I214" s="4">
-        <v>30.9</v>
+        <v>34</v>
       </c>
       <c r="J214" s="4">
-        <v>30.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K214" s="4">
-        <v>30.8</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L214" s="4">
-        <v>30.6</v>
+        <v>34.4</v>
       </c>
       <c r="M214" s="4">
-        <v>29.8</v>
+        <v>34.1</v>
       </c>
       <c r="N214" s="4">
-        <v>29.2</v>
+        <v>34.4</v>
       </c>
       <c r="O214" s="4">
-        <v>27.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P214" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="Q214" s="3"/>
+        <v>33.4</v>
+      </c>
+      <c r="Q214" s="4">
+        <v>33.700000000000003</v>
+      </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G215" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H215" s="4">
+        <v>17</v>
+      </c>
+      <c r="I215" s="4">
+        <v>17.399999999999999</v>
+      </c>
       <c r="J215" s="4">
-        <v>30</v>
+        <v>17.3</v>
       </c>
       <c r="K215" s="4">
-        <v>30.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L215" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="M215" s="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="M215" s="4">
+        <v>16.3</v>
+      </c>
       <c r="N215" s="4">
-        <v>28.9</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O215" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
+        <v>17.3</v>
+      </c>
+      <c r="P215" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q215" s="4">
+        <v>17.5</v>
+      </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G216" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="H216" s="4">
+        <v>38</v>
+      </c>
+      <c r="I216" s="4">
+        <v>41.3</v>
+      </c>
       <c r="J216" s="4">
-        <v>29.1</v>
+        <v>43.3</v>
       </c>
       <c r="K216" s="4">
-        <v>29.2</v>
+        <v>43.5</v>
       </c>
       <c r="L216" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="M216" s="3"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M216" s="4">
+        <v>36</v>
+      </c>
       <c r="N216" s="4">
-        <v>26.9</v>
+        <v>31.7</v>
       </c>
       <c r="O216" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="P216" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q216" s="4">
+        <v>20.5</v>
+      </c>
       <c r="R216" s="3"/>
       <c r="S216" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G217" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H217" s="4">
+        <v>39</v>
+      </c>
+      <c r="I217" s="4">
+        <v>42.7</v>
+      </c>
+      <c r="J217" s="4">
+        <v>44.3</v>
+      </c>
       <c r="K217" s="4">
-        <v>31.7</v>
+        <v>43.2</v>
       </c>
       <c r="L217" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="M217" s="3"/>
+        <v>39.6</v>
+      </c>
+      <c r="M217" s="4">
+        <v>34.9</v>
+      </c>
       <c r="N217" s="4">
-        <v>34</v>
+        <v>30.7</v>
       </c>
       <c r="O217" s="4">
-        <v>32.9</v>
-      </c>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
+        <v>27.2</v>
+      </c>
+      <c r="P217" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="Q217" s="4">
+        <v>20.2</v>
+      </c>
       <c r="R217" s="3"/>
       <c r="S217" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G218" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="H218" s="4">
+        <v>37</v>
+      </c>
+      <c r="I218" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="J218" s="4">
+        <v>42.3</v>
+      </c>
       <c r="K218" s="4">
-        <v>29.3</v>
+        <v>43.7</v>
       </c>
       <c r="L218" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="M218" s="3"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M218" s="4">
+        <v>36.9</v>
+      </c>
       <c r="N218" s="4">
-        <v>28.2</v>
+        <v>32.6</v>
       </c>
       <c r="O218" s="4">
-        <v>28</v>
-      </c>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
+        <v>27.8</v>
+      </c>
+      <c r="P218" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="Q218" s="4">
+        <v>20.8</v>
+      </c>
       <c r="R218" s="3"/>
       <c r="S218" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G219" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="H219" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I219" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="J219" s="4">
+        <v>43.2</v>
+      </c>
       <c r="K219" s="4">
-        <v>32</v>
+        <v>44.3</v>
       </c>
       <c r="L219" s="4">
-        <v>30.7</v>
-      </c>
-      <c r="M219" s="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M219" s="4">
+        <v>35.200000000000003</v>
+      </c>
       <c r="N219" s="4">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="O219" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
+        <v>26.7</v>
+      </c>
+      <c r="P219" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="Q219" s="4">
+        <v>17.3</v>
+      </c>
       <c r="R219" s="3"/>
       <c r="S219" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>286</v>
+        <v>30</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G220" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H220" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="I220" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="J220" s="4">
+        <v>43.5</v>
+      </c>
       <c r="K220" s="4">
-        <v>30.3</v>
+        <v>42.4</v>
       </c>
       <c r="L220" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="M220" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="M220" s="4">
+        <v>37.1</v>
+      </c>
       <c r="N220" s="4">
-        <v>31.3</v>
+        <v>33.5</v>
       </c>
       <c r="O220" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
+        <v>28.6</v>
+      </c>
+      <c r="P220" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="Q220" s="4">
+        <v>25.2</v>
+      </c>
       <c r="R220" s="3"/>
       <c r="S220" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>291</v>
+        <v>24</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G221" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H221" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="I221" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="J221" s="4">
+        <v>12.2</v>
+      </c>
       <c r="K221" s="4">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L221" s="4">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="M221" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="M221" s="4">
+        <v>10.5</v>
+      </c>
       <c r="N221" s="4">
-        <v>29.4</v>
+        <v>9.5</v>
       </c>
       <c r="O221" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P221" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="Q221" s="4">
+        <v>8.6</v>
+      </c>
       <c r="R221" s="3"/>
       <c r="S221" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G222" s="4">
+        <v>11</v>
+      </c>
+      <c r="H222" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="I222" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J222" s="4">
+        <v>12.3</v>
+      </c>
       <c r="K222" s="4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L222" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="M222" s="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="M222" s="4">
+        <v>11.1</v>
+      </c>
       <c r="N222" s="4">
-        <v>34.1</v>
+        <v>10.7</v>
       </c>
       <c r="O222" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="P222" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="Q222" s="4">
+        <v>9.5</v>
+      </c>
       <c r="R222" s="3"/>
       <c r="S222" s="2" t="s">
         <v>26</v>
@@ -13013,59 +13128,73 @@
     </row>
     <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G223" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H223" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="I223" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J223" s="4">
+        <v>12.1</v>
+      </c>
       <c r="K223" s="4">
-        <v>29.8</v>
+        <v>12</v>
       </c>
       <c r="L223" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="M223" s="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="M223" s="4">
+        <v>10</v>
+      </c>
       <c r="N223" s="4">
-        <v>23.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O223" s="4">
-        <v>25</v>
-      </c>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="P223" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="Q223" s="4">
+        <v>7.8</v>
+      </c>
       <c r="R223" s="3"/>
       <c r="S223" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>24</v>
@@ -13074,421 +13203,425 @@
         <v>25</v>
       </c>
       <c r="G224" s="4">
-        <v>16.2</v>
+        <v>69</v>
       </c>
       <c r="H224" s="4">
-        <v>14.5</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I224" s="4">
-        <v>14.2</v>
+        <v>70.3</v>
       </c>
       <c r="J224" s="4">
-        <v>14</v>
+        <v>71.8</v>
       </c>
       <c r="K224" s="4">
-        <v>13.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="L224" s="4">
-        <v>12.4</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="M224" s="4">
-        <v>13</v>
+        <v>75.7</v>
       </c>
       <c r="N224" s="4">
-        <v>12.4</v>
+        <v>76.7</v>
       </c>
       <c r="O224" s="4">
-        <v>13.8</v>
+        <v>77.8</v>
       </c>
       <c r="P224" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="Q224" s="3"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Q224" s="4">
+        <v>78.2</v>
+      </c>
       <c r="R224" s="3"/>
       <c r="S224" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="G225" s="4">
-        <v>24.7</v>
+        <v>67.5</v>
       </c>
       <c r="H225" s="4">
-        <v>25</v>
+        <v>68.7</v>
       </c>
       <c r="I225" s="4">
-        <v>25.4</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J225" s="4">
-        <v>25.7</v>
+        <v>72.2</v>
       </c>
       <c r="K225" s="4">
-        <v>26.1</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L225" s="4">
-        <v>26.4</v>
+        <v>73.5</v>
       </c>
       <c r="M225" s="4">
-        <v>26.8</v>
+        <v>76.5</v>
       </c>
       <c r="N225" s="4">
-        <v>27.2</v>
+        <v>78.2</v>
       </c>
       <c r="O225" s="4">
-        <v>27.7</v>
+        <v>79.2</v>
       </c>
       <c r="P225" s="4">
-        <v>28.1</v>
+        <v>80</v>
       </c>
       <c r="Q225" s="4">
-        <v>28.7</v>
+        <v>79.7</v>
       </c>
       <c r="R225" s="3"/>
       <c r="S225" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G226" s="4">
-        <v>13</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H226" s="4">
-        <v>10.3</v>
+        <v>70.2</v>
       </c>
       <c r="I226" s="4">
-        <v>9.3000000000000007</v>
+        <v>70.5</v>
       </c>
       <c r="J226" s="4">
-        <v>8.8000000000000007</v>
+        <v>71.5</v>
       </c>
       <c r="K226" s="4">
-        <v>8.9</v>
+        <v>72.5</v>
       </c>
       <c r="L226" s="4">
-        <v>10.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="M226" s="4">
-        <v>10.1</v>
+        <v>75</v>
       </c>
       <c r="N226" s="4">
-        <v>10.5</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="O226" s="4">
-        <v>10.5</v>
+        <v>76.7</v>
       </c>
       <c r="P226" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="Q226" s="3"/>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>77.2</v>
+      </c>
       <c r="R226" s="3"/>
       <c r="S226" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G227" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H227" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="I227" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="J227" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="K227" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="L227" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="M227" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="N227" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O227" s="4">
-        <v>7</v>
-      </c>
-      <c r="P227" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q227" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G227" s="6">
+        <v>-2114</v>
+      </c>
+      <c r="H227" s="6">
+        <v>-4334</v>
+      </c>
+      <c r="I227" s="6">
+        <v>-6617</v>
+      </c>
+      <c r="J227" s="6">
+        <v>-19904</v>
+      </c>
+      <c r="K227" s="6">
+        <v>-15750</v>
+      </c>
+      <c r="L227" s="3"/>
+      <c r="M227" s="6">
+        <v>1505</v>
+      </c>
+      <c r="N227" s="6">
+        <v>1436</v>
+      </c>
+      <c r="O227" s="6">
+        <v>3612</v>
+      </c>
+      <c r="P227" s="6">
+        <v>6183</v>
+      </c>
+      <c r="Q227" s="6">
+        <v>4483</v>
+      </c>
       <c r="R227" s="3"/>
       <c r="S227" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G228" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="H228" s="4">
-        <v>166.2</v>
-      </c>
-      <c r="I228" s="4">
-        <v>165.6</v>
-      </c>
-      <c r="J228" s="4">
-        <v>155.5</v>
-      </c>
-      <c r="K228" s="4">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="L228" s="4">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="M228" s="4">
-        <v>162.69999999999999</v>
-      </c>
-      <c r="N228" s="4">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="O228" s="4">
-        <v>163.4</v>
-      </c>
-      <c r="P228" s="4">
-        <v>167.6</v>
-      </c>
-      <c r="Q228" s="3"/>
+      <c r="G228" s="6">
+        <v>-3150</v>
+      </c>
+      <c r="H228" s="6">
+        <v>-4043</v>
+      </c>
+      <c r="I228" s="6">
+        <v>-4772</v>
+      </c>
+      <c r="J228" s="6">
+        <v>-11884</v>
+      </c>
+      <c r="K228" s="6">
+        <v>-8724</v>
+      </c>
+      <c r="L228" s="3"/>
+      <c r="M228" s="6">
+        <v>401</v>
+      </c>
+      <c r="N228" s="6">
+        <v>166</v>
+      </c>
+      <c r="O228" s="6">
+        <v>1074</v>
+      </c>
+      <c r="P228" s="6">
+        <v>2279</v>
+      </c>
+      <c r="Q228" s="6">
+        <v>1850</v>
+      </c>
       <c r="R228" s="3"/>
       <c r="S228" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>306</v>
+        <v>93</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G229" s="5">
-        <v>14.82</v>
-      </c>
-      <c r="H229" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I229" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="J229" s="5">
-        <v>13.27</v>
-      </c>
-      <c r="K229" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="L229" s="5">
-        <v>26.39</v>
-      </c>
-      <c r="M229" s="5">
-        <v>27.84</v>
-      </c>
-      <c r="N229" s="5">
-        <v>26.73</v>
-      </c>
-      <c r="O229" s="5">
-        <v>26.18</v>
-      </c>
-      <c r="P229" s="5">
-        <v>25.03</v>
-      </c>
-      <c r="Q229" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="G229" s="6">
+        <v>1036</v>
+      </c>
+      <c r="H229" s="6">
+        <v>-291</v>
+      </c>
+      <c r="I229" s="6">
+        <v>-1845</v>
+      </c>
+      <c r="J229" s="6">
+        <v>-8020</v>
+      </c>
+      <c r="K229" s="6">
+        <v>-7026</v>
+      </c>
+      <c r="L229" s="3"/>
+      <c r="M229" s="6">
+        <v>1104</v>
+      </c>
+      <c r="N229" s="6">
+        <v>1270</v>
+      </c>
+      <c r="O229" s="6">
+        <v>2538</v>
+      </c>
+      <c r="P229" s="6">
+        <v>3904</v>
+      </c>
+      <c r="Q229" s="6">
+        <v>2633</v>
+      </c>
       <c r="R229" s="3"/>
       <c r="S229" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G230" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H230" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="I230" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="J230" s="5">
-        <v>1.88</v>
-      </c>
-      <c r="K230" s="5">
-        <v>5.42</v>
-      </c>
-      <c r="L230" s="5">
-        <v>6.09</v>
-      </c>
-      <c r="M230" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="N230" s="5">
-        <v>7.08</v>
-      </c>
-      <c r="O230" s="5">
-        <v>8.11</v>
-      </c>
-      <c r="P230" s="5">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="Q230" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="6">
+        <v>43</v>
+      </c>
+      <c r="I230" s="6">
+        <v>44</v>
+      </c>
+      <c r="J230" s="6">
+        <v>49</v>
+      </c>
+      <c r="K230" s="6">
+        <v>45</v>
+      </c>
+      <c r="L230" s="6">
+        <v>46</v>
+      </c>
+      <c r="M230" s="6">
+        <v>39</v>
+      </c>
+      <c r="N230" s="6">
+        <v>38</v>
+      </c>
+      <c r="O230" s="6">
+        <v>39</v>
+      </c>
+      <c r="P230" s="6">
+        <v>39</v>
+      </c>
+      <c r="Q230" s="6">
+        <v>38</v>
+      </c>
       <c r="R230" s="3"/>
       <c r="S230" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>308</v>
+        <v>24</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G231" s="5">
-        <v>0.32</v>
+        <v>0.72</v>
       </c>
       <c r="H231" s="5">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="I231" s="5">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="J231" s="5">
-        <v>6.78</v>
+        <v>0.88</v>
       </c>
       <c r="K231" s="5">
-        <v>15.1</v>
+        <v>0.94</v>
       </c>
       <c r="L231" s="5">
-        <v>13.25</v>
+        <v>1</v>
       </c>
       <c r="M231" s="5">
-        <v>19.440000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="N231" s="5">
-        <v>24.41</v>
+        <v>1.03</v>
       </c>
       <c r="O231" s="5">
-        <v>24.13</v>
+        <v>1.21</v>
       </c>
       <c r="P231" s="5">
-        <v>22.9</v>
+        <v>1.32</v>
       </c>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
@@ -13496,54 +13629,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G232" s="5">
-        <v>66.8</v>
+        <v>0.19</v>
       </c>
       <c r="H232" s="5">
-        <v>69.260000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="I232" s="5">
-        <v>66.91</v>
+        <v>0.33</v>
       </c>
       <c r="J232" s="5">
-        <v>61.95</v>
+        <v>0.38</v>
       </c>
       <c r="K232" s="5">
-        <v>58.38</v>
+        <v>0.44</v>
       </c>
       <c r="L232" s="5">
-        <v>54.29</v>
+        <v>0.47</v>
       </c>
       <c r="M232" s="5">
-        <v>45.74</v>
+        <v>0.63</v>
       </c>
       <c r="N232" s="5">
-        <v>41.77</v>
+        <v>0.67</v>
       </c>
       <c r="O232" s="5">
-        <v>41.58</v>
+        <v>0.8</v>
       </c>
       <c r="P232" s="5">
-        <v>43.03</v>
+        <v>0.83</v>
       </c>
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
@@ -13551,15 +13684,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>45</v>
@@ -13568,53 +13701,53 @@
         <v>24</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G233" s="6">
-        <v>28</v>
-      </c>
-      <c r="H233" s="6">
-        <v>27</v>
-      </c>
-      <c r="I233" s="6">
-        <v>26</v>
-      </c>
-      <c r="J233" s="6">
-        <v>25</v>
-      </c>
-      <c r="K233" s="6">
-        <v>24</v>
-      </c>
-      <c r="L233" s="6">
-        <v>23</v>
-      </c>
-      <c r="M233" s="6">
-        <v>22</v>
-      </c>
-      <c r="N233" s="6">
-        <v>22</v>
-      </c>
-      <c r="O233" s="6">
-        <v>22</v>
-      </c>
-      <c r="P233" s="6">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G233" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H233" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="I233" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J233" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K233" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L233" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M233" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="N233" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="O233" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="P233" s="4">
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>45</v>
@@ -13623,37 +13756,37 @@
         <v>24</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="G234" s="4">
-        <v>20.8</v>
+        <v>6</v>
       </c>
       <c r="H234" s="4">
-        <v>20.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I234" s="4">
-        <v>20.6</v>
+        <v>6</v>
       </c>
       <c r="J234" s="4">
-        <v>20.399999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="K234" s="4">
-        <v>20.5</v>
+        <v>7.9</v>
       </c>
       <c r="L234" s="4">
-        <v>20.7</v>
+        <v>8.5</v>
       </c>
       <c r="M234" s="4">
-        <v>21.5</v>
+        <v>8.5</v>
       </c>
       <c r="N234" s="4">
-        <v>21.6</v>
+        <v>8.4</v>
       </c>
       <c r="O234" s="4">
-        <v>21.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P234" s="4">
-        <v>22.2</v>
+        <v>8.6</v>
       </c>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
@@ -13661,15 +13794,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>45</v>
@@ -13678,53 +13811,55 @@
         <v>24</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G235" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H235" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="I235" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J235" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="K235" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="L235" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="M235" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="N235" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="O235" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="P235" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="Q235" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H235" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I235" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J235" s="4">
+        <v>1</v>
+      </c>
+      <c r="K235" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L235" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M235" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="N235" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="O235" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="P235" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="Q235" s="4">
+        <v>28.3</v>
+      </c>
       <c r="R235" s="3"/>
       <c r="S235" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>45</v>
@@ -13733,53 +13868,53 @@
         <v>24</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G236" s="5">
-        <v>16.95</v>
-      </c>
-      <c r="H236" s="5">
-        <v>20.96</v>
-      </c>
-      <c r="I236" s="5">
-        <v>18.27</v>
-      </c>
-      <c r="J236" s="5">
-        <v>17.27</v>
-      </c>
-      <c r="K236" s="5">
-        <v>17.22</v>
-      </c>
-      <c r="L236" s="5">
-        <v>16.93</v>
-      </c>
-      <c r="M236" s="5">
-        <v>17.7</v>
-      </c>
-      <c r="N236" s="5">
-        <v>18.71</v>
-      </c>
-      <c r="O236" s="5">
-        <v>19.34</v>
-      </c>
-      <c r="P236" s="5">
-        <v>18.489999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="G236" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H236" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="I236" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J236" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="K236" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="L236" s="4">
+        <v>14</v>
+      </c>
+      <c r="M236" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="N236" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="O236" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="P236" s="4">
+        <v>15.3</v>
       </c>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
       <c r="S236" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>45</v>
@@ -13788,53 +13923,51 @@
         <v>24</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G237" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="H237" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I237" s="4">
-        <v>10.6</v>
-      </c>
+        <v>30.8</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
       <c r="J237" s="4">
-        <v>11.8</v>
+        <v>33.4</v>
       </c>
       <c r="K237" s="4">
-        <v>12.5</v>
+        <v>34.5</v>
       </c>
       <c r="L237" s="4">
-        <v>11.6</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="M237" s="4">
-        <v>10.199999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="N237" s="4">
-        <v>9.9</v>
+        <v>36.6</v>
       </c>
       <c r="O237" s="4">
-        <v>9.6999999999999993</v>
+        <v>37.5</v>
       </c>
       <c r="P237" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Q237" s="3"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q237" s="4">
+        <v>38.700000000000003</v>
+      </c>
       <c r="R237" s="3"/>
       <c r="S237" s="2" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>45</v>
@@ -13843,53 +13976,53 @@
         <v>24</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I238" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J238" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K238" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L238" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M238" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N238" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O238" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P238" s="5">
-        <v>2.66</v>
+        <v>283</v>
+      </c>
+      <c r="G238" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H238" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I238" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="J238" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K238" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="L238" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M238" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="N238" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="O238" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="P238" s="4">
+        <v>13.1</v>
       </c>
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
       <c r="S238" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>45</v>
@@ -13898,53 +14031,53 @@
         <v>24</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>325</v>
+        <v>25</v>
       </c>
       <c r="G239" s="4">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="H239" s="4">
-        <v>99.8</v>
+        <v>16.2</v>
       </c>
       <c r="I239" s="4">
-        <v>97.6</v>
+        <v>16</v>
       </c>
       <c r="J239" s="4">
-        <v>96.3</v>
+        <v>15.7</v>
       </c>
       <c r="K239" s="4">
-        <v>92.7</v>
+        <v>15.7</v>
       </c>
       <c r="L239" s="4">
-        <v>93.6</v>
+        <v>15.5</v>
       </c>
       <c r="M239" s="4">
-        <v>96.9</v>
+        <v>15</v>
       </c>
       <c r="N239" s="4">
-        <v>100.8</v>
+        <v>14.7</v>
       </c>
       <c r="O239" s="4">
-        <v>100.6</v>
+        <v>15</v>
       </c>
       <c r="P239" s="4">
-        <v>95.4</v>
+        <v>15</v>
       </c>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>45</v>
@@ -13953,53 +14086,53 @@
         <v>24</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="G240" s="4">
-        <v>100</v>
+        <v>66.5</v>
       </c>
       <c r="H240" s="4">
-        <v>99.8</v>
+        <v>67.5</v>
       </c>
       <c r="I240" s="4">
-        <v>97.9</v>
+        <v>67.2</v>
       </c>
       <c r="J240" s="4">
-        <v>97.1</v>
+        <v>69</v>
       </c>
       <c r="K240" s="4">
-        <v>94.1</v>
+        <v>68</v>
       </c>
       <c r="L240" s="4">
-        <v>94.5</v>
+        <v>69.5</v>
       </c>
       <c r="M240" s="4">
-        <v>96.8</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="N240" s="4">
-        <v>100.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="O240" s="4">
-        <v>99.6</v>
+        <v>71.7</v>
       </c>
       <c r="P240" s="4">
-        <v>94.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
       <c r="S240" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>45</v>
@@ -14008,92 +14141,88 @@
         <v>24</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G241" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H241" s="5">
-        <v>10.35</v>
-      </c>
-      <c r="I241" s="5">
-        <v>10.97</v>
-      </c>
-      <c r="J241" s="5">
-        <v>11.46</v>
-      </c>
-      <c r="K241" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L241" s="5">
-        <v>11.89</v>
-      </c>
-      <c r="M241" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N241" s="5">
-        <v>11.12</v>
-      </c>
-      <c r="O241" s="5">
-        <v>11.48</v>
-      </c>
-      <c r="P241" s="5">
-        <v>12.16</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G241" s="3"/>
+      <c r="H241" s="6">
+        <v>9009</v>
+      </c>
+      <c r="I241" s="6">
+        <v>-32498</v>
+      </c>
+      <c r="J241" s="6">
+        <v>13290</v>
+      </c>
+      <c r="K241" s="6">
+        <v>35266</v>
+      </c>
+      <c r="L241" s="6">
+        <v>28601</v>
+      </c>
+      <c r="M241" s="6">
+        <v>49727</v>
+      </c>
+      <c r="N241" s="6">
+        <v>44900</v>
+      </c>
+      <c r="O241" s="6">
+        <v>34350</v>
+      </c>
+      <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G242" s="6">
-        <v>563</v>
-      </c>
-      <c r="H242" s="6">
-        <v>531</v>
-      </c>
-      <c r="I242" s="6">
-        <v>661</v>
-      </c>
-      <c r="J242" s="6">
-        <v>778</v>
-      </c>
-      <c r="K242" s="6">
-        <v>847</v>
-      </c>
-      <c r="L242" s="6">
-        <v>909</v>
-      </c>
-      <c r="M242" s="6">
-        <v>930</v>
-      </c>
-      <c r="N242" s="6">
-        <v>946</v>
-      </c>
-      <c r="O242" s="6">
-        <v>991</v>
-      </c>
-      <c r="P242" s="6">
-        <v>1050</v>
+        <v>292</v>
+      </c>
+      <c r="G242" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="H242" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="I242" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="J242" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="K242" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="L242" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="M242" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="N242" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="O242" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="P242" s="4">
+        <v>28.5</v>
       </c>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
@@ -14101,500 +14230,392 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>337</v>
+        <v>30</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G243" s="6">
-        <v>40</v>
-      </c>
-      <c r="H243" s="6">
-        <v>60</v>
-      </c>
-      <c r="I243" s="6">
-        <v>40</v>
-      </c>
-      <c r="J243" s="6">
-        <v>40</v>
-      </c>
-      <c r="K243" s="6">
-        <v>40</v>
-      </c>
-      <c r="L243" s="6">
-        <v>40</v>
-      </c>
-      <c r="M243" s="6">
-        <v>60</v>
-      </c>
-      <c r="N243" s="6">
-        <v>40</v>
-      </c>
-      <c r="O243" s="6">
-        <v>40</v>
-      </c>
-      <c r="P243" s="6">
-        <v>40</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="4">
+        <v>30</v>
+      </c>
+      <c r="K243" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="L243" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="M243" s="3"/>
+      <c r="N243" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="O243" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>337</v>
+        <v>30</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G244" s="6">
-        <v>40</v>
-      </c>
-      <c r="H244" s="6">
-        <v>60</v>
-      </c>
-      <c r="I244" s="6">
-        <v>20</v>
-      </c>
-      <c r="J244" s="6">
-        <v>20</v>
-      </c>
-      <c r="K244" s="6">
-        <v>20</v>
-      </c>
-      <c r="L244" s="6">
-        <v>40</v>
-      </c>
-      <c r="M244" s="6">
-        <v>60</v>
-      </c>
-      <c r="N244" s="6">
-        <v>40</v>
-      </c>
-      <c r="O244" s="6">
-        <v>25</v>
-      </c>
-      <c r="P244" s="6">
-        <v>25</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="K244" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="L244" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="M244" s="3"/>
+      <c r="N244" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="O244" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
       <c r="S244" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G245" s="6">
-        <v>0</v>
-      </c>
-      <c r="H245" s="6">
-        <v>0</v>
-      </c>
-      <c r="I245" s="6">
-        <v>20</v>
-      </c>
-      <c r="J245" s="6">
-        <v>20</v>
-      </c>
-      <c r="K245" s="6">
-        <v>20</v>
-      </c>
-      <c r="L245" s="6">
-        <v>0</v>
-      </c>
-      <c r="M245" s="6">
-        <v>0</v>
-      </c>
-      <c r="N245" s="6">
-        <v>0</v>
-      </c>
-      <c r="O245" s="6">
-        <v>0</v>
-      </c>
-      <c r="P245" s="6">
-        <v>0</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="L245" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="M245" s="3"/>
+      <c r="N245" s="4">
+        <v>34</v>
+      </c>
+      <c r="O245" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
       <c r="S245" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G246" s="6">
-        <v>60</v>
-      </c>
-      <c r="H246" s="6">
-        <v>40</v>
-      </c>
-      <c r="I246" s="6">
-        <v>60</v>
-      </c>
-      <c r="J246" s="6">
-        <v>60</v>
-      </c>
-      <c r="K246" s="6">
-        <v>60</v>
-      </c>
-      <c r="L246" s="6">
-        <v>60</v>
-      </c>
-      <c r="M246" s="6">
-        <v>40</v>
-      </c>
-      <c r="N246" s="6">
-        <v>60</v>
-      </c>
-      <c r="O246" s="6">
-        <v>75</v>
-      </c>
-      <c r="P246" s="6">
-        <v>75</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="L246" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="M246" s="3"/>
+      <c r="N246" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="O246" s="4">
+        <v>28</v>
+      </c>
+      <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
       <c r="S246" s="2" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
     </row>
     <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G247" s="4">
-        <v>100</v>
-      </c>
-      <c r="H247" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="I247" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="J247" s="4">
-        <v>101.8</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
       <c r="K247" s="4">
-        <v>104.9</v>
+        <v>32</v>
       </c>
       <c r="L247" s="4">
-        <v>106</v>
-      </c>
-      <c r="M247" s="4">
-        <v>119.9</v>
-      </c>
+        <v>30.7</v>
+      </c>
+      <c r="M247" s="3"/>
       <c r="N247" s="4">
-        <v>119.4</v>
+        <v>28.6</v>
       </c>
       <c r="O247" s="4">
-        <v>130</v>
-      </c>
-      <c r="P247" s="4">
-        <v>189.5</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G248" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H248" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I248" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J248" s="4">
-        <v>64.3</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
       <c r="K248" s="4">
-        <v>68.7</v>
+        <v>30.3</v>
       </c>
       <c r="L248" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M248" s="4">
-        <v>72.900000000000006</v>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="M248" s="3"/>
       <c r="N248" s="4">
-        <v>78.099999999999994</v>
+        <v>31.3</v>
       </c>
       <c r="O248" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P248" s="4">
-        <v>93.9</v>
-      </c>
+        <v>28.8</v>
+      </c>
+      <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
       <c r="S248" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G249" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="H249" s="4">
-        <v>87</v>
-      </c>
-      <c r="I249" s="4">
-        <v>84.4</v>
-      </c>
-      <c r="J249" s="4">
-        <v>84.7</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
       <c r="K249" s="4">
-        <v>83.3</v>
+        <v>32</v>
       </c>
       <c r="L249" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="M249" s="4">
-        <v>87.2</v>
-      </c>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M249" s="3"/>
       <c r="N249" s="4">
-        <v>80.8</v>
+        <v>29.4</v>
       </c>
       <c r="O249" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="P249" s="4">
-        <v>77.400000000000006</v>
-      </c>
+        <v>27.8</v>
+      </c>
+      <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>24</v>
+        <v>299</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G250" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H250" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I250" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K250" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L250" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M250" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P250" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q250" s="7">
-        <v>0.2</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="4">
+        <v>37</v>
+      </c>
+      <c r="L250" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="M250" s="3"/>
+      <c r="N250" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="O250" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G251" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="H251" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="I251" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="J251" s="4">
-        <v>30.6</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
       <c r="K251" s="4">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="L251" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="M251" s="4">
-        <v>30.8</v>
-      </c>
+        <v>34.4</v>
+      </c>
+      <c r="M251" s="3"/>
       <c r="N251" s="4">
-        <v>30.9</v>
+        <v>23.9</v>
       </c>
       <c r="O251" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="P251" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="Q251" s="4">
-        <v>30.9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="2" t="s">
         <v>26</v>
@@ -14602,13 +14623,13 @@
     </row>
     <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>45</v>
@@ -14617,95 +14638,95 @@
         <v>24</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G252" s="6">
-        <v>28</v>
-      </c>
-      <c r="H252" s="6">
-        <v>27</v>
-      </c>
-      <c r="I252" s="6">
-        <v>26</v>
-      </c>
-      <c r="J252" s="6">
-        <v>25</v>
-      </c>
-      <c r="K252" s="6">
-        <v>24</v>
-      </c>
-      <c r="L252" s="6">
-        <v>23</v>
-      </c>
-      <c r="M252" s="6">
-        <v>22</v>
-      </c>
-      <c r="N252" s="6">
-        <v>22</v>
-      </c>
-      <c r="O252" s="6">
-        <v>22</v>
-      </c>
-      <c r="P252" s="6">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G252" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="H252" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="I252" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J252" s="4">
+        <v>14</v>
+      </c>
+      <c r="K252" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="L252" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="M252" s="4">
+        <v>13</v>
+      </c>
+      <c r="N252" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="O252" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="P252" s="4">
+        <v>12.6</v>
       </c>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
       <c r="S252" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="G253" s="4">
-        <v>64.7</v>
+        <v>24.7</v>
       </c>
       <c r="H253" s="4">
-        <v>65.7</v>
+        <v>25</v>
       </c>
       <c r="I253" s="4">
-        <v>68.599999999999994</v>
+        <v>25.4</v>
       </c>
       <c r="J253" s="4">
-        <v>70.3</v>
+        <v>25.7</v>
       </c>
       <c r="K253" s="4">
-        <v>71.5</v>
+        <v>26.1</v>
       </c>
       <c r="L253" s="4">
-        <v>72.7</v>
+        <v>26.4</v>
       </c>
       <c r="M253" s="4">
-        <v>73.5</v>
+        <v>26.8</v>
       </c>
       <c r="N253" s="4">
-        <v>73.599999999999994</v>
+        <v>27.2</v>
       </c>
       <c r="O253" s="4">
-        <v>74</v>
+        <v>27.7</v>
       </c>
       <c r="P253" s="4">
-        <v>74.5</v>
+        <v>28.1</v>
       </c>
       <c r="Q253" s="4">
-        <v>74.8</v>
+        <v>28.7</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="2" t="s">
@@ -14714,56 +14735,54 @@
     </row>
     <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G254" s="4">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="H254" s="4">
-        <v>88.4</v>
+        <v>10.3</v>
       </c>
       <c r="I254" s="4">
-        <v>91.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J254" s="4">
-        <v>93.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K254" s="4">
-        <v>93.9</v>
+        <v>8.9</v>
       </c>
       <c r="L254" s="4">
-        <v>94.6</v>
+        <v>10.6</v>
       </c>
       <c r="M254" s="4">
-        <v>94.8</v>
+        <v>10.1</v>
       </c>
       <c r="N254" s="4">
-        <v>94.5</v>
+        <v>10.5</v>
       </c>
       <c r="O254" s="4">
-        <v>94.6</v>
+        <v>10.5</v>
       </c>
       <c r="P254" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q254" s="4">
-        <v>94.7</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
       <c r="S254" s="2" t="s">
         <v>26</v>
@@ -14771,56 +14790,54 @@
     </row>
     <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G255" s="4">
-        <v>28.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H255" s="4">
-        <v>30.6</v>
+        <v>2.8</v>
       </c>
       <c r="I255" s="4">
-        <v>33.1</v>
+        <v>2.7</v>
       </c>
       <c r="J255" s="4">
-        <v>35.299999999999997</v>
+        <v>3.1</v>
       </c>
       <c r="K255" s="4">
-        <v>37.4</v>
+        <v>2.9</v>
       </c>
       <c r="L255" s="4">
-        <v>39.6</v>
+        <v>3.6</v>
       </c>
       <c r="M255" s="4">
-        <v>41.2</v>
+        <v>3.8</v>
       </c>
       <c r="N255" s="4">
-        <v>42</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O255" s="4">
-        <v>42.9</v>
+        <v>7</v>
       </c>
       <c r="P255" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q255" s="4">
-        <v>45.2</v>
-      </c>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="2" t="s">
         <v>26</v>
@@ -14828,13 +14845,13 @@
     </row>
     <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>347</v>
+        <v>301</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>45</v>
@@ -14843,267 +14860,273 @@
         <v>24</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G256" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H256" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I256" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J256" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K256" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L256" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M256" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N256" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O256" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P256" s="5">
-        <v>73.930000000000007</v>
+        <v>51</v>
+      </c>
+      <c r="G256" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="H256" s="4">
+        <v>166.2</v>
+      </c>
+      <c r="I256" s="4">
+        <v>165.6</v>
+      </c>
+      <c r="J256" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="K256" s="4">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="L256" s="4">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="M256" s="4">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N256" s="4">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="O256" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="P256" s="4">
+        <v>167.6</v>
       </c>
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G257" s="6">
-        <v>70</v>
-      </c>
-      <c r="H257" s="6">
-        <v>75</v>
-      </c>
-      <c r="I257" s="6">
-        <v>66</v>
-      </c>
-      <c r="J257" s="6">
-        <v>64</v>
-      </c>
-      <c r="K257" s="6">
-        <v>70</v>
-      </c>
-      <c r="L257" s="6">
-        <v>66</v>
-      </c>
-      <c r="M257" s="6">
-        <v>80</v>
-      </c>
-      <c r="N257" s="6">
-        <v>89</v>
-      </c>
-      <c r="O257" s="6">
-        <v>86</v>
-      </c>
-      <c r="P257" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q257" s="6">
-        <v>85</v>
-      </c>
+      <c r="G257" s="5">
+        <v>14.82</v>
+      </c>
+      <c r="H257" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I257" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="J257" s="5">
+        <v>13.27</v>
+      </c>
+      <c r="K257" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="L257" s="5">
+        <v>26.39</v>
+      </c>
+      <c r="M257" s="5">
+        <v>27.84</v>
+      </c>
+      <c r="N257" s="5">
+        <v>26.73</v>
+      </c>
+      <c r="O257" s="5">
+        <v>26.18</v>
+      </c>
+      <c r="P257" s="5">
+        <v>25.03</v>
+      </c>
+      <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>24</v>
+        <v>314</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G258" s="6">
-        <v>55</v>
-      </c>
-      <c r="H258" s="3"/>
-      <c r="I258" s="6">
-        <v>58</v>
-      </c>
-      <c r="J258" s="3"/>
-      <c r="K258" s="6">
-        <v>60</v>
-      </c>
-      <c r="L258" s="3"/>
-      <c r="M258" s="6">
-        <v>64</v>
-      </c>
-      <c r="N258" s="3"/>
-      <c r="O258" s="6">
-        <v>65</v>
-      </c>
-      <c r="P258" s="3"/>
-      <c r="Q258" s="6">
-        <v>74</v>
-      </c>
+      <c r="G258" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H258" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="I258" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="J258" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="K258" s="5">
+        <v>5.42</v>
+      </c>
+      <c r="L258" s="5">
+        <v>6.09</v>
+      </c>
+      <c r="M258" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="N258" s="5">
+        <v>7.08</v>
+      </c>
+      <c r="O258" s="5">
+        <v>8.11</v>
+      </c>
+      <c r="P258" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
       <c r="S258" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="G259" s="5">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="H259" s="5">
-        <v>0.93</v>
+        <v>0.37</v>
       </c>
       <c r="I259" s="5">
-        <v>0.96</v>
+        <v>0.42</v>
       </c>
       <c r="J259" s="5">
-        <v>1.05</v>
+        <v>6.78</v>
       </c>
       <c r="K259" s="5">
-        <v>1.05</v>
+        <v>15.1</v>
       </c>
       <c r="L259" s="5">
-        <v>1</v>
+        <v>13.25</v>
       </c>
       <c r="M259" s="5">
-        <v>0.95</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="N259" s="5">
-        <v>0.88</v>
+        <v>24.41</v>
       </c>
       <c r="O259" s="5">
-        <v>0.88</v>
+        <v>24.13</v>
       </c>
       <c r="P259" s="5">
-        <v>1.01</v>
+        <v>22.9</v>
       </c>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>24</v>
+        <v>316</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="G260" s="6">
-        <v>830</v>
-      </c>
-      <c r="H260" s="6">
-        <v>830</v>
-      </c>
-      <c r="I260" s="6">
-        <v>685</v>
-      </c>
-      <c r="J260" s="6">
-        <v>685</v>
-      </c>
-      <c r="K260" s="6">
-        <v>685</v>
-      </c>
-      <c r="L260" s="6">
-        <v>685</v>
-      </c>
-      <c r="M260" s="6">
-        <v>685</v>
-      </c>
-      <c r="N260" s="6">
-        <v>685</v>
-      </c>
-      <c r="O260" s="6">
-        <v>685</v>
-      </c>
-      <c r="P260" s="6">
-        <v>685</v>
+        <v>25</v>
+      </c>
+      <c r="G260" s="5">
+        <v>66.8</v>
+      </c>
+      <c r="H260" s="5">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="I260" s="5">
+        <v>66.91</v>
+      </c>
+      <c r="J260" s="5">
+        <v>61.95</v>
+      </c>
+      <c r="K260" s="5">
+        <v>58.38</v>
+      </c>
+      <c r="L260" s="5">
+        <v>54.29</v>
+      </c>
+      <c r="M260" s="5">
+        <v>45.74</v>
+      </c>
+      <c r="N260" s="5">
+        <v>41.77</v>
+      </c>
+      <c r="O260" s="5">
+        <v>41.58</v>
+      </c>
+      <c r="P260" s="5">
+        <v>43.03</v>
       </c>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
       <c r="S260" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>45</v>
@@ -15112,495 +15135,479 @@
         <v>24</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G261" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="H261" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="I261" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="J261" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="K261" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="L261" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M261" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="N261" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="O261" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="P261" s="5">
-        <v>0.6</v>
+        <v>132</v>
+      </c>
+      <c r="G261" s="6">
+        <v>28</v>
+      </c>
+      <c r="H261" s="6">
+        <v>27</v>
+      </c>
+      <c r="I261" s="6">
+        <v>26</v>
+      </c>
+      <c r="J261" s="6">
+        <v>25</v>
+      </c>
+      <c r="K261" s="6">
+        <v>24</v>
+      </c>
+      <c r="L261" s="6">
+        <v>23</v>
+      </c>
+      <c r="M261" s="6">
+        <v>22</v>
+      </c>
+      <c r="N261" s="6">
+        <v>22</v>
+      </c>
+      <c r="O261" s="6">
+        <v>22</v>
+      </c>
+      <c r="P261" s="6">
+        <v>21</v>
       </c>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G262" s="6">
-        <v>10</v>
-      </c>
-      <c r="H262" s="6">
-        <v>9</v>
-      </c>
-      <c r="I262" s="6">
-        <v>11</v>
-      </c>
-      <c r="J262" s="6">
-        <v>11</v>
-      </c>
-      <c r="K262" s="6">
-        <v>15</v>
-      </c>
-      <c r="L262" s="6">
-        <v>16</v>
-      </c>
-      <c r="M262" s="6">
-        <v>19</v>
-      </c>
-      <c r="N262" s="6">
-        <v>21</v>
-      </c>
-      <c r="O262" s="6">
-        <v>25</v>
-      </c>
-      <c r="P262" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q262" s="6">
-        <v>34</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G262" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="H262" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="I262" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="J262" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K262" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="L262" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="M262" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="N262" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="O262" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="P262" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
       <c r="S262" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G263" s="6">
-        <v>10</v>
-      </c>
-      <c r="H263" s="6">
-        <v>9</v>
-      </c>
-      <c r="I263" s="6">
-        <v>11</v>
-      </c>
-      <c r="J263" s="6">
-        <v>12</v>
-      </c>
-      <c r="K263" s="6">
-        <v>14</v>
-      </c>
-      <c r="L263" s="6">
-        <v>15</v>
-      </c>
-      <c r="M263" s="6">
-        <v>19</v>
-      </c>
-      <c r="N263" s="6">
-        <v>21</v>
-      </c>
-      <c r="O263" s="6">
-        <v>24</v>
-      </c>
-      <c r="P263" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q263" s="6">
-        <v>32</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="G263" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H263" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="I263" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K263" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="L263" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M263" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="N263" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="O263" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="P263" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G264" s="6">
-        <v>10</v>
-      </c>
-      <c r="H264" s="6">
-        <v>9</v>
-      </c>
-      <c r="I264" s="6">
-        <v>10</v>
-      </c>
-      <c r="J264" s="6">
-        <v>11</v>
-      </c>
-      <c r="K264" s="6">
-        <v>15</v>
-      </c>
-      <c r="L264" s="6">
-        <v>16</v>
-      </c>
-      <c r="M264" s="6">
-        <v>19</v>
-      </c>
-      <c r="N264" s="6">
-        <v>21</v>
-      </c>
-      <c r="O264" s="6">
-        <v>26</v>
-      </c>
-      <c r="P264" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q264" s="6">
-        <v>35</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="G264" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="H264" s="5">
+        <v>20.96</v>
+      </c>
+      <c r="I264" s="5">
+        <v>18.27</v>
+      </c>
+      <c r="J264" s="5">
+        <v>17.27</v>
+      </c>
+      <c r="K264" s="5">
+        <v>17.22</v>
+      </c>
+      <c r="L264" s="5">
+        <v>16.93</v>
+      </c>
+      <c r="M264" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="N264" s="5">
+        <v>18.71</v>
+      </c>
+      <c r="O264" s="5">
+        <v>19.34</v>
+      </c>
+      <c r="P264" s="5">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
       <c r="S264" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G265" s="6">
-        <v>12</v>
-      </c>
-      <c r="H265" s="6">
-        <v>11</v>
-      </c>
-      <c r="I265" s="6">
-        <v>13</v>
-      </c>
-      <c r="J265" s="6">
-        <v>15</v>
-      </c>
-      <c r="K265" s="6">
-        <v>18</v>
-      </c>
-      <c r="L265" s="6">
-        <v>19</v>
-      </c>
-      <c r="M265" s="6">
-        <v>23</v>
-      </c>
-      <c r="N265" s="6">
-        <v>26</v>
-      </c>
-      <c r="O265" s="6">
-        <v>30</v>
-      </c>
-      <c r="P265" s="6">
-        <v>37</v>
-      </c>
-      <c r="Q265" s="6">
-        <v>39</v>
-      </c>
+      <c r="G265" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H265" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I265" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J265" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="K265" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="L265" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M265" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N265" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O265" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P265" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="6">
-        <v>6</v>
-      </c>
-      <c r="H266" s="6">
-        <v>5</v>
-      </c>
-      <c r="I266" s="6">
-        <v>6</v>
-      </c>
-      <c r="J266" s="6">
-        <v>6</v>
-      </c>
-      <c r="K266" s="6">
-        <v>9</v>
-      </c>
-      <c r="L266" s="6">
-        <v>10</v>
-      </c>
-      <c r="M266" s="6">
-        <v>12</v>
-      </c>
-      <c r="N266" s="6">
-        <v>13</v>
-      </c>
-      <c r="O266" s="6">
-        <v>17</v>
-      </c>
-      <c r="P266" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q266" s="6">
-        <v>25</v>
-      </c>
+      <c r="G266" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H266" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="I266" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="J266" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="K266" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="L266" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="M266" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="N266" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="O266" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="P266" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
       <c r="S266" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G267" s="6">
-        <v>10</v>
-      </c>
-      <c r="H267" s="6">
-        <v>6</v>
-      </c>
-      <c r="I267" s="6">
-        <v>8</v>
-      </c>
-      <c r="J267" s="6">
-        <v>9</v>
-      </c>
-      <c r="K267" s="6">
-        <v>9</v>
-      </c>
-      <c r="L267" s="6">
-        <v>8</v>
-      </c>
-      <c r="M267" s="6">
-        <v>9</v>
-      </c>
-      <c r="N267" s="6">
-        <v>11</v>
-      </c>
-      <c r="O267" s="6">
-        <v>16</v>
-      </c>
-      <c r="P267" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q267" s="6">
-        <v>21</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="G267" s="4">
+        <v>100</v>
+      </c>
+      <c r="H267" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I267" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="J267" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="K267" s="4">
+        <v>92.7</v>
+      </c>
+      <c r="L267" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="M267" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N267" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O267" s="4">
+        <v>100.6</v>
+      </c>
+      <c r="P267" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G268" s="6">
-        <v>18</v>
-      </c>
-      <c r="H268" s="6">
-        <v>16</v>
-      </c>
-      <c r="I268" s="6">
-        <v>19</v>
-      </c>
-      <c r="J268" s="6">
-        <v>20</v>
-      </c>
-      <c r="K268" s="6">
-        <v>28</v>
-      </c>
-      <c r="L268" s="6">
-        <v>28</v>
-      </c>
-      <c r="M268" s="6">
-        <v>32</v>
-      </c>
-      <c r="N268" s="6">
-        <v>35</v>
-      </c>
-      <c r="O268" s="6">
-        <v>39</v>
-      </c>
-      <c r="P268" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q268" s="6">
-        <v>53</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G268" s="4">
+        <v>100</v>
+      </c>
+      <c r="H268" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I268" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J268" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="K268" s="4">
+        <v>94.1</v>
+      </c>
+      <c r="L268" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="M268" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="N268" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="O268" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="P268" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
       <c r="S268" s="2" t="s">
-        <v>26</v>
+        <v>336</v>
       </c>
     </row>
     <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G269" s="6">
-        <v>13</v>
-      </c>
-      <c r="H269" s="6">
-        <v>13</v>
-      </c>
-      <c r="I269" s="6">
-        <v>16</v>
-      </c>
-      <c r="J269" s="6">
-        <v>19</v>
-      </c>
-      <c r="K269" s="6">
-        <v>24</v>
-      </c>
-      <c r="L269" s="6">
-        <v>25</v>
-      </c>
-      <c r="M269" s="6">
-        <v>27</v>
-      </c>
-      <c r="N269" s="6">
-        <v>33</v>
-      </c>
-      <c r="O269" s="6">
-        <v>36</v>
-      </c>
-      <c r="P269" s="6">
-        <v>46</v>
-      </c>
-      <c r="Q269" s="6">
-        <v>48</v>
-      </c>
+      <c r="G269" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H269" s="5">
+        <v>10.35</v>
+      </c>
+      <c r="I269" s="5">
+        <v>10.97</v>
+      </c>
+      <c r="J269" s="5">
+        <v>11.46</v>
+      </c>
+      <c r="K269" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L269" s="5">
+        <v>11.89</v>
+      </c>
+      <c r="M269" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N269" s="5">
+        <v>11.12</v>
+      </c>
+      <c r="O269" s="5">
+        <v>11.48</v>
+      </c>
+      <c r="P269" s="5">
+        <v>12.16</v>
+      </c>
+      <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="2" t="s">
         <v>26</v>
@@ -15608,341 +15615,329 @@
     </row>
     <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="G270" s="6">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="H270" s="6">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="I270" s="6">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="J270" s="6">
-        <v>12</v>
+        <v>778</v>
       </c>
       <c r="K270" s="6">
-        <v>15</v>
+        <v>847</v>
       </c>
       <c r="L270" s="6">
-        <v>15</v>
+        <v>909</v>
       </c>
       <c r="M270" s="6">
-        <v>18</v>
+        <v>930</v>
       </c>
       <c r="N270" s="6">
-        <v>19</v>
+        <v>946</v>
       </c>
       <c r="O270" s="6">
-        <v>25</v>
+        <v>991</v>
       </c>
       <c r="P270" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q270" s="6">
-        <v>35</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
       <c r="S270" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G271" s="6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H271" s="6">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I271" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J271" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K271" s="6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L271" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M271" s="6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N271" s="6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O271" s="6">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P271" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q271" s="6">
-        <v>23</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>171</v>
+        <v>346</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G272" s="6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H272" s="6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I272" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J272" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K272" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L272" s="6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M272" s="6">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="N272" s="6">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O272" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P272" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q272" s="6">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G273" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H273" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I273" s="6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J273" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K273" s="6">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L273" s="6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M273" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N273" s="6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O273" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P273" s="6">
-        <v>64</v>
-      </c>
-      <c r="Q273" s="6">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G274" s="6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H274" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I274" s="6">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J274" s="6">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="K274" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L274" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M274" s="6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N274" s="6">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O274" s="6">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="P274" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q274" s="6">
-        <v>25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G275" s="6">
-        <v>2</v>
-      </c>
-      <c r="H275" s="6">
-        <v>1</v>
-      </c>
-      <c r="I275" s="6">
-        <v>2</v>
-      </c>
-      <c r="J275" s="6">
-        <v>1</v>
-      </c>
-      <c r="K275" s="6">
-        <v>1</v>
-      </c>
-      <c r="L275" s="6">
-        <v>2</v>
-      </c>
-      <c r="M275" s="6">
-        <v>2</v>
-      </c>
-      <c r="N275" s="6">
-        <v>2</v>
-      </c>
-      <c r="O275" s="6">
-        <v>4</v>
-      </c>
-      <c r="P275" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q275" s="6">
-        <v>5</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G275" s="4">
+        <v>100</v>
+      </c>
+      <c r="H275" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I275" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J275" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K275" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L275" s="4">
+        <v>106</v>
+      </c>
+      <c r="M275" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N275" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O275" s="4">
+        <v>130</v>
+      </c>
+      <c r="P275" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
       <c r="S275" s="2" t="s">
         <v>26</v>
@@ -15950,241 +15945,237 @@
     </row>
     <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G276" s="6">
-        <v>14</v>
-      </c>
-      <c r="H276" s="6">
-        <v>13</v>
-      </c>
-      <c r="I276" s="6">
-        <v>15</v>
-      </c>
-      <c r="J276" s="6">
-        <v>17</v>
-      </c>
-      <c r="K276" s="6">
-        <v>21</v>
-      </c>
-      <c r="L276" s="6">
-        <v>23</v>
-      </c>
-      <c r="M276" s="6">
-        <v>25</v>
-      </c>
-      <c r="N276" s="6">
-        <v>29</v>
-      </c>
-      <c r="O276" s="6">
-        <v>33</v>
-      </c>
-      <c r="P276" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q276" s="6">
-        <v>45</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G276" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H276" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I276" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J276" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K276" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L276" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M276" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N276" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O276" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P276" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
       <c r="S276" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" s="6">
-        <v>15</v>
-      </c>
-      <c r="H277" s="6">
-        <v>14</v>
-      </c>
-      <c r="I277" s="6">
-        <v>16</v>
-      </c>
-      <c r="J277" s="6">
-        <v>18</v>
-      </c>
-      <c r="K277" s="6">
-        <v>23</v>
-      </c>
-      <c r="L277" s="6">
-        <v>25</v>
-      </c>
-      <c r="M277" s="6">
-        <v>27</v>
-      </c>
-      <c r="N277" s="6">
-        <v>30</v>
-      </c>
-      <c r="O277" s="6">
-        <v>35</v>
-      </c>
-      <c r="P277" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q277" s="6">
-        <v>46</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G277" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="H277" s="4">
+        <v>87</v>
+      </c>
+      <c r="I277" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="J277" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="K277" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="L277" s="4">
+        <v>85.9</v>
+      </c>
+      <c r="M277" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="N277" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="O277" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="P277" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G278" s="6">
-        <v>8</v>
-      </c>
-      <c r="H278" s="6">
-        <v>5</v>
-      </c>
-      <c r="I278" s="6">
-        <v>6</v>
-      </c>
-      <c r="J278" s="6">
-        <v>7</v>
-      </c>
-      <c r="K278" s="6">
-        <v>7</v>
-      </c>
-      <c r="L278" s="6">
-        <v>7</v>
-      </c>
-      <c r="M278" s="6">
-        <v>7</v>
-      </c>
-      <c r="N278" s="6">
-        <v>11</v>
-      </c>
-      <c r="O278" s="6">
-        <v>10</v>
-      </c>
-      <c r="P278" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q278" s="6">
-        <v>25</v>
+      <c r="G278" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H278" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I278" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K278" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L278" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M278" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P278" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q278" s="7">
+        <v>0.2</v>
       </c>
       <c r="R278" s="3"/>
       <c r="S278" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G279" s="6">
-        <v>4</v>
-      </c>
-      <c r="H279" s="6">
-        <v>3</v>
-      </c>
-      <c r="I279" s="6">
-        <v>5</v>
-      </c>
-      <c r="J279" s="6">
-        <v>4</v>
-      </c>
-      <c r="K279" s="6">
-        <v>5</v>
-      </c>
-      <c r="L279" s="6">
-        <v>5</v>
-      </c>
-      <c r="M279" s="6">
-        <v>7</v>
-      </c>
-      <c r="N279" s="6">
-        <v>8</v>
-      </c>
-      <c r="O279" s="6">
-        <v>9</v>
-      </c>
-      <c r="P279" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q279" s="6">
-        <v>14</v>
+      <c r="G279" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="H279" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="I279" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="J279" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="K279" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="L279" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="M279" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="N279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="O279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="P279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="Q279" s="4">
+        <v>30.9</v>
       </c>
       <c r="R279" s="3"/>
       <c r="S279" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>45</v>
@@ -16193,230 +16184,1806 @@
         <v>24</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G280" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H280" s="4">
-        <v>6</v>
-      </c>
-      <c r="I280" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J280" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K280" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L280" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M280" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N280" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O280" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P280" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q280" s="4">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G280" s="6">
+        <v>28</v>
+      </c>
+      <c r="H280" s="6">
+        <v>27</v>
+      </c>
+      <c r="I280" s="6">
+        <v>26</v>
+      </c>
+      <c r="J280" s="6">
+        <v>25</v>
+      </c>
+      <c r="K280" s="6">
+        <v>24</v>
+      </c>
+      <c r="L280" s="6">
+        <v>23</v>
+      </c>
+      <c r="M280" s="6">
+        <v>22</v>
+      </c>
+      <c r="N280" s="6">
+        <v>22</v>
+      </c>
+      <c r="O280" s="6">
+        <v>22</v>
+      </c>
+      <c r="P280" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
       <c r="S280" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G281" s="5">
-        <v>377.75</v>
-      </c>
-      <c r="H281" s="5">
-        <v>417.47</v>
-      </c>
-      <c r="I281" s="5">
-        <v>421.06</v>
-      </c>
-      <c r="J281" s="5">
-        <v>487.12</v>
-      </c>
-      <c r="K281" s="5">
-        <v>451.84</v>
-      </c>
-      <c r="L281" s="5">
-        <v>440.89</v>
-      </c>
-      <c r="M281" s="5">
-        <v>662.95</v>
-      </c>
-      <c r="N281" s="5">
-        <v>679.46</v>
-      </c>
-      <c r="O281" s="5">
-        <v>766.04</v>
-      </c>
-      <c r="P281" s="5">
-        <v>776.56</v>
-      </c>
-      <c r="Q281" s="5">
-        <v>802.9</v>
+        <v>25</v>
+      </c>
+      <c r="G281" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="H281" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="I281" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J281" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="K281" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="L281" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="M281" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="N281" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O281" s="4">
+        <v>74</v>
+      </c>
+      <c r="P281" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="Q281" s="4">
+        <v>74.8</v>
       </c>
       <c r="R281" s="3"/>
       <c r="S281" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G282" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H282" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I282" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J282" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K282" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L282" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M282" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N282" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O282" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P282" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q282" s="5">
-        <v>206.01</v>
+        <v>25</v>
+      </c>
+      <c r="G282" s="4">
+        <v>88</v>
+      </c>
+      <c r="H282" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I282" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J282" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K282" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L282" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M282" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N282" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O282" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P282" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q282" s="4">
+        <v>94.7</v>
       </c>
       <c r="R282" s="3"/>
       <c r="S282" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G283" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H283" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I283" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J283" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K283" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L283" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M283" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N283" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O283" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P283" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q283" s="5">
-        <v>0.14000000000000001</v>
+      <c r="G283" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H283" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="I283" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="J283" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K283" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="L283" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="M283" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="N283" s="4">
+        <v>42</v>
+      </c>
+      <c r="O283" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P283" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q283" s="4">
+        <v>45.2</v>
       </c>
       <c r="R283" s="3"/>
       <c r="S283" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G284" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H284" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I284" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J284" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K284" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L284" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M284" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N284" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O284" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P284" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" s="6">
+        <v>70</v>
+      </c>
+      <c r="H285" s="6">
+        <v>75</v>
+      </c>
+      <c r="I285" s="6">
+        <v>66</v>
+      </c>
+      <c r="J285" s="6">
+        <v>64</v>
+      </c>
+      <c r="K285" s="6">
+        <v>70</v>
+      </c>
+      <c r="L285" s="6">
+        <v>66</v>
+      </c>
+      <c r="M285" s="6">
+        <v>80</v>
+      </c>
+      <c r="N285" s="6">
+        <v>89</v>
+      </c>
+      <c r="O285" s="6">
+        <v>86</v>
+      </c>
+      <c r="P285" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q285" s="6">
+        <v>85</v>
+      </c>
+      <c r="R285" s="3"/>
+      <c r="S285" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G286" s="6">
+        <v>55</v>
+      </c>
+      <c r="H286" s="3"/>
+      <c r="I286" s="6">
+        <v>58</v>
+      </c>
+      <c r="J286" s="3"/>
+      <c r="K286" s="6">
+        <v>60</v>
+      </c>
+      <c r="L286" s="3"/>
+      <c r="M286" s="6">
+        <v>64</v>
+      </c>
+      <c r="N286" s="3"/>
+      <c r="O286" s="6">
+        <v>65</v>
+      </c>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="6">
+        <v>74</v>
+      </c>
+      <c r="R286" s="3"/>
+      <c r="S286" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G287" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="H287" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="I287" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="J287" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K287" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="L287" s="5">
+        <v>1</v>
+      </c>
+      <c r="M287" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="N287" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O287" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P287" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G288" s="6">
+        <v>830</v>
+      </c>
+      <c r="H288" s="6">
+        <v>830</v>
+      </c>
+      <c r="I288" s="6">
+        <v>685</v>
+      </c>
+      <c r="J288" s="6">
+        <v>685</v>
+      </c>
+      <c r="K288" s="6">
+        <v>685</v>
+      </c>
+      <c r="L288" s="6">
+        <v>685</v>
+      </c>
+      <c r="M288" s="6">
+        <v>685</v>
+      </c>
+      <c r="N288" s="6">
+        <v>685</v>
+      </c>
+      <c r="O288" s="6">
+        <v>685</v>
+      </c>
+      <c r="P288" s="6">
+        <v>685</v>
+      </c>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G289" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="H289" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="I289" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K289" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M289" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="N289" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="O289" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="P289" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
+      <c r="D290" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G290" s="6">
+        <v>10</v>
+      </c>
+      <c r="H290" s="6">
+        <v>9</v>
+      </c>
+      <c r="I290" s="6">
+        <v>11</v>
+      </c>
+      <c r="J290" s="6">
+        <v>11</v>
+      </c>
+      <c r="K290" s="6">
+        <v>15</v>
+      </c>
+      <c r="L290" s="6">
+        <v>16</v>
+      </c>
+      <c r="M290" s="6">
+        <v>19</v>
+      </c>
+      <c r="N290" s="6">
+        <v>21</v>
+      </c>
+      <c r="O290" s="6">
+        <v>25</v>
+      </c>
+      <c r="P290" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q290" s="6">
+        <v>34</v>
+      </c>
+      <c r="R290" s="3"/>
+      <c r="S290" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G291" s="6">
+        <v>10</v>
+      </c>
+      <c r="H291" s="6">
+        <v>9</v>
+      </c>
+      <c r="I291" s="6">
+        <v>11</v>
+      </c>
+      <c r="J291" s="6">
+        <v>12</v>
+      </c>
+      <c r="K291" s="6">
+        <v>14</v>
+      </c>
+      <c r="L291" s="6">
+        <v>15</v>
+      </c>
+      <c r="M291" s="6">
+        <v>19</v>
+      </c>
+      <c r="N291" s="6">
+        <v>21</v>
+      </c>
+      <c r="O291" s="6">
+        <v>24</v>
+      </c>
+      <c r="P291" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>32</v>
+      </c>
+      <c r="R291" s="3"/>
+      <c r="S291" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G292" s="6">
+        <v>10</v>
+      </c>
+      <c r="H292" s="6">
+        <v>9</v>
+      </c>
+      <c r="I292" s="6">
+        <v>10</v>
+      </c>
+      <c r="J292" s="6">
+        <v>11</v>
+      </c>
+      <c r="K292" s="6">
+        <v>15</v>
+      </c>
+      <c r="L292" s="6">
+        <v>16</v>
+      </c>
+      <c r="M292" s="6">
+        <v>19</v>
+      </c>
+      <c r="N292" s="6">
+        <v>21</v>
+      </c>
+      <c r="O292" s="6">
+        <v>26</v>
+      </c>
+      <c r="P292" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>35</v>
+      </c>
+      <c r="R292" s="3"/>
+      <c r="S292" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G293" s="6">
+        <v>12</v>
+      </c>
+      <c r="H293" s="6">
+        <v>11</v>
+      </c>
+      <c r="I293" s="6">
+        <v>13</v>
+      </c>
+      <c r="J293" s="6">
+        <v>15</v>
+      </c>
+      <c r="K293" s="6">
+        <v>18</v>
+      </c>
+      <c r="L293" s="6">
+        <v>19</v>
+      </c>
+      <c r="M293" s="6">
+        <v>23</v>
+      </c>
+      <c r="N293" s="6">
+        <v>26</v>
+      </c>
+      <c r="O293" s="6">
+        <v>30</v>
+      </c>
+      <c r="P293" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>39</v>
+      </c>
+      <c r="R293" s="3"/>
+      <c r="S293" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G294" s="6">
+        <v>6</v>
+      </c>
+      <c r="H294" s="6">
+        <v>5</v>
+      </c>
+      <c r="I294" s="6">
+        <v>6</v>
+      </c>
+      <c r="J294" s="6">
+        <v>6</v>
+      </c>
+      <c r="K294" s="6">
+        <v>9</v>
+      </c>
+      <c r="L294" s="6">
+        <v>10</v>
+      </c>
+      <c r="M294" s="6">
+        <v>12</v>
+      </c>
+      <c r="N294" s="6">
+        <v>13</v>
+      </c>
+      <c r="O294" s="6">
+        <v>17</v>
+      </c>
+      <c r="P294" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q294" s="6">
+        <v>25</v>
+      </c>
+      <c r="R294" s="3"/>
+      <c r="S294" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G295" s="6">
+        <v>10</v>
+      </c>
+      <c r="H295" s="6">
+        <v>6</v>
+      </c>
+      <c r="I295" s="6">
+        <v>8</v>
+      </c>
+      <c r="J295" s="6">
+        <v>9</v>
+      </c>
+      <c r="K295" s="6">
+        <v>9</v>
+      </c>
+      <c r="L295" s="6">
+        <v>8</v>
+      </c>
+      <c r="M295" s="6">
+        <v>9</v>
+      </c>
+      <c r="N295" s="6">
+        <v>11</v>
+      </c>
+      <c r="O295" s="6">
+        <v>16</v>
+      </c>
+      <c r="P295" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q295" s="6">
+        <v>21</v>
+      </c>
+      <c r="R295" s="3"/>
+      <c r="S295" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G296" s="6">
+        <v>18</v>
+      </c>
+      <c r="H296" s="6">
+        <v>16</v>
+      </c>
+      <c r="I296" s="6">
+        <v>19</v>
+      </c>
+      <c r="J296" s="6">
+        <v>20</v>
+      </c>
+      <c r="K296" s="6">
+        <v>28</v>
+      </c>
+      <c r="L296" s="6">
+        <v>28</v>
+      </c>
+      <c r="M296" s="6">
+        <v>32</v>
+      </c>
+      <c r="N296" s="6">
+        <v>35</v>
+      </c>
+      <c r="O296" s="6">
+        <v>39</v>
+      </c>
+      <c r="P296" s="6">
+        <v>47</v>
+      </c>
+      <c r="Q296" s="6">
+        <v>53</v>
+      </c>
+      <c r="R296" s="3"/>
+      <c r="S296" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G297" s="6">
+        <v>13</v>
+      </c>
+      <c r="H297" s="6">
+        <v>13</v>
+      </c>
+      <c r="I297" s="6">
+        <v>16</v>
+      </c>
+      <c r="J297" s="6">
+        <v>19</v>
+      </c>
+      <c r="K297" s="6">
+        <v>24</v>
+      </c>
+      <c r="L297" s="6">
+        <v>25</v>
+      </c>
+      <c r="M297" s="6">
+        <v>27</v>
+      </c>
+      <c r="N297" s="6">
+        <v>33</v>
+      </c>
+      <c r="O297" s="6">
+        <v>36</v>
+      </c>
+      <c r="P297" s="6">
+        <v>46</v>
+      </c>
+      <c r="Q297" s="6">
+        <v>48</v>
+      </c>
+      <c r="R297" s="3"/>
+      <c r="S297" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G298" s="6">
+        <v>9</v>
+      </c>
+      <c r="H298" s="6">
+        <v>9</v>
+      </c>
+      <c r="I298" s="6">
+        <v>11</v>
+      </c>
+      <c r="J298" s="6">
+        <v>12</v>
+      </c>
+      <c r="K298" s="6">
+        <v>15</v>
+      </c>
+      <c r="L298" s="6">
+        <v>15</v>
+      </c>
+      <c r="M298" s="6">
+        <v>18</v>
+      </c>
+      <c r="N298" s="6">
+        <v>19</v>
+      </c>
+      <c r="O298" s="6">
+        <v>25</v>
+      </c>
+      <c r="P298" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q298" s="6">
+        <v>35</v>
+      </c>
+      <c r="R298" s="3"/>
+      <c r="S298" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" s="6">
+        <v>4</v>
+      </c>
+      <c r="H299" s="6">
+        <v>5</v>
+      </c>
+      <c r="I299" s="6">
+        <v>6</v>
+      </c>
+      <c r="J299" s="6">
+        <v>6</v>
+      </c>
+      <c r="K299" s="6">
+        <v>7</v>
+      </c>
+      <c r="L299" s="6">
+        <v>10</v>
+      </c>
+      <c r="M299" s="6">
+        <v>12</v>
+      </c>
+      <c r="N299" s="6">
+        <v>12</v>
+      </c>
+      <c r="O299" s="6">
+        <v>14</v>
+      </c>
+      <c r="P299" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q299" s="6">
+        <v>23</v>
+      </c>
+      <c r="R299" s="3"/>
+      <c r="S299" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300" s="6">
+        <v>2</v>
+      </c>
+      <c r="H300" s="6">
+        <v>2</v>
+      </c>
+      <c r="I300" s="6">
+        <v>2</v>
+      </c>
+      <c r="J300" s="6">
+        <v>2</v>
+      </c>
+      <c r="K300" s="6">
+        <v>4</v>
+      </c>
+      <c r="L300" s="6">
+        <v>3</v>
+      </c>
+      <c r="M300" s="6">
+        <v>4</v>
+      </c>
+      <c r="N300" s="6">
+        <v>5</v>
+      </c>
+      <c r="O300" s="6">
+        <v>6</v>
+      </c>
+      <c r="P300" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q300" s="6">
+        <v>9</v>
+      </c>
+      <c r="R300" s="3"/>
+      <c r="S300" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" s="6">
+        <v>27</v>
+      </c>
+      <c r="H301" s="6">
+        <v>27</v>
+      </c>
+      <c r="I301" s="6">
+        <v>28</v>
+      </c>
+      <c r="J301" s="6">
+        <v>30</v>
+      </c>
+      <c r="K301" s="6">
+        <v>39</v>
+      </c>
+      <c r="L301" s="6">
+        <v>41</v>
+      </c>
+      <c r="M301" s="6">
+        <v>45</v>
+      </c>
+      <c r="N301" s="6">
+        <v>49</v>
+      </c>
+      <c r="O301" s="6">
+        <v>55</v>
+      </c>
+      <c r="P301" s="6">
+        <v>64</v>
+      </c>
+      <c r="Q301" s="6">
+        <v>62</v>
+      </c>
+      <c r="R301" s="3"/>
+      <c r="S301" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G302" s="6">
+        <v>7</v>
+      </c>
+      <c r="H302" s="6">
+        <v>6</v>
+      </c>
+      <c r="I302" s="6">
+        <v>8</v>
+      </c>
+      <c r="J302" s="6">
+        <v>8</v>
+      </c>
+      <c r="K302" s="6">
+        <v>10</v>
+      </c>
+      <c r="L302" s="6">
+        <v>10</v>
+      </c>
+      <c r="M302" s="6">
+        <v>12</v>
+      </c>
+      <c r="N302" s="6">
+        <v>14</v>
+      </c>
+      <c r="O302" s="6">
+        <v>17</v>
+      </c>
+      <c r="P302" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q302" s="6">
+        <v>25</v>
+      </c>
+      <c r="R302" s="3"/>
+      <c r="S302" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G303" s="6">
+        <v>2</v>
+      </c>
+      <c r="H303" s="6">
+        <v>1</v>
+      </c>
+      <c r="I303" s="6">
+        <v>2</v>
+      </c>
+      <c r="J303" s="6">
+        <v>1</v>
+      </c>
+      <c r="K303" s="6">
+        <v>1</v>
+      </c>
+      <c r="L303" s="6">
+        <v>2</v>
+      </c>
+      <c r="M303" s="6">
+        <v>2</v>
+      </c>
+      <c r="N303" s="6">
+        <v>2</v>
+      </c>
+      <c r="O303" s="6">
+        <v>4</v>
+      </c>
+      <c r="P303" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q303" s="6">
+        <v>5</v>
+      </c>
+      <c r="R303" s="3"/>
+      <c r="S303" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G304" s="6">
+        <v>14</v>
+      </c>
+      <c r="H304" s="6">
+        <v>13</v>
+      </c>
+      <c r="I304" s="6">
+        <v>15</v>
+      </c>
+      <c r="J304" s="6">
+        <v>17</v>
+      </c>
+      <c r="K304" s="6">
+        <v>21</v>
+      </c>
+      <c r="L304" s="6">
+        <v>23</v>
+      </c>
+      <c r="M304" s="6">
+        <v>25</v>
+      </c>
+      <c r="N304" s="6">
+        <v>29</v>
+      </c>
+      <c r="O304" s="6">
+        <v>33</v>
+      </c>
+      <c r="P304" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q304" s="6">
+        <v>45</v>
+      </c>
+      <c r="R304" s="3"/>
+      <c r="S304" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G305" s="6">
+        <v>15</v>
+      </c>
+      <c r="H305" s="6">
+        <v>14</v>
+      </c>
+      <c r="I305" s="6">
+        <v>16</v>
+      </c>
+      <c r="J305" s="6">
+        <v>18</v>
+      </c>
+      <c r="K305" s="6">
+        <v>23</v>
+      </c>
+      <c r="L305" s="6">
+        <v>25</v>
+      </c>
+      <c r="M305" s="6">
+        <v>27</v>
+      </c>
+      <c r="N305" s="6">
+        <v>30</v>
+      </c>
+      <c r="O305" s="6">
+        <v>35</v>
+      </c>
+      <c r="P305" s="6">
+        <v>44</v>
+      </c>
+      <c r="Q305" s="6">
+        <v>46</v>
+      </c>
+      <c r="R305" s="3"/>
+      <c r="S305" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G306" s="6">
+        <v>8</v>
+      </c>
+      <c r="H306" s="6">
+        <v>5</v>
+      </c>
+      <c r="I306" s="6">
+        <v>6</v>
+      </c>
+      <c r="J306" s="6">
+        <v>7</v>
+      </c>
+      <c r="K306" s="6">
+        <v>7</v>
+      </c>
+      <c r="L306" s="6">
+        <v>7</v>
+      </c>
+      <c r="M306" s="6">
+        <v>7</v>
+      </c>
+      <c r="N306" s="6">
+        <v>11</v>
+      </c>
+      <c r="O306" s="6">
+        <v>10</v>
+      </c>
+      <c r="P306" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q306" s="6">
+        <v>25</v>
+      </c>
+      <c r="R306" s="3"/>
+      <c r="S306" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G307" s="6">
+        <v>4</v>
+      </c>
+      <c r="H307" s="6">
+        <v>3</v>
+      </c>
+      <c r="I307" s="6">
+        <v>5</v>
+      </c>
+      <c r="J307" s="6">
+        <v>4</v>
+      </c>
+      <c r="K307" s="6">
+        <v>5</v>
+      </c>
+      <c r="L307" s="6">
+        <v>5</v>
+      </c>
+      <c r="M307" s="6">
+        <v>7</v>
+      </c>
+      <c r="N307" s="6">
+        <v>8</v>
+      </c>
+      <c r="O307" s="6">
+        <v>9</v>
+      </c>
+      <c r="P307" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q307" s="6">
+        <v>14</v>
+      </c>
+      <c r="R307" s="3"/>
+      <c r="S307" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H308" s="4">
+        <v>6</v>
+      </c>
+      <c r="I308" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J308" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K308" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L308" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M308" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="N308" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="O308" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P308" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Q308" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R308" s="3"/>
+      <c r="S308" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B285" s="8"/>
+      <c r="C309" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G309" s="5">
+        <v>377.75</v>
+      </c>
+      <c r="H309" s="5">
+        <v>417.47</v>
+      </c>
+      <c r="I309" s="5">
+        <v>421.06</v>
+      </c>
+      <c r="J309" s="5">
+        <v>487.12</v>
+      </c>
+      <c r="K309" s="5">
+        <v>451.84</v>
+      </c>
+      <c r="L309" s="5">
+        <v>440.89</v>
+      </c>
+      <c r="M309" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="N309" s="5">
+        <v>679.46</v>
+      </c>
+      <c r="O309" s="5">
+        <v>766.04</v>
+      </c>
+      <c r="P309" s="5">
+        <v>776.56</v>
+      </c>
+      <c r="Q309" s="5">
+        <v>802.9</v>
+      </c>
+      <c r="R309" s="3"/>
+      <c r="S309" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G310" s="5">
+        <v>96.04</v>
+      </c>
+      <c r="H310" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="I310" s="5">
+        <v>111.55</v>
+      </c>
+      <c r="J310" s="5">
+        <v>127.11</v>
+      </c>
+      <c r="K310" s="5">
+        <v>82.28</v>
+      </c>
+      <c r="L310" s="5">
+        <v>100.19</v>
+      </c>
+      <c r="M310" s="5">
+        <v>148.99</v>
+      </c>
+      <c r="N310" s="5">
+        <v>222.11</v>
+      </c>
+      <c r="O310" s="5">
+        <v>244.93</v>
+      </c>
+      <c r="P310" s="5">
+        <v>223.31</v>
+      </c>
+      <c r="Q310" s="5">
+        <v>206.01</v>
+      </c>
+      <c r="R310" s="3"/>
+      <c r="S310" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G311" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H311" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="I311" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J311" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K311" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L311" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M311" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N311" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R311" s="3"/>
+      <c r="S311" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B313" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A313:B313"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 09-11-2021, 11:05</t>
+    <t>Last update: 24-11-2021, 11:15</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1718,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15266,24 +15266,26 @@
         <v>0.6</v>
       </c>
       <c r="K263" s="5">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="L263" s="5">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="M263" s="5">
         <v>0.64</v>
       </c>
       <c r="N263" s="5">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="O263" s="5">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="P263" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="Q263" s="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q263" s="5">
+        <v>0.79</v>
+      </c>
       <c r="R263" s="3"/>
       <c r="S263" s="2" t="s">
         <v>99</v>
@@ -15336,9 +15338,11 @@
         <v>19.34</v>
       </c>
       <c r="P264" s="5">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="Q264" s="3"/>
+        <v>17.62</v>
+      </c>
+      <c r="Q264" s="5">
+        <v>17.53</v>
+      </c>
       <c r="R264" s="3"/>
       <c r="S264" s="2" t="s">
         <v>99</v>
@@ -15725,7 +15729,9 @@
       <c r="P271" s="6">
         <v>40</v>
       </c>
-      <c r="Q271" s="3"/>
+      <c r="Q271" s="6">
+        <v>60</v>
+      </c>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
         <v>199</v>
@@ -15780,7 +15786,9 @@
       <c r="P272" s="6">
         <v>25</v>
       </c>
-      <c r="Q272" s="3"/>
+      <c r="Q272" s="6">
+        <v>20</v>
+      </c>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
         <v>199</v>
@@ -15835,7 +15843,9 @@
       <c r="P273" s="6">
         <v>0</v>
       </c>
-      <c r="Q273" s="3"/>
+      <c r="Q273" s="6">
+        <v>40</v>
+      </c>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
         <v>199</v>
@@ -15890,7 +15900,9 @@
       <c r="P274" s="6">
         <v>75</v>
       </c>
-      <c r="Q274" s="3"/>
+      <c r="Q274" s="6">
+        <v>40</v>
+      </c>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
         <v>199</v>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 24-11-2021, 11:15</t>
+    <t>Last update: 07-12-2021, 09:35</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1718,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-12-2021, 09:35</t>
+    <t>Last update: 18-01-2022, 08:16</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1718,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 18-01-2022, 08:16</t>
+    <t>Last update: 18-01-2022, 12:30</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="SDGs_1-17" sheetId="1" r:id="rId1"/>
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 22-02-2022, 08:05</t>
+    <t>Last update: 15-03-2022, 09:58</t>
   </si>
 </sst>
 </file>
@@ -1718,33 +1718,33 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6433,7 +6433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>134</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>134</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>134</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>134</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>134</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>134</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>134</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>134</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>134</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>134</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>134</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>134</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>134</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>134</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>134</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>134</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>177</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>177</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>177</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>177</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>177</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>177</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>177</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>177</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>177</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>177</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>177</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>177</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>177</v>
       </c>
@@ -9641,7 +9641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>177</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>195</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>195</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>195</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>195</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>195</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>204</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>204</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>204</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>204</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>204</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>219</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>219</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>219</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>219</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>219</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>219</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>219</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>219</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>219</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>219</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>219</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>219</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>219</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>219</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>219</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>219</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>219</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>219</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>219</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>219</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>219</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>219</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>219</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>219</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>219</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>219</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>219</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>219</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>219</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>219</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>219</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>219</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>219</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>219</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>219</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>219</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>219</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>219</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>219</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>219</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>219</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>219</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>219</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>219</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>219</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>219</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>219</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>219</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>260</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>260</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>260</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>260</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>260</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>260</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>260</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>260</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>260</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>279</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>279</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>279</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>279</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>279</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>279</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>279</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>279</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>279</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>279</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>279</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>279</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>279</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>296</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>296</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>296</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>296</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>296</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>296</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>296</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>296</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>296</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>296</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>296</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>314</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>314</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>314</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>314</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>323</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>323</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>323</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>323</v>
       </c>
@@ -15748,7 +15748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>335</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>335</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>335</v>
       </c>
@@ -15919,7 +15919,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>335</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>335</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>335</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>348</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>348</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>348</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>348</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>348</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>348</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>348</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>348</v>
       </c>
@@ -16546,7 +16546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>360</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>360</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>360</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>360</v>
       </c>
@@ -16764,7 +16764,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>360</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>360</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>360</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>360</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>360</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>360</v>
       </c>
@@ -17116,7 +17116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>360</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>360</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>360</v>
       </c>
@@ -17293,7 +17293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>360</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>360</v>
       </c>
@@ -17411,7 +17411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17588,7 +17588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17647,7 +17647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -17883,7 +17883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>360</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>375</v>
       </c>
@@ -17990,14 +17990,14 @@
         <v>776.56</v>
       </c>
       <c r="Q309" s="5">
-        <v>802.9</v>
+        <v>829.27</v>
       </c>
       <c r="R309" s="3"/>
       <c r="S309" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>375</v>
       </c>
@@ -18047,14 +18047,14 @@
         <v>223.31</v>
       </c>
       <c r="Q310" s="5">
-        <v>206.01</v>
+        <v>225.08</v>
       </c>
       <c r="R310" s="3"/>
       <c r="S310" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>375</v>
       </c>
@@ -18111,8 +18111,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>383</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1174,7 +1174,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 15-03-2022, 09:58</t>
+    <t>Last update: 12-04-2022, 07:58</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="SDGs_1-17" sheetId="1" r:id="rId1"/>
@@ -1717,34 +1717,34 @@
   <dimension ref="A1:S313"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3140,15 +3140,17 @@
         <v>0.48</v>
       </c>
       <c r="P28" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="Q28" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.45</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3205,7 +3207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -3433,7 +3435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -3722,7 +3724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="96" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3958,7 +3960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4264,7 +4266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4319,7 +4321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4539,7 +4541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -4979,7 +4981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5199,7 +5201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5254,7 +5256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5364,7 +5366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5478,7 +5480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5611,7 +5613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5650,7 +5652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5728,7 +5730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5769,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -5892,7 +5894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -5933,7 +5935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6097,7 +6099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6220,7 +6222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6300,7 +6302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6378,7 +6380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6433,7 +6435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6490,7 +6492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6539,7 +6541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6582,7 +6584,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>134</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>134</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
@@ -6796,7 +6798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>134</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>134</v>
       </c>
@@ -7068,7 +7070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>134</v>
       </c>
@@ -7239,7 +7241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>134</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -7353,7 +7355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>134</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>134</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>134</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>134</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>134</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -7848,7 +7850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>134</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
@@ -7922,7 +7924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>134</v>
       </c>
@@ -7959,7 +7961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
@@ -7996,7 +7998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>134</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -8305,7 +8307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -8352,7 +8354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -8446,7 +8448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8540,7 +8542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -8587,7 +8589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -8728,7 +8730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>134</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>134</v>
       </c>
@@ -8916,7 +8918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>177</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>177</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>177</v>
       </c>
@@ -9087,7 +9089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>177</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>177</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>177</v>
       </c>
@@ -9234,7 +9236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>177</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>177</v>
       </c>
@@ -9324,7 +9326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>177</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>177</v>
       </c>
@@ -9414,7 +9416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>177</v>
       </c>
@@ -9459,7 +9461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>177</v>
       </c>
@@ -9514,7 +9516,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>177</v>
       </c>
@@ -9549,7 +9551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>177</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>177</v>
       </c>
@@ -9641,7 +9643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>177</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>177</v>
       </c>
@@ -9755,7 +9757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>195</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>195</v>
       </c>
@@ -9867,7 +9869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>195</v>
       </c>
@@ -9924,7 +9926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>195</v>
       </c>
@@ -9981,7 +9983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>195</v>
       </c>
@@ -10038,7 +10040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>195</v>
       </c>
@@ -10095,7 +10097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>204</v>
       </c>
@@ -10150,7 +10152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>204</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>204</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>204</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>204</v>
       </c>
@@ -10374,7 +10376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>204</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>219</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>219</v>
       </c>
@@ -10543,7 +10545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>219</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>219</v>
       </c>
@@ -10649,7 +10651,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>219</v>
       </c>
@@ -10706,7 +10708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>219</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>219</v>
       </c>
@@ -10820,7 +10822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>219</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>219</v>
       </c>
@@ -10934,7 +10936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>219</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>219</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>219</v>
       </c>
@@ -11105,7 +11107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>219</v>
       </c>
@@ -11162,7 +11164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>219</v>
       </c>
@@ -11219,7 +11221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>219</v>
       </c>
@@ -11276,7 +11278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>219</v>
       </c>
@@ -11333,7 +11335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>219</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>219</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>219</v>
       </c>
@@ -11504,7 +11506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>219</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>219</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>219</v>
       </c>
@@ -11675,7 +11677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>219</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>219</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>219</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>219</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>219</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>219</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>219</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>219</v>
       </c>
@@ -12111,7 +12113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>219</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>219</v>
       </c>
@@ -12205,7 +12207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>219</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>219</v>
       </c>
@@ -12309,7 +12311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>219</v>
       </c>
@@ -12366,7 +12368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>219</v>
       </c>
@@ -12423,7 +12425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>219</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>219</v>
       </c>
@@ -12537,7 +12539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>219</v>
       </c>
@@ -12594,7 +12596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>219</v>
       </c>
@@ -12651,7 +12653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>219</v>
       </c>
@@ -12708,7 +12710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>219</v>
       </c>
@@ -12765,7 +12767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>219</v>
       </c>
@@ -12822,7 +12824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>219</v>
       </c>
@@ -12879,7 +12881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>219</v>
       </c>
@@ -12993,7 +12995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>219</v>
       </c>
@@ -13107,7 +13109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>219</v>
       </c>
@@ -13164,7 +13166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>219</v>
       </c>
@@ -13221,7 +13223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>219</v>
       </c>
@@ -13278,7 +13280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>219</v>
       </c>
@@ -13335,7 +13337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>219</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>219</v>
       </c>
@@ -13447,7 +13449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>219</v>
       </c>
@@ -13502,7 +13504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>219</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>260</v>
       </c>
@@ -13614,7 +13616,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>260</v>
       </c>
@@ -13671,7 +13673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>260</v>
       </c>
@@ -13728,7 +13730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>260</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>260</v>
       </c>
@@ -13840,7 +13842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>260</v>
       </c>
@@ -13897,7 +13899,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>260</v>
       </c>
@@ -13954,7 +13956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>260</v>
       </c>
@@ -14007,7 +14009,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>260</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>279</v>
       </c>
@@ -14121,7 +14123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>279</v>
       </c>
@@ -14176,7 +14178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>279</v>
       </c>
@@ -14229,7 +14231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>279</v>
       </c>
@@ -14284,7 +14286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>279</v>
       </c>
@@ -14329,7 +14331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>279</v>
       </c>
@@ -14374,7 +14376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>279</v>
       </c>
@@ -14417,7 +14419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>279</v>
       </c>
@@ -14460,7 +14462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>279</v>
       </c>
@@ -14503,7 +14505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>279</v>
       </c>
@@ -14546,7 +14548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>279</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>279</v>
       </c>
@@ -14632,7 +14634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>279</v>
       </c>
@@ -14675,7 +14677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>296</v>
       </c>
@@ -14730,7 +14732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>296</v>
       </c>
@@ -14787,7 +14789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>296</v>
       </c>
@@ -14844,7 +14846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>296</v>
       </c>
@@ -14901,7 +14903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>296</v>
       </c>
@@ -14958,7 +14960,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>296</v>
       </c>
@@ -15015,7 +15017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>296</v>
       </c>
@@ -15072,7 +15074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>296</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>296</v>
       </c>
@@ -15186,7 +15188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>296</v>
       </c>
@@ -15243,7 +15245,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>296</v>
       </c>
@@ -15300,7 +15302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>314</v>
       </c>
@@ -15357,7 +15359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>314</v>
       </c>
@@ -15414,7 +15416,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>314</v>
       </c>
@@ -15471,7 +15473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>314</v>
       </c>
@@ -15528,7 +15530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>323</v>
       </c>
@@ -15583,7 +15585,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>323</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>323</v>
       </c>
@@ -15693,7 +15695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>323</v>
       </c>
@@ -15748,7 +15750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>335</v>
       </c>
@@ -15805,7 +15807,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>335</v>
       </c>
@@ -15862,7 +15864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>335</v>
       </c>
@@ -15919,7 +15921,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>335</v>
       </c>
@@ -15976,7 +15978,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>335</v>
       </c>
@@ -16033,7 +16035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>335</v>
       </c>
@@ -16090,7 +16092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>348</v>
       </c>
@@ -16147,7 +16149,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>348</v>
       </c>
@@ -16204,7 +16206,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>348</v>
       </c>
@@ -16261,7 +16263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>348</v>
       </c>
@@ -16318,7 +16320,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>348</v>
       </c>
@@ -16375,7 +16377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>348</v>
       </c>
@@ -16432,7 +16434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>348</v>
       </c>
@@ -16489,7 +16491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>348</v>
       </c>
@@ -16546,7 +16548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>360</v>
       </c>
@@ -16605,7 +16607,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>360</v>
       </c>
@@ -16652,7 +16654,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>360</v>
       </c>
@@ -16709,7 +16711,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>360</v>
       </c>
@@ -16764,7 +16766,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>360</v>
       </c>
@@ -16821,7 +16823,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>360</v>
       </c>
@@ -16880,7 +16882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>360</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>360</v>
       </c>
@@ -16998,7 +17000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>360</v>
       </c>
@@ -17057,7 +17059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>360</v>
       </c>
@@ -17116,7 +17118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>360</v>
       </c>
@@ -17175,7 +17177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>360</v>
       </c>
@@ -17234,7 +17236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>360</v>
       </c>
@@ -17293,7 +17295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>360</v>
       </c>
@@ -17352,7 +17354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>360</v>
       </c>
@@ -17411,7 +17413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17470,7 +17472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17529,7 +17531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17588,7 +17590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17647,7 +17649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17706,7 +17708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -17765,7 +17767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -17824,7 +17826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -17883,7 +17885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>360</v>
       </c>
@@ -17940,7 +17942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>375</v>
       </c>
@@ -17997,7 +17999,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>375</v>
       </c>
@@ -18054,7 +18056,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>375</v>
       </c>
@@ -18111,8 +18113,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
         <v>383</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 26-04-2022, 08:38</t>
+    <t xml:space="preserve">Last update: 27-04-2022, 13:55</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="SDGs_1-17" sheetId="1" r:id="rId1"/>
@@ -1210,7 +1210,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 28-06-2022, 07:57</t>
+    <t>Last update: 12-07-2022, 09:12</t>
   </si>
 </sst>
 </file>
@@ -1753,34 +1753,34 @@
   <dimension ref="A1:S338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1891,12 +1891,14 @@
       <c r="Q4" s="4">
         <v>11.8</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
       <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1948,12 +1950,14 @@
       <c r="Q5" s="4">
         <v>13.4</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4">
+        <v>13.6</v>
+      </c>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1972,7 +1976,9 @@
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4">
+        <v>16.3</v>
+      </c>
       <c r="H6" s="4">
         <v>15.9</v>
       </c>
@@ -2003,12 +2009,14 @@
       <c r="Q6" s="4">
         <v>11.7</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="4">
+        <v>12</v>
+      </c>
       <c r="S6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2060,12 +2068,14 @@
       <c r="Q7" s="4">
         <v>10</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="4">
+        <v>9.9</v>
+      </c>
       <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2084,7 +2094,9 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4">
+        <v>11.9</v>
+      </c>
       <c r="H8" s="4">
         <v>11.4</v>
       </c>
@@ -2115,12 +2127,14 @@
       <c r="Q8" s="4">
         <v>6.6</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="4">
+        <v>7.1</v>
+      </c>
       <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2139,7 +2153,9 @@
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>25.9</v>
+      </c>
       <c r="H9" s="4">
         <v>25.4</v>
       </c>
@@ -2170,12 +2186,14 @@
       <c r="Q9" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="4">
+        <v>19.600000000000001</v>
+      </c>
       <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2212,9 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4">
+        <v>16.600000000000001</v>
+      </c>
       <c r="H10" s="4">
         <v>15.6</v>
       </c>
@@ -2225,12 +2245,14 @@
       <c r="Q10" s="4">
         <v>10.7</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="4">
+        <v>11.2</v>
+      </c>
       <c r="S10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2249,7 +2271,9 @@
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4">
+        <v>26.5</v>
+      </c>
       <c r="H11" s="4">
         <v>29.3</v>
       </c>
@@ -2280,12 +2304,14 @@
       <c r="Q11" s="4">
         <v>28.7</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="4">
+        <v>26.3</v>
+      </c>
       <c r="S11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2304,7 +2330,9 @@
       <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="H12" s="4">
         <v>10</v>
       </c>
@@ -2335,12 +2363,14 @@
       <c r="Q12" s="4">
         <v>7.9</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="4">
+        <v>9.1</v>
+      </c>
       <c r="S12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2359,7 +2389,9 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4">
+        <v>13.2</v>
+      </c>
       <c r="H13" s="4">
         <v>12.5</v>
       </c>
@@ -2390,12 +2422,14 @@
       <c r="Q13" s="4">
         <v>9.6</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="4">
+        <v>9.5</v>
+      </c>
       <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2414,7 +2448,9 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4">
+        <v>25.7</v>
+      </c>
       <c r="H14" s="4">
         <v>26.4</v>
       </c>
@@ -2445,12 +2481,14 @@
       <c r="Q14" s="4">
         <v>17.3</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="4">
+        <v>16.600000000000001</v>
+      </c>
       <c r="S14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2500,12 +2538,14 @@
       <c r="Q15" s="4">
         <v>23.3</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="4">
+        <v>26.7</v>
+      </c>
       <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2555,12 +2595,14 @@
       <c r="Q16" s="4">
         <v>17.8</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="4">
+        <v>18</v>
+      </c>
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2610,12 +2652,14 @@
       <c r="Q17" s="4">
         <v>10.5</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="4">
+        <v>11.5</v>
+      </c>
       <c r="S17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2665,12 +2709,14 @@
       <c r="Q18" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="4">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="S18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2780,7 +2826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +2879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2888,7 +2934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2923,7 +2969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2958,7 +3004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3072,7 +3118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3129,7 +3175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -3186,7 +3232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3243,7 +3289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -3300,7 +3346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -3357,7 +3403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
@@ -3414,7 +3460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -3471,7 +3517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -3528,7 +3574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -3585,7 +3631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -3642,7 +3688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
@@ -3701,7 +3747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
@@ -3760,7 +3806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
@@ -3819,7 +3865,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>58</v>
       </c>
@@ -3878,7 +3924,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3937,7 +3983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="96" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3996,7 +4042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -4037,7 +4083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>58</v>
       </c>
@@ -4078,7 +4124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>58</v>
       </c>
@@ -4119,7 +4165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
@@ -4160,7 +4206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>94</v>
       </c>
@@ -4209,13 +4255,15 @@
       <c r="P47" s="4">
         <v>60.9</v>
       </c>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="4">
+        <v>60.3</v>
+      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -4264,13 +4312,15 @@
       <c r="P48" s="4">
         <v>64.099999999999994</v>
       </c>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="4">
+        <v>64.3</v>
+      </c>
       <c r="R48" s="3"/>
       <c r="S48" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -4327,7 +4377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -4384,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -4441,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>94</v>
       </c>
@@ -4498,7 +4548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>94</v>
       </c>
@@ -4555,7 +4605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -4612,7 +4662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>94</v>
       </c>
@@ -4669,7 +4719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>94</v>
       </c>
@@ -4726,7 +4776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
@@ -4783,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -4840,7 +4890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -4897,7 +4947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>94</v>
       </c>
@@ -4954,7 +5004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -5011,7 +5061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>94</v>
       </c>
@@ -5068,7 +5118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>94</v>
       </c>
@@ -5125,7 +5175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>94</v>
       </c>
@@ -5182,7 +5232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
@@ -5239,7 +5289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>94</v>
       </c>
@@ -5296,7 +5346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>94</v>
       </c>
@@ -5353,7 +5403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5410,7 +5460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>94</v>
       </c>
@@ -5467,7 +5517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>94</v>
       </c>
@@ -5524,7 +5574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -5581,7 +5631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>94</v>
       </c>
@@ -5620,7 +5670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>94</v>
       </c>
@@ -5659,7 +5709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -5698,7 +5748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>94</v>
       </c>
@@ -5737,7 +5787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>94</v>
       </c>
@@ -5776,7 +5826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>94</v>
       </c>
@@ -5815,7 +5865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -5854,7 +5904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>94</v>
       </c>
@@ -5893,7 +5943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>94</v>
       </c>
@@ -5932,7 +5982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>94</v>
       </c>
@@ -5971,7 +6021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>94</v>
       </c>
@@ -6010,7 +6060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -6049,7 +6099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
@@ -6088,7 +6138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -6129,7 +6179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
@@ -6170,7 +6220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
@@ -6211,7 +6261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>94</v>
       </c>
@@ -6252,7 +6302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -6293,7 +6343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -6334,7 +6384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -6375,7 +6425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -6416,7 +6466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -6457,7 +6507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -6498,7 +6548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>94</v>
       </c>
@@ -6539,7 +6589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -6580,7 +6630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>94</v>
       </c>
@@ -6621,7 +6671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -6662,7 +6712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
@@ -6703,7 +6753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>94</v>
       </c>
@@ -6744,7 +6794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -6785,7 +6835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>94</v>
       </c>
@@ -6826,7 +6876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>94</v>
       </c>
@@ -6867,7 +6917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>94</v>
       </c>
@@ -6908,7 +6958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>94</v>
       </c>
@@ -6949,7 +6999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>94</v>
       </c>
@@ -6990,7 +7040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>94</v>
       </c>
@@ -7031,7 +7081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>94</v>
       </c>
@@ -7072,7 +7122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>94</v>
       </c>
@@ -7113,7 +7163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>94</v>
       </c>
@@ -7154,7 +7204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>94</v>
       </c>
@@ -7193,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>94</v>
       </c>
@@ -7232,7 +7282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
@@ -7271,7 +7321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
@@ -7326,7 +7376,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>94</v>
       </c>
@@ -7383,7 +7433,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>94</v>
       </c>
@@ -7432,7 +7482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>94</v>
       </c>
@@ -7481,7 +7531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>94</v>
       </c>
@@ -7530,7 +7580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>94</v>
       </c>
@@ -7573,7 +7623,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>94</v>
       </c>
@@ -7630,7 +7680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>147</v>
       </c>
@@ -7687,7 +7737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>147</v>
       </c>
@@ -7744,7 +7794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -7787,7 +7837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -7830,7 +7880,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -7873,7 +7923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -7916,7 +7966,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -7959,7 +8009,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -8002,7 +8052,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
@@ -8054,12 +8104,14 @@
       <c r="Q129" s="4">
         <v>87.2</v>
       </c>
-      <c r="R129" s="3"/>
+      <c r="R129" s="4">
+        <v>89.6</v>
+      </c>
       <c r="S129" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>147</v>
       </c>
@@ -8111,12 +8163,14 @@
       <c r="Q130" s="4">
         <v>101.1</v>
       </c>
-      <c r="R130" s="3"/>
+      <c r="R130" s="4">
+        <v>103.1</v>
+      </c>
       <c r="S130" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
@@ -8168,12 +8222,14 @@
       <c r="Q131" s="4">
         <v>67.7</v>
       </c>
-      <c r="R131" s="3"/>
+      <c r="R131" s="4">
+        <v>70.900000000000006</v>
+      </c>
       <c r="S131" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>147</v>
       </c>
@@ -8230,7 +8286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>147</v>
       </c>
@@ -8287,7 +8343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>147</v>
       </c>
@@ -8344,7 +8400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
@@ -8401,7 +8457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>147</v>
       </c>
@@ -8458,7 +8514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
@@ -8515,7 +8571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>147</v>
       </c>
@@ -8572,7 +8628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -8629,7 +8685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -8686,7 +8742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
@@ -8743,7 +8799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -8800,7 +8856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
@@ -8839,7 +8895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>147</v>
       </c>
@@ -8876,7 +8932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -8913,7 +8969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -8950,7 +9006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -8987,7 +9043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -9024,7 +9080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -9061,7 +9117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -9108,7 +9164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>147</v>
       </c>
@@ -9155,7 +9211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
@@ -9202,7 +9258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
@@ -9249,7 +9305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -9296,7 +9352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>147</v>
       </c>
@@ -9343,7 +9399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>147</v>
       </c>
@@ -9390,7 +9446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>147</v>
       </c>
@@ -9437,7 +9493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>147</v>
       </c>
@@ -9484,7 +9540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>147</v>
       </c>
@@ -9531,7 +9587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>147</v>
       </c>
@@ -9578,7 +9634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>147</v>
       </c>
@@ -9625,7 +9681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>147</v>
       </c>
@@ -9672,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
@@ -9719,7 +9775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>147</v>
       </c>
@@ -9766,7 +9822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>147</v>
       </c>
@@ -9813,7 +9869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>147</v>
       </c>
@@ -9860,7 +9916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>147</v>
       </c>
@@ -9907,7 +9963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>190</v>
       </c>
@@ -9964,7 +10020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>190</v>
       </c>
@@ -10021,7 +10077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>190</v>
       </c>
@@ -10078,7 +10134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
@@ -10135,7 +10191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>190</v>
       </c>
@@ -10182,7 +10238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>190</v>
       </c>
@@ -10229,7 +10285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>190</v>
       </c>
@@ -10276,7 +10332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>190</v>
       </c>
@@ -10323,7 +10379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>190</v>
       </c>
@@ -10370,7 +10426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>190</v>
       </c>
@@ -10417,7 +10473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>190</v>
       </c>
@@ -10464,7 +10520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>190</v>
       </c>
@@ -10519,7 +10575,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>190</v>
       </c>
@@ -10554,7 +10610,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>190</v>
       </c>
@@ -10589,7 +10645,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
@@ -10646,7 +10702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
@@ -10703,7 +10759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>190</v>
       </c>
@@ -10760,7 +10816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>208</v>
       </c>
@@ -10815,7 +10871,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>208</v>
       </c>
@@ -10872,7 +10928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>208</v>
       </c>
@@ -10929,7 +10985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>208</v>
       </c>
@@ -10986,7 +11042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>208</v>
       </c>
@@ -11043,7 +11099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>208</v>
       </c>
@@ -11100,7 +11156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>217</v>
       </c>
@@ -11155,7 +11211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>217</v>
       </c>
@@ -11212,7 +11268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>217</v>
       </c>
@@ -11269,7 +11325,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>217</v>
       </c>
@@ -11326,7 +11382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>217</v>
       </c>
@@ -11383,7 +11439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>217</v>
       </c>
@@ -11440,7 +11496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>232</v>
       </c>
@@ -11497,7 +11553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>232</v>
       </c>
@@ -11554,7 +11610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>232</v>
       </c>
@@ -11609,7 +11665,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>232</v>
       </c>
@@ -11660,7 +11716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>232</v>
       </c>
@@ -11717,7 +11773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>232</v>
       </c>
@@ -11774,7 +11830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>232</v>
       </c>
@@ -11831,7 +11887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>232</v>
       </c>
@@ -11888,7 +11944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>232</v>
       </c>
@@ -11945,7 +12001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>232</v>
       </c>
@@ -12002,7 +12058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>232</v>
       </c>
@@ -12059,7 +12115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>232</v>
       </c>
@@ -12116,7 +12172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>232</v>
       </c>
@@ -12173,7 +12229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>232</v>
       </c>
@@ -12230,7 +12286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>232</v>
       </c>
@@ -12287,7 +12343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>232</v>
       </c>
@@ -12344,7 +12400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>232</v>
       </c>
@@ -12401,7 +12457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>232</v>
       </c>
@@ -12458,7 +12514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>232</v>
       </c>
@@ -12515,7 +12571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>232</v>
       </c>
@@ -12572,7 +12628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>232</v>
       </c>
@@ -12629,7 +12685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>232</v>
       </c>
@@ -12686,7 +12742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>232</v>
       </c>
@@ -12743,7 +12799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>232</v>
       </c>
@@ -12800,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>232</v>
       </c>
@@ -12857,7 +12913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -12914,7 +12970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>232</v>
       </c>
@@ -12971,7 +13027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
@@ -13028,7 +13084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>232</v>
       </c>
@@ -13075,7 +13131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>232</v>
       </c>
@@ -13122,7 +13178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>232</v>
       </c>
@@ -13169,7 +13225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>232</v>
       </c>
@@ -13216,7 +13272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>232</v>
       </c>
@@ -13263,7 +13319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
@@ -13320,7 +13376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
@@ -13377,7 +13433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -13434,7 +13490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -13491,7 +13547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -13548,7 +13604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
@@ -13605,7 +13661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>232</v>
       </c>
@@ -13662,7 +13718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>232</v>
       </c>
@@ -13719,7 +13775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>232</v>
       </c>
@@ -13776,7 +13832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>232</v>
       </c>
@@ -13833,7 +13889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>232</v>
       </c>
@@ -13890,7 +13946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>232</v>
       </c>
@@ -13947,7 +14003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>232</v>
       </c>
@@ -14004,7 +14060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>232</v>
       </c>
@@ -14061,7 +14117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>232</v>
       </c>
@@ -14118,7 +14174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>232</v>
       </c>
@@ -14175,7 +14231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>232</v>
       </c>
@@ -14232,7 +14288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>232</v>
       </c>
@@ -14289,7 +14345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>232</v>
       </c>
@@ -14346,7 +14402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>232</v>
       </c>
@@ -14403,7 +14459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>232</v>
       </c>
@@ -14453,12 +14509,14 @@
       <c r="Q250" s="6">
         <v>4483</v>
       </c>
-      <c r="R250" s="3"/>
+      <c r="R250" s="6">
+        <v>3404</v>
+      </c>
       <c r="S250" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>232</v>
       </c>
@@ -14508,12 +14566,14 @@
       <c r="Q251" s="6">
         <v>1850</v>
       </c>
-      <c r="R251" s="3"/>
+      <c r="R251" s="6">
+        <v>1043</v>
+      </c>
       <c r="S251" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>232</v>
       </c>
@@ -14563,12 +14623,14 @@
       <c r="Q252" s="6">
         <v>2633</v>
       </c>
-      <c r="R252" s="3"/>
+      <c r="R252" s="6">
+        <v>2361</v>
+      </c>
       <c r="S252" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -14625,7 +14687,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -14682,7 +14744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>273</v>
       </c>
@@ -14739,7 +14801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -14796,7 +14858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>273</v>
       </c>
@@ -14853,7 +14915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>273</v>
       </c>
@@ -14910,7 +14972,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>273</v>
       </c>
@@ -14967,7 +15029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>273</v>
       </c>
@@ -15020,7 +15082,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>273</v>
       </c>
@@ -15077,7 +15139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>292</v>
       </c>
@@ -15134,7 +15196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>292</v>
       </c>
@@ -15191,7 +15253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>292</v>
       </c>
@@ -15244,7 +15306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>292</v>
       </c>
@@ -15301,7 +15363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>292</v>
       </c>
@@ -15348,7 +15410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>292</v>
       </c>
@@ -15395,7 +15457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>292</v>
       </c>
@@ -15440,7 +15502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>292</v>
       </c>
@@ -15485,7 +15547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>292</v>
       </c>
@@ -15530,7 +15592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>292</v>
       </c>
@@ -15575,7 +15637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>292</v>
       </c>
@@ -15620,7 +15682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>292</v>
       </c>
@@ -15665,7 +15727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>292</v>
       </c>
@@ -15710,7 +15772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>309</v>
       </c>
@@ -15765,7 +15827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>309</v>
       </c>
@@ -15822,7 +15884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>309</v>
       </c>
@@ -15879,7 +15941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>309</v>
       </c>
@@ -15936,7 +15998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>309</v>
       </c>
@@ -15993,7 +16055,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>309</v>
       </c>
@@ -16050,7 +16112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>309</v>
       </c>
@@ -16107,7 +16169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>309</v>
       </c>
@@ -16164,7 +16226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>309</v>
       </c>
@@ -16221,7 +16283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>309</v>
       </c>
@@ -16278,7 +16340,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>309</v>
       </c>
@@ -16335,7 +16397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
@@ -16392,7 +16454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>327</v>
       </c>
@@ -16449,7 +16511,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -16506,7 +16568,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>327</v>
       </c>
@@ -16563,7 +16625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
@@ -16620,7 +16682,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>336</v>
       </c>
@@ -16677,7 +16739,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>336</v>
       </c>
@@ -16734,7 +16796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>336</v>
       </c>
@@ -16791,7 +16853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>347</v>
       </c>
@@ -16848,7 +16910,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>347</v>
       </c>
@@ -16905,7 +16967,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>347</v>
       </c>
@@ -16962,7 +17024,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>347</v>
       </c>
@@ -17019,7 +17081,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>347</v>
       </c>
@@ -17076,7 +17138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>347</v>
       </c>
@@ -17133,7 +17195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17190,7 +17252,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17247,7 +17309,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17304,7 +17366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17361,7 +17423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17418,7 +17480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -17475,7 +17537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -17532,7 +17594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -17589,7 +17651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>372</v>
       </c>
@@ -17648,7 +17710,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>372</v>
       </c>
@@ -17695,7 +17757,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>372</v>
       </c>
@@ -17752,7 +17814,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>372</v>
       </c>
@@ -17807,7 +17869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>372</v>
       </c>
@@ -17864,7 +17926,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>372</v>
       </c>
@@ -17923,7 +17985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>372</v>
       </c>
@@ -17982,7 +18044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>372</v>
       </c>
@@ -18041,7 +18103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>372</v>
       </c>
@@ -18100,7 +18162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>372</v>
       </c>
@@ -18159,7 +18221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>372</v>
       </c>
@@ -18218,7 +18280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>372</v>
       </c>
@@ -18277,7 +18339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>372</v>
       </c>
@@ -18336,7 +18398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>372</v>
       </c>
@@ -18395,7 +18457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>372</v>
       </c>
@@ -18454,7 +18516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>372</v>
       </c>
@@ -18513,7 +18575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>372</v>
       </c>
@@ -18572,7 +18634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>372</v>
       </c>
@@ -18631,7 +18693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>372</v>
       </c>
@@ -18690,7 +18752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>372</v>
       </c>
@@ -18749,7 +18811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>372</v>
       </c>
@@ -18808,7 +18870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>372</v>
       </c>
@@ -18867,7 +18929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>372</v>
       </c>
@@ -18926,7 +18988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>372</v>
       </c>
@@ -18983,7 +19045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>387</v>
       </c>
@@ -19040,7 +19102,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>387</v>
       </c>
@@ -19097,7 +19159,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>387</v>
       </c>
@@ -19154,15 +19216,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" spans="1:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>395</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t xml:space="preserve">Last update: 26-07-2022, 08:24</t>
+    <t xml:space="preserve">Last update: 27-07-2022, 07:36</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11445,39 +11445,41 @@
         <v>25</v>
       </c>
       <c r="G201" s="6" t="n">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="H201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.6</v>
       </c>
       <c r="I201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="J201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="K201" s="6" t="n">
-        <v>51.2</v>
+        <v>50.1</v>
       </c>
       <c r="L201" s="6" t="n">
-        <v>51.9</v>
+        <v>51.1</v>
       </c>
       <c r="M201" s="6" t="n">
-        <v>52.8</v>
+        <v>52.1</v>
       </c>
       <c r="N201" s="6" t="n">
-        <v>53.7</v>
+        <v>53.2</v>
       </c>
       <c r="O201" s="6" t="n">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="P201" s="6" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="Q201" s="6" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="R201" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="R201" s="6" t="n">
+        <v>55.8</v>
+      </c>
       <c r="S201" s="4" t="s">
         <v>26</v>
       </c>
@@ -11502,39 +11504,37 @@
         <v>25</v>
       </c>
       <c r="G202" s="6" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="H202" s="6" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I202" s="6" t="n">
-        <v>58.2</v>
-      </c>
+        <v>55.6</v>
+      </c>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="6" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="K202" s="6" t="n">
-        <v>59.2</v>
+        <v>57.7</v>
       </c>
       <c r="L202" s="6" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="M202" s="6" t="n">
         <v>59.8</v>
       </c>
-      <c r="M202" s="6" t="n">
-        <v>60.9</v>
-      </c>
       <c r="N202" s="6" t="n">
-        <v>62</v>
+        <v>61.2</v>
       </c>
       <c r="O202" s="6" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="P202" s="6" t="n">
         <v>62.4</v>
       </c>
-      <c r="P202" s="6" t="n">
-        <v>63</v>
-      </c>
       <c r="Q202" s="6" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="R202" s="5"/>
+        <v>62.3</v>
+      </c>
+      <c r="R202" s="6" t="n">
+        <v>63.8</v>
+      </c>
       <c r="S202" s="4" t="s">
         <v>26</v>
       </c>
@@ -11559,39 +11559,37 @@
         <v>25</v>
       </c>
       <c r="G203" s="6" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="H203" s="6" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="I203" s="6" t="n">
-        <v>42.9</v>
-      </c>
+        <v>41.5</v>
+      </c>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
       <c r="J203" s="6" t="n">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="K203" s="6" t="n">
-        <v>43.8</v>
+        <v>43.2</v>
       </c>
       <c r="L203" s="6" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="M203" s="6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="N203" s="6" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="O203" s="6" t="n">
         <v>46.6</v>
       </c>
       <c r="P203" s="6" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="Q203" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c r="R203" s="5"/>
+      <c r="R203" s="6" t="n">
+        <v>48.5</v>
+      </c>
       <c r="S203" s="4" t="s">
         <v>26</v>
       </c>
@@ -11616,39 +11614,41 @@
         <v>25</v>
       </c>
       <c r="G204" s="6" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="H204" s="6" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="I204" s="6" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="J204" s="6" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="K204" s="6" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="L204" s="6" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="M204" s="6" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="N204" s="6" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="P204" s="6" t="n">
         <v>31.7</v>
       </c>
       <c r="Q204" s="6" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="R204" s="5"/>
+        <v>28.2</v>
+      </c>
+      <c r="R204" s="6" t="n">
+        <v>27.3</v>
+      </c>
       <c r="S204" s="4" t="s">
         <v>26</v>
       </c>
@@ -11673,39 +11673,41 @@
         <v>25</v>
       </c>
       <c r="G205" s="6" t="n">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="H205" s="6" t="n">
-        <v>59.3</v>
+        <v>57.5</v>
       </c>
       <c r="I205" s="6" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="J205" s="6" t="n">
-        <v>60</v>
+        <v>58.4</v>
       </c>
       <c r="K205" s="6" t="n">
-        <v>61.7</v>
+        <v>60.2</v>
       </c>
       <c r="L205" s="6" t="n">
-        <v>62.9</v>
+        <v>61.6</v>
       </c>
       <c r="M205" s="6" t="n">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="N205" s="6" t="n">
-        <v>66.1</v>
+        <v>65.3</v>
       </c>
       <c r="O205" s="6" t="n">
-        <v>67.4</v>
+        <v>66.6</v>
       </c>
       <c r="P205" s="6" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="Q205" s="6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="R205" s="5"/>
+        <v>67.8</v>
+      </c>
+      <c r="R205" s="6" t="n">
+        <v>70.3</v>
+      </c>
       <c r="S205" s="4" t="s">
         <v>26</v>
       </c>
@@ -11730,39 +11732,37 @@
         <v>25</v>
       </c>
       <c r="G206" s="6" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="H206" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="I206" s="6" t="n">
-        <v>65.4</v>
-      </c>
+        <v>62.5</v>
+      </c>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
       <c r="J206" s="6" t="n">
-        <v>65.7</v>
+        <v>64.1</v>
       </c>
       <c r="K206" s="6" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="L206" s="6" t="n">
-        <v>68.7</v>
+        <v>67.3</v>
       </c>
       <c r="M206" s="6" t="n">
-        <v>70.4</v>
+        <v>69.3</v>
       </c>
       <c r="N206" s="6" t="n">
-        <v>72.1</v>
+        <v>71.2</v>
       </c>
       <c r="O206" s="6" t="n">
-        <v>73.6</v>
+        <v>72.8</v>
       </c>
       <c r="P206" s="6" t="n">
-        <v>74.5</v>
+        <v>73.8</v>
       </c>
       <c r="Q206" s="6" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="R206" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="R206" s="6" t="n">
+        <v>76.6</v>
+      </c>
       <c r="S206" s="4" t="s">
         <v>26</v>
       </c>
@@ -11787,39 +11787,41 @@
         <v>25</v>
       </c>
       <c r="G207" s="6" t="n">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
       <c r="H207" s="6" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="I207" s="6" t="n">
-        <v>41.9</v>
+        <v>41.3</v>
       </c>
       <c r="J207" s="6" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="K207" s="6" t="n">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="L207" s="6" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="M207" s="6" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="N207" s="6" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="O207" s="6" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="P207" s="6" t="n">
         <v>55.5</v>
       </c>
       <c r="Q207" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="R207" s="5"/>
+        <v>50.1</v>
+      </c>
+      <c r="R207" s="6" t="n">
+        <v>49.3</v>
+      </c>
       <c r="S207" s="4" t="s">
         <v>26</v>
       </c>
@@ -11844,39 +11846,41 @@
         <v>25</v>
       </c>
       <c r="G208" s="6" t="n">
-        <v>64.3</v>
+        <v>62.2</v>
       </c>
       <c r="H208" s="6" t="n">
-        <v>64.5</v>
+        <v>62.5</v>
       </c>
       <c r="I208" s="6" t="n">
-        <v>64.7</v>
+        <v>62.9</v>
       </c>
       <c r="J208" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="K208" s="6" t="n">
         <v>64.9</v>
       </c>
-      <c r="K208" s="6" t="n">
-        <v>66.5</v>
-      </c>
       <c r="L208" s="6" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="M208" s="6" t="n">
-        <v>69.3</v>
+        <v>68.2</v>
       </c>
       <c r="N208" s="6" t="n">
-        <v>70.9</v>
+        <v>70</v>
       </c>
       <c r="O208" s="6" t="n">
-        <v>72.2</v>
+        <v>71.4</v>
       </c>
       <c r="P208" s="6" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="Q208" s="6" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="R208" s="5"/>
+        <v>72.7</v>
+      </c>
+      <c r="R208" s="6" t="n">
+        <v>75.4</v>
+      </c>
       <c r="S208" s="4" t="s">
         <v>26</v>
       </c>
@@ -11901,39 +11905,41 @@
         <v>25</v>
       </c>
       <c r="G209" s="6" t="n">
-        <v>30.3</v>
+        <v>28.2</v>
       </c>
       <c r="H209" s="6" t="n">
-        <v>31.2</v>
+        <v>29.2</v>
       </c>
       <c r="I209" s="6" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J209" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K209" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L209" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="J209" s="6" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K209" s="6" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="L209" s="6" t="n">
-        <v>32.5</v>
-      </c>
       <c r="M209" s="6" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="N209" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="N209" s="6" t="n">
-        <v>33.2</v>
-      </c>
       <c r="O209" s="6" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="P209" s="6" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="Q209" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="Q209" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="R209" s="5"/>
+      <c r="R209" s="6" t="n">
+        <v>34.7</v>
+      </c>
       <c r="S209" s="4" t="s">
         <v>26</v>
       </c>
@@ -11958,39 +11964,41 @@
         <v>25</v>
       </c>
       <c r="G210" s="6" t="n">
-        <v>34.1</v>
+        <v>31.5</v>
       </c>
       <c r="H210" s="6" t="n">
-        <v>36.9</v>
+        <v>34.3</v>
       </c>
       <c r="I210" s="6" t="n">
-        <v>38.7</v>
+        <v>36.1</v>
       </c>
       <c r="J210" s="6" t="n">
-        <v>40.6</v>
+        <v>38.3</v>
       </c>
       <c r="K210" s="6" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L210" s="6" t="n">
         <v>42.5</v>
       </c>
-      <c r="L210" s="6" t="n">
-        <v>44.3</v>
-      </c>
       <c r="M210" s="6" t="n">
-        <v>46.1</v>
+        <v>44.5</v>
       </c>
       <c r="N210" s="6" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="O210" s="6" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="P210" s="6" t="n">
         <v>48.3</v>
       </c>
-      <c r="O210" s="6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="P210" s="6" t="n">
-        <v>49.5</v>
-      </c>
       <c r="Q210" s="6" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="R210" s="5"/>
+        <v>50.4</v>
+      </c>
+      <c r="R210" s="6" t="n">
+        <v>54.7</v>
+      </c>
       <c r="S210" s="4" t="s">
         <v>26</v>
       </c>
@@ -12015,39 +12023,41 @@
         <v>25</v>
       </c>
       <c r="G211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="H211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="I211" s="6" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="J211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="K211" s="6" t="n">
-        <v>9.7</v>
+        <v>8.6</v>
       </c>
       <c r="L211" s="6" t="n">
-        <v>9.5</v>
+        <v>8.8</v>
       </c>
       <c r="M211" s="6" t="n">
-        <v>9.9</v>
+        <v>9.2</v>
       </c>
       <c r="N211" s="6" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="O211" s="6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="P211" s="6" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="Q211" s="6" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="R211" s="5"/>
+        <v>10.9</v>
+      </c>
+      <c r="R211" s="6" t="n">
+        <v>11.5</v>
+      </c>
       <c r="S211" s="4" t="s">
         <v>26</v>
       </c>
@@ -12072,39 +12082,41 @@
         <v>25</v>
       </c>
       <c r="G212" s="6" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="H212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="I212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="J212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="K212" s="6" t="n">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="L212" s="6" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="M212" s="6" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="N212" s="6" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="O212" s="6" t="n">
-        <v>54.4</v>
+        <v>54.9</v>
       </c>
       <c r="P212" s="6" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="Q212" s="6" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="R212" s="5"/>
+        <v>54.6</v>
+      </c>
+      <c r="R212" s="6" t="n">
+        <v>56</v>
+      </c>
       <c r="S212" s="4" t="s">
         <v>26</v>
       </c>
@@ -12129,39 +12141,41 @@
         <v>25</v>
       </c>
       <c r="G213" s="6" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H213" s="6" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I213" s="6" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J213" s="6" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K213" s="6" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="L213" s="6" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="M213" s="6" t="n">
         <v>50.4</v>
       </c>
-      <c r="H213" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="I213" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J213" s="6" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K213" s="6" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="L213" s="6" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="M213" s="6" t="n">
-        <v>52.6</v>
-      </c>
       <c r="N213" s="6" t="n">
-        <v>53.5</v>
+        <v>51.8</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>53.8</v>
+        <v>52.3</v>
       </c>
       <c r="P213" s="6" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="Q213" s="6" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="R213" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="R213" s="6" t="n">
+        <v>55.5</v>
+      </c>
       <c r="S213" s="4" t="s">
         <v>26</v>
       </c>
@@ -12186,39 +12200,37 @@
         <v>25</v>
       </c>
       <c r="G214" s="6" t="n">
-        <v>76.4</v>
-      </c>
-      <c r="H214" s="6" t="n">
-        <v>75.9</v>
-      </c>
-      <c r="I214" s="6" t="n">
-        <v>75.5</v>
-      </c>
+        <v>76.9</v>
+      </c>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
       <c r="J214" s="6" t="n">
-        <v>75.6</v>
+        <v>76.1</v>
       </c>
       <c r="K214" s="6" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="L214" s="6" t="n">
-        <v>77.2</v>
+        <v>77.6</v>
       </c>
       <c r="M214" s="6" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="N214" s="6" t="n">
-        <v>78.2</v>
+        <v>78.6</v>
       </c>
       <c r="O214" s="6" t="n">
-        <v>78.8</v>
+        <v>79.2</v>
       </c>
       <c r="P214" s="6" t="n">
-        <v>78.6</v>
+        <v>79.1</v>
       </c>
       <c r="Q214" s="6" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="R214" s="5"/>
+        <v>78.7</v>
+      </c>
+      <c r="R214" s="6" t="n">
+        <v>79.7</v>
+      </c>
       <c r="S214" s="4" t="s">
         <v>26</v>
       </c>
@@ -12243,39 +12255,37 @@
         <v>25</v>
       </c>
       <c r="G215" s="6" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="H215" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="I215" s="6" t="n">
-        <v>60.5</v>
-      </c>
+        <v>59.7</v>
+      </c>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
       <c r="J215" s="6" t="n">
-        <v>59.6</v>
+        <v>58.5</v>
       </c>
       <c r="K215" s="6" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="L215" s="6" t="n">
-        <v>59.9</v>
+        <v>59.1</v>
       </c>
       <c r="M215" s="6" t="n">
-        <v>60.8</v>
+        <v>60.2</v>
       </c>
       <c r="N215" s="6" t="n">
-        <v>60.6</v>
+        <v>60.2</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>60</v>
+        <v>59.5</v>
       </c>
       <c r="P215" s="6" t="n">
-        <v>59.6</v>
+        <v>59.2</v>
       </c>
       <c r="Q215" s="6" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="R215" s="5"/>
+        <v>58.1</v>
+      </c>
+      <c r="R215" s="6" t="n">
+        <v>59.8</v>
+      </c>
       <c r="S215" s="4" t="s">
         <v>26</v>
       </c>
@@ -12300,39 +12310,37 @@
         <v>25</v>
       </c>
       <c r="G216" s="6" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="H216" s="6" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="I216" s="6" t="n">
-        <v>41.7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
       <c r="J216" s="6" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="K216" s="6" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L216" s="6" t="n">
         <v>43.9</v>
       </c>
-      <c r="L216" s="6" t="n">
-        <v>44.2</v>
-      </c>
       <c r="M216" s="6" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="N216" s="6" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="O216" s="6" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="P216" s="6" t="n">
         <v>49.9</v>
       </c>
       <c r="Q216" s="6" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="R216" s="5"/>
+        <v>49.2</v>
+      </c>
+      <c r="R216" s="6" t="n">
+        <v>51</v>
+      </c>
       <c r="S216" s="4" t="s">
         <v>26</v>
       </c>
@@ -12357,39 +12365,37 @@
         <v>25</v>
       </c>
       <c r="G217" s="6" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="H217" s="6" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="I217" s="6" t="n">
-        <v>54.9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
       <c r="J217" s="6" t="n">
-        <v>53.7</v>
+        <v>50.6</v>
       </c>
       <c r="K217" s="6" t="n">
-        <v>54.3</v>
+        <v>51.4</v>
       </c>
       <c r="L217" s="6" t="n">
-        <v>54.6</v>
+        <v>52</v>
       </c>
       <c r="M217" s="6" t="n">
-        <v>54.4</v>
+        <v>52.2</v>
       </c>
       <c r="N217" s="6" t="n">
-        <v>54.7</v>
+        <v>52.8</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>54.3</v>
+        <v>52.7</v>
       </c>
       <c r="P217" s="6" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="Q217" s="6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="R217" s="6" t="n">
         <v>53.2</v>
       </c>
-      <c r="Q217" s="6" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="R217" s="5"/>
       <c r="S217" s="4" t="s">
         <v>26</v>
       </c>
@@ -12414,39 +12420,37 @@
         <v>25</v>
       </c>
       <c r="G218" s="6" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H218" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="I218" s="6" t="n">
-        <v>15.7</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
       <c r="J218" s="6" t="n">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="K218" s="6" t="n">
-        <v>14.8</v>
+        <v>13.3</v>
       </c>
       <c r="L218" s="6" t="n">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="M218" s="6" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="N218" s="6" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="P218" s="6" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="Q218" s="6" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="R218" s="5"/>
+        <v>14.7</v>
+      </c>
+      <c r="R218" s="6" t="n">
+        <v>16.5</v>
+      </c>
       <c r="S218" s="4" t="s">
         <v>26</v>
       </c>
@@ -13048,39 +13052,37 @@
         <v>25</v>
       </c>
       <c r="G230" s="6" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="6" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K230" s="6" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L230" s="6" t="n">
         <v>55.3</v>
       </c>
-      <c r="H230" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="I230" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J230" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K230" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="L230" s="6" t="n">
-        <v>56.2</v>
-      </c>
       <c r="M230" s="6" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="N230" s="6" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="P230" s="6" t="n">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="Q230" s="6" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="R230" s="5"/>
+        <v>55.8</v>
+      </c>
+      <c r="R230" s="6" t="n">
+        <v>57.8</v>
+      </c>
       <c r="S230" s="4" t="s">
         <v>26</v>
       </c>
@@ -13105,25 +13107,21 @@
         <v>25</v>
       </c>
       <c r="G231" s="6" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="H231" s="6" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="6" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K231" s="6" t="n">
         <v>47.8</v>
       </c>
-      <c r="I231" s="6" t="n">
+      <c r="L231" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="M231" s="6" t="n">
         <v>48.1</v>
-      </c>
-      <c r="J231" s="6" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K231" s="6" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L231" s="6" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="M231" s="6" t="n">
-        <v>48.3</v>
       </c>
       <c r="N231" s="6" t="n">
         <v>48.4</v>
@@ -13132,12 +13130,14 @@
         <v>48.5</v>
       </c>
       <c r="P231" s="6" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="Q231" s="6" t="n">
         <v>47.9</v>
       </c>
-      <c r="R231" s="5"/>
+      <c r="R231" s="6" t="n">
+        <v>50.2</v>
+      </c>
       <c r="S231" s="4" t="s">
         <v>26</v>
       </c>
@@ -13162,39 +13162,37 @@
         <v>25</v>
       </c>
       <c r="G232" s="6" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="H232" s="6" t="n">
-        <v>64</v>
-      </c>
-      <c r="I232" s="6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="6" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K232" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="L232" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="M232" s="6" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="N232" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c r="J232" s="6" t="n">
+      <c r="O232" s="6" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="P232" s="6" t="n">
         <v>64.4</v>
       </c>
-      <c r="K232" s="6" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="L232" s="6" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="M232" s="6" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="N232" s="6" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="O232" s="6" t="n">
-        <v>64.9</v>
-      </c>
-      <c r="P232" s="6" t="n">
-        <v>65</v>
-      </c>
       <c r="Q232" s="6" t="n">
-        <v>65.1</v>
-      </c>
-      <c r="R232" s="5"/>
+        <v>64.3</v>
+      </c>
+      <c r="R232" s="6" t="n">
+        <v>66</v>
+      </c>
       <c r="S232" s="4" t="s">
         <v>26</v>
       </c>
@@ -13219,39 +13217,37 @@
         <v>25</v>
       </c>
       <c r="G233" s="6" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="H233" s="6" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="I233" s="6" t="n">
-        <v>55.7</v>
-      </c>
+        <v>55.5</v>
+      </c>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
       <c r="J233" s="6" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="K233" s="6" t="n">
-        <v>56.2</v>
+        <v>56.6</v>
       </c>
       <c r="L233" s="6" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="M233" s="6" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="N233" s="6" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="O233" s="6" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="P233" s="6" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="Q233" s="6" t="n">
         <v>56.3</v>
       </c>
-      <c r="M233" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="N233" s="6" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="O233" s="6" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="P233" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="Q233" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="R233" s="5"/>
+      <c r="R233" s="6" t="n">
+        <v>58</v>
+      </c>
       <c r="S233" s="4" t="s">
         <v>26</v>
       </c>
@@ -13276,39 +13272,37 @@
         <v>25</v>
       </c>
       <c r="G234" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="H234" s="6" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="I234" s="6" t="n">
-        <v>56.1</v>
-      </c>
+        <v>50.6</v>
+      </c>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
       <c r="J234" s="6" t="n">
-        <v>56.1</v>
+        <v>52.5</v>
       </c>
       <c r="K234" s="6" t="n">
-        <v>56.3</v>
+        <v>53.1</v>
       </c>
       <c r="L234" s="6" t="n">
-        <v>56</v>
+        <v>53.3</v>
       </c>
       <c r="M234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.1</v>
       </c>
       <c r="N234" s="6" t="n">
-        <v>56.5</v>
+        <v>54.8</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
       <c r="P234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.8</v>
       </c>
       <c r="Q234" s="6" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="R234" s="5"/>
+        <v>54.9</v>
+      </c>
+      <c r="R234" s="6" t="n">
+        <v>57.4</v>
+      </c>
       <c r="S234" s="4" t="s">
         <v>26</v>
       </c>
@@ -13333,39 +13327,37 @@
         <v>25</v>
       </c>
       <c r="G235" s="6" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="H235" s="6" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="6" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K235" s="6" t="n">
         <v>33.5</v>
       </c>
-      <c r="I235" s="6" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="J235" s="6" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K235" s="6" t="n">
-        <v>33.9</v>
-      </c>
       <c r="L235" s="6" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="M235" s="6" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="N235" s="6" t="n">
         <v>34.5</v>
       </c>
-      <c r="N235" s="6" t="n">
-        <v>34.8</v>
-      </c>
       <c r="O235" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P235" s="6" t="n">
         <v>35.1</v>
       </c>
-      <c r="P235" s="6" t="n">
-        <v>35.2</v>
-      </c>
       <c r="Q235" s="6" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="R235" s="5"/>
+        <v>31.6</v>
+      </c>
+      <c r="R235" s="6" t="n">
+        <v>31</v>
+      </c>
       <c r="S235" s="4" t="s">
         <v>26</v>
       </c>
@@ -13390,39 +13382,37 @@
         <v>25</v>
       </c>
       <c r="G236" s="6" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="H236" s="6" t="n">
-        <v>72.1</v>
-      </c>
-      <c r="I236" s="6" t="n">
-        <v>72.9</v>
-      </c>
+        <v>69.6</v>
+      </c>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
       <c r="J236" s="6" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="K236" s="6" t="n">
-        <v>74.3</v>
+        <v>72.8</v>
       </c>
       <c r="L236" s="6" t="n">
-        <v>74.5</v>
+        <v>73.1</v>
       </c>
       <c r="M236" s="6" t="n">
-        <v>75.2</v>
+        <v>74</v>
       </c>
       <c r="N236" s="6" t="n">
-        <v>75.9</v>
+        <v>75</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>76.6</v>
+        <v>75.8</v>
       </c>
       <c r="P236" s="6" t="n">
-        <v>77.1</v>
+        <v>76.4</v>
       </c>
       <c r="Q236" s="6" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="R236" s="5"/>
+        <v>76.5</v>
+      </c>
+      <c r="R236" s="6" t="n">
+        <v>79.4</v>
+      </c>
       <c r="S236" s="4" t="s">
         <v>26</v>
       </c>
@@ -13447,39 +13437,37 @@
         <v>25</v>
       </c>
       <c r="G237" s="6" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="H237" s="6" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="I237" s="6" t="n">
-        <v>34</v>
-      </c>
+        <v>30.6</v>
+      </c>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
       <c r="J237" s="6" t="n">
-        <v>34.2</v>
+        <v>32.5</v>
       </c>
       <c r="K237" s="6" t="n">
-        <v>34.3</v>
+        <v>33.1</v>
       </c>
       <c r="L237" s="6" t="n">
-        <v>34.4</v>
+        <v>33.4</v>
       </c>
       <c r="M237" s="6" t="n">
-        <v>34.1</v>
+        <v>33.3</v>
       </c>
       <c r="N237" s="6" t="n">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="O237" s="6" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="P237" s="6" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="Q237" s="6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="R237" s="5"/>
+        <v>33.3</v>
+      </c>
+      <c r="R237" s="6" t="n">
+        <v>35.6</v>
+      </c>
       <c r="S237" s="4" t="s">
         <v>26</v>
       </c>
@@ -13504,39 +13492,37 @@
         <v>25</v>
       </c>
       <c r="G238" s="6" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H238" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="I238" s="6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K238" s="6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L238" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="M238" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N238" s="6" t="n">
         <v>17.4</v>
       </c>
-      <c r="J238" s="6" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K238" s="6" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="L238" s="6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="M238" s="6" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="N238" s="6" t="n">
-        <v>17.6</v>
-      </c>
       <c r="O238" s="6" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P238" s="6" t="n">
         <v>17.1</v>
       </c>
       <c r="Q238" s="6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="R238" s="5"/>
+        <v>17.4</v>
+      </c>
+      <c r="R238" s="6" t="n">
+        <v>19.5</v>
+      </c>
       <c r="S238" s="4" t="s">
         <v>26</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,7 +790,7 @@
     <t xml:space="preserve"> urban/rural</t>
   </si>
   <si>
-    <t xml:space="preserve"> by education level of the head of the household</t>
+    <t xml:space="preserve"> by education level</t>
   </si>
   <si>
     <t>post-secondary and secondary vocational</t>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 30-08-2022, 14:24</t>
+    <t>Last update: 06-09-2022, 11:45</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12743,7 +12743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>233</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>233</v>
       </c>
@@ -19709,7 +19709,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 06-09-2022, 11:45</t>
+    <t>Last update: 20-09-2022, 13:32</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,15 +2980,33 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="I23" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M23" s="4">
+        <v>21</v>
+      </c>
+      <c r="N23" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="P23" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>37.5</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="2" t="s">
@@ -3016,15 +3034,33 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="I24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O24" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>9.6</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="2" t="s">
@@ -10812,15 +10848,33 @@
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
+      <c r="I180" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J180" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="K180" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="L180" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M180" s="4">
+        <v>21</v>
+      </c>
+      <c r="N180" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="O180" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="P180" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>37.5</v>
+      </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
       <c r="T180" s="2" t="s">
@@ -10848,15 +10902,33 @@
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
+      <c r="I181" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J181" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K181" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L181" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M181" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="N181" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O181" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="P181" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="Q181" s="4">
+        <v>9.6</v>
+      </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
       <c r="T181" s="2" t="s">
@@ -11153,7 +11225,9 @@
       <c r="Q186" s="4">
         <v>0.4</v>
       </c>
-      <c r="R186" s="3"/>
+      <c r="R186" s="4">
+        <v>0.5</v>
+      </c>
       <c r="S186" s="3"/>
       <c r="T186" s="2" t="s">
         <v>132</v>
@@ -19709,7 +19783,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 20-09-2022, 13:32</t>
+    <t>Last update: 11-10-2022, 10:20</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,12 +7830,14 @@
         <v>22</v>
       </c>
       <c r="P120" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q120" s="6">
         <v>19</v>
       </c>
-      <c r="R120" s="3"/>
+      <c r="R120" s="6">
+        <v>17</v>
+      </c>
       <c r="S120" s="3"/>
       <c r="T120" s="2" t="s">
         <v>147</v>
@@ -16810,12 +16812,14 @@
         <v>22</v>
       </c>
       <c r="P284" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q284" s="6">
         <v>19</v>
       </c>
-      <c r="R284" s="3"/>
+      <c r="R284" s="6">
+        <v>17</v>
+      </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
         <v>147</v>
@@ -17920,12 +17924,14 @@
         <v>22</v>
       </c>
       <c r="P303" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q303" s="6">
         <v>19</v>
       </c>
-      <c r="R303" s="3"/>
+      <c r="R303" s="6">
+        <v>17</v>
+      </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
         <v>147</v>
@@ -19783,7 +19789,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 11-10-2022, 10:20</t>
+    <t>Last update: 25-10-2022, 11:31</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +3407,7 @@
         <v>43</v>
       </c>
       <c r="Q30" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3465,7 +3465,7 @@
         <v>2.66</v>
       </c>
       <c r="Q31" s="5">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3583,7 +3583,9 @@
       <c r="Q33" s="4">
         <v>56.3</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="4">
+        <v>57.9</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="2" t="s">
         <v>27</v>
@@ -3641,7 +3643,9 @@
       <c r="Q34" s="5">
         <v>3957.77</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="5">
+        <v>4501.6099999999997</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="2" t="s">
         <v>27</v>
@@ -3699,7 +3703,9 @@
       <c r="Q35" s="5">
         <v>14.3</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="5">
+        <v>13.05</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="2" t="s">
         <v>27</v>
@@ -3757,7 +3763,9 @@
       <c r="Q36" s="4">
         <v>53.9</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="4">
+        <v>54.3</v>
+      </c>
       <c r="S36" s="3"/>
       <c r="T36" s="2" t="s">
         <v>27</v>
@@ -7632,7 +7640,9 @@
       <c r="P116" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="4">
+        <v>4.5</v>
+      </c>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="2" t="s">
@@ -7682,7 +7692,9 @@
       <c r="P117" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="4">
+        <v>4.3</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="2" t="s">
@@ -7732,7 +7744,9 @@
       <c r="P118" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q118" s="3"/>
+      <c r="Q118" s="4">
+        <v>0.2</v>
+      </c>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="2" t="s">
@@ -11287,7 +11301,9 @@
       <c r="Q187" s="4">
         <v>74.8</v>
       </c>
-      <c r="R187" s="3"/>
+      <c r="R187" s="4">
+        <v>75.2</v>
+      </c>
       <c r="S187" s="3"/>
       <c r="T187" s="2" t="s">
         <v>27</v>
@@ -11345,7 +11361,9 @@
       <c r="Q188" s="4">
         <v>94.7</v>
       </c>
-      <c r="R188" s="3"/>
+      <c r="R188" s="4">
+        <v>94.6</v>
+      </c>
       <c r="S188" s="3"/>
       <c r="T188" s="2" t="s">
         <v>27</v>
@@ -11403,7 +11421,9 @@
       <c r="Q189" s="4">
         <v>45.2</v>
       </c>
-      <c r="R189" s="3"/>
+      <c r="R189" s="4">
+        <v>46.3</v>
+      </c>
       <c r="S189" s="3"/>
       <c r="T189" s="2" t="s">
         <v>27</v>
@@ -11461,7 +11481,9 @@
       <c r="Q190" s="5">
         <v>73.319999999999993</v>
       </c>
-      <c r="R190" s="3"/>
+      <c r="R190" s="5">
+        <v>72.849999999999994</v>
+      </c>
       <c r="S190" s="3"/>
       <c r="T190" s="2" t="s">
         <v>27</v>
@@ -11809,7 +11831,9 @@
       <c r="Q196" s="4">
         <v>10.3</v>
       </c>
-      <c r="R196" s="3"/>
+      <c r="R196" s="4">
+        <v>11</v>
+      </c>
       <c r="S196" s="3"/>
       <c r="T196" s="2" t="s">
         <v>27</v>
@@ -13171,7 +13195,9 @@
       <c r="Q219" s="4">
         <v>73.900000000000006</v>
       </c>
-      <c r="R219" s="3"/>
+      <c r="R219" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="S219" s="3"/>
       <c r="T219" s="2" t="s">
         <v>27</v>
@@ -13229,7 +13255,9 @@
       <c r="Q220" s="4">
         <v>76.7</v>
       </c>
-      <c r="R220" s="3"/>
+      <c r="R220" s="4">
+        <v>84.2</v>
+      </c>
       <c r="S220" s="3"/>
       <c r="T220" s="2" t="s">
         <v>27</v>
@@ -13287,7 +13315,9 @@
       <c r="Q221" s="4">
         <v>71.5</v>
       </c>
-      <c r="R221" s="3"/>
+      <c r="R221" s="4">
+        <v>77.099999999999994</v>
+      </c>
       <c r="S221" s="3"/>
       <c r="T221" s="2" t="s">
         <v>27</v>
@@ -15134,7 +15164,9 @@
       <c r="R253" s="6">
         <v>40</v>
       </c>
-      <c r="S253" s="3"/>
+      <c r="S253" s="6">
+        <v>38</v>
+      </c>
       <c r="T253" s="2" t="s">
         <v>277</v>
       </c>
@@ -15423,7 +15455,9 @@
       <c r="Q258" s="4">
         <v>28.3</v>
       </c>
-      <c r="R258" s="3"/>
+      <c r="R258" s="4">
+        <v>34.200000000000003</v>
+      </c>
       <c r="S258" s="3"/>
       <c r="T258" s="2" t="s">
         <v>285</v>
@@ -15593,7 +15627,9 @@
       <c r="Q261" s="4">
         <v>13.6</v>
       </c>
-      <c r="R261" s="3"/>
+      <c r="R261" s="4">
+        <v>14.6</v>
+      </c>
       <c r="S261" s="3"/>
       <c r="T261" s="2" t="s">
         <v>27</v>
@@ -16527,7 +16563,9 @@
       <c r="Q279" s="4">
         <v>98.7</v>
       </c>
-      <c r="R279" s="3"/>
+      <c r="R279" s="4">
+        <v>109.5</v>
+      </c>
       <c r="S279" s="3"/>
       <c r="T279" s="2" t="s">
         <v>318</v>
@@ -16585,7 +16623,9 @@
       <c r="Q280" s="5">
         <v>26.68</v>
       </c>
-      <c r="R280" s="3"/>
+      <c r="R280" s="5">
+        <v>26.92</v>
+      </c>
       <c r="S280" s="3"/>
       <c r="T280" s="2" t="s">
         <v>27</v>
@@ -16643,7 +16683,9 @@
       <c r="Q281" s="5">
         <v>12.03</v>
       </c>
-      <c r="R281" s="3"/>
+      <c r="R281" s="5">
+        <v>13.34</v>
+      </c>
       <c r="S281" s="3"/>
       <c r="T281" s="2" t="s">
         <v>27</v>
@@ -16701,7 +16743,9 @@
       <c r="Q282" s="5">
         <v>21.52</v>
       </c>
-      <c r="R282" s="3"/>
+      <c r="R282" s="5">
+        <v>21.01</v>
+      </c>
       <c r="S282" s="3"/>
       <c r="T282" s="2" t="s">
         <v>27</v>
@@ -16759,7 +16803,9 @@
       <c r="Q283" s="5">
         <v>39.78</v>
       </c>
-      <c r="R283" s="3"/>
+      <c r="R283" s="5">
+        <v>38.729999999999997</v>
+      </c>
       <c r="S283" s="3"/>
       <c r="T283" s="2" t="s">
         <v>27</v>
@@ -17111,7 +17157,7 @@
         <v>2.66</v>
       </c>
       <c r="Q289" s="5">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
@@ -17403,7 +17449,9 @@
       <c r="Q294" s="6">
         <v>60</v>
       </c>
-      <c r="R294" s="3"/>
+      <c r="R294" s="6">
+        <v>67</v>
+      </c>
       <c r="S294" s="3"/>
       <c r="T294" s="2" t="s">
         <v>213</v>
@@ -17461,7 +17509,9 @@
       <c r="Q295" s="6">
         <v>20</v>
       </c>
-      <c r="R295" s="3"/>
+      <c r="R295" s="6">
+        <v>17</v>
+      </c>
       <c r="S295" s="3"/>
       <c r="T295" s="2" t="s">
         <v>213</v>
@@ -17519,7 +17569,9 @@
       <c r="Q296" s="6">
         <v>40</v>
       </c>
-      <c r="R296" s="3"/>
+      <c r="R296" s="6">
+        <v>17</v>
+      </c>
       <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
         <v>213</v>
@@ -17577,7 +17629,9 @@
       <c r="Q297" s="6">
         <v>40</v>
       </c>
-      <c r="R297" s="3"/>
+      <c r="R297" s="6">
+        <v>33</v>
+      </c>
       <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
         <v>213</v>
@@ -17693,7 +17747,9 @@
       <c r="Q299" s="4">
         <v>88.5</v>
       </c>
-      <c r="R299" s="3"/>
+      <c r="R299" s="4">
+        <v>96.7</v>
+      </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
         <v>27</v>
@@ -17751,7 +17807,9 @@
       <c r="Q300" s="4">
         <v>80.3</v>
       </c>
-      <c r="R300" s="3"/>
+      <c r="R300" s="4">
+        <v>72</v>
+      </c>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
         <v>365</v>
@@ -17989,7 +18047,9 @@
       <c r="Q304" s="4">
         <v>74.8</v>
       </c>
-      <c r="R304" s="3"/>
+      <c r="R304" s="4">
+        <v>75.2</v>
+      </c>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
         <v>27</v>
@@ -18047,7 +18107,9 @@
       <c r="Q305" s="4">
         <v>94.7</v>
       </c>
-      <c r="R305" s="3"/>
+      <c r="R305" s="4">
+        <v>94.6</v>
+      </c>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
         <v>27</v>
@@ -18105,7 +18167,9 @@
       <c r="Q306" s="4">
         <v>45.2</v>
       </c>
-      <c r="R306" s="3"/>
+      <c r="R306" s="4">
+        <v>46.3</v>
+      </c>
       <c r="S306" s="3"/>
       <c r="T306" s="2" t="s">
         <v>27</v>
@@ -18163,7 +18227,9 @@
       <c r="Q307" s="5">
         <v>73.319999999999993</v>
       </c>
-      <c r="R307" s="3"/>
+      <c r="R307" s="5">
+        <v>72.849999999999994</v>
+      </c>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
         <v>27</v>
@@ -19763,7 +19829,9 @@
       <c r="Q334" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R334" s="3"/>
+      <c r="R334" s="5">
+        <v>0.15</v>
+      </c>
       <c r="S334" s="3"/>
       <c r="T334" s="2" t="s">
         <v>392</v>
@@ -19789,7 +19857,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1213,20 +1208,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 25-10-2022, 11:31</t>
+    <t>Last update: 15-11-2022, 08:47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1418,14 +1413,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1446,7 +1433,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1509,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,10 +1528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1576,7 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1752,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1760,7 +1745,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1773,17 +1758,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="29.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="29.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2795,7 +2780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2953,13 +2938,15 @@
       <c r="Q22" s="4">
         <v>25.9</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="4">
+        <v>28.8</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3013,7 +3000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3067,7 +3054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3183,7 +3170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="39">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3299,7 +3286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3357,7 +3344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3415,7 +3402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3473,7 +3460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3531,7 +3518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3591,7 +3578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3651,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3771,7 +3758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="97.5">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3831,7 +3818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="97.5">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3891,7 +3878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="97.5">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3951,7 +3938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="97.5">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -4011,7 +3998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4071,7 +4058,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4131,7 +4118,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4173,7 +4160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4215,7 +4202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4257,7 +4244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4299,7 +4286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4357,7 +4344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4415,7 +4402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4473,7 +4460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4531,7 +4518,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4589,7 +4576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4647,7 +4634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4705,7 +4692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4763,7 +4750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4821,7 +4808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4879,7 +4866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4937,7 +4924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4995,7 +4982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5053,7 +5040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5111,7 +5098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5169,7 +5156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5227,7 +5214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5285,7 +5272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5343,7 +5330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5401,7 +5388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5459,7 +5446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5517,7 +5504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5575,7 +5562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5633,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5691,7 +5678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="19.5">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5749,7 +5736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5789,7 +5776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5829,7 +5816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5869,7 +5856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5909,7 +5896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5949,7 +5936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5989,7 +5976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6029,7 +6016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6069,7 +6056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6109,7 +6096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6149,7 +6136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6189,7 +6176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6229,7 +6216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6269,7 +6256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6311,7 +6298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6353,7 +6340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6395,7 +6382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6437,7 +6424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6479,7 +6466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6521,7 +6508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6563,7 +6550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6605,7 +6592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6647,7 +6634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6689,7 +6676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6731,7 +6718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6773,7 +6760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6815,7 +6802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6857,7 +6844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6899,7 +6886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6941,7 +6928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -6983,7 +6970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7025,7 +7012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7067,7 +7054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7109,7 +7096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7151,7 +7138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7193,7 +7180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7235,7 +7222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7277,7 +7264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7319,7 +7306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7361,7 +7348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7401,7 +7388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7441,7 +7428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7481,7 +7468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7537,7 +7524,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="29.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7597,7 +7584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7649,7 +7636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7701,7 +7688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7753,7 +7740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7797,7 +7784,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7857,7 +7844,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="39">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7917,7 +7904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7977,7 +7964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="48.75">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8021,7 +8008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8065,7 +8052,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8109,7 +8096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="48.75">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8153,7 +8140,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="48.75">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8197,7 +8184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="48.75">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8241,7 +8228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8301,7 +8288,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8361,7 +8348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8421,7 +8408,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="19.5">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8481,7 +8468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="19.5">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8541,7 +8528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="19.5">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8601,7 +8588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="19.5">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8661,7 +8648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="19.5">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8721,7 +8708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="19.5">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8781,7 +8768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="19.5">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8841,7 +8828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="19.5">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8901,7 +8888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="19.5">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8961,7 +8948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="19.5">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9021,7 +9008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="19.5">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9081,7 +9068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="58.5">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9121,7 +9108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9159,7 +9146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9197,7 +9184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9235,7 +9222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9273,7 +9260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9311,7 +9298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9349,7 +9336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="58.5">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9397,7 +9384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9445,7 +9432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9493,7 +9480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9541,7 +9528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9589,7 +9576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="58.5">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9637,7 +9624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="58.5">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9685,7 +9672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="58.5">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9733,7 +9720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="58.5">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9781,7 +9768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="58.5">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9829,7 +9816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="58.5">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9877,7 +9864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="58.5">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9925,7 +9912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="58.5">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9973,7 +9960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="58.5">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -10021,7 +10008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="58.5">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -10069,7 +10056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="58.5">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10117,7 +10104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="58.5">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10165,7 +10152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="58.5">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10213,7 +10200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>191</v>
       </c>
@@ -10271,7 +10258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>191</v>
       </c>
@@ -10331,7 +10318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>191</v>
       </c>
@@ -10391,7 +10378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>191</v>
       </c>
@@ -10451,7 +10438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="19.5">
       <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
@@ -10499,7 +10486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="39">
       <c r="A173" s="2" t="s">
         <v>191</v>
       </c>
@@ -10547,7 +10534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="19.5">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -10595,7 +10582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -10643,7 +10630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>191</v>
       </c>
@@ -10691,7 +10678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>191</v>
       </c>
@@ -10739,7 +10726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="39">
       <c r="A178" s="2" t="s">
         <v>191</v>
       </c>
@@ -10787,7 +10774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>191</v>
       </c>
@@ -10837,13 +10824,15 @@
       <c r="Q179" s="4">
         <v>25.9</v>
       </c>
-      <c r="R179" s="3"/>
+      <c r="R179" s="4">
+        <v>28.8</v>
+      </c>
       <c r="S179" s="3"/>
       <c r="T179" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>191</v>
       </c>
@@ -10897,7 +10886,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>191</v>
       </c>
@@ -10951,7 +10940,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>191</v>
       </c>
@@ -11011,7 +11000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
@@ -11071,7 +11060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -11131,7 +11120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="29.25">
       <c r="A185" s="2" t="s">
         <v>209</v>
       </c>
@@ -11189,7 +11178,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="29.25">
       <c r="A186" s="2" t="s">
         <v>209</v>
       </c>
@@ -11249,7 +11238,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="39">
       <c r="A187" s="2" t="s">
         <v>209</v>
       </c>
@@ -11309,7 +11298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="39">
       <c r="A188" s="2" t="s">
         <v>209</v>
       </c>
@@ -11369,7 +11358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="39">
       <c r="A189" s="2" t="s">
         <v>209</v>
       </c>
@@ -11429,7 +11418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="39">
       <c r="A190" s="2" t="s">
         <v>209</v>
       </c>
@@ -11489,7 +11478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="29.25">
       <c r="A191" s="2" t="s">
         <v>218</v>
       </c>
@@ -11547,7 +11536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -11605,7 +11594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>218</v>
       </c>
@@ -11663,7 +11652,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="19.5">
       <c r="A194" s="2" t="s">
         <v>218</v>
       </c>
@@ -11721,7 +11710,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="19.5">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -11779,7 +11768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
@@ -11839,7 +11828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="39">
       <c r="A197" s="2" t="s">
         <v>233</v>
       </c>
@@ -11897,7 +11886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="39">
       <c r="A198" s="2" t="s">
         <v>233</v>
       </c>
@@ -11955,7 +11944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="39">
       <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
@@ -12011,7 +12000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>233</v>
       </c>
@@ -12063,7 +12052,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>233</v>
       </c>
@@ -12123,7 +12112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>233</v>
       </c>
@@ -12183,7 +12172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>233</v>
       </c>
@@ -12243,7 +12232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>233</v>
       </c>
@@ -12303,7 +12292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>233</v>
       </c>
@@ -12363,7 +12352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>233</v>
       </c>
@@ -12423,7 +12412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>233</v>
       </c>
@@ -12483,7 +12472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>233</v>
       </c>
@@ -12543,7 +12532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>233</v>
       </c>
@@ -12603,7 +12592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>233</v>
       </c>
@@ -12663,7 +12652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>233</v>
       </c>
@@ -12723,7 +12712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>233</v>
       </c>
@@ -12783,7 +12772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>233</v>
       </c>
@@ -12843,7 +12832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>233</v>
       </c>
@@ -12903,7 +12892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>233</v>
       </c>
@@ -12963,7 +12952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -13023,7 +13012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>233</v>
       </c>
@@ -13083,7 +13072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="48.75">
       <c r="A218" s="2" t="s">
         <v>233</v>
       </c>
@@ -13143,7 +13132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>233</v>
       </c>
@@ -13203,7 +13192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>233</v>
       </c>
@@ -13263,7 +13252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>233</v>
       </c>
@@ -13323,7 +13312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>233</v>
       </c>
@@ -13383,7 +13372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -13443,7 +13432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -13503,7 +13492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -13551,7 +13540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>233</v>
       </c>
@@ -13599,7 +13588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>233</v>
       </c>
@@ -13647,7 +13636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>233</v>
       </c>
@@ -13695,7 +13684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -13743,7 +13732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -13803,7 +13792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -13863,7 +13852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -13923,7 +13912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -13983,7 +13972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -14043,7 +14032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -14103,7 +14092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>233</v>
       </c>
@@ -14163,7 +14152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>233</v>
       </c>
@@ -14223,7 +14212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>233</v>
       </c>
@@ -14283,7 +14272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>233</v>
       </c>
@@ -14343,7 +14332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
@@ -14403,7 +14392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>233</v>
       </c>
@@ -14463,7 +14452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>233</v>
       </c>
@@ -14523,7 +14512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>233</v>
       </c>
@@ -14583,7 +14572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>233</v>
       </c>
@@ -14643,7 +14632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>233</v>
       </c>
@@ -14703,7 +14692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>233</v>
       </c>
@@ -14763,7 +14752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>233</v>
       </c>
@@ -14782,46 +14771,26 @@
       <c r="F247" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G247" s="4">
-        <v>69</v>
-      </c>
-      <c r="H247" s="4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="I247" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="J247" s="4">
-        <v>71.8</v>
-      </c>
-      <c r="K247" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="L247" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="M247" s="4">
-        <v>75.7</v>
-      </c>
-      <c r="N247" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="O247" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="P247" s="4">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="Q247" s="4">
-        <v>78.2</v>
-      </c>
-      <c r="R247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="4">
+        <v>80.599999999999994</v>
+      </c>
       <c r="S247" s="3"/>
       <c r="T247" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -14840,46 +14809,26 @@
       <c r="F248" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G248" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="H248" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="I248" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J248" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="K248" s="4">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="L248" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="M248" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="N248" s="4">
-        <v>78.2</v>
-      </c>
-      <c r="O248" s="4">
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="4">
         <v>79.2</v>
       </c>
-      <c r="P248" s="4">
-        <v>80</v>
-      </c>
-      <c r="Q248" s="4">
-        <v>79.7</v>
-      </c>
-      <c r="R248" s="3"/>
       <c r="S248" s="3"/>
       <c r="T248" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>233</v>
       </c>
@@ -14898,46 +14847,26 @@
       <c r="F249" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G249" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="H249" s="4">
-        <v>70.2</v>
-      </c>
-      <c r="I249" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="J249" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="K249" s="4">
-        <v>72.5</v>
-      </c>
-      <c r="L249" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="M249" s="4">
-        <v>75</v>
-      </c>
-      <c r="N249" s="4">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="O249" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="P249" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="Q249" s="4">
-        <v>77.2</v>
-      </c>
-      <c r="R249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="4">
+        <v>82.4</v>
+      </c>
       <c r="S249" s="3"/>
       <c r="T249" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>233</v>
       </c>
@@ -14995,7 +14924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>233</v>
       </c>
@@ -15053,7 +14982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>233</v>
       </c>
@@ -15111,7 +15040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="29.25">
       <c r="A253" s="2" t="s">
         <v>274</v>
       </c>
@@ -15171,7 +15100,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="29.25">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -15223,13 +15152,15 @@
       <c r="Q254" s="5">
         <v>1.39</v>
       </c>
-      <c r="R254" s="3"/>
+      <c r="R254" s="5">
+        <v>1.44</v>
+      </c>
       <c r="S254" s="3"/>
       <c r="T254" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="29.25">
       <c r="A255" s="2" t="s">
         <v>274</v>
       </c>
@@ -15287,7 +15218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>274</v>
       </c>
@@ -15345,7 +15276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="29.25">
       <c r="A257" s="2" t="s">
         <v>274</v>
       </c>
@@ -15403,7 +15334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>274</v>
       </c>
@@ -15463,7 +15394,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>274</v>
       </c>
@@ -15521,7 +15452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>274</v>
       </c>
@@ -15575,7 +15506,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>274</v>
       </c>
@@ -15635,7 +15566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="19.5">
       <c r="A262" s="2" t="s">
         <v>293</v>
       </c>
@@ -15693,7 +15624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="19.5">
       <c r="A263" s="2" t="s">
         <v>293</v>
       </c>
@@ -15751,7 +15682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>293</v>
       </c>
@@ -15805,7 +15736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>293</v>
       </c>
@@ -15863,7 +15794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>293</v>
       </c>
@@ -15911,7 +15842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>293</v>
       </c>
@@ -15959,7 +15890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="19.5">
       <c r="A268" s="2" t="s">
         <v>293</v>
       </c>
@@ -16005,7 +15936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="19.5">
       <c r="A269" s="2" t="s">
         <v>293</v>
       </c>
@@ -16051,7 +15982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="19.5">
       <c r="A270" s="2" t="s">
         <v>293</v>
       </c>
@@ -16097,7 +16028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="19.5">
       <c r="A271" s="2" t="s">
         <v>293</v>
       </c>
@@ -16143,7 +16074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="19.5">
       <c r="A272" s="2" t="s">
         <v>293</v>
       </c>
@@ -16189,7 +16120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="19.5">
       <c r="A273" s="2" t="s">
         <v>293</v>
       </c>
@@ -16235,7 +16166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>293</v>
       </c>
@@ -16281,7 +16212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="39">
       <c r="A275" s="2" t="s">
         <v>310</v>
       </c>
@@ -16337,7 +16268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="39">
       <c r="A276" s="2" t="s">
         <v>310</v>
       </c>
@@ -16395,7 +16326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="39">
       <c r="A277" s="2" t="s">
         <v>310</v>
       </c>
@@ -16453,7 +16384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="39">
       <c r="A278" s="2" t="s">
         <v>310</v>
       </c>
@@ -16511,7 +16442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="39">
       <c r="A279" s="2" t="s">
         <v>310</v>
       </c>
@@ -16571,7 +16502,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="39">
       <c r="A280" s="2" t="s">
         <v>310</v>
       </c>
@@ -16631,7 +16562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="39">
       <c r="A281" s="2" t="s">
         <v>310</v>
       </c>
@@ -16691,7 +16622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="39">
       <c r="A282" s="2" t="s">
         <v>310</v>
       </c>
@@ -16751,7 +16682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="39">
       <c r="A283" s="2" t="s">
         <v>310</v>
       </c>
@@ -16811,7 +16742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="48.75">
       <c r="A284" s="2" t="s">
         <v>310</v>
       </c>
@@ -16871,7 +16802,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="48.75">
       <c r="A285" s="2" t="s">
         <v>310</v>
       </c>
@@ -16929,7 +16860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="39">
       <c r="A286" s="2" t="s">
         <v>328</v>
       </c>
@@ -16989,7 +16920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="39">
       <c r="A287" s="2" t="s">
         <v>328</v>
       </c>
@@ -17049,7 +16980,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="39">
       <c r="A288" s="2" t="s">
         <v>328</v>
       </c>
@@ -17107,7 +17038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="39">
       <c r="A289" s="2" t="s">
         <v>328</v>
       </c>
@@ -17165,7 +17096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="48.75">
       <c r="A290" s="2" t="s">
         <v>337</v>
       </c>
@@ -17223,7 +17154,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="48.75">
       <c r="A291" s="2" t="s">
         <v>337</v>
       </c>
@@ -17281,7 +17212,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="29.25">
       <c r="A292" s="2" t="s">
         <v>337</v>
       </c>
@@ -17339,7 +17270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="29.25">
       <c r="A293" s="2" t="s">
         <v>337</v>
       </c>
@@ -17397,7 +17328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="78">
       <c r="A294" s="2" t="s">
         <v>348</v>
       </c>
@@ -17457,7 +17388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="78">
       <c r="A295" s="2" t="s">
         <v>348</v>
       </c>
@@ -17517,7 +17448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="78">
       <c r="A296" s="2" t="s">
         <v>348</v>
       </c>
@@ -17577,7 +17508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="78">
       <c r="A297" s="2" t="s">
         <v>348</v>
       </c>
@@ -17637,7 +17568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>348</v>
       </c>
@@ -17695,7 +17626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="29.25">
       <c r="A299" s="2" t="s">
         <v>348</v>
       </c>
@@ -17755,7 +17686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
         <v>361</v>
       </c>
@@ -17815,7 +17746,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="48.75">
       <c r="A301" s="2" t="s">
         <v>361</v>
       </c>
@@ -17875,7 +17806,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="48.75">
       <c r="A302" s="2" t="s">
         <v>361</v>
       </c>
@@ -17935,7 +17866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
         <v>361</v>
       </c>
@@ -17995,7 +17926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
         <v>361</v>
       </c>
@@ -18055,7 +17986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
         <v>361</v>
       </c>
@@ -18115,7 +18046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="39">
       <c r="A306" s="2" t="s">
         <v>361</v>
       </c>
@@ -18175,7 +18106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="39">
       <c r="A307" s="2" t="s">
         <v>361</v>
       </c>
@@ -18235,7 +18166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
         <v>373</v>
       </c>
@@ -18297,7 +18228,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
         <v>373</v>
       </c>
@@ -18345,7 +18276,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
         <v>373</v>
       </c>
@@ -18403,7 +18334,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>373</v>
       </c>
@@ -18459,7 +18390,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="29.25">
       <c r="A312" s="2" t="s">
         <v>373</v>
       </c>
@@ -18517,7 +18448,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>373</v>
       </c>
@@ -18577,7 +18508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>373</v>
       </c>
@@ -18637,7 +18568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="29.25">
       <c r="A315" s="2" t="s">
         <v>373</v>
       </c>
@@ -18697,7 +18628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>373</v>
       </c>
@@ -18757,7 +18688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="29.25">
       <c r="A317" s="2" t="s">
         <v>373</v>
       </c>
@@ -18817,7 +18748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>373</v>
       </c>
@@ -18877,7 +18808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>373</v>
       </c>
@@ -18937,7 +18868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="29.25">
       <c r="A320" s="2" t="s">
         <v>373</v>
       </c>
@@ -18997,7 +18928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="29.25">
       <c r="A321" s="2" t="s">
         <v>373</v>
       </c>
@@ -19057,7 +18988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="29.25">
       <c r="A322" s="2" t="s">
         <v>373</v>
       </c>
@@ -19117,7 +19048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="29.25">
       <c r="A323" s="2" t="s">
         <v>373</v>
       </c>
@@ -19177,7 +19108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="29.25">
       <c r="A324" s="2" t="s">
         <v>373</v>
       </c>
@@ -19237,7 +19168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="29.25">
       <c r="A325" s="2" t="s">
         <v>373</v>
       </c>
@@ -19297,7 +19228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="29.25">
       <c r="A326" s="2" t="s">
         <v>373</v>
       </c>
@@ -19357,7 +19288,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="29.25">
       <c r="A327" s="2" t="s">
         <v>373</v>
       </c>
@@ -19417,7 +19348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="29.25">
       <c r="A328" s="2" t="s">
         <v>373</v>
       </c>
@@ -19477,7 +19408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="29.25">
       <c r="A329" s="2" t="s">
         <v>373</v>
       </c>
@@ -19537,7 +19468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="29.25">
       <c r="A330" s="2" t="s">
         <v>373</v>
       </c>
@@ -19597,7 +19528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>373</v>
       </c>
@@ -19657,7 +19588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>388</v>
       </c>
@@ -19717,7 +19648,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>388</v>
       </c>
@@ -19777,7 +19708,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="58.5">
       <c r="A334" s="2" t="s">
         <v>388</v>
       </c>
@@ -19837,15 +19768,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>396</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1208,7 +1208,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 15-11-2022, 08:47</t>
+    <t>Last update: 13-12-2022, 09:49</t>
   </si>
 </sst>
 </file>
@@ -5581,38 +5581,20 @@
       <c r="F69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="H69" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="I69" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="L69" s="4">
-        <v>23</v>
-      </c>
-      <c r="M69" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="N69" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="O69" s="4">
-        <v>23.3</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
       <c r="P69" s="4">
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Q69" s="4">
-        <v>24.1</v>
+        <v>33.1</v>
       </c>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -5639,38 +5621,20 @@
       <c r="F70" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G70" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="H70" s="4">
-        <v>54.2</v>
-      </c>
-      <c r="I70" s="4">
-        <v>61.2</v>
-      </c>
-      <c r="J70" s="4">
-        <v>58</v>
-      </c>
-      <c r="K70" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="L70" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="M70" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="N70" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="O70" s="4">
-        <v>56.2</v>
-      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
       <c r="P70" s="4">
-        <v>56.3</v>
+        <v>63</v>
       </c>
       <c r="Q70" s="4">
-        <v>56</v>
+        <v>62.6</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1208,20 +1213,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 13-12-2022, 09:49</t>
+    <t>Last update: 10-01-2023, 11:02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,6 +1418,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1433,7 +1446,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1496,7 +1509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,9 +1541,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1562,6 +1576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1737,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1745,7 +1760,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1758,17 +1773,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.5">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.5">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.5">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.5">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.5">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.5">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.5">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="29.25">
+    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="29.25">
+    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="29.25">
+    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2664,7 +2679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="29.25">
+    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="19.5">
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2834,7 +2849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2888,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2946,7 +2961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +3015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3054,7 +3069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3112,7 +3127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3170,7 +3185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3228,7 +3243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="39">
+    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3286,7 +3301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3402,7 +3417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="29.25">
+    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3460,7 +3475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3518,7 +3533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="29.25">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3578,7 +3593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3638,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3698,7 +3713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3758,7 +3773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="97.5">
+    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3818,7 +3833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="97.5">
+    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3878,7 +3893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="97.5">
+    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3938,7 +3953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="97.5">
+    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="97.5">
+    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4058,7 +4073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="97.5">
+    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4118,7 +4133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="29.25">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4160,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="29.25">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4202,7 +4217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="29.25">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4244,7 +4259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="29.25">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4286,7 +4301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4344,7 +4359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4402,7 +4417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4460,7 +4475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4518,7 +4533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4634,7 +4649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4692,7 +4707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4750,7 +4765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4808,7 +4823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4866,7 +4881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4924,7 +4939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4982,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5040,7 +5055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5098,7 +5113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5156,7 +5171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5214,7 +5229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5272,7 +5287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5330,7 +5345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5446,7 +5461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5504,7 +5519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5602,7 +5617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="19.5">
+    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5700,7 +5715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5740,7 +5755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5780,7 +5795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5820,7 +5835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5860,7 +5875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -5980,7 +5995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6060,7 +6075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6100,7 +6115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6140,7 +6155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6180,7 +6195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6220,7 +6235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6262,7 +6277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6304,7 +6319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6346,7 +6361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6388,7 +6403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6430,7 +6445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6472,7 +6487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6514,7 +6529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6556,7 +6571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6598,7 +6613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6640,7 +6655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6682,7 +6697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6724,7 +6739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6766,7 +6781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6808,7 +6823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6850,7 +6865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6892,7 +6907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -6976,7 +6991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7018,7 +7033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7060,7 +7075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7102,7 +7117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7144,7 +7159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7186,7 +7201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7228,7 +7243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7270,7 +7285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7312,7 +7327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7352,7 +7367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7392,7 +7407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7432,7 +7447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7488,7 +7503,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="29.25">
+    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7548,7 +7563,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7600,7 +7615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7652,7 +7667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7704,7 +7719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="19.5">
+    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7748,7 +7763,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7808,7 +7823,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="39">
+    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7868,7 +7883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7928,7 +7943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="48.75">
+    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -7972,7 +7987,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="48.75">
+    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8016,7 +8031,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="48.75">
+    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8060,7 +8075,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="48.75">
+    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8104,7 +8119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="48.75">
+    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8148,7 +8163,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="48.75">
+    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8192,7 +8207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8252,7 +8267,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8312,7 +8327,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8372,7 +8387,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="19.5">
+    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8432,7 +8447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="19.5">
+    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8492,7 +8507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="19.5">
+    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8552,7 +8567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="19.5">
+    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8612,7 +8627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="19.5">
+    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8672,7 +8687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="19.5">
+    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8732,7 +8747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="19.5">
+    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8792,7 +8807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="19.5">
+    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8852,7 +8867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="19.5">
+    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8912,7 +8927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="19.5">
+    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -8972,7 +8987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="19.5">
+    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9032,7 +9047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="58.5">
+    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9072,7 +9087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="58.5">
+    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9110,7 +9125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="58.5">
+    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9148,7 +9163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="58.5">
+    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9186,7 +9201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="58.5">
+    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9224,7 +9239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="58.5">
+    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9262,7 +9277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="58.5">
+    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9300,7 +9315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="58.5">
+    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9348,7 +9363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="58.5">
+    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="58.5">
+    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9444,7 +9459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="58.5">
+    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9492,7 +9507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="58.5">
+    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9540,7 +9555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="58.5">
+    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9588,7 +9603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="58.5">
+    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9636,7 +9651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="58.5">
+    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9684,7 +9699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="58.5">
+    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9732,7 +9747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="58.5">
+    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9780,7 +9795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="58.5">
+    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9828,7 +9843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="58.5">
+    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9876,7 +9891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="58.5">
+    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9924,7 +9939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="58.5">
+    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9972,7 +9987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="58.5">
+    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -10020,7 +10035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="58.5">
+    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10068,7 +10083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="58.5">
+    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10116,7 +10131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="58.5">
+    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10164,7 +10179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>191</v>
       </c>
@@ -10222,7 +10237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>191</v>
       </c>
@@ -10282,7 +10297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>191</v>
       </c>
@@ -10342,7 +10357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>191</v>
       </c>
@@ -10402,7 +10417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="19.5">
+    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
@@ -10450,7 +10465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="39">
+    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>191</v>
       </c>
@@ -10498,7 +10513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="19.5">
+    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -10546,7 +10561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -10594,7 +10609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>191</v>
       </c>
@@ -10642,7 +10657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>191</v>
       </c>
@@ -10690,7 +10705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="39">
+    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>191</v>
       </c>
@@ -10738,7 +10753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>191</v>
       </c>
@@ -10796,7 +10811,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>191</v>
       </c>
@@ -10850,7 +10865,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>191</v>
       </c>
@@ -10904,7 +10919,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>191</v>
       </c>
@@ -10964,7 +10979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
@@ -11024,7 +11039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -11084,7 +11099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="29.25">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>209</v>
       </c>
@@ -11142,7 +11157,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="29.25">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>209</v>
       </c>
@@ -11202,7 +11217,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="39">
+    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>209</v>
       </c>
@@ -11262,7 +11277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="39">
+    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>209</v>
       </c>
@@ -11322,7 +11337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="39">
+    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>209</v>
       </c>
@@ -11382,7 +11397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="39">
+    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>209</v>
       </c>
@@ -11442,7 +11457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="29.25">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>218</v>
       </c>
@@ -11500,7 +11515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -11558,7 +11573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>218</v>
       </c>
@@ -11616,7 +11631,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="19.5">
+    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>218</v>
       </c>
@@ -11674,7 +11689,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="19.5">
+    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -11732,7 +11747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
@@ -11792,7 +11807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="39">
+    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>233</v>
       </c>
@@ -11850,7 +11865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="39">
+    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>233</v>
       </c>
@@ -11908,7 +11923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="39">
+    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
@@ -11964,7 +11979,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>233</v>
       </c>
@@ -12016,7 +12031,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>233</v>
       </c>
@@ -12076,7 +12091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>233</v>
       </c>
@@ -12136,7 +12151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>233</v>
       </c>
@@ -12196,7 +12211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>233</v>
       </c>
@@ -12256,7 +12271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>233</v>
       </c>
@@ -12316,7 +12331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>233</v>
       </c>
@@ -12376,7 +12391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>233</v>
       </c>
@@ -12436,7 +12451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>233</v>
       </c>
@@ -12496,7 +12511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>233</v>
       </c>
@@ -12556,7 +12571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>233</v>
       </c>
@@ -12616,7 +12631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>233</v>
       </c>
@@ -12676,7 +12691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>233</v>
       </c>
@@ -12736,7 +12751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>233</v>
       </c>
@@ -12796,7 +12811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>233</v>
       </c>
@@ -12856,7 +12871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>233</v>
       </c>
@@ -12916,7 +12931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -12976,7 +12991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>233</v>
       </c>
@@ -13036,7 +13051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="48.75">
+    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>233</v>
       </c>
@@ -13096,7 +13111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>233</v>
       </c>
@@ -13156,7 +13171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>233</v>
       </c>
@@ -13216,7 +13231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>233</v>
       </c>
@@ -13276,7 +13291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>233</v>
       </c>
@@ -13336,7 +13351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -13396,7 +13411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -13456,7 +13471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -13504,7 +13519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>233</v>
       </c>
@@ -13552,7 +13567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>233</v>
       </c>
@@ -13600,7 +13615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>233</v>
       </c>
@@ -13648,7 +13663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -13696,7 +13711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -13756,7 +13771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -13816,7 +13831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -13876,7 +13891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -13936,7 +13951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -13996,7 +14011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -14056,7 +14071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>233</v>
       </c>
@@ -14116,7 +14131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>233</v>
       </c>
@@ -14176,7 +14191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>233</v>
       </c>
@@ -14236,7 +14251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>233</v>
       </c>
@@ -14296,7 +14311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
@@ -14356,7 +14371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>233</v>
       </c>
@@ -14416,7 +14431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>233</v>
       </c>
@@ -14476,7 +14491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>233</v>
       </c>
@@ -14536,7 +14551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>233</v>
       </c>
@@ -14596,7 +14611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>233</v>
       </c>
@@ -14656,7 +14671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>233</v>
       </c>
@@ -14716,7 +14731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>233</v>
       </c>
@@ -14754,7 +14769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -14792,7 +14807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>233</v>
       </c>
@@ -14830,7 +14845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>233</v>
       </c>
@@ -14888,7 +14903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>233</v>
       </c>
@@ -14946,7 +14961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>233</v>
       </c>
@@ -15004,7 +15019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="29.25">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>274</v>
       </c>
@@ -15064,7 +15079,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="29.25">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -15124,7 +15139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="29.25">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>274</v>
       </c>
@@ -15182,7 +15197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="29.25">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>274</v>
       </c>
@@ -15240,7 +15255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="29.25">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>274</v>
       </c>
@@ -15298,7 +15313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="29.25">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>274</v>
       </c>
@@ -15358,7 +15373,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="29.25">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>274</v>
       </c>
@@ -15416,7 +15431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>274</v>
       </c>
@@ -15470,7 +15485,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="29.25">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>274</v>
       </c>
@@ -15530,7 +15545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="19.5">
+    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>293</v>
       </c>
@@ -15588,7 +15603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="19.5">
+    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>293</v>
       </c>
@@ -15646,7 +15661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>293</v>
       </c>
@@ -15700,7 +15715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>293</v>
       </c>
@@ -15758,7 +15773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>293</v>
       </c>
@@ -15806,7 +15821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>293</v>
       </c>
@@ -15854,7 +15869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="19.5">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>293</v>
       </c>
@@ -15900,7 +15915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="19.5">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>293</v>
       </c>
@@ -15946,7 +15961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="19.5">
+    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>293</v>
       </c>
@@ -15992,7 +16007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="19.5">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>293</v>
       </c>
@@ -16038,7 +16053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="19.5">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>293</v>
       </c>
@@ -16084,7 +16099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="19.5">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>293</v>
       </c>
@@ -16130,7 +16145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="29.25">
+    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>293</v>
       </c>
@@ -16176,7 +16191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="39">
+    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>310</v>
       </c>
@@ -16232,7 +16247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="39">
+    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>310</v>
       </c>
@@ -16290,7 +16305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="39">
+    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>310</v>
       </c>
@@ -16348,7 +16363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="39">
+    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>310</v>
       </c>
@@ -16406,7 +16421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="39">
+    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>310</v>
       </c>
@@ -16466,7 +16481,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="39">
+    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>310</v>
       </c>
@@ -16526,7 +16541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="39">
+    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>310</v>
       </c>
@@ -16586,7 +16601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="39">
+    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>310</v>
       </c>
@@ -16646,7 +16661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="39">
+    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>310</v>
       </c>
@@ -16706,7 +16721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="48.75">
+    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>310</v>
       </c>
@@ -16766,7 +16781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="48.75">
+    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>310</v>
       </c>
@@ -16824,7 +16839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="39">
+    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>328</v>
       </c>
@@ -16884,7 +16899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="39">
+    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>328</v>
       </c>
@@ -16944,7 +16959,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="39">
+    <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>328</v>
       </c>
@@ -17002,7 +17017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="39">
+    <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>328</v>
       </c>
@@ -17060,7 +17075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="48.75">
+    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>337</v>
       </c>
@@ -17118,7 +17133,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="48.75">
+    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>337</v>
       </c>
@@ -17176,7 +17191,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="29.25">
+    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>337</v>
       </c>
@@ -17234,7 +17249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="29.25">
+    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>337</v>
       </c>
@@ -17292,7 +17307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="78">
+    <row r="294" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>348</v>
       </c>
@@ -17352,7 +17367,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="78">
+    <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>348</v>
       </c>
@@ -17412,7 +17427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="78">
+    <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>348</v>
       </c>
@@ -17472,7 +17487,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="78">
+    <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>348</v>
       </c>
@@ -17532,7 +17547,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="19.5">
+    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>348</v>
       </c>
@@ -17590,7 +17605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="29.25">
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>348</v>
       </c>
@@ -17650,7 +17665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="48.75">
+    <row r="300" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>361</v>
       </c>
@@ -17710,7 +17725,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="48.75">
+    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>361</v>
       </c>
@@ -17770,7 +17785,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="48.75">
+    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>361</v>
       </c>
@@ -17830,7 +17845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="39">
+    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>361</v>
       </c>
@@ -17890,7 +17905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="39">
+    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>361</v>
       </c>
@@ -17950,7 +17965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="39">
+    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>361</v>
       </c>
@@ -18010,7 +18025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="39">
+    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>361</v>
       </c>
@@ -18070,7 +18085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="39">
+    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>361</v>
       </c>
@@ -18130,7 +18145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="29.25">
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>373</v>
       </c>
@@ -18192,7 +18207,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="29.25">
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>373</v>
       </c>
@@ -18240,7 +18255,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="29.25">
+    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>373</v>
       </c>
@@ -18298,7 +18313,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="29.25">
+    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>373</v>
       </c>
@@ -18354,7 +18369,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="29.25">
+    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>373</v>
       </c>
@@ -18412,7 +18427,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="29.25">
+    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>373</v>
       </c>
@@ -18472,7 +18487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="29.25">
+    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>373</v>
       </c>
@@ -18532,7 +18547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="29.25">
+    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>373</v>
       </c>
@@ -18592,7 +18607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="29.25">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>373</v>
       </c>
@@ -18652,7 +18667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="29.25">
+    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>373</v>
       </c>
@@ -18712,7 +18727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="29.25">
+    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>373</v>
       </c>
@@ -18772,7 +18787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="29.25">
+    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>373</v>
       </c>
@@ -18832,7 +18847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="29.25">
+    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>373</v>
       </c>
@@ -18892,7 +18907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="29.25">
+    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>373</v>
       </c>
@@ -18952,7 +18967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="29.25">
+    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>373</v>
       </c>
@@ -19012,7 +19027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="29.25">
+    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>373</v>
       </c>
@@ -19072,7 +19087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="29.25">
+    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>373</v>
       </c>
@@ -19132,7 +19147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="29.25">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>373</v>
       </c>
@@ -19192,7 +19207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="29.25">
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>373</v>
       </c>
@@ -19252,7 +19267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="29.25">
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>373</v>
       </c>
@@ -19312,7 +19327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="29.25">
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>373</v>
       </c>
@@ -19372,7 +19387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="29.25">
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>373</v>
       </c>
@@ -19432,7 +19447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="29.25">
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>373</v>
       </c>
@@ -19492,7 +19507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="29.25">
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>373</v>
       </c>
@@ -19552,7 +19567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="29.25">
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>388</v>
       </c>
@@ -19612,7 +19627,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="29.25">
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>388</v>
       </c>
@@ -19672,7 +19687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="58.5">
+    <row r="334" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>388</v>
       </c>
@@ -19732,15 +19747,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>396</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -700,7 +700,7 @@
     <t>Ensurance of energy security of the state</t>
   </si>
   <si>
-    <t>7.3.a Relation of energy acquisition in general to the global energy consumption</t>
+    <t>7.3.a Relation of energy acquisition in general to the global energy consumption in general</t>
   </si>
   <si>
     <t>Ministry of Climate and Environment / Statistics Poland</t>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 10-01-2023, 11:02</t>
+    <t>Last update: 31-01-2023, 13:20</t>
   </si>
 </sst>
 </file>
@@ -2757,39 +2757,41 @@
         <v>47</v>
       </c>
       <c r="G19" s="5">
-        <v>107.51</v>
+        <v>109.15</v>
       </c>
       <c r="H19" s="5">
-        <v>107.91</v>
+        <v>109.42</v>
       </c>
       <c r="I19" s="5">
-        <v>108.75</v>
+        <v>110.79</v>
       </c>
       <c r="J19" s="5">
-        <v>110.23</v>
+        <v>111.76</v>
       </c>
       <c r="K19" s="5">
-        <v>113.66</v>
+        <v>118.02</v>
       </c>
       <c r="L19" s="5">
-        <v>118.48</v>
+        <v>121.58</v>
       </c>
       <c r="M19" s="5">
-        <v>125.18</v>
+        <v>128.91999999999999</v>
       </c>
       <c r="N19" s="5">
-        <v>129.12</v>
+        <v>133.32</v>
       </c>
       <c r="O19" s="5">
-        <v>133.33000000000001</v>
+        <v>138.63</v>
       </c>
       <c r="P19" s="5">
-        <v>140.31</v>
+        <v>144.88</v>
       </c>
       <c r="Q19" s="5">
-        <v>145.31</v>
-      </c>
-      <c r="R19" s="3"/>
+        <v>150.78</v>
+      </c>
+      <c r="R19" s="5">
+        <v>146.35</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="2" t="s">
         <v>27</v>
@@ -2843,7 +2845,9 @@
       <c r="Q20" s="4">
         <v>2.7</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="2" t="s">
         <v>27</v>
@@ -2897,7 +2901,9 @@
       <c r="Q21" s="4">
         <v>115.1</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="4">
+        <v>121.5</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="2" t="s">
         <v>27</v>
@@ -3119,9 +3125,11 @@
         <v>385.9</v>
       </c>
       <c r="Q25" s="4">
-        <v>392.4</v>
-      </c>
-      <c r="R25" s="3"/>
+        <v>398.8</v>
+      </c>
+      <c r="R25" s="4">
+        <v>405.2</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="2" t="s">
         <v>27</v>
@@ -3177,9 +3185,11 @@
         <v>434.5</v>
       </c>
       <c r="Q26" s="4">
-        <v>443.3</v>
-      </c>
-      <c r="R26" s="3"/>
+        <v>452.1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>460.3</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="2" t="s">
         <v>27</v>
@@ -3235,9 +3245,11 @@
         <v>313</v>
       </c>
       <c r="Q27" s="4">
-        <v>316.5</v>
-      </c>
-      <c r="R27" s="3"/>
+        <v>319.60000000000002</v>
+      </c>
+      <c r="R27" s="4">
+        <v>323.7</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="2" t="s">
         <v>27</v>
@@ -3353,7 +3365,9 @@
       <c r="Q29" s="5">
         <v>0.06</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="5">
+        <v>0.06</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="2" t="s">
         <v>27</v>
@@ -3828,7 +3842,9 @@
       <c r="R37" s="6">
         <v>89880</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="6">
+        <v>90374</v>
+      </c>
       <c r="T37" s="2" t="s">
         <v>82</v>
       </c>
@@ -3888,7 +3904,9 @@
       <c r="R38" s="6">
         <v>4185</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="6">
+        <v>4164</v>
+      </c>
       <c r="T38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3948,7 +3966,9 @@
       <c r="R39" s="6">
         <v>1470</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="6">
+        <v>1488</v>
+      </c>
       <c r="T39" s="2" t="s">
         <v>82</v>
       </c>
@@ -4008,7 +4028,9 @@
       <c r="R40" s="6">
         <v>8150</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="6">
+        <v>8135</v>
+      </c>
       <c r="T40" s="2" t="s">
         <v>82</v>
       </c>
@@ -4068,7 +4090,9 @@
       <c r="R41" s="6">
         <v>169</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="6">
+        <v>212</v>
+      </c>
       <c r="T41" s="2" t="s">
         <v>82</v>
       </c>
@@ -4128,7 +4152,9 @@
       <c r="R42" s="6">
         <v>42445</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="6">
+        <v>50707</v>
+      </c>
       <c r="T42" s="2" t="s">
         <v>82</v>
       </c>
@@ -5611,7 +5637,9 @@
       <c r="Q69" s="4">
         <v>33.1</v>
       </c>
-      <c r="R69" s="3"/>
+      <c r="R69" s="4">
+        <v>34.299999999999997</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="T69" s="2" t="s">
         <v>27</v>
@@ -5651,7 +5679,9 @@
       <c r="Q70" s="4">
         <v>62.6</v>
       </c>
-      <c r="R70" s="3"/>
+      <c r="R70" s="4">
+        <v>64.099999999999994</v>
+      </c>
       <c r="S70" s="3"/>
       <c r="T70" s="2" t="s">
         <v>27</v>
@@ -5709,7 +5739,9 @@
       <c r="Q71" s="4">
         <v>1.9</v>
       </c>
-      <c r="R71" s="3"/>
+      <c r="R71" s="4">
+        <v>2.7</v>
+      </c>
       <c r="S71" s="3"/>
       <c r="T71" s="2" t="s">
         <v>27</v>
@@ -7496,9 +7528,15 @@
       <c r="P114" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
+      <c r="Q114" s="4">
+        <v>100</v>
+      </c>
+      <c r="R114" s="4">
+        <v>100</v>
+      </c>
+      <c r="S114" s="4">
+        <v>100</v>
+      </c>
       <c r="T114" s="2" t="s">
         <v>132</v>
       </c>
@@ -9339,25 +9377,15 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
-      <c r="L150" s="6">
-        <v>15</v>
-      </c>
-      <c r="M150" s="6">
-        <v>19</v>
-      </c>
-      <c r="N150" s="6">
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="6">
         <v>21</v>
       </c>
-      <c r="O150" s="6">
-        <v>22</v>
-      </c>
-      <c r="P150" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q150" s="6">
-        <v>26</v>
-      </c>
-      <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="2" t="s">
         <v>27</v>
@@ -9387,25 +9415,15 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
-      <c r="L151" s="6">
-        <v>14</v>
-      </c>
-      <c r="M151" s="6">
-        <v>19</v>
-      </c>
-      <c r="N151" s="6">
-        <v>21</v>
-      </c>
-      <c r="O151" s="6">
-        <v>21</v>
-      </c>
-      <c r="P151" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q151" s="6">
-        <v>26</v>
-      </c>
-      <c r="R151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="6">
+        <v>20</v>
+      </c>
       <c r="S151" s="3"/>
       <c r="T151" s="2" t="s">
         <v>27</v>
@@ -9435,25 +9453,15 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="L152" s="6">
-        <v>16</v>
-      </c>
-      <c r="M152" s="6">
-        <v>20</v>
-      </c>
-      <c r="N152" s="6">
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="6">
         <v>22</v>
       </c>
-      <c r="O152" s="6">
-        <v>23</v>
-      </c>
-      <c r="P152" s="6">
-        <v>22</v>
-      </c>
-      <c r="Q152" s="6">
-        <v>26</v>
-      </c>
-      <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="2" t="s">
         <v>27</v>
@@ -9483,25 +9491,15 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="6">
-        <v>18</v>
-      </c>
-      <c r="M153" s="6">
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="6">
         <v>23</v>
       </c>
-      <c r="N153" s="6">
-        <v>25</v>
-      </c>
-      <c r="O153" s="6">
-        <v>26</v>
-      </c>
-      <c r="P153" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q153" s="6">
-        <v>31</v>
-      </c>
-      <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="2" t="s">
         <v>27</v>
@@ -9531,25 +9529,15 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-      <c r="L154" s="6">
-        <v>10</v>
-      </c>
-      <c r="M154" s="6">
-        <v>14</v>
-      </c>
-      <c r="N154" s="6">
-        <v>16</v>
-      </c>
-      <c r="O154" s="6">
-        <v>15</v>
-      </c>
-      <c r="P154" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q154" s="6">
-        <v>20</v>
-      </c>
-      <c r="R154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="6">
+        <v>21</v>
+      </c>
       <c r="S154" s="3"/>
       <c r="T154" s="2" t="s">
         <v>27</v>
@@ -9579,25 +9567,15 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="6">
-        <v>38</v>
-      </c>
-      <c r="M155" s="6">
-        <v>43</v>
-      </c>
-      <c r="N155" s="6">
-        <v>48</v>
-      </c>
-      <c r="O155" s="6">
-        <v>46</v>
-      </c>
-      <c r="P155" s="6">
-        <v>48</v>
-      </c>
-      <c r="Q155" s="6">
-        <v>64</v>
-      </c>
-      <c r="R155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="6">
+        <v>36</v>
+      </c>
       <c r="S155" s="3"/>
       <c r="T155" s="2" t="s">
         <v>27</v>
@@ -9627,25 +9605,15 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-      <c r="L156" s="6">
-        <v>28</v>
-      </c>
-      <c r="M156" s="6">
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="6">
         <v>34</v>
       </c>
-      <c r="N156" s="6">
-        <v>35</v>
-      </c>
-      <c r="O156" s="6">
-        <v>36</v>
-      </c>
-      <c r="P156" s="6">
-        <v>33</v>
-      </c>
-      <c r="Q156" s="6">
-        <v>39</v>
-      </c>
-      <c r="R156" s="3"/>
       <c r="S156" s="3"/>
       <c r="T156" s="2" t="s">
         <v>27</v>
@@ -9675,25 +9643,15 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-      <c r="L157" s="6">
-        <v>16</v>
-      </c>
-      <c r="M157" s="6">
-        <v>20</v>
-      </c>
-      <c r="N157" s="6">
-        <v>24</v>
-      </c>
-      <c r="O157" s="6">
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="6">
         <v>28</v>
       </c>
-      <c r="P157" s="6">
-        <v>26</v>
-      </c>
-      <c r="Q157" s="6">
-        <v>32</v>
-      </c>
-      <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="2" t="s">
         <v>27</v>
@@ -9723,25 +9681,15 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-      <c r="L158" s="6">
-        <v>7</v>
-      </c>
-      <c r="M158" s="6">
-        <v>10</v>
-      </c>
-      <c r="N158" s="6">
-        <v>11</v>
-      </c>
-      <c r="O158" s="6">
-        <v>13</v>
-      </c>
-      <c r="P158" s="6">
-        <v>14</v>
-      </c>
-      <c r="Q158" s="6">
-        <v>19</v>
-      </c>
-      <c r="R158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="6">
+        <v>17</v>
+      </c>
       <c r="S158" s="3"/>
       <c r="T158" s="2" t="s">
         <v>27</v>
@@ -9771,25 +9719,15 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="L159" s="6">
-        <v>4</v>
-      </c>
-      <c r="M159" s="6">
-        <v>5</v>
-      </c>
-      <c r="N159" s="6">
-        <v>5</v>
-      </c>
-      <c r="O159" s="6">
-        <v>6</v>
-      </c>
-      <c r="P159" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q159" s="6">
-        <v>7</v>
-      </c>
-      <c r="R159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="6">
+        <v>8</v>
+      </c>
       <c r="S159" s="3"/>
       <c r="T159" s="2" t="s">
         <v>27</v>
@@ -9819,25 +9757,15 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="L160" s="6">
-        <v>1</v>
-      </c>
-      <c r="M160" s="6">
-        <v>1</v>
-      </c>
-      <c r="N160" s="6">
-        <v>2</v>
-      </c>
-      <c r="O160" s="6">
-        <v>2</v>
-      </c>
-      <c r="P160" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q160" s="6">
-        <v>2</v>
-      </c>
-      <c r="R160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="6">
+        <v>3</v>
+      </c>
       <c r="S160" s="3"/>
       <c r="T160" s="2" t="s">
         <v>27</v>
@@ -9867,25 +9795,15 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
-      <c r="L161" s="6">
-        <v>12</v>
-      </c>
-      <c r="M161" s="6">
-        <v>16</v>
-      </c>
-      <c r="N161" s="6">
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="6">
         <v>19</v>
       </c>
-      <c r="O161" s="6">
-        <v>20</v>
-      </c>
-      <c r="P161" s="6">
-        <v>22</v>
-      </c>
-      <c r="Q161" s="6">
-        <v>35</v>
-      </c>
-      <c r="R161" s="3"/>
       <c r="S161" s="3"/>
       <c r="T161" s="2" t="s">
         <v>27</v>
@@ -9915,25 +9833,15 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="L162" s="6">
-        <v>9</v>
-      </c>
-      <c r="M162" s="6">
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="6">
         <v>11</v>
       </c>
-      <c r="N162" s="6">
-        <v>11</v>
-      </c>
-      <c r="O162" s="6">
-        <v>12</v>
-      </c>
-      <c r="P162" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q162" s="6">
-        <v>14</v>
-      </c>
-      <c r="R162" s="3"/>
       <c r="S162" s="3"/>
       <c r="T162" s="2" t="s">
         <v>27</v>
@@ -9963,25 +9871,15 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="L163" s="6">
-        <v>35</v>
-      </c>
-      <c r="M163" s="6">
-        <v>43</v>
-      </c>
-      <c r="N163" s="6">
-        <v>46</v>
-      </c>
-      <c r="O163" s="6">
-        <v>48</v>
-      </c>
-      <c r="P163" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q163" s="6">
-        <v>48</v>
-      </c>
-      <c r="R163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="6">
+        <v>42</v>
+      </c>
       <c r="S163" s="3"/>
       <c r="T163" s="2" t="s">
         <v>27</v>
@@ -10011,25 +9909,15 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-      <c r="L164" s="6">
-        <v>17</v>
-      </c>
-      <c r="M164" s="6">
-        <v>22</v>
-      </c>
-      <c r="N164" s="6">
-        <v>24</v>
-      </c>
-      <c r="O164" s="6">
-        <v>26</v>
-      </c>
-      <c r="P164" s="6">
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="6">
         <v>25</v>
       </c>
-      <c r="Q164" s="6">
-        <v>29</v>
-      </c>
-      <c r="R164" s="3"/>
       <c r="S164" s="3"/>
       <c r="T164" s="2" t="s">
         <v>27</v>
@@ -10059,25 +9947,15 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-      <c r="L165" s="6">
-        <v>19</v>
-      </c>
-      <c r="M165" s="6">
-        <v>23</v>
-      </c>
-      <c r="N165" s="6">
-        <v>25</v>
-      </c>
-      <c r="O165" s="6">
-        <v>27</v>
-      </c>
-      <c r="P165" s="6">
-        <v>26</v>
-      </c>
-      <c r="Q165" s="6">
-        <v>30</v>
-      </c>
-      <c r="R165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="6">
+        <v>26</v>
+      </c>
       <c r="S165" s="3"/>
       <c r="T165" s="2" t="s">
         <v>27</v>
@@ -10107,25 +9985,15 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-      <c r="L166" s="6">
-        <v>9</v>
-      </c>
-      <c r="M166" s="6">
-        <v>10</v>
-      </c>
-      <c r="N166" s="6">
-        <v>10</v>
-      </c>
-      <c r="O166" s="6">
-        <v>8</v>
-      </c>
-      <c r="P166" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q166" s="6">
-        <v>17</v>
-      </c>
-      <c r="R166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="6">
+        <v>12</v>
+      </c>
       <c r="S166" s="3"/>
       <c r="T166" s="2" t="s">
         <v>27</v>
@@ -10155,25 +10023,15 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="L167" s="6">
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="6">
         <v>12</v>
       </c>
-      <c r="M167" s="6">
-        <v>15</v>
-      </c>
-      <c r="N167" s="6">
-        <v>17</v>
-      </c>
-      <c r="O167" s="6">
-        <v>15</v>
-      </c>
-      <c r="P167" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q167" s="6">
-        <v>21</v>
-      </c>
-      <c r="R167" s="3"/>
       <c r="S167" s="3"/>
       <c r="T167" s="2" t="s">
         <v>27</v>
@@ -10231,7 +10089,9 @@
       <c r="Q168" s="4">
         <v>4.8</v>
       </c>
-      <c r="R168" s="3"/>
+      <c r="R168" s="4">
+        <v>4.8</v>
+      </c>
       <c r="S168" s="3"/>
       <c r="T168" s="2" t="s">
         <v>27</v>
@@ -11617,15 +11477,17 @@
         <v>62</v>
       </c>
       <c r="O193" s="6">
+        <v>59</v>
+      </c>
+      <c r="P193" s="6">
         <v>58</v>
       </c>
-      <c r="P193" s="6">
+      <c r="Q193" s="6">
         <v>57</v>
       </c>
-      <c r="Q193" s="6">
+      <c r="R193" s="6">
         <v>56</v>
       </c>
-      <c r="R193" s="3"/>
       <c r="S193" s="3"/>
       <c r="T193" s="2" t="s">
         <v>226</v>
@@ -11681,9 +11543,11 @@
         <v>138.5</v>
       </c>
       <c r="Q194" s="4">
-        <v>118.7</v>
-      </c>
-      <c r="R194" s="3"/>
+        <v>118.6</v>
+      </c>
+      <c r="R194" s="4">
+        <v>169.7</v>
+      </c>
       <c r="S194" s="3"/>
       <c r="T194" s="2" t="s">
         <v>229</v>
@@ -11741,7 +11605,9 @@
       <c r="Q195" s="4">
         <v>8.9</v>
       </c>
-      <c r="R195" s="3"/>
+      <c r="R195" s="4">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="S195" s="3"/>
       <c r="T195" s="2" t="s">
         <v>27</v>
@@ -11891,19 +11757,19 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="I198" s="5">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J198" s="5">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="K198" s="5">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L198" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="M198" s="5">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N198" s="5">
         <v>2.0699999999999998</v>
@@ -11912,12 +11778,14 @@
         <v>1.72</v>
       </c>
       <c r="P198" s="5">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q198" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="R198" s="3"/>
+        <v>1.66</v>
+      </c>
+      <c r="R198" s="5">
+        <v>1.58</v>
+      </c>
       <c r="S198" s="3"/>
       <c r="T198" s="2" t="s">
         <v>27</v>
@@ -15189,9 +15057,11 @@
         <v>0.83</v>
       </c>
       <c r="Q255" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="R255" s="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="R255" s="5">
+        <v>0.91</v>
+      </c>
       <c r="S255" s="3"/>
       <c r="T255" s="2" t="s">
         <v>27</v>
@@ -15249,7 +15119,9 @@
       <c r="Q256" s="4">
         <v>10</v>
       </c>
-      <c r="R256" s="3"/>
+      <c r="R256" s="4">
+        <v>8.9</v>
+      </c>
       <c r="S256" s="3"/>
       <c r="T256" s="2" t="s">
         <v>27</v>
@@ -15425,7 +15297,9 @@
       <c r="Q259" s="4">
         <v>16</v>
       </c>
-      <c r="R259" s="3"/>
+      <c r="R259" s="4">
+        <v>16.2</v>
+      </c>
       <c r="S259" s="3"/>
       <c r="T259" s="2" t="s">
         <v>27</v>
@@ -15589,13 +15463,13 @@
         <v>14.7</v>
       </c>
       <c r="O262" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="P262" s="4">
         <v>15</v>
       </c>
-      <c r="P262" s="4">
-        <v>15.1</v>
-      </c>
       <c r="Q262" s="4">
-        <v>14.4</v>
+        <v>12.5</v>
       </c>
       <c r="R262" s="3"/>
       <c r="S262" s="3"/>
@@ -15767,7 +15641,9 @@
       <c r="Q265" s="4">
         <v>27.2</v>
       </c>
-      <c r="R265" s="3"/>
+      <c r="R265" s="4">
+        <v>26.8</v>
+      </c>
       <c r="S265" s="3"/>
       <c r="T265" s="2" t="s">
         <v>27</v>
@@ -16297,9 +16173,11 @@
         <v>28.1</v>
       </c>
       <c r="Q276" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="R276" s="3"/>
+        <v>29.2</v>
+      </c>
+      <c r="R276" s="4">
+        <v>29.8</v>
+      </c>
       <c r="S276" s="3"/>
       <c r="T276" s="2" t="s">
         <v>27</v>
@@ -16415,7 +16293,9 @@
       <c r="Q278" s="4">
         <v>12.2</v>
       </c>
-      <c r="R278" s="3"/>
+      <c r="R278" s="4">
+        <v>15.4</v>
+      </c>
       <c r="S278" s="3"/>
       <c r="T278" s="2" t="s">
         <v>27</v>
@@ -16833,7 +16713,9 @@
       <c r="Q285" s="4">
         <v>22.3</v>
       </c>
-      <c r="R285" s="3"/>
+      <c r="R285" s="4">
+        <v>22.8</v>
+      </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
         <v>27</v>
@@ -17009,9 +16891,11 @@
         <v>10.3</v>
       </c>
       <c r="Q288" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="R288" s="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="R288" s="4">
+        <v>9.1</v>
+      </c>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
         <v>99</v>
@@ -17599,7 +17483,9 @@
       <c r="Q298" s="4">
         <v>186.6</v>
       </c>
-      <c r="R298" s="3"/>
+      <c r="R298" s="4">
+        <v>190.1</v>
+      </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
         <v>27</v>
@@ -18275,39 +18161,41 @@
         <v>301</v>
       </c>
       <c r="G310" s="5">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="H310" s="5">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="I310" s="5">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="J310" s="5">
         <v>1.05</v>
       </c>
       <c r="K310" s="5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L310" s="5">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="M310" s="5">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="N310" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O310" s="5">
         <v>0.88</v>
       </c>
-      <c r="O310" s="5">
-        <v>0.94</v>
-      </c>
       <c r="P310" s="5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q310" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="R310" s="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="R310" s="5">
+        <v>0.84</v>
+      </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
         <v>243</v>
@@ -18392,7 +18280,7 @@
         <v>0.63</v>
       </c>
       <c r="H312" s="5">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I312" s="5">
         <v>0.66</v>
@@ -18401,27 +18289,29 @@
         <v>0.66</v>
       </c>
       <c r="K312" s="5">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="L312" s="5">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="M312" s="5">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="N312" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O312" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P312" s="5">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q312" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="R312" s="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="R312" s="5">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="S312" s="3"/>
       <c r="T312" s="2" t="s">
         <v>243</v>
@@ -19617,7 +19507,7 @@
         <v>776.56</v>
       </c>
       <c r="Q332" s="5">
-        <v>829.27</v>
+        <v>829</v>
       </c>
       <c r="R332" s="5">
         <v>983.51</v>
@@ -19680,7 +19570,7 @@
         <v>225.08</v>
       </c>
       <c r="R333" s="5">
-        <v>296.06</v>
+        <v>296.20999999999998</v>
       </c>
       <c r="S333" s="3"/>
       <c r="T333" s="2" t="s">

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 31-01-2023, 13:20</t>
+    <t>Last update: 02-02-2023, 14:25</t>
   </si>
 </sst>
 </file>
@@ -17246,7 +17246,9 @@
       <c r="R294" s="6">
         <v>67</v>
       </c>
-      <c r="S294" s="3"/>
+      <c r="S294" s="6">
+        <v>50</v>
+      </c>
       <c r="T294" s="2" t="s">
         <v>213</v>
       </c>
@@ -17306,7 +17308,9 @@
       <c r="R295" s="6">
         <v>17</v>
       </c>
-      <c r="S295" s="3"/>
+      <c r="S295" s="6">
+        <v>0</v>
+      </c>
       <c r="T295" s="2" t="s">
         <v>213</v>
       </c>
@@ -17366,7 +17370,9 @@
       <c r="R296" s="6">
         <v>17</v>
       </c>
-      <c r="S296" s="3"/>
+      <c r="S296" s="6">
+        <v>17</v>
+      </c>
       <c r="T296" s="2" t="s">
         <v>213</v>
       </c>
@@ -17426,7 +17432,9 @@
       <c r="R297" s="6">
         <v>33</v>
       </c>
-      <c r="S297" s="3"/>
+      <c r="S297" s="6">
+        <v>50</v>
+      </c>
       <c r="T297" s="2" t="s">
         <v>213</v>
       </c>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1213,20 +1208,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 02-02-2023, 14:25</t>
+    <t>Last update: 07-02-2023, 10:18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1418,14 +1413,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1446,7 +1433,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1509,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,10 +1528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1576,7 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1752,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1760,7 +1745,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1773,17 +1758,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="29.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="29.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2909,7 +2894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2967,7 +2952,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3021,7 +3006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3075,7 +3060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3135,7 +3120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3195,7 +3180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3255,7 +3240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="39">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3313,7 +3298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3373,7 +3358,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3431,7 +3416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3489,7 +3474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3547,7 +3532,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3607,7 +3592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3667,7 +3652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3727,7 +3712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3787,7 +3772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="97.5">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3849,7 +3834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="97.5">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3911,7 +3896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="97.5">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3973,7 +3958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="97.5">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -4035,7 +4020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4097,7 +4082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4159,7 +4144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4201,7 +4186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4243,7 +4228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4285,7 +4270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4327,7 +4312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4385,7 +4370,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4443,7 +4428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4495,13 +4480,15 @@
       <c r="Q49" s="4">
         <v>455.1</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="4">
+        <v>475.8</v>
+      </c>
       <c r="S49" s="3"/>
       <c r="T49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4553,13 +4540,15 @@
       <c r="Q50" s="4">
         <v>439.3</v>
       </c>
-      <c r="R50" s="3"/>
+      <c r="R50" s="4">
+        <v>450.7</v>
+      </c>
       <c r="S50" s="3"/>
       <c r="T50" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4611,13 +4600,15 @@
       <c r="Q51" s="4">
         <v>469.9</v>
       </c>
-      <c r="R51" s="3"/>
+      <c r="R51" s="4">
+        <v>499.3</v>
+      </c>
       <c r="S51" s="3"/>
       <c r="T51" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4669,13 +4660,15 @@
       <c r="Q52" s="4">
         <v>451.1</v>
       </c>
-      <c r="R52" s="3"/>
+      <c r="R52" s="4">
+        <v>480.2</v>
+      </c>
       <c r="S52" s="3"/>
       <c r="T52" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4727,13 +4720,15 @@
       <c r="Q53" s="4">
         <v>461</v>
       </c>
-      <c r="R53" s="3"/>
+      <c r="R53" s="4">
+        <v>469.3</v>
+      </c>
       <c r="S53" s="3"/>
       <c r="T53" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4785,13 +4780,15 @@
       <c r="Q54" s="4">
         <v>260.39999999999998</v>
       </c>
-      <c r="R54" s="3"/>
+      <c r="R54" s="4">
+        <v>246.5</v>
+      </c>
       <c r="S54" s="3"/>
       <c r="T54" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4843,13 +4840,15 @@
       <c r="Q55" s="4">
         <v>293.10000000000002</v>
       </c>
-      <c r="R55" s="3"/>
+      <c r="R55" s="4">
+        <v>275.39999999999998</v>
+      </c>
       <c r="S55" s="3"/>
       <c r="T55" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4901,13 +4900,15 @@
       <c r="Q56" s="4">
         <v>229.8</v>
       </c>
-      <c r="R56" s="3"/>
+      <c r="R56" s="4">
+        <v>219.5</v>
+      </c>
       <c r="S56" s="3"/>
       <c r="T56" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4959,13 +4960,15 @@
       <c r="Q57" s="4">
         <v>281.5</v>
       </c>
-      <c r="R57" s="3"/>
+      <c r="R57" s="4">
+        <v>266</v>
+      </c>
       <c r="S57" s="3"/>
       <c r="T57" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5017,13 +5020,15 @@
       <c r="Q58" s="4">
         <v>228.7</v>
       </c>
-      <c r="R58" s="3"/>
+      <c r="R58" s="4">
+        <v>217.6</v>
+      </c>
       <c r="S58" s="3"/>
       <c r="T58" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5075,13 +5080,15 @@
       <c r="Q59" s="4">
         <v>31.7</v>
       </c>
-      <c r="R59" s="3"/>
+      <c r="R59" s="4">
+        <v>28.5</v>
+      </c>
       <c r="S59" s="3"/>
       <c r="T59" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5133,13 +5140,15 @@
       <c r="Q60" s="4">
         <v>30</v>
       </c>
-      <c r="R60" s="3"/>
+      <c r="R60" s="4">
+        <v>26.4</v>
+      </c>
       <c r="S60" s="3"/>
       <c r="T60" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5191,13 +5200,15 @@
       <c r="Q61" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="4">
+        <v>30.5</v>
+      </c>
       <c r="S61" s="3"/>
       <c r="T61" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5249,13 +5260,15 @@
       <c r="Q62" s="4">
         <v>31.7</v>
       </c>
-      <c r="R62" s="3"/>
+      <c r="R62" s="4">
+        <v>28.6</v>
+      </c>
       <c r="S62" s="3"/>
       <c r="T62" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5307,13 +5320,15 @@
       <c r="Q63" s="4">
         <v>31.7</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="4">
+        <v>28.4</v>
+      </c>
       <c r="S63" s="3"/>
       <c r="T63" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5363,15 +5378,17 @@
         <v>22.6</v>
       </c>
       <c r="Q64" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="R64" s="3"/>
+        <v>22.9</v>
+      </c>
+      <c r="R64" s="4">
+        <v>25.4</v>
+      </c>
       <c r="S64" s="3"/>
       <c r="T64" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5421,15 +5438,17 @@
         <v>27.5</v>
       </c>
       <c r="Q65" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="R65" s="3"/>
+        <v>28.4</v>
+      </c>
+      <c r="R65" s="4">
+        <v>30</v>
+      </c>
       <c r="S65" s="3"/>
       <c r="T65" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5479,15 +5498,17 @@
         <v>18.100000000000001</v>
       </c>
       <c r="Q66" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="R66" s="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="R66" s="4">
+        <v>21.1</v>
+      </c>
       <c r="S66" s="3"/>
       <c r="T66" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5537,15 +5558,17 @@
         <v>23.5</v>
       </c>
       <c r="Q67" s="4">
-        <v>23</v>
-      </c>
-      <c r="R67" s="3"/>
+        <v>23.1</v>
+      </c>
+      <c r="R67" s="4">
+        <v>25.5</v>
+      </c>
       <c r="S67" s="3"/>
       <c r="T67" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5597,13 +5620,15 @@
       <c r="Q68" s="4">
         <v>22.5</v>
       </c>
-      <c r="R68" s="3"/>
+      <c r="R68" s="4">
+        <v>25.3</v>
+      </c>
       <c r="S68" s="3"/>
       <c r="T68" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5645,7 +5670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5687,7 +5712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="19.5">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5747,7 +5772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5787,7 +5812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5827,7 +5852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5867,7 +5892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5907,7 +5932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5947,7 +5972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5987,7 +6012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6027,7 +6052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6067,7 +6092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6107,7 +6132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6147,7 +6172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6187,7 +6212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6227,7 +6252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6267,7 +6292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6309,7 +6334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6351,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6393,7 +6418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6435,7 +6460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6477,7 +6502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6519,7 +6544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6561,7 +6586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6603,7 +6628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6645,7 +6670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6687,7 +6712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6729,7 +6754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6771,7 +6796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6813,7 +6838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6855,7 +6880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6897,7 +6922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6939,7 +6964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -6981,7 +7006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7023,7 +7048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7065,7 +7090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7107,7 +7132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7149,7 +7174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7191,7 +7216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7233,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7275,7 +7300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7317,7 +7342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7359,7 +7384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7399,7 +7424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7439,7 +7464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7479,7 +7504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7541,7 +7566,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="29.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7601,7 +7626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7653,7 +7678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7705,7 +7730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7757,7 +7782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7801,7 +7826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7861,7 +7886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="39">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7921,7 +7946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7981,7 +8006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="48.75">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8025,7 +8050,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8069,7 +8094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8113,7 +8138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="48.75">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8157,7 +8182,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="48.75">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8201,7 +8226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="48.75">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8245,7 +8270,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8305,7 +8330,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8365,7 +8390,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8425,7 +8450,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="19.5">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8485,7 +8510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="19.5">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8545,7 +8570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="19.5">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8605,7 +8630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="19.5">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8665,7 +8690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="19.5">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8725,7 +8750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="19.5">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8785,7 +8810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="19.5">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8845,7 +8870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="19.5">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8905,7 +8930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="19.5">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8965,7 +8990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="19.5">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9025,7 +9050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="19.5">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9085,7 +9110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="58.5">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9125,7 +9150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9163,7 +9188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9201,7 +9226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9239,7 +9264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9277,7 +9302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9315,7 +9340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9353,7 +9378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="58.5">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9391,7 +9416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9429,7 +9454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9467,7 +9492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9505,7 +9530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9543,7 +9568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="58.5">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9581,7 +9606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="58.5">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9619,7 +9644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="58.5">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9657,7 +9682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="58.5">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9695,7 +9720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="58.5">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9733,7 +9758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="58.5">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9771,7 +9796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="58.5">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9809,7 +9834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="58.5">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9847,7 +9872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="58.5">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9885,7 +9910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="58.5">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9923,7 +9948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="58.5">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -9961,7 +9986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="58.5">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -9999,7 +10024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="58.5">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10037,7 +10062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>191</v>
       </c>
@@ -10097,7 +10122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>191</v>
       </c>
@@ -10157,7 +10182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>191</v>
       </c>
@@ -10217,7 +10242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>191</v>
       </c>
@@ -10277,7 +10302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="19.5">
       <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
@@ -10325,7 +10350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="39">
       <c r="A173" s="2" t="s">
         <v>191</v>
       </c>
@@ -10373,7 +10398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="19.5">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -10421,7 +10446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -10469,7 +10494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>191</v>
       </c>
@@ -10517,7 +10542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>191</v>
       </c>
@@ -10565,7 +10590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="39">
       <c r="A178" s="2" t="s">
         <v>191</v>
       </c>
@@ -10613,7 +10638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>191</v>
       </c>
@@ -10671,7 +10696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>191</v>
       </c>
@@ -10725,7 +10750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>191</v>
       </c>
@@ -10779,7 +10804,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>191</v>
       </c>
@@ -10839,7 +10864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
@@ -10899,7 +10924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -10959,7 +10984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="29.25">
       <c r="A185" s="2" t="s">
         <v>209</v>
       </c>
@@ -11017,7 +11042,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="29.25">
       <c r="A186" s="2" t="s">
         <v>209</v>
       </c>
@@ -11077,7 +11102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="39">
       <c r="A187" s="2" t="s">
         <v>209</v>
       </c>
@@ -11137,7 +11162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="39">
       <c r="A188" s="2" t="s">
         <v>209</v>
       </c>
@@ -11197,7 +11222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="39">
       <c r="A189" s="2" t="s">
         <v>209</v>
       </c>
@@ -11257,7 +11282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="39">
       <c r="A190" s="2" t="s">
         <v>209</v>
       </c>
@@ -11317,7 +11342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="29.25">
       <c r="A191" s="2" t="s">
         <v>218</v>
       </c>
@@ -11375,7 +11400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -11433,7 +11458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>218</v>
       </c>
@@ -11493,7 +11518,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="19.5">
       <c r="A194" s="2" t="s">
         <v>218</v>
       </c>
@@ -11553,7 +11578,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="19.5">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -11613,7 +11638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
@@ -11673,7 +11698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="39">
       <c r="A197" s="2" t="s">
         <v>233</v>
       </c>
@@ -11731,7 +11756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="39">
       <c r="A198" s="2" t="s">
         <v>233</v>
       </c>
@@ -11791,7 +11816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="39">
       <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
@@ -11847,7 +11872,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>233</v>
       </c>
@@ -11899,7 +11924,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>233</v>
       </c>
@@ -11959,7 +11984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>233</v>
       </c>
@@ -12019,7 +12044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>233</v>
       </c>
@@ -12079,7 +12104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>233</v>
       </c>
@@ -12139,7 +12164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>233</v>
       </c>
@@ -12199,7 +12224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>233</v>
       </c>
@@ -12259,7 +12284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>233</v>
       </c>
@@ -12319,7 +12344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>233</v>
       </c>
@@ -12379,7 +12404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>233</v>
       </c>
@@ -12439,7 +12464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>233</v>
       </c>
@@ -12499,7 +12524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>233</v>
       </c>
@@ -12559,7 +12584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>233</v>
       </c>
@@ -12619,7 +12644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>233</v>
       </c>
@@ -12679,7 +12704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>233</v>
       </c>
@@ -12739,7 +12764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>233</v>
       </c>
@@ -12799,7 +12824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -12859,7 +12884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>233</v>
       </c>
@@ -12919,7 +12944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="48.75">
       <c r="A218" s="2" t="s">
         <v>233</v>
       </c>
@@ -12979,7 +13004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>233</v>
       </c>
@@ -13039,7 +13064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>233</v>
       </c>
@@ -13099,7 +13124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>233</v>
       </c>
@@ -13159,7 +13184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>233</v>
       </c>
@@ -13219,7 +13244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -13279,7 +13304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -13339,7 +13364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -13387,7 +13412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>233</v>
       </c>
@@ -13435,7 +13460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>233</v>
       </c>
@@ -13483,7 +13508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>233</v>
       </c>
@@ -13531,7 +13556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -13579,7 +13604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -13639,7 +13664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -13699,7 +13724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -13759,7 +13784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -13819,7 +13844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -13879,7 +13904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -13939,7 +13964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>233</v>
       </c>
@@ -13999,7 +14024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>233</v>
       </c>
@@ -14059,7 +14084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>233</v>
       </c>
@@ -14119,7 +14144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>233</v>
       </c>
@@ -14179,7 +14204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
@@ -14239,7 +14264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>233</v>
       </c>
@@ -14299,7 +14324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>233</v>
       </c>
@@ -14359,7 +14384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>233</v>
       </c>
@@ -14419,7 +14444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>233</v>
       </c>
@@ -14479,7 +14504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>233</v>
       </c>
@@ -14539,7 +14564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>233</v>
       </c>
@@ -14599,7 +14624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>233</v>
       </c>
@@ -14637,7 +14662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -14675,7 +14700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>233</v>
       </c>
@@ -14713,7 +14738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>233</v>
       </c>
@@ -14771,7 +14796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>233</v>
       </c>
@@ -14829,7 +14854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>233</v>
       </c>
@@ -14887,7 +14912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="29.25">
       <c r="A253" s="2" t="s">
         <v>274</v>
       </c>
@@ -14947,7 +14972,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="29.25">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -15007,7 +15032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="29.25">
       <c r="A255" s="2" t="s">
         <v>274</v>
       </c>
@@ -15067,7 +15092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>274</v>
       </c>
@@ -15127,7 +15152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="29.25">
       <c r="A257" s="2" t="s">
         <v>274</v>
       </c>
@@ -15185,7 +15210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>274</v>
       </c>
@@ -15245,7 +15270,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>274</v>
       </c>
@@ -15305,7 +15330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>274</v>
       </c>
@@ -15359,7 +15384,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>274</v>
       </c>
@@ -15419,7 +15444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="19.5">
       <c r="A262" s="2" t="s">
         <v>293</v>
       </c>
@@ -15477,7 +15502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="19.5">
       <c r="A263" s="2" t="s">
         <v>293</v>
       </c>
@@ -15535,7 +15560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>293</v>
       </c>
@@ -15589,7 +15614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>293</v>
       </c>
@@ -15649,7 +15674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>293</v>
       </c>
@@ -15697,7 +15722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>293</v>
       </c>
@@ -15745,7 +15770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="19.5">
       <c r="A268" s="2" t="s">
         <v>293</v>
       </c>
@@ -15791,7 +15816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="19.5">
       <c r="A269" s="2" t="s">
         <v>293</v>
       </c>
@@ -15837,7 +15862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="19.5">
       <c r="A270" s="2" t="s">
         <v>293</v>
       </c>
@@ -15883,7 +15908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="19.5">
       <c r="A271" s="2" t="s">
         <v>293</v>
       </c>
@@ -15929,7 +15954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="19.5">
       <c r="A272" s="2" t="s">
         <v>293</v>
       </c>
@@ -15975,7 +16000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="19.5">
       <c r="A273" s="2" t="s">
         <v>293</v>
       </c>
@@ -16021,7 +16046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>293</v>
       </c>
@@ -16067,7 +16092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="39">
       <c r="A275" s="2" t="s">
         <v>310</v>
       </c>
@@ -16123,7 +16148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="39">
       <c r="A276" s="2" t="s">
         <v>310</v>
       </c>
@@ -16183,7 +16208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="39">
       <c r="A277" s="2" t="s">
         <v>310</v>
       </c>
@@ -16241,7 +16266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="39">
       <c r="A278" s="2" t="s">
         <v>310</v>
       </c>
@@ -16301,7 +16326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="39">
       <c r="A279" s="2" t="s">
         <v>310</v>
       </c>
@@ -16361,7 +16386,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="39">
       <c r="A280" s="2" t="s">
         <v>310</v>
       </c>
@@ -16421,7 +16446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="39">
       <c r="A281" s="2" t="s">
         <v>310</v>
       </c>
@@ -16481,7 +16506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="39">
       <c r="A282" s="2" t="s">
         <v>310</v>
       </c>
@@ -16541,7 +16566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="39">
       <c r="A283" s="2" t="s">
         <v>310</v>
       </c>
@@ -16601,7 +16626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="48.75">
       <c r="A284" s="2" t="s">
         <v>310</v>
       </c>
@@ -16661,7 +16686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="48.75">
       <c r="A285" s="2" t="s">
         <v>310</v>
       </c>
@@ -16721,7 +16746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="39">
       <c r="A286" s="2" t="s">
         <v>328</v>
       </c>
@@ -16781,7 +16806,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="39">
       <c r="A287" s="2" t="s">
         <v>328</v>
       </c>
@@ -16841,7 +16866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="39">
       <c r="A288" s="2" t="s">
         <v>328</v>
       </c>
@@ -16901,7 +16926,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="39">
       <c r="A289" s="2" t="s">
         <v>328</v>
       </c>
@@ -16959,7 +16984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="48.75">
       <c r="A290" s="2" t="s">
         <v>337</v>
       </c>
@@ -17017,7 +17042,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="48.75">
       <c r="A291" s="2" t="s">
         <v>337</v>
       </c>
@@ -17075,7 +17100,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="29.25">
       <c r="A292" s="2" t="s">
         <v>337</v>
       </c>
@@ -17133,7 +17158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="29.25">
       <c r="A293" s="2" t="s">
         <v>337</v>
       </c>
@@ -17191,7 +17216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="78">
       <c r="A294" s="2" t="s">
         <v>348</v>
       </c>
@@ -17253,7 +17278,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="78">
       <c r="A295" s="2" t="s">
         <v>348</v>
       </c>
@@ -17315,7 +17340,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="78">
       <c r="A296" s="2" t="s">
         <v>348</v>
       </c>
@@ -17377,7 +17402,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="78">
       <c r="A297" s="2" t="s">
         <v>348</v>
       </c>
@@ -17439,7 +17464,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>348</v>
       </c>
@@ -17499,7 +17524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="29.25">
       <c r="A299" s="2" t="s">
         <v>348</v>
       </c>
@@ -17559,7 +17584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
         <v>361</v>
       </c>
@@ -17619,7 +17644,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="48.75">
       <c r="A301" s="2" t="s">
         <v>361</v>
       </c>
@@ -17679,7 +17704,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="48.75">
       <c r="A302" s="2" t="s">
         <v>361</v>
       </c>
@@ -17739,7 +17764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
         <v>361</v>
       </c>
@@ -17799,7 +17824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
         <v>361</v>
       </c>
@@ -17859,7 +17884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
         <v>361</v>
       </c>
@@ -17919,7 +17944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="39">
       <c r="A306" s="2" t="s">
         <v>361</v>
       </c>
@@ -17979,7 +18004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="39">
       <c r="A307" s="2" t="s">
         <v>361</v>
       </c>
@@ -18039,7 +18064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
         <v>373</v>
       </c>
@@ -18101,7 +18126,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
         <v>373</v>
       </c>
@@ -18149,7 +18174,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
         <v>373</v>
       </c>
@@ -18209,7 +18234,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>373</v>
       </c>
@@ -18265,7 +18290,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="29.25">
       <c r="A312" s="2" t="s">
         <v>373</v>
       </c>
@@ -18325,7 +18350,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="29.25">
       <c r="A313" s="2" t="s">
         <v>373</v>
       </c>
@@ -18385,7 +18410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="29.25">
       <c r="A314" s="2" t="s">
         <v>373</v>
       </c>
@@ -18445,7 +18470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="29.25">
       <c r="A315" s="2" t="s">
         <v>373</v>
       </c>
@@ -18505,7 +18530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="29.25">
       <c r="A316" s="2" t="s">
         <v>373</v>
       </c>
@@ -18565,7 +18590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="29.25">
       <c r="A317" s="2" t="s">
         <v>373</v>
       </c>
@@ -18625,7 +18650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="29.25">
       <c r="A318" s="2" t="s">
         <v>373</v>
       </c>
@@ -18685,7 +18710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="29.25">
       <c r="A319" s="2" t="s">
         <v>373</v>
       </c>
@@ -18745,7 +18770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="29.25">
       <c r="A320" s="2" t="s">
         <v>373</v>
       </c>
@@ -18805,7 +18830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="29.25">
       <c r="A321" s="2" t="s">
         <v>373</v>
       </c>
@@ -18865,7 +18890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="29.25">
       <c r="A322" s="2" t="s">
         <v>373</v>
       </c>
@@ -18925,7 +18950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="29.25">
       <c r="A323" s="2" t="s">
         <v>373</v>
       </c>
@@ -18985,7 +19010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="29.25">
       <c r="A324" s="2" t="s">
         <v>373</v>
       </c>
@@ -19045,7 +19070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="29.25">
       <c r="A325" s="2" t="s">
         <v>373</v>
       </c>
@@ -19105,7 +19130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="29.25">
       <c r="A326" s="2" t="s">
         <v>373</v>
       </c>
@@ -19165,7 +19190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="29.25">
       <c r="A327" s="2" t="s">
         <v>373</v>
       </c>
@@ -19225,7 +19250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="29.25">
       <c r="A328" s="2" t="s">
         <v>373</v>
       </c>
@@ -19285,7 +19310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="29.25">
       <c r="A329" s="2" t="s">
         <v>373</v>
       </c>
@@ -19345,7 +19370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="29.25">
       <c r="A330" s="2" t="s">
         <v>373</v>
       </c>
@@ -19405,7 +19430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>373</v>
       </c>
@@ -19465,7 +19490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>388</v>
       </c>
@@ -19525,7 +19550,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>388</v>
       </c>
@@ -19585,7 +19610,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="58.5">
       <c r="A334" s="2" t="s">
         <v>388</v>
       </c>
@@ -19645,15 +19670,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>396</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1208,7 +1208,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-02-2023, 10:18</t>
+    <t>Last update: 07-02-2023, 13:42</t>
   </si>
 </sst>
 </file>
@@ -4478,7 +4478,7 @@
         <v>421</v>
       </c>
       <c r="Q49" s="4">
-        <v>455.1</v>
+        <v>457.2</v>
       </c>
       <c r="R49" s="4">
         <v>475.8</v>
@@ -4538,7 +4538,7 @@
         <v>406.4</v>
       </c>
       <c r="Q50" s="4">
-        <v>439.3</v>
+        <v>441.3</v>
       </c>
       <c r="R50" s="4">
         <v>450.7</v>
@@ -4598,7 +4598,7 @@
         <v>434.6</v>
       </c>
       <c r="Q51" s="4">
-        <v>469.9</v>
+        <v>472.1</v>
       </c>
       <c r="R51" s="4">
         <v>499.3</v>
@@ -4658,7 +4658,7 @@
         <v>418.9</v>
       </c>
       <c r="Q52" s="4">
-        <v>451.1</v>
+        <v>453.7</v>
       </c>
       <c r="R52" s="4">
         <v>480.2</v>
@@ -4718,7 +4718,7 @@
         <v>424</v>
       </c>
       <c r="Q53" s="4">
-        <v>461</v>
+        <v>462.5</v>
       </c>
       <c r="R53" s="4">
         <v>469.3</v>
@@ -4778,7 +4778,7 @@
         <v>261.3</v>
       </c>
       <c r="Q54" s="4">
-        <v>260.39999999999998</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="R54" s="4">
         <v>246.5</v>
@@ -4838,7 +4838,7 @@
         <v>292.8</v>
       </c>
       <c r="Q55" s="4">
-        <v>293.10000000000002</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R55" s="4">
         <v>275.39999999999998</v>
@@ -4898,7 +4898,7 @@
         <v>231.9</v>
       </c>
       <c r="Q56" s="4">
-        <v>229.8</v>
+        <v>230.8</v>
       </c>
       <c r="R56" s="4">
         <v>219.5</v>
@@ -4958,7 +4958,7 @@
         <v>282.7</v>
       </c>
       <c r="Q57" s="4">
-        <v>281.5</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R57" s="4">
         <v>266</v>
@@ -5018,7 +5018,7 @@
         <v>229.2</v>
       </c>
       <c r="Q58" s="4">
-        <v>228.7</v>
+        <v>229.5</v>
       </c>
       <c r="R58" s="4">
         <v>217.6</v>
@@ -5078,7 +5078,7 @@
         <v>24.2</v>
       </c>
       <c r="Q59" s="4">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="R59" s="4">
         <v>28.5</v>
@@ -5138,7 +5138,7 @@
         <v>22.6</v>
       </c>
       <c r="Q60" s="4">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="R60" s="4">
         <v>26.4</v>
@@ -5198,7 +5198,7 @@
         <v>25.7</v>
       </c>
       <c r="Q61" s="4">
-        <v>33.299999999999997</v>
+        <v>33.5</v>
       </c>
       <c r="R61" s="4">
         <v>30.5</v>
@@ -5258,7 +5258,7 @@
         <v>24.5</v>
       </c>
       <c r="Q62" s="4">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="R62" s="4">
         <v>28.6</v>
@@ -5318,7 +5318,7 @@
         <v>23.7</v>
       </c>
       <c r="Q63" s="4">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="R63" s="4">
         <v>28.4</v>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1208,20 +1213,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-02-2023, 13:42</t>
+    <t>Last update: 28-02-2023, 09:55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1413,6 +1418,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1433,7 +1446,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1496,7 +1509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,9 +1541,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1562,6 +1576,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1737,15 +1752,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1758,17 +1773,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.5">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.5">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.5">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.5">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.5">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2250,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.5">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2370,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.5">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="29.25">
+    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="29.25">
+    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="29.25">
+    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2664,7 +2679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="29.25">
+    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="19.5">
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2894,7 +2909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2945,14 +2960,16 @@
         <v>25.9</v>
       </c>
       <c r="R22" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S22" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="S22" s="4">
+        <v>32.700000000000003</v>
+      </c>
       <c r="T22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3000,13 +3017,17 @@
       <c r="Q23" s="4">
         <v>37.5</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="R23" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>49.3</v>
+      </c>
       <c r="T23" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3054,13 +3075,17 @@
       <c r="Q24" s="4">
         <v>9.6</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="R24" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="S24" s="4">
+        <v>17.100000000000001</v>
+      </c>
       <c r="T24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3180,7 +3205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3240,7 +3265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="39">
+    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3298,7 +3323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3358,7 +3383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3416,7 +3441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="29.25">
+    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3474,7 +3499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3532,7 +3557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="29.25">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3592,7 +3617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3652,7 +3677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3772,7 +3797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="97.5">
+    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3834,7 +3859,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="97.5">
+    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3896,7 +3921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="97.5">
+    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3958,7 +3983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="97.5">
+    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -4020,7 +4045,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="97.5">
+    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4082,7 +4107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="97.5">
+    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4144,7 +4169,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="29.25">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4186,7 +4211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="29.25">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4228,7 +4253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="29.25">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4270,7 +4295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="29.25">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4312,7 +4337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4332,45 +4357,47 @@
         <v>98</v>
       </c>
       <c r="G47" s="4">
+        <v>58</v>
+      </c>
+      <c r="H47" s="4">
+        <v>58.2</v>
+      </c>
+      <c r="I47" s="4">
         <v>58.5</v>
       </c>
-      <c r="H47" s="4">
+      <c r="J47" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="K47" s="4">
+        <v>58.9</v>
+      </c>
+      <c r="L47" s="4">
+        <v>59</v>
+      </c>
+      <c r="M47" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="N47" s="4">
+        <v>59.7</v>
+      </c>
+      <c r="O47" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="P47" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>59.2</v>
+      </c>
+      <c r="R47" s="4">
         <v>59.1</v>
       </c>
-      <c r="I47" s="4">
-        <v>59.1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>59.2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>59.8</v>
-      </c>
-      <c r="L47" s="4">
-        <v>60.1</v>
-      </c>
-      <c r="M47" s="4">
-        <v>61.3</v>
-      </c>
-      <c r="N47" s="4">
-        <v>60.6</v>
-      </c>
-      <c r="O47" s="4">
-        <v>60.5</v>
-      </c>
-      <c r="P47" s="4">
-        <v>60.9</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>60.3</v>
-      </c>
-      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4390,45 +4417,47 @@
         <v>98</v>
       </c>
       <c r="G48" s="4">
-        <v>62.3</v>
+        <v>61.6</v>
       </c>
       <c r="H48" s="4">
-        <v>63.2</v>
+        <v>61.9</v>
       </c>
       <c r="I48" s="4">
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="J48" s="4">
-        <v>62.7</v>
+        <v>62.1</v>
       </c>
       <c r="K48" s="4">
-        <v>62.7</v>
+        <v>62.2</v>
       </c>
       <c r="L48" s="4">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="M48" s="4">
-        <v>64.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="N48" s="4">
-        <v>63.5</v>
+        <v>63.1</v>
       </c>
       <c r="O48" s="4">
-        <v>64.3</v>
+        <v>63.3</v>
       </c>
       <c r="P48" s="4">
-        <v>64.099999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="Q48" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="R48" s="3"/>
+        <v>63.1</v>
+      </c>
+      <c r="R48" s="4">
+        <v>63.1</v>
+      </c>
       <c r="S48" s="3"/>
       <c r="T48" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4488,7 +4517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4548,7 +4577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4608,7 +4637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4668,7 +4697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4728,7 +4757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4788,7 +4817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4848,7 +4877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4908,7 +4937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4968,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5028,7 +5057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5088,7 +5117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5148,7 +5177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5208,7 +5237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5268,7 +5297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5328,7 +5357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5388,7 +5417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5448,7 +5477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5508,7 +5537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5568,7 +5597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5628,7 +5657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5670,7 +5699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5712,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="19.5">
+    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5772,7 +5801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5812,7 +5841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5852,7 +5881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5892,7 +5921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5932,7 +5961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5972,7 +6001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6012,7 +6041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6052,7 +6081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6092,7 +6121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6132,7 +6161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6172,7 +6201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6212,7 +6241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6252,7 +6281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6292,7 +6321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6334,7 +6363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6376,7 +6405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6418,7 +6447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6460,7 +6489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6502,7 +6531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6544,7 +6573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6586,7 +6615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6628,7 +6657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6670,7 +6699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6712,7 +6741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6754,7 +6783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6796,7 +6825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6838,7 +6867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6880,7 +6909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6922,7 +6951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6964,7 +6993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -7006,7 +7035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7048,7 +7077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7090,7 +7119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7132,7 +7161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7174,7 +7203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7216,7 +7245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7258,7 +7287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7300,7 +7329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7342,7 +7371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7384,7 +7413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7424,7 +7453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7464,7 +7493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7504,7 +7533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7566,7 +7595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="29.25">
+    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7626,7 +7655,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7678,7 +7707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7730,7 +7759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7782,7 +7811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="19.5">
+    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7826,7 +7855,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7886,7 +7915,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="39">
+    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7946,7 +7975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8006,7 +8035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="48.75">
+    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8050,7 +8079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="48.75">
+    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8094,7 +8123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="48.75">
+    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8138,7 +8167,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="48.75">
+    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8182,7 +8211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="48.75">
+    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8226,7 +8255,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="48.75">
+    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8270,7 +8299,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8320,17 +8349,17 @@
         <v>88.5</v>
       </c>
       <c r="Q129" s="4">
-        <v>87.2</v>
+        <v>85.2</v>
       </c>
       <c r="R129" s="4">
-        <v>89.6</v>
+        <v>88.3</v>
       </c>
       <c r="S129" s="3"/>
       <c r="T129" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8380,17 +8409,17 @@
         <v>102.7</v>
       </c>
       <c r="Q130" s="4">
-        <v>101.1</v>
+        <v>103.1</v>
       </c>
       <c r="R130" s="4">
-        <v>103.1</v>
+        <v>106.3</v>
       </c>
       <c r="S130" s="3"/>
       <c r="T130" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8440,17 +8469,17 @@
         <v>68.5</v>
       </c>
       <c r="Q131" s="4">
-        <v>67.7</v>
+        <v>62.5</v>
       </c>
       <c r="R131" s="4">
-        <v>70.900000000000006</v>
+        <v>65.8</v>
       </c>
       <c r="S131" s="3"/>
       <c r="T131" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="19.5">
+    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8510,7 +8539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="19.5">
+    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8570,7 +8599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="19.5">
+    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8630,7 +8659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="19.5">
+    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8690,7 +8719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="19.5">
+    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8750,7 +8779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="19.5">
+    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8810,7 +8839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="19.5">
+    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8870,7 +8899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="19.5">
+    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8930,7 +8959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="19.5">
+    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8990,7 +9019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="19.5">
+    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9050,7 +9079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="19.5">
+    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9110,7 +9139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="58.5">
+    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9150,7 +9179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="58.5">
+    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9188,7 +9217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="58.5">
+    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9226,7 +9255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="58.5">
+    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9264,7 +9293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="58.5">
+    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9302,7 +9331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="58.5">
+    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9340,7 +9369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="58.5">
+    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9378,7 +9407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="58.5">
+    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9416,7 +9445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="58.5">
+    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9454,7 +9483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="58.5">
+    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9492,7 +9521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="58.5">
+    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9530,7 +9559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="58.5">
+    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9568,7 +9597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="58.5">
+    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9606,7 +9635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="58.5">
+    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9644,7 +9673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="58.5">
+    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9682,7 +9711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="58.5">
+    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9720,7 +9749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="58.5">
+    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9758,7 +9787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="58.5">
+    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9796,7 +9825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="58.5">
+    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9834,7 +9863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="58.5">
+    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9872,7 +9901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="58.5">
+    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9910,7 +9939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="58.5">
+    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9948,7 +9977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="58.5">
+    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -9986,7 +10015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="58.5">
+    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10024,7 +10053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="58.5">
+    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10062,7 +10091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>191</v>
       </c>
@@ -10122,7 +10151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>191</v>
       </c>
@@ -10182,7 +10211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>191</v>
       </c>
@@ -10242,7 +10271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>191</v>
       </c>
@@ -10302,7 +10331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="19.5">
+    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
@@ -10350,7 +10379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="39">
+    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>191</v>
       </c>
@@ -10398,7 +10427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="19.5">
+    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -10446,7 +10475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -10494,7 +10523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>191</v>
       </c>
@@ -10542,7 +10571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>191</v>
       </c>
@@ -10590,7 +10619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="39">
+    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>191</v>
       </c>
@@ -10638,7 +10667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>191</v>
       </c>
@@ -10689,14 +10718,16 @@
         <v>25.9</v>
       </c>
       <c r="R179" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S179" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="S179" s="4">
+        <v>32.700000000000003</v>
+      </c>
       <c r="T179" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>191</v>
       </c>
@@ -10744,13 +10775,17 @@
       <c r="Q180" s="4">
         <v>37.5</v>
       </c>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
+      <c r="R180" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="S180" s="4">
+        <v>49.3</v>
+      </c>
       <c r="T180" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>191</v>
       </c>
@@ -10798,13 +10833,17 @@
       <c r="Q181" s="4">
         <v>9.6</v>
       </c>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
+      <c r="R181" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="S181" s="4">
+        <v>17.100000000000001</v>
+      </c>
       <c r="T181" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>191</v>
       </c>
@@ -10864,7 +10903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
@@ -10924,7 +10963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>191</v>
       </c>
@@ -10984,7 +11023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="29.25">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>209</v>
       </c>
@@ -11042,7 +11081,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="29.25">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>209</v>
       </c>
@@ -11102,7 +11141,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="39">
+    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>209</v>
       </c>
@@ -11162,7 +11201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="39">
+    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>209</v>
       </c>
@@ -11222,7 +11261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="39">
+    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>209</v>
       </c>
@@ -11282,7 +11321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="39">
+    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>209</v>
       </c>
@@ -11342,7 +11381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="29.25">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>218</v>
       </c>
@@ -11400,7 +11439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>218</v>
       </c>
@@ -11452,13 +11491,15 @@
       <c r="Q192" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="R192" s="3"/>
+      <c r="R192" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S192" s="3"/>
       <c r="T192" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>218</v>
       </c>
@@ -11518,7 +11559,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="19.5">
+    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>218</v>
       </c>
@@ -11578,7 +11619,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="19.5">
+    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>218</v>
       </c>
@@ -11638,7 +11679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
@@ -11698,7 +11739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="39">
+    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>233</v>
       </c>
@@ -11756,7 +11797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="39">
+    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>233</v>
       </c>
@@ -11816,7 +11857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="39">
+    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
@@ -11872,7 +11913,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>233</v>
       </c>
@@ -11924,7 +11965,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>233</v>
       </c>
@@ -11984,7 +12025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>233</v>
       </c>
@@ -12044,7 +12085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>233</v>
       </c>
@@ -12104,7 +12145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>233</v>
       </c>
@@ -12164,7 +12205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>233</v>
       </c>
@@ -12224,7 +12265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>233</v>
       </c>
@@ -12284,7 +12325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>233</v>
       </c>
@@ -12344,7 +12385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>233</v>
       </c>
@@ -12404,7 +12445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>233</v>
       </c>
@@ -12464,7 +12505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>233</v>
       </c>
@@ -12524,7 +12565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>233</v>
       </c>
@@ -12584,7 +12625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>233</v>
       </c>
@@ -12644,7 +12685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>233</v>
       </c>
@@ -12704,7 +12745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>233</v>
       </c>
@@ -12764,7 +12805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>233</v>
       </c>
@@ -12824,7 +12865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>233</v>
       </c>
@@ -12884,7 +12925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>233</v>
       </c>
@@ -12944,7 +12985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="48.75">
+    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>233</v>
       </c>
@@ -13004,7 +13045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>233</v>
       </c>
@@ -13064,7 +13105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>233</v>
       </c>
@@ -13124,7 +13165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>233</v>
       </c>
@@ -13184,7 +13225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>233</v>
       </c>
@@ -13244,7 +13285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>233</v>
       </c>
@@ -13304,7 +13345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>233</v>
       </c>
@@ -13364,7 +13405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
@@ -13412,7 +13453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>233</v>
       </c>
@@ -13460,7 +13501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>233</v>
       </c>
@@ -13508,7 +13549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>233</v>
       </c>
@@ -13556,7 +13597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -13604,7 +13645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -13664,7 +13705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -13724,7 +13765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -13784,7 +13825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -13844,7 +13885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -13904,7 +13945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>233</v>
       </c>
@@ -13964,7 +14005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>233</v>
       </c>
@@ -14024,7 +14065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>233</v>
       </c>
@@ -14084,7 +14125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>233</v>
       </c>
@@ -14144,7 +14185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>233</v>
       </c>
@@ -14204,7 +14245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>233</v>
       </c>
@@ -14264,7 +14305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>233</v>
       </c>
@@ -14324,7 +14365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>233</v>
       </c>
@@ -14384,7 +14425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>233</v>
       </c>
@@ -14444,7 +14485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>233</v>
       </c>
@@ -14504,7 +14545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>233</v>
       </c>
@@ -14564,7 +14605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>233</v>
       </c>
@@ -14624,7 +14665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>233</v>
       </c>
@@ -14662,7 +14703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>233</v>
       </c>
@@ -14700,7 +14741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>233</v>
       </c>
@@ -14738,7 +14779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>233</v>
       </c>
@@ -14796,7 +14837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>233</v>
       </c>
@@ -14854,7 +14895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>233</v>
       </c>
@@ -14912,7 +14953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="29.25">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>274</v>
       </c>
@@ -14972,7 +15013,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="29.25">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -15032,7 +15073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="29.25">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>274</v>
       </c>
@@ -15092,7 +15133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="29.25">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>274</v>
       </c>
@@ -15152,7 +15193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="29.25">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>274</v>
       </c>
@@ -15210,7 +15251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="29.25">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>274</v>
       </c>
@@ -15270,7 +15311,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="29.25">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>274</v>
       </c>
@@ -15330,7 +15371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>274</v>
       </c>
@@ -15384,7 +15425,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="29.25">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>274</v>
       </c>
@@ -15444,7 +15485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="19.5">
+    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>293</v>
       </c>
@@ -15502,7 +15543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="19.5">
+    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>293</v>
       </c>
@@ -15554,13 +15595,15 @@
       <c r="Q263" s="4">
         <v>78.3</v>
       </c>
-      <c r="R263" s="3"/>
+      <c r="R263" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="S263" s="3"/>
       <c r="T263" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>293</v>
       </c>
@@ -15614,7 +15657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>293</v>
       </c>
@@ -15674,7 +15717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>293</v>
       </c>
@@ -15716,13 +15759,15 @@
       <c r="Q266" s="4">
         <v>26.4</v>
       </c>
-      <c r="R266" s="3"/>
+      <c r="R266" s="4">
+        <v>26.2</v>
+      </c>
       <c r="S266" s="3"/>
       <c r="T266" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>293</v>
       </c>
@@ -15764,13 +15809,15 @@
       <c r="Q267" s="4">
         <v>26.5</v>
       </c>
-      <c r="R267" s="3"/>
+      <c r="R267" s="4">
+        <v>26.1</v>
+      </c>
       <c r="S267" s="3"/>
       <c r="T267" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="19.5">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>293</v>
       </c>
@@ -15816,7 +15863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="19.5">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>293</v>
       </c>
@@ -15862,7 +15909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="19.5">
+    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>293</v>
       </c>
@@ -15908,7 +15955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="19.5">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>293</v>
       </c>
@@ -15954,7 +16001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="19.5">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>293</v>
       </c>
@@ -16000,7 +16047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="19.5">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>293</v>
       </c>
@@ -16046,7 +16093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="29.25">
+    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>293</v>
       </c>
@@ -16092,7 +16139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="39">
+    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>310</v>
       </c>
@@ -16148,7 +16195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="39">
+    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>310</v>
       </c>
@@ -16208,7 +16255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="39">
+    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>310</v>
       </c>
@@ -16266,7 +16313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="39">
+    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>310</v>
       </c>
@@ -16326,7 +16373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="39">
+    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>310</v>
       </c>
@@ -16386,7 +16433,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="39">
+    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>310</v>
       </c>
@@ -16446,7 +16493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="39">
+    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>310</v>
       </c>
@@ -16506,7 +16553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="39">
+    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>310</v>
       </c>
@@ -16566,7 +16613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="39">
+    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>310</v>
       </c>
@@ -16626,7 +16673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="48.75">
+    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>310</v>
       </c>
@@ -16686,7 +16733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="48.75">
+    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>310</v>
       </c>
@@ -16746,7 +16793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="39">
+    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>328</v>
       </c>
@@ -16806,7 +16853,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="39">
+    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>328</v>
       </c>
@@ -16866,7 +16913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="39">
+    <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>328</v>
       </c>
@@ -16926,7 +16973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="39">
+    <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>328</v>
       </c>
@@ -16984,7 +17031,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="48.75">
+    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>337</v>
       </c>
@@ -17042,7 +17089,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="48.75">
+    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>337</v>
       </c>
@@ -17100,7 +17147,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="29.25">
+    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>337</v>
       </c>
@@ -17152,13 +17199,15 @@
       <c r="Q292" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="R292" s="3"/>
+      <c r="R292" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S292" s="3"/>
       <c r="T292" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="29.25">
+    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>337</v>
       </c>
@@ -17216,7 +17265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="78">
+    <row r="294" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>348</v>
       </c>
@@ -17278,7 +17327,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="78">
+    <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>348</v>
       </c>
@@ -17340,7 +17389,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="78">
+    <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>348</v>
       </c>
@@ -17402,7 +17451,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="78">
+    <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>348</v>
       </c>
@@ -17464,7 +17513,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="19.5">
+    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>348</v>
       </c>
@@ -17524,7 +17573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="29.25">
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>348</v>
       </c>
@@ -17584,7 +17633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="48.75">
+    <row r="300" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>361</v>
       </c>
@@ -17644,7 +17693,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="48.75">
+    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>361</v>
       </c>
@@ -17704,7 +17753,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="48.75">
+    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>361</v>
       </c>
@@ -17764,7 +17813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="39">
+    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>361</v>
       </c>
@@ -17824,7 +17873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="39">
+    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>361</v>
       </c>
@@ -17884,7 +17933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="39">
+    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>361</v>
       </c>
@@ -17944,7 +17993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="39">
+    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>361</v>
       </c>
@@ -18004,7 +18053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="39">
+    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>361</v>
       </c>
@@ -18064,7 +18113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="29.25">
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>373</v>
       </c>
@@ -18126,7 +18175,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="29.25">
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>373</v>
       </c>
@@ -18174,7 +18223,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="29.25">
+    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>373</v>
       </c>
@@ -18234,7 +18283,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="29.25">
+    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>373</v>
       </c>
@@ -18290,7 +18339,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="29.25">
+    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>373</v>
       </c>
@@ -18350,7 +18399,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="29.25">
+    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>373</v>
       </c>
@@ -18410,7 +18459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="29.25">
+    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>373</v>
       </c>
@@ -18470,7 +18519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="29.25">
+    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>373</v>
       </c>
@@ -18530,7 +18579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="29.25">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>373</v>
       </c>
@@ -18590,7 +18639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="29.25">
+    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>373</v>
       </c>
@@ -18650,7 +18699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="29.25">
+    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>373</v>
       </c>
@@ -18710,7 +18759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="29.25">
+    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>373</v>
       </c>
@@ -18770,7 +18819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="29.25">
+    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>373</v>
       </c>
@@ -18830,7 +18879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="29.25">
+    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>373</v>
       </c>
@@ -18890,7 +18939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="29.25">
+    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>373</v>
       </c>
@@ -18950,7 +18999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="29.25">
+    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>373</v>
       </c>
@@ -19010,7 +19059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="29.25">
+    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>373</v>
       </c>
@@ -19070,7 +19119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="29.25">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>373</v>
       </c>
@@ -19130,7 +19179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="29.25">
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>373</v>
       </c>
@@ -19190,7 +19239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="29.25">
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>373</v>
       </c>
@@ -19250,7 +19299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="29.25">
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>373</v>
       </c>
@@ -19310,7 +19359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="29.25">
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>373</v>
       </c>
@@ -19370,7 +19419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="29.25">
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>373</v>
       </c>
@@ -19430,7 +19479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="29.25">
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>373</v>
       </c>
@@ -19490,7 +19539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="29.25">
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>388</v>
       </c>
@@ -19550,7 +19599,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="29.25">
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>388</v>
       </c>
@@ -19610,7 +19659,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="58.5">
+    <row r="334" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>388</v>
       </c>
@@ -19670,15 +19719,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>396</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
@@ -19690,7 +19739,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -322,705 +322,705 @@
     <t>years</t>
   </si>
   <si>
+    <t>3.1.b Healthy Life Years — females</t>
+  </si>
+  <si>
+    <t>3.1.c Number of deaths due to diseases of the circulatory system per 100 thous. population</t>
+  </si>
+  <si>
+    <t>3.1.d Number of deaths due to malignant neoplasms per 100 thous. population</t>
+  </si>
+  <si>
+    <t>3.1.e Number of deaths due to diabetes mellitus per 100 thous. population</t>
+  </si>
+  <si>
+    <t>3.1.f Number of deaths due to chronic respiratory disease per 100 thous. population</t>
+  </si>
+  <si>
+    <t>Inequality reduction in access to healthcare</t>
+  </si>
+  <si>
+    <t>3.2.a Number of physicians per 10 thous. population</t>
+  </si>
+  <si>
+    <t>3.2.b Number of nurses and midwives per 10 thous. population</t>
+  </si>
+  <si>
+    <t>Increase in health awareness</t>
+  </si>
+  <si>
+    <t>3.3.a Self-reported unmet need for medical examination and care</t>
+  </si>
+  <si>
+    <t>3.3.b Percentage of persons who have ever been vaccinated against virus hepatitis B</t>
+  </si>
+  <si>
+    <t>15-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-69 years</t>
+  </si>
+  <si>
+    <t>70-79 years</t>
+  </si>
+  <si>
+    <t>80 years and more</t>
+  </si>
+  <si>
+    <t>3.3.c Percentage of persons who have ever been vaccinated against influenza</t>
+  </si>
+  <si>
+    <t>0-4 years</t>
+  </si>
+  <si>
+    <t>5-9 years</t>
+  </si>
+  <si>
+    <t>10-14 years</t>
+  </si>
+  <si>
+    <t>Increase in early disease detectability</t>
+  </si>
+  <si>
+    <t>3.4.a Percentage of women aged 15 and more who have ever had mammography</t>
+  </si>
+  <si>
+    <t>aged 15-29</t>
+  </si>
+  <si>
+    <t>aged 30-49</t>
+  </si>
+  <si>
+    <t>aged 50-69</t>
+  </si>
+  <si>
+    <t>aged 70 and more</t>
+  </si>
+  <si>
+    <t>3.4.b Percentage of women aged 15 and more who have ever had cervical smear test</t>
+  </si>
+  <si>
+    <t>3.4.c Percentage of men aged 40 and more who have ever had medical examination of their prostate performed</t>
+  </si>
+  <si>
+    <t>3.4.d Percentage of newborns included in screening tests for rare metabolic disorders</t>
+  </si>
+  <si>
+    <t>Ministry of Health</t>
+  </si>
+  <si>
+    <t>3.4.e Number of screening tests for early detection of colorectal cancer at 10 thous. population</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Maria Skłodowska-Curie Institute of Oncology in Warsaw</t>
+  </si>
+  <si>
+    <t>Improvement of healthcare system quality and patient safety</t>
+  </si>
+  <si>
+    <t>3.5.a Current public expenditure on health care as % of GDP</t>
+  </si>
+  <si>
+    <t>Expenditure type (according to functions)</t>
+  </si>
+  <si>
+    <t>individual services</t>
+  </si>
+  <si>
+    <t>collective services</t>
+  </si>
+  <si>
+    <t>Development of e-health area</t>
+  </si>
+  <si>
+    <t>3.6.a Percentage of medical entities with IT solutions that enable keeping medical records in electronic form</t>
+  </si>
+  <si>
+    <t>Center of e-Health (CeZ)</t>
+  </si>
+  <si>
+    <t>Comprehensive improvement of air quality reaching the state of no risk to health and environment in accordance with EU legislation and, in a longer-term perspective, WHO guidelines</t>
+  </si>
+  <si>
+    <t>3.7.a National indicator of average exposure to PM2.5</t>
+  </si>
+  <si>
+    <t>µg/m3</t>
+  </si>
+  <si>
+    <t>Chief Inspectorate of Environmental Protection</t>
+  </si>
+  <si>
+    <t>Goal 4. Quality education</t>
+  </si>
+  <si>
+    <t>Improvement in quality and attractiveness of vocational education, improvement in adjustment of vocational training and education to labour market needs</t>
+  </si>
+  <si>
+    <t>4.1.a Unemployment rate of basic vocational school leavers (LFS)</t>
+  </si>
+  <si>
+    <t>Improvement in quality of higher education system</t>
+  </si>
+  <si>
+    <t>4.2.a Percentage of foreign students studying in Polish higher education institutions in Poland</t>
+  </si>
+  <si>
+    <t>Creation of conditions for education development all over the country and equalization of educational opportunities</t>
+  </si>
+  <si>
+    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>The Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
+  </si>
+  <si>
+    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
+  </si>
+  <si>
+    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
+  </si>
+  <si>
+    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
+  </si>
+  <si>
+    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
+  </si>
+  <si>
+    <t>Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
+  </si>
+  <si>
+    <t>4.3.g Percentage of children aged 3-5 covered by pre-primary education</t>
+  </si>
+  <si>
+    <t>urban/rural area</t>
+  </si>
+  <si>
+    <t>The Ministry of Education and Science / Statistics Poland</t>
+  </si>
+  <si>
+    <t>Creation of conditions for adults' greater engagement in broadening and upgrading their skills</t>
+  </si>
+  <si>
+    <t>4.4.a Early leavers from education and training aged 18-24</t>
+  </si>
+  <si>
+    <t>4.4.b Adults participating in education or training</t>
+  </si>
+  <si>
+    <t>aged 25-64</t>
+  </si>
+  <si>
+    <t>aged 25-34</t>
+  </si>
+  <si>
+    <t>aged 25-49</t>
+  </si>
+  <si>
+    <t>aged 25-74</t>
+  </si>
+  <si>
+    <t>aged 35-44</t>
+  </si>
+  <si>
+    <t>aged 45-54</t>
+  </si>
+  <si>
+    <t>aged 50-74</t>
+  </si>
+  <si>
+    <t>aged 55-64</t>
+  </si>
+  <si>
+    <t>Improvement in education innovativeness achieved by i.a. curriculum change with an emphasis on universal skills and digital skills, command of foreign languages, creativity, initiative-taking skills, entrepreneurship, innovativeness, teamwork skills and support for pupils with special educational needs</t>
+  </si>
+  <si>
+    <t>4.5.a Percentage of persons who declare knowledge of at least one foreign language</t>
+  </si>
+  <si>
+    <t>post-secondary</t>
+  </si>
+  <si>
+    <t>secondary vocational</t>
+  </si>
+  <si>
+    <t>general secondary</t>
+  </si>
+  <si>
+    <t>4.5.b Percentage of persons with above basic overall digital skills</t>
+  </si>
+  <si>
+    <t>aged 16-24</t>
+  </si>
+  <si>
+    <t>aged 65-74</t>
+  </si>
+  <si>
+    <t>by education</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>by occupational status of persons</t>
+  </si>
+  <si>
+    <t>economically active</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>unemployed</t>
+  </si>
+  <si>
+    <t>economically inactive</t>
+  </si>
+  <si>
+    <t>Goal 5. Gender equality</t>
+  </si>
+  <si>
+    <t>More complete fulfillment of the principle of women and men's equality</t>
+  </si>
+  <si>
+    <t>5.1.a Gender pay gap</t>
+  </si>
+  <si>
+    <t>5.1.b Gender employment gap (aged 25-54)</t>
+  </si>
+  <si>
+    <t>p.p.</t>
+  </si>
+  <si>
+    <t>5.1.c Proportion of women in managerial positions</t>
+  </si>
+  <si>
+    <t>managers</t>
+  </si>
+  <si>
+    <t>chief executives and senior officials and legislators</t>
+  </si>
+  <si>
+    <t>legislators and senior officials</t>
+  </si>
+  <si>
+    <t>managing directors and chief executives</t>
+  </si>
+  <si>
+    <t>administrative and commercial managers</t>
+  </si>
+  <si>
+    <t>production and specialized services managers</t>
+  </si>
+  <si>
+    <t>hospitality and retail or other services managers</t>
+  </si>
+  <si>
+    <t>Active pro-family policy</t>
+  </si>
+  <si>
+    <t>5.2.a Percentage of children aged 1-2 covered by different kinds of institutional care</t>
+  </si>
+  <si>
+    <t>the Ministry of Family and Social Policy</t>
+  </si>
+  <si>
+    <t>Ensurance of conditions for women's return to labour market after a break from employment due to childbirth and childcare</t>
+  </si>
+  <si>
+    <t>5.3.a Employment rate of women with the youngest child up to 5 years old (LFS)</t>
+  </si>
+  <si>
+    <t>Goal 6. Clear water and sanitation</t>
+  </si>
+  <si>
+    <t>Increase in disposable water resources, improvement of its ecological state and chemical quality</t>
+  </si>
+  <si>
+    <t>6.1.a Capacity of small water retention facilities</t>
+  </si>
+  <si>
+    <t>dam3</t>
+  </si>
+  <si>
+    <t>Ministry of Agriculture and Rural Development</t>
+  </si>
+  <si>
+    <t>6.1.b Percentage of population supplied with water not meeting requirements</t>
+  </si>
+  <si>
+    <t>Creation of legal and financial mechanism conducive to rational use of water and implementation of water efficiency technologies as well as development and modernization of wastewater treatment plants</t>
+  </si>
+  <si>
+    <t>6.2.a Percentage of population connected to wastewater treatment plants</t>
+  </si>
+  <si>
+    <t>6.2.b Industrial and municipal wastewater treated biologically, chemically and with increased biogene removal in % of wastewater requiring treatment</t>
+  </si>
+  <si>
+    <t>Goal 7. Affordable and clean energy</t>
+  </si>
+  <si>
+    <t>Improvement of energy efficiency</t>
+  </si>
+  <si>
+    <t>7.1.a Primary energy intensity of GDP with climatic correction</t>
+  </si>
+  <si>
+    <t>kg/euro (constant prices 2005)</t>
+  </si>
+  <si>
+    <t>Creation of conditions for steady and sustainable development of energy sector; reduction of impact of energy sector on the environment</t>
+  </si>
+  <si>
+    <t>7.2.a Renewable energy share in the gross final energy consumption</t>
+  </si>
+  <si>
+    <t>Ensurance of energy security of the state</t>
+  </si>
+  <si>
+    <t>7.3.a Relation of energy acquisition in general to the global energy consumption in general</t>
+  </si>
+  <si>
+    <t>Ministry of Climate and Environment / Statistics Poland</t>
+  </si>
+  <si>
+    <t>7.3.b SAIDI (System Average Interruption Duration Index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minutes </t>
+  </si>
+  <si>
+    <t>the Ministry of Climate and Environment</t>
+  </si>
+  <si>
+    <t>Fulfillment of enterprises and households' energy needs</t>
+  </si>
+  <si>
+    <t>7.4.a Percentage of households (with income below 60% median) declaring inability to keep home adequately warm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4.b Share of average monthly expenditures on electricity, gas and other fuels in total household expenditures </t>
+  </si>
+  <si>
+    <t>Goal 8. Decent work and economic growth</t>
+  </si>
+  <si>
+    <t>Search for new competitive adventages based on products' technological advancement, quality and innovativeness as well as mechanisms for internationalization of enterprises</t>
+  </si>
+  <si>
+    <t>8.1.a Share of export of high technology products in total exports</t>
+  </si>
+  <si>
+    <t>8.1.b Ratio expenditures on innovation activities in enterprises to GDP</t>
+  </si>
+  <si>
+    <t>8.1.c Global Competitiveness Index (GCI) - position in the ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">position in the ranking </t>
+  </si>
+  <si>
+    <t>World Economic Forum</t>
+  </si>
+  <si>
+    <t>Entrepreneurship development (legal facilitation in conducting economic activity and access to financial instruments)</t>
+  </si>
+  <si>
+    <t>8.2.a Ease of Doing Business Index (ranking positions in Doing Business)</t>
+  </si>
+  <si>
+    <t>position in the ranking</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
+  <si>
+    <t>Increase in employment rate</t>
+  </si>
+  <si>
+    <t>8.3.a Employment rate of persons aged 15-89 (LFS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by age group</t>
+  </si>
+  <si>
+    <t>aged 15-24</t>
+  </si>
+  <si>
+    <t>aged 15-64</t>
+  </si>
+  <si>
+    <t>aged 18-59/64</t>
+  </si>
+  <si>
+    <t>aged 20-24</t>
+  </si>
+  <si>
+    <t>aged 20-64</t>
+  </si>
+  <si>
+    <t>aged 50-89</t>
+  </si>
+  <si>
+    <t>aged 65-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> urban/rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> by education level</t>
+  </si>
+  <si>
+    <t>post-secondary and secondary vocational</t>
+  </si>
+  <si>
+    <t>lower secondary or primary or without formal education</t>
+  </si>
+  <si>
+    <t>Promotion of stable forms of employment</t>
+  </si>
+  <si>
+    <t>8.4.a Percentage of employees hired on the basis of employment contract in relation to the number of persons employed in national economy</t>
+  </si>
+  <si>
+    <t>Increase in flexibility related to organization and provision of work</t>
+  </si>
+  <si>
+    <t>8.5.a Employment rate of women with the youngest child up to 5 years old (LFS)</t>
+  </si>
+  <si>
+    <t>Suitable creation of labour market to provide decent work for everyone</t>
+  </si>
+  <si>
+    <t>8.6.a Percentage of employees receiving monthly gross earnings of up to 50% of the average monthly gross earnings in the national economy</t>
+  </si>
+  <si>
+    <t>Work activation of young people, women, persons aged 50+ , long-term unemployed as well as persons with disabilities</t>
+  </si>
+  <si>
+    <t>8.7.a Activity rate (LFS)</t>
+  </si>
+  <si>
+    <t>disabled persons</t>
+  </si>
+  <si>
+    <t>aged 16-89</t>
+  </si>
+  <si>
+    <t>8.7.b Long-term unemployment as a percentage of the total unempolyment (LFS)</t>
+  </si>
+  <si>
+    <t>8.7.c Percentage of young people neither in employment nor in education and training (NEET)</t>
+  </si>
+  <si>
+    <t>Improvement in transfer of unused labour force from agriculture to other sectors</t>
+  </si>
+  <si>
+    <t>8.8.a Share of employed persons in the non-agricultural sector in the rural area in the total number of employed persons in the rural area</t>
+  </si>
+  <si>
+    <t>Development of responsible migration policy</t>
+  </si>
+  <si>
+    <t>8.9.a Net international migration for permanent residence</t>
+  </si>
+  <si>
+    <t>Goal 9. Industry, Innovation and Infrastructure</t>
+  </si>
+  <si>
+    <t>Improvement of legal and institutional environment conducive to undertaking risky innovative activities</t>
+  </si>
+  <si>
+    <t>9.1.a Global Innovation Index</t>
+  </si>
+  <si>
+    <t>Global Innovation Index</t>
+  </si>
+  <si>
+    <t>Development of knowledge-intensive industries and services</t>
+  </si>
+  <si>
+    <t>9.2.a Gross domestic expenditures on R&amp;D in relation to GDP</t>
+  </si>
+  <si>
+    <t>9.2.b Business enterprise expenditure on R&amp;D in relation to GDP</t>
+  </si>
+  <si>
+    <t>9.2.c Share of net revenues from sales of new or improved products in total turnover in industrial enterprises</t>
+  </si>
+  <si>
+    <t>9.2.d Share of export of high technology products in total export</t>
+  </si>
+  <si>
+    <t>Development of telecommunications infrastructure, Internet and digital technologies</t>
+  </si>
+  <si>
+    <t>9.3.a Percentage of households within range of Internet access with bandwidth at least 100 Mb/s</t>
+  </si>
+  <si>
+    <t>Office of Electronic Communications</t>
+  </si>
+  <si>
+    <t>Internationalization of enterprises, especially SMEs, via creation of instruments of support for Polish exporters and investors</t>
+  </si>
+  <si>
+    <t>9.4.a Share of revenues from sales for exports in net revenues of SMEs from sales of products, goods and materials</t>
+  </si>
+  <si>
+    <t>Development of transport infrastructure</t>
+  </si>
+  <si>
+    <t>9.5.a Index of multimodal accessibility of transport</t>
+  </si>
+  <si>
+    <t>Polish Academy of Sciences / Ministry of Funds and Regional Policy</t>
+  </si>
+  <si>
+    <t>9.5.b Density of expressways and motorways per 1000 km2</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Goal 10. Reduce inequalities</t>
+  </si>
+  <si>
+    <t>Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
+  </si>
+  <si>
+    <t>10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
+  </si>
+  <si>
+    <t>10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
+  </si>
+  <si>
+    <t>Workplace creation in areas with less favourable conditions for development</t>
+  </si>
+  <si>
+    <t>10.2.a Change in the number of employees in sub-regions with less favorable development conditions</t>
+  </si>
+  <si>
+    <t>Reduction of income inequalities</t>
+  </si>
+  <si>
+    <t>10.3.a Gini coefficient - distribution of income</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>By type of household</t>
+  </si>
+  <si>
+    <t>1-person</t>
+  </si>
+  <si>
+    <t>no dependent children</t>
+  </si>
+  <si>
+    <t>with dependent children</t>
+  </si>
+  <si>
+    <t>with 1 child</t>
+  </si>
+  <si>
+    <t>with 2 children</t>
+  </si>
+  <si>
+    <t>with 3 or more children</t>
+  </si>
+  <si>
+    <t>single parents with dependent children</t>
+  </si>
+  <si>
+    <t>Goal 11. Sustainable cities and communities</t>
+  </si>
+  <si>
+    <t>Enhancement of cities and urbanised areas' capability for sustainable development and workplace creation as well as improvement of quality of life of their inhabitants</t>
+  </si>
+  <si>
+    <t>11.1.a Population living in households considering that they suffer from noise</t>
+  </si>
+  <si>
+    <t>11.1.b Average useful floor area of dwelling per capita in urban areas</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>11.1.c Share of total population in urban areas living in a dwelling with a leaking roof, damp walls, floors or foundation, or rot in window frames or floor</t>
+  </si>
+  <si>
+    <t>11.1.d Share of buses powered by alternative fuels in the total number of buses serving urban transport</t>
+  </si>
+  <si>
+    <t>11.1.e Transport of passengers per 1 inhabitant of urban areas</t>
+  </si>
+  <si>
+    <t>Ministry of Infrastructure</t>
+  </si>
+  <si>
+    <t>11.1.f Proportion of municipal waste generated according to the treatment operation to total municipal generated</t>
+  </si>
+  <si>
+    <t>by treatment operation</t>
+  </si>
+  <si>
+    <t>recycling</t>
+  </si>
+  <si>
+    <t>composting or fermentation</t>
+  </si>
+  <si>
+    <t>incineration</t>
+  </si>
+  <si>
+    <t>landfilling</t>
+  </si>
+  <si>
+    <t>Improvement of air quality, especially reduction of particulate pollutants emission in housing and communal sector resulting from combustion of bad quality solid fuels at low temperature and in low-power boilers, as well as from waste incineration</t>
+  </si>
+  <si>
+    <t>11.2.a National indicator of average exposure to PM2.5</t>
+  </si>
+  <si>
+    <t>11.2.b Area of green areas in urban areas per 1 inhabitant</t>
+  </si>
+  <si>
+    <t>Goal 12. Responsible consumption and production</t>
+  </si>
+  <si>
+    <t>Increase in resource efficiency and shift in approach to resources consisting in departure from their linear use as well as shift in consumption patterns (development of circular economy)</t>
+  </si>
+  <si>
+    <t>12.1.a Resource productivity</t>
+  </si>
+  <si>
+    <t>euro/kg</t>
+  </si>
+  <si>
     <t>Eurostat</t>
   </si>
   <si>
-    <t>3.1.b Healthy Life Years — females</t>
-  </si>
-  <si>
-    <t>3.1.c Number of deaths due to diseases of the circulatory system per 100 thous. population</t>
-  </si>
-  <si>
-    <t>3.1.d Number of deaths due to malignant neoplasms per 100 thous. population</t>
-  </si>
-  <si>
-    <t>3.1.e Number of deaths due to diabetes mellitus per 100 thous. population</t>
-  </si>
-  <si>
-    <t>3.1.f Number of deaths due to chronic respiratory disease per 100 thous. population</t>
-  </si>
-  <si>
-    <t>Inequality reduction in access to healthcare</t>
-  </si>
-  <si>
-    <t>3.2.a Number of physicians per 10 thous. population</t>
-  </si>
-  <si>
-    <t>3.2.b Number of nurses and midwives per 10 thous. population</t>
-  </si>
-  <si>
-    <t>Increase in health awareness</t>
-  </si>
-  <si>
-    <t>3.3.a Self-reported unmet need for medical examination and care</t>
-  </si>
-  <si>
-    <t>3.3.b Percentage of persons who have ever been vaccinated against virus hepatitis B</t>
-  </si>
-  <si>
-    <t>15-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-69 years</t>
-  </si>
-  <si>
-    <t>70-79 years</t>
-  </si>
-  <si>
-    <t>80 years and more</t>
-  </si>
-  <si>
-    <t>3.3.c Percentage of persons who have ever been vaccinated against influenza</t>
-  </si>
-  <si>
-    <t>0-4 years</t>
-  </si>
-  <si>
-    <t>5-9 years</t>
-  </si>
-  <si>
-    <t>10-14 years</t>
-  </si>
-  <si>
-    <t>Increase in early disease detectability</t>
-  </si>
-  <si>
-    <t>3.4.a Percentage of women aged 15 and more who have ever had mammography</t>
-  </si>
-  <si>
-    <t>aged 15-29</t>
-  </si>
-  <si>
-    <t>aged 30-49</t>
-  </si>
-  <si>
-    <t>aged 50-69</t>
-  </si>
-  <si>
-    <t>aged 70 and more</t>
-  </si>
-  <si>
-    <t>3.4.b Percentage of women aged 15 and more who have ever had cervical smear test</t>
-  </si>
-  <si>
-    <t>3.4.c Percentage of men aged 40 and more who have ever had medical examination of their prostate performed</t>
-  </si>
-  <si>
-    <t>3.4.d Percentage of newborns included in screening tests for rare metabolic disorders</t>
-  </si>
-  <si>
-    <t>Ministry of Health</t>
-  </si>
-  <si>
-    <t>3.4.e Number of screening tests for early detection of colorectal cancer at 10 thous. population</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>Maria Skłodowska-Curie Institute of Oncology in Warsaw</t>
-  </si>
-  <si>
-    <t>Improvement of healthcare system quality and patient safety</t>
-  </si>
-  <si>
-    <t>3.5.a Current public expenditure on health care as % of GDP</t>
-  </si>
-  <si>
-    <t>Expenditure type (according to functions)</t>
-  </si>
-  <si>
-    <t>individual services</t>
-  </si>
-  <si>
-    <t>collective services</t>
-  </si>
-  <si>
-    <t>Development of e-health area</t>
-  </si>
-  <si>
-    <t>3.6.a Percentage of medical entities with IT solutions that enable keeping medical records in electronic form</t>
-  </si>
-  <si>
-    <t>Center of e-Health (CeZ)</t>
-  </si>
-  <si>
-    <t>Comprehensive improvement of air quality reaching the state of no risk to health and environment in accordance with EU legislation and, in a longer-term perspective, WHO guidelines</t>
-  </si>
-  <si>
-    <t>3.7.a National indicator of average exposure to PM2.5</t>
-  </si>
-  <si>
-    <t>µg/m3</t>
-  </si>
-  <si>
-    <t>Chief Inspectorate of Environmental Protection</t>
-  </si>
-  <si>
-    <t>Goal 4. Quality education</t>
-  </si>
-  <si>
-    <t>Improvement in quality and attractiveness of vocational education, improvement in adjustment of vocational training and education to labour market needs</t>
-  </si>
-  <si>
-    <t>4.1.a Unemployment rate of basic vocational school leavers (LFS)</t>
-  </si>
-  <si>
-    <t>Improvement in quality of higher education system</t>
-  </si>
-  <si>
-    <t>4.2.a Percentage of foreign students studying in Polish higher education institutions in Poland</t>
-  </si>
-  <si>
-    <t>Creation of conditions for education development all over the country and equalization of educational opportunities</t>
-  </si>
-  <si>
-    <t>4.3.a Results of PISA tests - percentage of top-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>The Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
-  </si>
-  <si>
-    <t>4.3.b Results of PISA tests - percentage of top-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>4.3.c Results of PISA tests - percentage of the lowest-performing students in reading literacy</t>
-  </si>
-  <si>
-    <t>4.3.d Results of PISA tests - percentage of the lowest-performing students in mathematics</t>
-  </si>
-  <si>
-    <t>4.3.e Results of PISA tests - proportion of students achieving at least a minimum proficiency level in reading</t>
-  </si>
-  <si>
-    <t>4.3.f Results of PISA tests - percentage of students achieving at least a minimum proficiency level in mathematics</t>
-  </si>
-  <si>
-    <t>Organisation for Economic Co-operation and Development / the Ministry of  Education and Science</t>
-  </si>
-  <si>
-    <t>4.3.g Percentage of children aged 3-5 covered by pre-primary education</t>
-  </si>
-  <si>
-    <t>urban/rural area</t>
-  </si>
-  <si>
-    <t>The Ministry of Education and Science / Statistics Poland</t>
-  </si>
-  <si>
-    <t>Creation of conditions for adults' greater engagement in broadening and upgrading their skills</t>
-  </si>
-  <si>
-    <t>4.4.a Early leavers from education and training aged 18-24</t>
-  </si>
-  <si>
-    <t>4.4.b Adults participating in education or training</t>
-  </si>
-  <si>
-    <t>aged 25-64</t>
-  </si>
-  <si>
-    <t>aged 25-34</t>
-  </si>
-  <si>
-    <t>aged 25-49</t>
-  </si>
-  <si>
-    <t>aged 25-74</t>
-  </si>
-  <si>
-    <t>aged 35-44</t>
-  </si>
-  <si>
-    <t>aged 45-54</t>
-  </si>
-  <si>
-    <t>aged 50-74</t>
-  </si>
-  <si>
-    <t>aged 55-64</t>
-  </si>
-  <si>
-    <t>Improvement in education innovativeness achieved by i.a. curriculum change with an emphasis on universal skills and digital skills, command of foreign languages, creativity, initiative-taking skills, entrepreneurship, innovativeness, teamwork skills and support for pupils with special educational needs</t>
-  </si>
-  <si>
-    <t>4.5.a Percentage of persons who declare knowledge of at least one foreign language</t>
-  </si>
-  <si>
-    <t>post-secondary</t>
-  </si>
-  <si>
-    <t>secondary vocational</t>
-  </si>
-  <si>
-    <t>general secondary</t>
-  </si>
-  <si>
-    <t>4.5.b Percentage of persons with above basic overall digital skills</t>
-  </si>
-  <si>
-    <t>aged 16-24</t>
-  </si>
-  <si>
-    <t>aged 65-74</t>
-  </si>
-  <si>
-    <t>by education</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>by occupational status of persons</t>
-  </si>
-  <si>
-    <t>economically active</t>
-  </si>
-  <si>
-    <t>employed</t>
-  </si>
-  <si>
-    <t>unemployed</t>
-  </si>
-  <si>
-    <t>economically inactive</t>
-  </si>
-  <si>
-    <t>Goal 5. Gender equality</t>
-  </si>
-  <si>
-    <t>More complete fulfillment of the principle of women and men's equality</t>
-  </si>
-  <si>
-    <t>5.1.a Gender pay gap</t>
-  </si>
-  <si>
-    <t>5.1.b Gender employment gap (aged 25-54)</t>
-  </si>
-  <si>
-    <t>p.p.</t>
-  </si>
-  <si>
-    <t>5.1.c Proportion of women in managerial positions</t>
-  </si>
-  <si>
-    <t>managers</t>
-  </si>
-  <si>
-    <t>chief executives and senior officials and legislators</t>
-  </si>
-  <si>
-    <t>legislators and senior officials</t>
-  </si>
-  <si>
-    <t>managing directors and chief executives</t>
-  </si>
-  <si>
-    <t>administrative and commercial managers</t>
-  </si>
-  <si>
-    <t>production and specialized services managers</t>
-  </si>
-  <si>
-    <t>hospitality and retail or other services managers</t>
-  </si>
-  <si>
-    <t>Active pro-family policy</t>
-  </si>
-  <si>
-    <t>5.2.a Percentage of children aged 1-2 covered by different kinds of institutional care</t>
-  </si>
-  <si>
-    <t>the Ministry of Family and Social Policy</t>
-  </si>
-  <si>
-    <t>Ensurance of conditions for women's return to labour market after a break from employment due to childbirth and childcare</t>
-  </si>
-  <si>
-    <t>5.3.a Employment rate of women with the youngest child up to 5 years old (LFS)</t>
-  </si>
-  <si>
-    <t>Goal 6. Clear water and sanitation</t>
-  </si>
-  <si>
-    <t>Increase in disposable water resources, improvement of its ecological state and chemical quality</t>
-  </si>
-  <si>
-    <t>6.1.a Capacity of small water retention facilities</t>
-  </si>
-  <si>
-    <t>dam3</t>
-  </si>
-  <si>
-    <t>Ministry of Agriculture and Rural Development</t>
-  </si>
-  <si>
-    <t>6.1.b Percentage of population supplied with water not meeting requirements</t>
-  </si>
-  <si>
-    <t>Creation of legal and financial mechanism conducive to rational use of water and implementation of water efficiency technologies as well as development and modernization of wastewater treatment plants</t>
-  </si>
-  <si>
-    <t>6.2.a Percentage of population connected to wastewater treatment plants</t>
-  </si>
-  <si>
-    <t>6.2.b Industrial and municipal wastewater treated biologically, chemically and with increased biogene removal in % of wastewater requiring treatment</t>
-  </si>
-  <si>
-    <t>Goal 7. Affordable and clean energy</t>
-  </si>
-  <si>
-    <t>Improvement of energy efficiency</t>
-  </si>
-  <si>
-    <t>7.1.a Primary energy intensity of GDP with climatic correction</t>
-  </si>
-  <si>
-    <t>kg/euro (constant prices 2005)</t>
-  </si>
-  <si>
-    <t>Creation of conditions for steady and sustainable development of energy sector; reduction of impact of energy sector on the environment</t>
-  </si>
-  <si>
-    <t>7.2.a Renewable energy share in the gross final energy consumption</t>
-  </si>
-  <si>
-    <t>Ensurance of energy security of the state</t>
-  </si>
-  <si>
-    <t>7.3.a Relation of energy acquisition in general to the global energy consumption in general</t>
-  </si>
-  <si>
-    <t>Ministry of Climate and Environment / Statistics Poland</t>
-  </si>
-  <si>
-    <t>7.3.b SAIDI (System Average Interruption Duration Index)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minutes </t>
-  </si>
-  <si>
-    <t>the Ministry of Climate and Environment</t>
-  </si>
-  <si>
-    <t>Fulfillment of enterprises and households' energy needs</t>
-  </si>
-  <si>
-    <t>7.4.a Percentage of households (with income below 60% median) declaring inability to keep home adequately warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4.b Share of average monthly expenditures on electricity, gas and other fuels in total household expenditures </t>
-  </si>
-  <si>
-    <t>Goal 8. Decent work and economic growth</t>
-  </si>
-  <si>
-    <t>Search for new competitive adventages based on products' technological advancement, quality and innovativeness as well as mechanisms for internationalization of enterprises</t>
-  </si>
-  <si>
-    <t>8.1.a Share of export of high technology products in total exports</t>
-  </si>
-  <si>
-    <t>8.1.b Ratio expenditures on innovation activities in enterprises to GDP</t>
-  </si>
-  <si>
-    <t>8.1.c Global Competitiveness Index (GCI) - position in the ranking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position in the ranking </t>
-  </si>
-  <si>
-    <t>World Economic Forum</t>
-  </si>
-  <si>
-    <t>Entrepreneurship development (legal facilitation in conducting economic activity and access to financial instruments)</t>
-  </si>
-  <si>
-    <t>8.2.a Ease of Doing Business Index (ranking positions in Doing Business)</t>
-  </si>
-  <si>
-    <t>position in the ranking</t>
-  </si>
-  <si>
-    <t>World Bank</t>
-  </si>
-  <si>
-    <t>Increase in employment rate</t>
-  </si>
-  <si>
-    <t>8.3.a Employment rate of persons aged 15-89 (LFS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> by age group</t>
-  </si>
-  <si>
-    <t>aged 15-24</t>
-  </si>
-  <si>
-    <t>aged 15-64</t>
-  </si>
-  <si>
-    <t>aged 18-59/64</t>
-  </si>
-  <si>
-    <t>aged 20-24</t>
-  </si>
-  <si>
-    <t>aged 20-64</t>
-  </si>
-  <si>
-    <t>aged 50-89</t>
-  </si>
-  <si>
-    <t>aged 65-69</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> urban/rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> by education level</t>
-  </si>
-  <si>
-    <t>post-secondary and secondary vocational</t>
-  </si>
-  <si>
-    <t>lower secondary or primary or without formal education</t>
-  </si>
-  <si>
-    <t>Promotion of stable forms of employment</t>
-  </si>
-  <si>
-    <t>8.4.a Percentage of employees hired on the basis of employment contract in relation to the number of persons employed in national economy</t>
-  </si>
-  <si>
-    <t>Increase in flexibility related to organization and provision of work</t>
-  </si>
-  <si>
-    <t>8.5.a Employment rate of women with the youngest child up to 5 years old (LFS)</t>
-  </si>
-  <si>
-    <t>Suitable creation of labour market to provide decent work for everyone</t>
-  </si>
-  <si>
-    <t>8.6.a Percentage of employees receiving monthly gross earnings of up to 50% of the average monthly gross earnings in the national economy</t>
-  </si>
-  <si>
-    <t>Work activation of young people, women, persons aged 50+ , long-term unemployed as well as persons with disabilities</t>
-  </si>
-  <si>
-    <t>8.7.a Activity rate (LFS)</t>
-  </si>
-  <si>
-    <t>disabled persons</t>
-  </si>
-  <si>
-    <t>aged 16-89</t>
-  </si>
-  <si>
-    <t>8.7.b Long-term unemployment as a percentage of the total unempolyment (LFS)</t>
-  </si>
-  <si>
-    <t>8.7.c Percentage of young people neither in employment nor in education and training (NEET)</t>
-  </si>
-  <si>
-    <t>Improvement in transfer of unused labour force from agriculture to other sectors</t>
-  </si>
-  <si>
-    <t>8.8.a Share of employed persons in the non-agricultural sector in the rural area in the total number of employed persons in the rural area</t>
-  </si>
-  <si>
-    <t>Development of responsible migration policy</t>
-  </si>
-  <si>
-    <t>8.9.a Net international migration for permanent residence</t>
-  </si>
-  <si>
-    <t>Goal 9. Industry, Innovation and Infrastructure</t>
-  </si>
-  <si>
-    <t>Improvement of legal and institutional environment conducive to undertaking risky innovative activities</t>
-  </si>
-  <si>
-    <t>9.1.a Global Innovation Index</t>
-  </si>
-  <si>
-    <t>Global Innovation Index</t>
-  </si>
-  <si>
-    <t>Development of knowledge-intensive industries and services</t>
-  </si>
-  <si>
-    <t>9.2.a Gross domestic expenditures on R&amp;D in relation to GDP</t>
-  </si>
-  <si>
-    <t>9.2.b Business enterprise expenditure on R&amp;D in relation to GDP</t>
-  </si>
-  <si>
-    <t>9.2.c Share of net revenues from sales of new or improved products in total turnover in industrial enterprises</t>
-  </si>
-  <si>
-    <t>9.2.d Share of export of high technology products in total export</t>
-  </si>
-  <si>
-    <t>Development of telecommunications infrastructure, Internet and digital technologies</t>
-  </si>
-  <si>
-    <t>9.3.a Percentage of households within range of Internet access with bandwidth at least 100 Mb/s</t>
-  </si>
-  <si>
-    <t>Office of Electronic Communications</t>
-  </si>
-  <si>
-    <t>Internationalization of enterprises, especially SMEs, via creation of instruments of support for Polish exporters and investors</t>
-  </si>
-  <si>
-    <t>9.4.a Share of revenues from sales for exports in net revenues of SMEs from sales of products, goods and materials</t>
-  </si>
-  <si>
-    <t>Development of transport infrastructure</t>
-  </si>
-  <si>
-    <t>9.5.a Index of multimodal accessibility of transport</t>
-  </si>
-  <si>
-    <t>Polish Academy of Sciences / Ministry of Funds and Regional Policy</t>
-  </si>
-  <si>
-    <t>9.5.b Density of expressways and motorways per 1000 km2</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>Goal 10. Reduce inequalities</t>
-  </si>
-  <si>
-    <t>Overcoming of regional socio-economic disparities, prevention of new development disproportions</t>
-  </si>
-  <si>
-    <t>10.1.a Differentiation of gross value added per person employed in total at regional level (NUTS 2)</t>
-  </si>
-  <si>
-    <t>10.1.b Average annual net disposable income per capita in a household in rural areas in relation to urban areas</t>
-  </si>
-  <si>
-    <t>Workplace creation in areas with less favourable conditions for development</t>
-  </si>
-  <si>
-    <t>10.2.a Change in the number of employees in sub-regions with less favorable development conditions</t>
-  </si>
-  <si>
-    <t>Reduction of income inequalities</t>
-  </si>
-  <si>
-    <t>10.3.a Gini coefficient - distribution of income</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>By type of household</t>
-  </si>
-  <si>
-    <t>1-person</t>
-  </si>
-  <si>
-    <t>no dependent children</t>
-  </si>
-  <si>
-    <t>with dependent children</t>
-  </si>
-  <si>
-    <t>with 1 child</t>
-  </si>
-  <si>
-    <t>with 2 children</t>
-  </si>
-  <si>
-    <t>with 3 or more children</t>
-  </si>
-  <si>
-    <t>single parents with dependent children</t>
-  </si>
-  <si>
-    <t>Goal 11. Sustainable cities and communities</t>
-  </si>
-  <si>
-    <t>Enhancement of cities and urbanised areas' capability for sustainable development and workplace creation as well as improvement of quality of life of their inhabitants</t>
-  </si>
-  <si>
-    <t>11.1.a Population living in households considering that they suffer from noise</t>
-  </si>
-  <si>
-    <t>11.1.b Average useful floor area of dwelling per capita in urban areas</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>11.1.c Share of total population in urban areas living in a dwelling with a leaking roof, damp walls, floors or foundation, or rot in window frames or floor</t>
-  </si>
-  <si>
-    <t>11.1.d Share of buses powered by alternative fuels in the total number of buses serving urban transport</t>
-  </si>
-  <si>
-    <t>11.1.e Transport of passengers per 1 inhabitant of urban areas</t>
-  </si>
-  <si>
-    <t>Ministry of Infrastructure</t>
-  </si>
-  <si>
-    <t>11.1.f Proportion of municipal waste generated according to the treatment operation to total municipal generated</t>
-  </si>
-  <si>
-    <t>by treatment operation</t>
-  </si>
-  <si>
-    <t>recycling</t>
-  </si>
-  <si>
-    <t>composting or fermentation</t>
-  </si>
-  <si>
-    <t>incineration</t>
-  </si>
-  <si>
-    <t>landfilling</t>
-  </si>
-  <si>
-    <t>Improvement of air quality, especially reduction of particulate pollutants emission in housing and communal sector resulting from combustion of bad quality solid fuels at low temperature and in low-power boilers, as well as from waste incineration</t>
-  </si>
-  <si>
-    <t>11.2.a National indicator of average exposure to PM2.5</t>
-  </si>
-  <si>
-    <t>11.2.b Area of green areas in urban areas per 1 inhabitant</t>
-  </si>
-  <si>
-    <t>Goal 12. Responsible consumption and production</t>
-  </si>
-  <si>
-    <t>Increase in resource efficiency and shift in approach to resources consisting in departure from their linear use as well as shift in consumption patterns (development of circular economy)</t>
-  </si>
-  <si>
-    <t>12.1.a Resource productivity</t>
-  </si>
-  <si>
-    <t>euro/kg</t>
-  </si>
-  <si>
     <t>12.1.b Domestic material consumption (DMC) per capita</t>
   </si>
   <si>
@@ -1213,7 +1213,7 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 28-02-2023, 09:55</t>
+    <t>Last update: 07-03-2023, 11:34</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4405,7 +4405,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>46</v>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="2" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>91</v>
@@ -4525,7 +4525,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>91</v>
@@ -4585,7 +4585,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>91</v>
@@ -4645,7 +4645,7 @@
         <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>31</v>
@@ -4705,7 +4705,7 @@
         <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>31</v>
@@ -4765,7 +4765,7 @@
         <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>91</v>
@@ -4825,7 +4825,7 @@
         <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>91</v>
@@ -4885,7 +4885,7 @@
         <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>91</v>
@@ -4945,7 +4945,7 @@
         <v>96</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>31</v>
@@ -5005,7 +5005,7 @@
         <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>31</v>
@@ -5065,7 +5065,7 @@
         <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>91</v>
@@ -5125,7 +5125,7 @@
         <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>91</v>
@@ -5185,7 +5185,7 @@
         <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>91</v>
@@ -5245,7 +5245,7 @@
         <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>31</v>
@@ -5305,7 +5305,7 @@
         <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>31</v>
@@ -5365,7 +5365,7 @@
         <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>91</v>
@@ -5425,7 +5425,7 @@
         <v>96</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>91</v>
@@ -5485,7 +5485,7 @@
         <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>91</v>
@@ -5545,7 +5545,7 @@
         <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>31</v>
@@ -5605,7 +5605,7 @@
         <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>31</v>
@@ -5662,10 +5662,10 @@
         <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>46</v>
@@ -5704,10 +5704,10 @@
         <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>46</v>
@@ -5746,10 +5746,10 @@
         <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>46</v>
@@ -5806,10 +5806,10 @@
         <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>91</v>
@@ -5846,10 +5846,10 @@
         <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>91</v>
@@ -5886,10 +5886,10 @@
         <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>91</v>
@@ -5926,10 +5926,10 @@
         <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>31</v>
@@ -5966,10 +5966,10 @@
         <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>31</v>
@@ -6006,16 +6006,16 @@
         <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>26</v>
@@ -6046,16 +6046,16 @@
         <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>26</v>
@@ -6086,16 +6086,16 @@
         <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>26</v>
@@ -6126,16 +6126,16 @@
         <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>26</v>
@@ -6166,16 +6166,16 @@
         <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>26</v>
@@ -6206,16 +6206,16 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>26</v>
@@ -6246,16 +6246,16 @@
         <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>26</v>
@@ -6286,16 +6286,16 @@
         <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>26</v>
@@ -6326,10 +6326,10 @@
         <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>31</v>
@@ -6368,10 +6368,10 @@
         <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>31</v>
@@ -6410,10 +6410,10 @@
         <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>31</v>
@@ -6452,10 +6452,10 @@
         <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>91</v>
@@ -6494,10 +6494,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>91</v>
@@ -6536,16 +6536,16 @@
         <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>26</v>
@@ -6578,16 +6578,16 @@
         <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>26</v>
@@ -6620,16 +6620,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>26</v>
@@ -6662,16 +6662,16 @@
         <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>26</v>
@@ -6704,16 +6704,16 @@
         <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>26</v>
@@ -6746,16 +6746,16 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>26</v>
@@ -6788,16 +6788,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>26</v>
@@ -6830,16 +6830,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>26</v>
@@ -6872,16 +6872,16 @@
         <v>95</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>26</v>
@@ -6914,16 +6914,16 @@
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>26</v>
@@ -6956,16 +6956,16 @@
         <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>26</v>
@@ -6998,10 +6998,10 @@
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>24</v>
@@ -7040,16 +7040,16 @@
         <v>95</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>26</v>
@@ -7082,16 +7082,16 @@
         <v>95</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>26</v>
@@ -7124,16 +7124,16 @@
         <v>95</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>26</v>
@@ -7166,16 +7166,16 @@
         <v>95</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>26</v>
@@ -7208,10 +7208,10 @@
         <v>95</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>24</v>
@@ -7250,16 +7250,16 @@
         <v>95</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>26</v>
@@ -7292,16 +7292,16 @@
         <v>95</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>26</v>
@@ -7334,16 +7334,16 @@
         <v>95</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>26</v>
@@ -7376,16 +7376,16 @@
         <v>95</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>26</v>
@@ -7418,10 +7418,10 @@
         <v>95</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>31</v>
@@ -7458,10 +7458,10 @@
         <v>95</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>31</v>
@@ -7498,10 +7498,10 @@
         <v>95</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>31</v>
@@ -7538,10 +7538,10 @@
         <v>95</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>46</v>
@@ -7592,7 +7592,7 @@
         <v>100</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -7600,10 +7600,10 @@
         <v>95</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>46</v>
@@ -7612,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G115" s="5">
         <v>3.18</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="S115" s="3"/>
       <c r="T115" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -7660,13 +7660,13 @@
         <v>95</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>25</v>
@@ -7712,16 +7712,16 @@
         <v>95</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>26</v>
@@ -7764,16 +7764,16 @@
         <v>95</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E118" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>26</v>
@@ -7816,10 +7816,10 @@
         <v>95</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>46</v>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="S119" s="3"/>
       <c r="T119" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -7860,10 +7860,10 @@
         <v>95</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>46</v>
@@ -7872,7 +7872,7 @@
         <v>25</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G120" s="6">
         <v>28</v>
@@ -7902,7 +7902,7 @@
         <v>22</v>
       </c>
       <c r="P120" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q120" s="6">
         <v>19</v>
@@ -7912,18 +7912,18 @@
       </c>
       <c r="S120" s="3"/>
       <c r="T120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>46</v>
@@ -7977,13 +7977,13 @@
     </row>
     <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>46</v>
@@ -8037,13 +8037,13 @@
     </row>
     <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>46</v>
@@ -8076,18 +8076,18 @@
       <c r="R123" s="3"/>
       <c r="S123" s="3"/>
       <c r="T123" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>46</v>
@@ -8120,18 +8120,18 @@
       <c r="R124" s="3"/>
       <c r="S124" s="3"/>
       <c r="T124" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>46</v>
@@ -8164,18 +8164,18 @@
       <c r="R125" s="3"/>
       <c r="S125" s="3"/>
       <c r="T125" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>46</v>
@@ -8208,18 +8208,18 @@
       <c r="R126" s="3"/>
       <c r="S126" s="3"/>
       <c r="T126" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>46</v>
@@ -8252,18 +8252,18 @@
       <c r="R127" s="3"/>
       <c r="S127" s="3"/>
       <c r="T127" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>46</v>
@@ -8296,21 +8296,21 @@
       <c r="R128" s="3"/>
       <c r="S128" s="3"/>
       <c r="T128" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>25</v>
@@ -8356,21 +8356,21 @@
       </c>
       <c r="S129" s="3"/>
       <c r="T129" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>32</v>
@@ -8416,21 +8416,21 @@
       </c>
       <c r="S130" s="3"/>
       <c r="T130" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>33</v>
@@ -8476,18 +8476,18 @@
       </c>
       <c r="S131" s="3"/>
       <c r="T131" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>91</v>
@@ -8541,13 +8541,13 @@
     </row>
     <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>91</v>
@@ -8601,13 +8601,13 @@
     </row>
     <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>91</v>
@@ -8661,19 +8661,19 @@
     </row>
     <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>26</v>
@@ -8721,19 +8721,19 @@
     </row>
     <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>26</v>
@@ -8781,19 +8781,19 @@
     </row>
     <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>26</v>
@@ -8841,19 +8841,19 @@
     </row>
     <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>26</v>
@@ -8901,19 +8901,19 @@
     </row>
     <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>26</v>
@@ -8961,19 +8961,19 @@
     </row>
     <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>26</v>
@@ -9021,19 +9021,19 @@
     </row>
     <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>26</v>
@@ -9081,19 +9081,19 @@
     </row>
     <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>26</v>
@@ -9141,13 +9141,13 @@
     </row>
     <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>40</v>
@@ -9181,13 +9181,13 @@
     </row>
     <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>40</v>
@@ -9219,19 +9219,19 @@
     </row>
     <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>26</v>
@@ -9257,19 +9257,19 @@
     </row>
     <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>26</v>
@@ -9295,19 +9295,19 @@
     </row>
     <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>26</v>
@@ -9333,13 +9333,13 @@
     </row>
     <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>40</v>
@@ -9371,13 +9371,13 @@
     </row>
     <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>40</v>
@@ -9409,13 +9409,13 @@
     </row>
     <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>91</v>
@@ -9447,13 +9447,13 @@
     </row>
     <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>91</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>91</v>
@@ -9523,13 +9523,13 @@
     </row>
     <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>31</v>
@@ -9561,13 +9561,13 @@
     </row>
     <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>31</v>
@@ -9599,19 +9599,19 @@
     </row>
     <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>26</v>
@@ -9637,19 +9637,19 @@
     </row>
     <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>26</v>
@@ -9675,19 +9675,19 @@
     </row>
     <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>26</v>
@@ -9713,19 +9713,19 @@
     </row>
     <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>26</v>
@@ -9751,19 +9751,19 @@
     </row>
     <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>26</v>
@@ -9789,19 +9789,19 @@
     </row>
     <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>26</v>
@@ -9827,16 +9827,16 @@
     </row>
     <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>44</v>
@@ -9865,16 +9865,16 @@
     </row>
     <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>43</v>
@@ -9903,19 +9903,19 @@
     </row>
     <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>26</v>
@@ -9941,19 +9941,19 @@
     </row>
     <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>26</v>
@@ -9979,19 +9979,19 @@
     </row>
     <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>26</v>
@@ -10017,19 +10017,19 @@
     </row>
     <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>26</v>
@@ -10055,19 +10055,19 @@
     </row>
     <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>26</v>
@@ -10093,13 +10093,13 @@
     </row>
     <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>46</v>
@@ -10153,13 +10153,13 @@
     </row>
     <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>31</v>
@@ -10168,7 +10168,7 @@
         <v>25</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G169" s="4">
         <v>10</v>
@@ -10213,13 +10213,13 @@
     </row>
     <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>31</v>
@@ -10228,7 +10228,7 @@
         <v>32</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G170" s="4">
         <v>7.6</v>
@@ -10273,13 +10273,13 @@
     </row>
     <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>31</v>
@@ -10288,7 +10288,7 @@
         <v>33</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G171" s="4">
         <v>14.4</v>
@@ -10333,16 +10333,16 @@
     </row>
     <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C172" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>25</v>
@@ -10381,19 +10381,19 @@
     </row>
     <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C173" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="E173" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>26</v>
@@ -10429,19 +10429,19 @@
     </row>
     <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E174" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>26</v>
@@ -10477,19 +10477,19 @@
     </row>
     <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C175" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E175" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>26</v>
@@ -10525,19 +10525,19 @@
     </row>
     <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C176" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E176" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>26</v>
@@ -10573,19 +10573,19 @@
     </row>
     <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C177" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E177" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>26</v>
@@ -10621,19 +10621,19 @@
     </row>
     <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C178" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E178" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>26</v>
@@ -10669,13 +10669,13 @@
     </row>
     <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>31</v>
@@ -10724,18 +10724,18 @@
         <v>32.700000000000003</v>
       </c>
       <c r="T179" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>31</v>
@@ -10782,18 +10782,18 @@
         <v>49.3</v>
       </c>
       <c r="T180" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>31</v>
@@ -10840,18 +10840,18 @@
         <v>17.100000000000001</v>
       </c>
       <c r="T181" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B182" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>31</v>
@@ -10905,13 +10905,13 @@
     </row>
     <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>31</v>
@@ -10965,13 +10965,13 @@
     </row>
     <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>31</v>
@@ -11025,13 +11025,13 @@
     </row>
     <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>46</v>
@@ -11040,7 +11040,7 @@
         <v>25</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G185" s="4">
         <v>732401.6</v>
@@ -11078,18 +11078,18 @@
       </c>
       <c r="S185" s="3"/>
       <c r="T185" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>46</v>
@@ -11138,18 +11138,18 @@
       </c>
       <c r="S186" s="3"/>
       <c r="T186" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>31</v>
@@ -11203,13 +11203,13 @@
     </row>
     <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>31</v>
@@ -11263,13 +11263,13 @@
     </row>
     <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B189" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>31</v>
@@ -11323,13 +11323,13 @@
     </row>
     <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>46</v>
@@ -11383,13 +11383,13 @@
     </row>
     <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>46</v>
@@ -11398,7 +11398,7 @@
         <v>25</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G191" s="7">
         <v>0.318</v>
@@ -11441,13 +11441,13 @@
     </row>
     <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>46</v>
@@ -11501,13 +11501,13 @@
     </row>
     <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>46</v>
@@ -11556,18 +11556,18 @@
       </c>
       <c r="S193" s="3"/>
       <c r="T193" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>46</v>
@@ -11576,7 +11576,7 @@
         <v>25</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G194" s="4">
         <v>316.10000000000002</v>
@@ -11616,18 +11616,18 @@
       </c>
       <c r="S194" s="3"/>
       <c r="T194" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B195" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>46</v>
@@ -11681,13 +11681,13 @@
     </row>
     <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>46</v>
@@ -11741,13 +11741,13 @@
     </row>
     <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>46</v>
@@ -11799,13 +11799,13 @@
     </row>
     <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>46</v>
@@ -11859,13 +11859,13 @@
     </row>
     <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>46</v>
@@ -11874,7 +11874,7 @@
         <v>25</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G199" s="6">
         <v>39</v>
@@ -11910,18 +11910,18 @@
       <c r="R199" s="3"/>
       <c r="S199" s="3"/>
       <c r="T199" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B200" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>46</v>
@@ -11930,7 +11930,7 @@
         <v>25</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -11962,18 +11962,18 @@
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
       <c r="T200" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B201" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>91</v>
@@ -12027,13 +12027,13 @@
     </row>
     <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>91</v>
@@ -12087,13 +12087,13 @@
     </row>
     <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>91</v>
@@ -12147,19 +12147,19 @@
     </row>
     <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B204" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="D204" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="E204" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>26</v>
@@ -12207,19 +12207,19 @@
     </row>
     <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="D205" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D205" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E205" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>26</v>
@@ -12267,19 +12267,19 @@
     </row>
     <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="D206" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E206" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>26</v>
@@ -12327,19 +12327,19 @@
     </row>
     <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E207" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>26</v>
@@ -12387,19 +12387,19 @@
     </row>
     <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B208" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E208" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>26</v>
@@ -12447,19 +12447,19 @@
     </row>
     <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E209" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>26</v>
@@ -12507,19 +12507,19 @@
     </row>
     <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E210" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>26</v>
@@ -12567,19 +12567,19 @@
     </row>
     <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B211" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E211" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>26</v>
@@ -12627,16 +12627,16 @@
     </row>
     <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D212" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E212" s="3" t="s">
         <v>32</v>
@@ -12687,16 +12687,16 @@
     </row>
     <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C213" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D213" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>33</v>
@@ -12747,16 +12747,16 @@
     </row>
     <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B214" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D214" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>44</v>
@@ -12807,19 +12807,19 @@
     </row>
     <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D215" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E215" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>26</v>
@@ -12867,19 +12867,19 @@
     </row>
     <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D216" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>26</v>
@@ -12927,16 +12927,16 @@
     </row>
     <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>42</v>
@@ -12987,19 +12987,19 @@
     </row>
     <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D218" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>26</v>
@@ -13047,13 +13047,13 @@
     </row>
     <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>91</v>
@@ -13107,13 +13107,13 @@
     </row>
     <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>91</v>
@@ -13167,13 +13167,13 @@
     </row>
     <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>91</v>
@@ -13227,13 +13227,13 @@
     </row>
     <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>31</v>
@@ -13287,13 +13287,13 @@
     </row>
     <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>31</v>
@@ -13347,13 +13347,13 @@
     </row>
     <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>31</v>
@@ -13407,13 +13407,13 @@
     </row>
     <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>91</v>
@@ -13455,13 +13455,13 @@
     </row>
     <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>91</v>
@@ -13503,13 +13503,13 @@
     </row>
     <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>91</v>
@@ -13551,13 +13551,13 @@
     </row>
     <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>31</v>
@@ -13599,13 +13599,13 @@
     </row>
     <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>31</v>
@@ -13647,13 +13647,13 @@
     </row>
     <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>91</v>
@@ -13707,13 +13707,13 @@
     </row>
     <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>91</v>
@@ -13767,13 +13767,13 @@
     </row>
     <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>91</v>
@@ -13827,13 +13827,13 @@
     </row>
     <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>31</v>
@@ -13887,13 +13887,13 @@
     </row>
     <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>31</v>
@@ -13947,19 +13947,19 @@
     </row>
     <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>26</v>
@@ -14007,19 +14007,19 @@
     </row>
     <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>26</v>
@@ -14067,19 +14067,19 @@
     </row>
     <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>26</v>
@@ -14127,19 +14127,19 @@
     </row>
     <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="E238" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>26</v>
@@ -14187,13 +14187,13 @@
     </row>
     <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>91</v>
@@ -14247,13 +14247,13 @@
     </row>
     <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>91</v>
@@ -14307,13 +14307,13 @@
     </row>
     <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>91</v>
@@ -14367,13 +14367,13 @@
     </row>
     <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>31</v>
@@ -14427,13 +14427,13 @@
     </row>
     <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>31</v>
@@ -14487,13 +14487,13 @@
     </row>
     <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>91</v>
@@ -14547,13 +14547,13 @@
     </row>
     <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>91</v>
@@ -14607,13 +14607,13 @@
     </row>
     <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>91</v>
@@ -14667,13 +14667,13 @@
     </row>
     <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>91</v>
@@ -14705,13 +14705,13 @@
     </row>
     <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B248" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>91</v>
@@ -14743,13 +14743,13 @@
     </row>
     <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>91</v>
@@ -14781,13 +14781,13 @@
     </row>
     <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>91</v>
@@ -14839,13 +14839,13 @@
     </row>
     <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>91</v>
@@ -14897,13 +14897,13 @@
     </row>
     <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>91</v>
@@ -14955,13 +14955,13 @@
     </row>
     <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>46</v>
@@ -14970,7 +14970,7 @@
         <v>25</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G253" s="3"/>
       <c r="H253" s="6">
@@ -15010,18 +15010,18 @@
         <v>38</v>
       </c>
       <c r="T253" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>46</v>
@@ -15075,13 +15075,13 @@
     </row>
     <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>46</v>
@@ -15135,13 +15135,13 @@
     </row>
     <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>46</v>
@@ -15195,13 +15195,13 @@
     </row>
     <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>46</v>
@@ -15253,13 +15253,13 @@
     </row>
     <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B258" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>46</v>
@@ -15308,18 +15308,18 @@
       </c>
       <c r="S258" s="3"/>
       <c r="T258" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>46</v>
@@ -15373,13 +15373,13 @@
     </row>
     <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B260" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>46</v>
@@ -15422,18 +15422,18 @@
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
       <c r="T260" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>46</v>
@@ -15442,7 +15442,7 @@
         <v>25</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G261" s="4">
         <v>4.9000000000000004</v>
@@ -15487,13 +15487,13 @@
     </row>
     <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>46</v>
@@ -15545,13 +15545,13 @@
     </row>
     <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C263" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>46</v>
@@ -15605,13 +15605,13 @@
     </row>
     <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>46</v>
@@ -15659,13 +15659,13 @@
     </row>
     <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>31</v>
@@ -15674,7 +15674,7 @@
         <v>25</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G265" s="4">
         <v>31.1</v>
@@ -15719,13 +15719,13 @@
     </row>
     <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C266" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>31</v>
@@ -15734,7 +15734,7 @@
         <v>32</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -15769,13 +15769,13 @@
     </row>
     <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C267" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>31</v>
@@ -15784,7 +15784,7 @@
         <v>33</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -15819,22 +15819,22 @@
     </row>
     <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B268" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="D268" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -15865,22 +15865,22 @@
     </row>
     <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="D269" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F269" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -15911,22 +15911,22 @@
     </row>
     <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="D270" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F270" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -15957,22 +15957,22 @@
     </row>
     <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B271" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="D271" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F271" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -16003,22 +16003,22 @@
     </row>
     <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B272" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="D272" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D272" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -16049,22 +16049,22 @@
     </row>
     <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="D273" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -16095,22 +16095,22 @@
     </row>
     <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="D274" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -16141,13 +16141,13 @@
     </row>
     <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>46</v>
@@ -16197,13 +16197,13 @@
     </row>
     <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C276" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>46</v>
@@ -16212,7 +16212,7 @@
         <v>25</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G276" s="4">
         <v>24.7</v>
@@ -16257,13 +16257,13 @@
     </row>
     <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C277" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>46</v>
@@ -16315,13 +16315,13 @@
     </row>
     <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C278" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>46</v>
@@ -16375,13 +16375,13 @@
     </row>
     <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>46</v>
@@ -16430,24 +16430,24 @@
       </c>
       <c r="S279" s="3"/>
       <c r="T279" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B280" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C280" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D280" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="E280" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>26</v>
@@ -16495,19 +16495,19 @@
     </row>
     <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C281" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D281" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D281" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="E281" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>26</v>
@@ -16555,19 +16555,19 @@
     </row>
     <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C282" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D282" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D282" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="E282" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>26</v>
@@ -16615,19 +16615,19 @@
     </row>
     <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C283" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D283" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D283" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="E283" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>26</v>
@@ -16675,13 +16675,13 @@
     </row>
     <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16690,7 +16690,7 @@
         <v>25</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G284" s="6">
         <v>28</v>
@@ -16720,7 +16720,7 @@
         <v>22</v>
       </c>
       <c r="P284" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q284" s="6">
         <v>19</v>
@@ -16730,18 +16730,18 @@
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16750,7 +16750,7 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G285" s="4">
         <v>20.8</v>
@@ -16795,13 +16795,13 @@
     </row>
     <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>46</v>
@@ -16810,7 +16810,7 @@
         <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G286" s="5">
         <v>0.57999999999999996</v>
@@ -16850,15 +16850,15 @@
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>332</v>
@@ -16910,15 +16910,15 @@
       </c>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>334</v>
@@ -16970,12 +16970,12 @@
       </c>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
-        <v>99</v>
+        <v>331</v>
       </c>
     </row>
     <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>335</v>
@@ -17324,7 +17324,7 @@
         <v>50</v>
       </c>
       <c r="T294" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="T295" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
@@ -17448,7 +17448,7 @@
         <v>17</v>
       </c>
       <c r="T296" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
@@ -17510,7 +17510,7 @@
         <v>50</v>
       </c>
       <c r="T297" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -17830,7 +17830,7 @@
         <v>25</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G303" s="6">
         <v>28</v>
@@ -17860,7 +17860,7 @@
         <v>22</v>
       </c>
       <c r="P303" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q303" s="6">
         <v>19</v>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -18240,7 +18240,7 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G310" s="5">
         <v>1.02</v>
@@ -18280,7 +18280,7 @@
       </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -18336,7 +18336,7 @@
       <c r="R311" s="3"/>
       <c r="S311" s="3"/>
       <c r="T311" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -18356,7 +18356,7 @@
         <v>25</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G312" s="5">
         <v>0.63</v>
@@ -18396,7 +18396,7 @@
       </c>
       <c r="S312" s="3"/>
       <c r="T312" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -18713,7 +18713,7 @@
         <v>24</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
@@ -18773,7 +18773,7 @@
         <v>24</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
@@ -18833,7 +18833,7 @@
         <v>24</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>26</v>
@@ -18893,7 +18893,7 @@
         <v>24</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
@@ -18953,7 +18953,7 @@
         <v>24</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
@@ -19013,7 +19013,7 @@
         <v>24</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
@@ -19070,7 +19070,7 @@
         <v>385</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E324" s="3" t="s">
         <v>44</v>
@@ -19130,7 +19130,7 @@
         <v>385</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>43</v>
@@ -19190,10 +19190,10 @@
         <v>385</v>
       </c>
       <c r="D326" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E326" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>26</v>
@@ -19250,10 +19250,10 @@
         <v>385</v>
       </c>
       <c r="D327" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E327" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>26</v>
@@ -19310,10 +19310,10 @@
         <v>385</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>26</v>
@@ -19370,10 +19370,10 @@
         <v>385</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>26</v>
@@ -19430,10 +19430,10 @@
         <v>385</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>26</v>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="394">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -955,7 +950,7 @@
     <t>Goal 11. Sustainable cities and communities</t>
   </si>
   <si>
-    <t>Enhancement of cities and urbanised areas' capability for sustainable development and workplace creation as well as improvement of quality of life of their inhabitants</t>
+    <t>Enhancement of cities and urbanised areas' capability for sustainable development and workplace creation as well as improvement of quality of life of their inhabitants by taking into account the need to increase green areas, water areas and ventilation corridors in urban development plans</t>
   </si>
   <si>
     <t>11.1.a Population living in households considering that they suffer from noise</t>
@@ -997,15 +992,6 @@
     <t>landfilling</t>
   </si>
   <si>
-    <t>Improvement of air quality, especially reduction of particulate pollutants emission in housing and communal sector resulting from combustion of bad quality solid fuels at low temperature and in low-power boilers, as well as from waste incineration</t>
-  </si>
-  <si>
-    <t>11.2.a National indicator of average exposure to PM2.5</t>
-  </si>
-  <si>
-    <t>11.2.b Area of green areas in urban areas per 1 inhabitant</t>
-  </si>
-  <si>
     <t>Goal 12. Responsible consumption and production</t>
   </si>
   <si>
@@ -1213,20 +1199,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 07-03-2023, 11:34</t>
+    <t>Last update: 22-03-2023, 08:35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1418,14 +1404,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1446,7 +1424,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1509,7 +1487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1541,10 +1519,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1576,7 +1553,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1752,15 +1728,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T338"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T335"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1773,17 +1749,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="19.5">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="19.5">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="29.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="29.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="29.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="29.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2909,7 +2885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2969,7 +2945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3027,7 +3003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3085,7 +3061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3145,7 +3121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3205,7 +3181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3265,7 +3241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="39">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3323,7 +3299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3383,7 +3359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3441,7 +3417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="29.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3499,7 +3475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3557,7 +3533,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="29.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3617,7 +3593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3677,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3737,7 +3713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3797,7 +3773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="97.5">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3859,7 +3835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="97.5">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3921,7 +3897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="97.5">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3983,7 +3959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="97.5">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -4045,7 +4021,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="97.5">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4107,7 +4083,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="97.5">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4169,7 +4145,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="29.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4211,7 +4187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="29.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="29.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4295,7 +4271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="29.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4397,7 +4373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4457,7 +4433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4517,7 +4493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4577,7 +4553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4637,7 +4613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4697,7 +4673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4757,7 +4733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4817,7 +4793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4877,7 +4853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4937,7 +4913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4997,7 +4973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5057,7 +5033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5117,7 +5093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5177,7 +5153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5237,7 +5213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5297,7 +5273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5357,7 +5333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5417,7 +5393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5477,7 +5453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5537,7 +5513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5597,7 +5573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5657,7 +5633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5699,7 +5675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5741,7 +5717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="19.5">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5801,7 +5777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5841,7 +5817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5881,7 +5857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5921,7 +5897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5961,7 +5937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -6001,7 +5977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6041,7 +6017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6081,7 +6057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6121,7 +6097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6161,7 +6137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6201,7 +6177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6241,7 +6217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6281,7 +6257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6321,7 +6297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6363,7 +6339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6405,7 +6381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6447,7 +6423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6489,7 +6465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6531,7 +6507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6573,7 +6549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6615,7 +6591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6657,7 +6633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6699,7 +6675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6741,7 +6717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6783,7 +6759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6825,7 +6801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6867,7 +6843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6909,7 +6885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6951,7 +6927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6993,7 +6969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -7035,7 +7011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7077,7 +7053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7119,7 +7095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7161,7 +7137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7203,7 +7179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7245,7 +7221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7287,7 +7263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7329,7 +7305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7371,7 +7347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7413,7 +7389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7453,7 +7429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7493,7 +7469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7533,7 +7509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7595,7 +7571,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="29.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7655,7 +7631,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7707,7 +7683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7759,7 +7735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7811,7 +7787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="19.5">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7855,7 +7831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7915,7 +7891,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="39">
       <c r="A121" s="2" t="s">
         <v>147</v>
       </c>
@@ -7975,7 +7951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>147</v>
       </c>
@@ -8035,7 +8011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="48.75">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -8079,7 +8055,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="48.75">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -8123,7 +8099,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="48.75">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -8167,7 +8143,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="48.75">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -8211,7 +8187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="48.75">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -8255,7 +8231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="48.75">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -8299,7 +8275,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
@@ -8359,7 +8335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>147</v>
       </c>
@@ -8419,7 +8395,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
@@ -8479,7 +8455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="19.5">
       <c r="A132" s="2" t="s">
         <v>147</v>
       </c>
@@ -8539,7 +8515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="19.5">
       <c r="A133" s="2" t="s">
         <v>147</v>
       </c>
@@ -8599,7 +8575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="19.5">
       <c r="A134" s="2" t="s">
         <v>147</v>
       </c>
@@ -8659,7 +8635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="19.5">
       <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
@@ -8719,7 +8695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="19.5">
       <c r="A136" s="2" t="s">
         <v>147</v>
       </c>
@@ -8779,7 +8755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="19.5">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
@@ -8839,7 +8815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="19.5">
       <c r="A138" s="2" t="s">
         <v>147</v>
       </c>
@@ -8899,7 +8875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="19.5">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -8959,7 +8935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="19.5">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -9019,7 +8995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="19.5">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
@@ -9079,7 +9055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="19.5">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -9139,7 +9115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="58.5">
       <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
@@ -9179,7 +9155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="58.5">
       <c r="A144" s="2" t="s">
         <v>147</v>
       </c>
@@ -9217,7 +9193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="58.5">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -9255,7 +9231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="58.5">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -9293,7 +9269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="58.5">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -9331,7 +9307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="58.5">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -9369,7 +9345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="58.5">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -9407,7 +9383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="58.5">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -9445,7 +9421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="58.5">
       <c r="A151" s="2" t="s">
         <v>147</v>
       </c>
@@ -9483,7 +9459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="58.5">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
@@ -9521,7 +9497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="58.5">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
@@ -9559,7 +9535,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="58.5">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -9597,7 +9573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="58.5">
       <c r="A155" s="2" t="s">
         <v>147</v>
       </c>
@@ -9635,7 +9611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="58.5">
       <c r="A156" s="2" t="s">
         <v>147</v>
       </c>
@@ -9673,7 +9649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="58.5">
       <c r="A157" s="2" t="s">
         <v>147</v>
       </c>
@@ -9711,7 +9687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="58.5">
       <c r="A158" s="2" t="s">
         <v>147</v>
       </c>
@@ -9749,7 +9725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="58.5">
       <c r="A159" s="2" t="s">
         <v>147</v>
       </c>
@@ -9787,7 +9763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="58.5">
       <c r="A160" s="2" t="s">
         <v>147</v>
       </c>
@@ -9825,7 +9801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="58.5">
       <c r="A161" s="2" t="s">
         <v>147</v>
       </c>
@@ -9863,7 +9839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="58.5">
       <c r="A162" s="2" t="s">
         <v>147</v>
       </c>
@@ -9901,7 +9877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="58.5">
       <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
@@ -9939,7 +9915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="58.5">
       <c r="A164" s="2" t="s">
         <v>147</v>
       </c>
@@ -9977,7 +9953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="58.5">
       <c r="A165" s="2" t="s">
         <v>147</v>
       </c>
@@ -10015,7 +9991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="58.5">
       <c r="A166" s="2" t="s">
         <v>147</v>
       </c>
@@ -10053,7 +10029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="58.5">
       <c r="A167" s="2" t="s">
         <v>147</v>
       </c>
@@ -10091,7 +10067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>190</v>
       </c>
@@ -10151,7 +10127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>190</v>
       </c>
@@ -10211,7 +10187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>190</v>
       </c>
@@ -10271,7 +10247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
@@ -10331,7 +10307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="19.5">
       <c r="A172" s="2" t="s">
         <v>190</v>
       </c>
@@ -10379,7 +10355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="39">
       <c r="A173" s="2" t="s">
         <v>190</v>
       </c>
@@ -10427,7 +10403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="19.5">
       <c r="A174" s="2" t="s">
         <v>190</v>
       </c>
@@ -10475,7 +10451,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>190</v>
       </c>
@@ -10523,7 +10499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>190</v>
       </c>
@@ -10571,7 +10547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>190</v>
       </c>
@@ -10619,7 +10595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="39">
       <c r="A178" s="2" t="s">
         <v>190</v>
       </c>
@@ -10667,7 +10643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>190</v>
       </c>
@@ -10727,7 +10703,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>190</v>
       </c>
@@ -10785,7 +10761,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>190</v>
       </c>
@@ -10843,7 +10819,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
@@ -10903,7 +10879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
@@ -10963,7 +10939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>190</v>
       </c>
@@ -11023,7 +10999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="29.25">
       <c r="A185" s="2" t="s">
         <v>208</v>
       </c>
@@ -11081,7 +11057,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="29.25">
       <c r="A186" s="2" t="s">
         <v>208</v>
       </c>
@@ -11141,7 +11117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="39">
       <c r="A187" s="2" t="s">
         <v>208</v>
       </c>
@@ -11201,7 +11177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="39">
       <c r="A188" s="2" t="s">
         <v>208</v>
       </c>
@@ -11261,7 +11237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="39">
       <c r="A189" s="2" t="s">
         <v>208</v>
       </c>
@@ -11321,7 +11297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="39">
       <c r="A190" s="2" t="s">
         <v>208</v>
       </c>
@@ -11381,7 +11357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="29.25">
       <c r="A191" s="2" t="s">
         <v>217</v>
       </c>
@@ -11439,7 +11415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>217</v>
       </c>
@@ -11499,7 +11475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>217</v>
       </c>
@@ -11559,7 +11535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="19.5">
       <c r="A194" s="2" t="s">
         <v>217</v>
       </c>
@@ -11619,7 +11595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="19.5">
       <c r="A195" s="2" t="s">
         <v>217</v>
       </c>
@@ -11679,7 +11655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>217</v>
       </c>
@@ -11739,7 +11715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="39">
       <c r="A197" s="2" t="s">
         <v>232</v>
       </c>
@@ -11797,7 +11773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="39">
       <c r="A198" s="2" t="s">
         <v>232</v>
       </c>
@@ -11857,7 +11833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="39">
       <c r="A199" s="2" t="s">
         <v>232</v>
       </c>
@@ -11913,7 +11889,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>232</v>
       </c>
@@ -11965,7 +11941,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>232</v>
       </c>
@@ -12025,7 +12001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>232</v>
       </c>
@@ -12085,7 +12061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>232</v>
       </c>
@@ -12145,7 +12121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>232</v>
       </c>
@@ -12205,7 +12181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>232</v>
       </c>
@@ -12265,7 +12241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>232</v>
       </c>
@@ -12325,7 +12301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>232</v>
       </c>
@@ -12385,7 +12361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>232</v>
       </c>
@@ -12445,7 +12421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>232</v>
       </c>
@@ -12505,7 +12481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>232</v>
       </c>
@@ -12565,7 +12541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>232</v>
       </c>
@@ -12625,7 +12601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>232</v>
       </c>
@@ -12685,7 +12661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>232</v>
       </c>
@@ -12745,7 +12721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>232</v>
       </c>
@@ -12805,7 +12781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>232</v>
       </c>
@@ -12865,7 +12841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>232</v>
       </c>
@@ -12925,7 +12901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>232</v>
       </c>
@@ -12985,7 +12961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="48.75">
       <c r="A218" s="2" t="s">
         <v>232</v>
       </c>
@@ -13045,7 +13021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>232</v>
       </c>
@@ -13105,7 +13081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>232</v>
       </c>
@@ -13165,7 +13141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>232</v>
       </c>
@@ -13225,7 +13201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -13285,7 +13261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>232</v>
       </c>
@@ -13345,7 +13321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
@@ -13405,7 +13381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>232</v>
       </c>
@@ -13453,7 +13429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>232</v>
       </c>
@@ -13501,7 +13477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>232</v>
       </c>
@@ -13549,7 +13525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>232</v>
       </c>
@@ -13597,7 +13573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>232</v>
       </c>
@@ -13645,7 +13621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
@@ -13705,7 +13681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
@@ -13765,7 +13741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -13825,7 +13801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -13885,7 +13861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -13945,7 +13921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
@@ -14005,7 +13981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>232</v>
       </c>
@@ -14065,7 +14041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>232</v>
       </c>
@@ -14125,7 +14101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>232</v>
       </c>
@@ -14185,7 +14161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>232</v>
       </c>
@@ -14245,7 +14221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>232</v>
       </c>
@@ -14305,7 +14281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>232</v>
       </c>
@@ -14365,7 +14341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>232</v>
       </c>
@@ -14425,7 +14401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>232</v>
       </c>
@@ -14485,7 +14461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>232</v>
       </c>
@@ -14545,7 +14521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>232</v>
       </c>
@@ -14605,7 +14581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>232</v>
       </c>
@@ -14665,7 +14641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>232</v>
       </c>
@@ -14703,7 +14679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>232</v>
       </c>
@@ -14741,7 +14717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>232</v>
       </c>
@@ -14779,7 +14755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>232</v>
       </c>
@@ -14837,7 +14813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>232</v>
       </c>
@@ -14895,7 +14871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>232</v>
       </c>
@@ -14953,7 +14929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="29.25">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -15013,7 +14989,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="29.25">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -15073,7 +15049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="29.25">
       <c r="A255" s="2" t="s">
         <v>273</v>
       </c>
@@ -15133,7 +15109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="29.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -15193,7 +15169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="29.25">
       <c r="A257" s="2" t="s">
         <v>273</v>
       </c>
@@ -15251,7 +15227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="29.25">
       <c r="A258" s="2" t="s">
         <v>273</v>
       </c>
@@ -15311,7 +15287,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="29.25">
       <c r="A259" s="2" t="s">
         <v>273</v>
       </c>
@@ -15371,7 +15347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>273</v>
       </c>
@@ -15425,7 +15401,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="29.25">
       <c r="A261" s="2" t="s">
         <v>273</v>
       </c>
@@ -15485,7 +15461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="19.5">
       <c r="A262" s="2" t="s">
         <v>292</v>
       </c>
@@ -15543,7 +15519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="19.5">
       <c r="A263" s="2" t="s">
         <v>292</v>
       </c>
@@ -15603,7 +15579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>292</v>
       </c>
@@ -15657,7 +15633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>292</v>
       </c>
@@ -15717,7 +15693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>292</v>
       </c>
@@ -15767,7 +15743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>292</v>
       </c>
@@ -15817,7 +15793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="19.5">
       <c r="A268" s="2" t="s">
         <v>292</v>
       </c>
@@ -15863,7 +15839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="19.5">
       <c r="A269" s="2" t="s">
         <v>292</v>
       </c>
@@ -15909,7 +15885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="19.5">
       <c r="A270" s="2" t="s">
         <v>292</v>
       </c>
@@ -15955,7 +15931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="19.5">
       <c r="A271" s="2" t="s">
         <v>292</v>
       </c>
@@ -16001,7 +15977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="19.5">
       <c r="A272" s="2" t="s">
         <v>292</v>
       </c>
@@ -16047,7 +16023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="19.5">
       <c r="A273" s="2" t="s">
         <v>292</v>
       </c>
@@ -16093,7 +16069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="29.25">
       <c r="A274" s="2" t="s">
         <v>292</v>
       </c>
@@ -16139,7 +16115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="58.5">
       <c r="A275" s="2" t="s">
         <v>309</v>
       </c>
@@ -16195,7 +16171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="58.5">
       <c r="A276" s="2" t="s">
         <v>309</v>
       </c>
@@ -16255,7 +16231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="58.5">
       <c r="A277" s="2" t="s">
         <v>309</v>
       </c>
@@ -16313,7 +16289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="58.5">
       <c r="A278" s="2" t="s">
         <v>309</v>
       </c>
@@ -16373,7 +16349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="58.5">
       <c r="A279" s="2" t="s">
         <v>309</v>
       </c>
@@ -16433,7 +16409,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="58.5">
       <c r="A280" s="2" t="s">
         <v>309</v>
       </c>
@@ -16493,7 +16469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="58.5">
       <c r="A281" s="2" t="s">
         <v>309</v>
       </c>
@@ -16553,7 +16529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="58.5">
       <c r="A282" s="2" t="s">
         <v>309</v>
       </c>
@@ -16613,7 +16589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="58.5">
       <c r="A283" s="2" t="s">
         <v>309</v>
       </c>
@@ -16673,15 +16649,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="39">
       <c r="A284" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16690,58 +16666,58 @@
         <v>25</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G284" s="6">
-        <v>28</v>
-      </c>
-      <c r="H284" s="6">
-        <v>27</v>
-      </c>
-      <c r="I284" s="6">
-        <v>26</v>
-      </c>
-      <c r="J284" s="6">
-        <v>25</v>
-      </c>
-      <c r="K284" s="6">
-        <v>24</v>
-      </c>
-      <c r="L284" s="6">
-        <v>23</v>
-      </c>
-      <c r="M284" s="6">
-        <v>22</v>
-      </c>
-      <c r="N284" s="6">
-        <v>22</v>
-      </c>
-      <c r="O284" s="6">
-        <v>22</v>
-      </c>
-      <c r="P284" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q284" s="6">
-        <v>19</v>
-      </c>
-      <c r="R284" s="6">
-        <v>17</v>
+        <v>327</v>
+      </c>
+      <c r="G284" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H284" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I284" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J284" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K284" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="L284" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M284" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="N284" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="O284" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="P284" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="Q284" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="R284" s="5">
+        <v>0.84</v>
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" ht="39">
       <c r="A285" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16750,58 +16726,58 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G285" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="H285" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="I285" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="J285" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="K285" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="L285" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="M285" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="N285" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="O285" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="P285" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="Q285" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="R285" s="4">
-        <v>22.8</v>
+        <v>330</v>
+      </c>
+      <c r="G285" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="H285" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="I285" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J285" s="5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="K285" s="5">
+        <v>16.41</v>
+      </c>
+      <c r="L285" s="5">
+        <v>16.28</v>
+      </c>
+      <c r="M285" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="N285" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O285" s="5">
+        <v>18.52</v>
+      </c>
+      <c r="P285" s="5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Q285" s="5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R285" s="5">
+        <v>18.02</v>
       </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="39">
       <c r="A286" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>46</v>
@@ -16810,58 +16786,58 @@
         <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G286" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H286" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I286" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="J286" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K286" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L286" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M286" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="N286" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="O286" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="P286" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="Q286" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="R286" s="5">
-        <v>0.84</v>
+        <v>26</v>
+      </c>
+      <c r="G286" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H286" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I286" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J286" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="K286" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="L286" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M286" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N286" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O286" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P286" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Q286" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R286" s="4">
+        <v>9.1</v>
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="39">
       <c r="A287" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>46</v>
@@ -16870,58 +16846,56 @@
         <v>25</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="G287" s="5">
-        <v>16.32</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H287" s="5">
-        <v>20.22</v>
+        <v>2.48</v>
       </c>
       <c r="I287" s="5">
-        <v>17.309999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="J287" s="5">
-        <v>16.510000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="K287" s="5">
-        <v>16.41</v>
+        <v>3.82</v>
       </c>
       <c r="L287" s="5">
-        <v>16.28</v>
+        <v>3.45</v>
       </c>
       <c r="M287" s="5">
-        <v>16.82</v>
+        <v>2.96</v>
       </c>
       <c r="N287" s="5">
-        <v>17.829999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="O287" s="5">
-        <v>18.52</v>
+        <v>2.48</v>
       </c>
       <c r="P287" s="5">
-        <v>17.690000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="Q287" s="5">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="R287" s="5">
-        <v>18.02</v>
-      </c>
+        <v>2.68</v>
+      </c>
+      <c r="R287" s="3"/>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="48.75">
       <c r="A288" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>46</v>
@@ -16930,58 +16904,56 @@
         <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="G288" s="4">
-        <v>10.8</v>
+        <v>100</v>
       </c>
       <c r="H288" s="4">
-        <v>9.1999999999999993</v>
+        <v>99.8</v>
       </c>
       <c r="I288" s="4">
-        <v>10.6</v>
+        <v>97.6</v>
       </c>
       <c r="J288" s="4">
-        <v>11.8</v>
+        <v>96.3</v>
       </c>
       <c r="K288" s="4">
-        <v>12.6</v>
+        <v>92.7</v>
       </c>
       <c r="L288" s="4">
-        <v>11.6</v>
+        <v>93.6</v>
       </c>
       <c r="M288" s="4">
-        <v>10.199999999999999</v>
+        <v>96.9</v>
       </c>
       <c r="N288" s="4">
-        <v>9.9</v>
+        <v>100.8</v>
       </c>
       <c r="O288" s="4">
-        <v>9.8000000000000007</v>
+        <v>100.6</v>
       </c>
       <c r="P288" s="4">
-        <v>10.3</v>
+        <v>95.1</v>
       </c>
       <c r="Q288" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="R288" s="4">
-        <v>9.1</v>
-      </c>
+        <v>90.6</v>
+      </c>
+      <c r="R288" s="3"/>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="289" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="48.75">
       <c r="A289" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -16990,56 +16962,56 @@
         <v>25</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G289" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H289" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I289" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J289" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K289" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L289" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M289" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N289" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O289" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P289" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="Q289" s="5">
-        <v>2.68</v>
+        <v>340</v>
+      </c>
+      <c r="G289" s="4">
+        <v>100</v>
+      </c>
+      <c r="H289" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="I289" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J289" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="K289" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="L289" s="4">
+        <v>94.2</v>
+      </c>
+      <c r="M289" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N289" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="O289" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="P289" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="Q289" s="4">
+        <v>91.1</v>
       </c>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
       <c r="T289" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="29.25">
       <c r="A290" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17048,56 +17020,58 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G290" s="4">
-        <v>100</v>
-      </c>
-      <c r="H290" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="I290" s="4">
-        <v>97.6</v>
-      </c>
-      <c r="J290" s="4">
-        <v>96.3</v>
-      </c>
-      <c r="K290" s="4">
-        <v>92.7</v>
-      </c>
-      <c r="L290" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="M290" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="N290" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="O290" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="P290" s="4">
-        <v>95.1</v>
-      </c>
-      <c r="Q290" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="R290" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G290" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H290" s="5">
+        <v>10.34</v>
+      </c>
+      <c r="I290" s="5">
+        <v>10.96</v>
+      </c>
+      <c r="J290" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="K290" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L290" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="M290" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N290" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="O290" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="P290" s="5">
+        <v>15.38</v>
+      </c>
+      <c r="Q290" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R290" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" ht="29.25">
+      <c r="A291" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C291" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17106,422 +17080,424 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G291" s="4">
-        <v>100</v>
-      </c>
-      <c r="H291" s="4">
-        <v>99.7</v>
-      </c>
-      <c r="I291" s="4">
-        <v>97.9</v>
-      </c>
-      <c r="J291" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="K291" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="L291" s="4">
-        <v>94.2</v>
-      </c>
-      <c r="M291" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="N291" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="O291" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="P291" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="Q291" s="4">
-        <v>91.1</v>
+        <v>344</v>
+      </c>
+      <c r="G291" s="6">
+        <v>563</v>
+      </c>
+      <c r="H291" s="6">
+        <v>531</v>
+      </c>
+      <c r="I291" s="6">
+        <v>661</v>
+      </c>
+      <c r="J291" s="6">
+        <v>778</v>
+      </c>
+      <c r="K291" s="6">
+        <v>847</v>
+      </c>
+      <c r="L291" s="6">
+        <v>909</v>
+      </c>
+      <c r="M291" s="6">
+        <v>930</v>
+      </c>
+      <c r="N291" s="6">
+        <v>946</v>
+      </c>
+      <c r="O291" s="6">
+        <v>991</v>
+      </c>
+      <c r="P291" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>1073</v>
       </c>
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" ht="78">
       <c r="A292" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C292" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G292" s="6">
+        <v>40</v>
+      </c>
+      <c r="H292" s="6">
+        <v>60</v>
+      </c>
+      <c r="I292" s="6">
+        <v>40</v>
+      </c>
+      <c r="J292" s="6">
+        <v>40</v>
+      </c>
+      <c r="K292" s="6">
+        <v>40</v>
+      </c>
+      <c r="L292" s="6">
+        <v>40</v>
+      </c>
+      <c r="M292" s="6">
+        <v>60</v>
+      </c>
+      <c r="N292" s="6">
+        <v>40</v>
+      </c>
+      <c r="O292" s="6">
+        <v>40</v>
+      </c>
+      <c r="P292" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>60</v>
+      </c>
+      <c r="R292" s="6">
+        <v>67</v>
+      </c>
+      <c r="S292" s="6">
+        <v>50</v>
+      </c>
+      <c r="T292" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" ht="78">
+      <c r="A293" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E292" s="3" t="s">
+      <c r="B293" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G293" s="6">
+        <v>40</v>
+      </c>
+      <c r="H293" s="6">
+        <v>60</v>
+      </c>
+      <c r="I293" s="6">
+        <v>20</v>
+      </c>
+      <c r="J293" s="6">
+        <v>20</v>
+      </c>
+      <c r="K293" s="6">
+        <v>20</v>
+      </c>
+      <c r="L293" s="6">
+        <v>40</v>
+      </c>
+      <c r="M293" s="6">
+        <v>60</v>
+      </c>
+      <c r="N293" s="6">
+        <v>40</v>
+      </c>
+      <c r="O293" s="6">
         <v>25</v>
       </c>
-      <c r="F292" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="5">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H292" s="5">
-        <v>10.34</v>
-      </c>
-      <c r="I292" s="5">
-        <v>10.96</v>
-      </c>
-      <c r="J292" s="5">
-        <v>11.45</v>
-      </c>
-      <c r="K292" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L292" s="5">
-        <v>11.88</v>
-      </c>
-      <c r="M292" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N292" s="5">
-        <v>11.06</v>
-      </c>
-      <c r="O292" s="5">
-        <v>14.94</v>
-      </c>
-      <c r="P292" s="5">
-        <v>15.38</v>
-      </c>
-      <c r="Q292" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R292" s="5">
-        <v>15.62</v>
-      </c>
-      <c r="S292" s="3"/>
-      <c r="T292" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C293" s="2" t="s">
+      <c r="P293" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>20</v>
+      </c>
+      <c r="R293" s="6">
+        <v>17</v>
+      </c>
+      <c r="S293" s="6">
+        <v>0</v>
+      </c>
+      <c r="T293" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="78">
+      <c r="A294" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D293" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F293" s="3" t="s">
+      <c r="C294" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G293" s="6">
-        <v>563</v>
-      </c>
-      <c r="H293" s="6">
-        <v>531</v>
-      </c>
-      <c r="I293" s="6">
-        <v>661</v>
-      </c>
-      <c r="J293" s="6">
-        <v>778</v>
-      </c>
-      <c r="K293" s="6">
-        <v>847</v>
-      </c>
-      <c r="L293" s="6">
-        <v>909</v>
-      </c>
-      <c r="M293" s="6">
-        <v>930</v>
-      </c>
-      <c r="N293" s="6">
-        <v>946</v>
-      </c>
-      <c r="O293" s="6">
-        <v>991</v>
-      </c>
-      <c r="P293" s="6">
-        <v>1050</v>
-      </c>
-      <c r="Q293" s="6">
-        <v>1073</v>
-      </c>
-      <c r="R293" s="3"/>
-      <c r="S293" s="3"/>
-      <c r="T293" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" ht="72" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="D294" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D294" s="2" t="s">
+      <c r="E294" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E294" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="F294" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G294" s="6">
+        <v>0</v>
+      </c>
+      <c r="H294" s="6">
+        <v>0</v>
+      </c>
+      <c r="I294" s="6">
+        <v>20</v>
+      </c>
+      <c r="J294" s="6">
+        <v>20</v>
+      </c>
+      <c r="K294" s="6">
+        <v>20</v>
+      </c>
+      <c r="L294" s="6">
+        <v>0</v>
+      </c>
+      <c r="M294" s="6">
+        <v>0</v>
+      </c>
+      <c r="N294" s="6">
+        <v>0</v>
+      </c>
+      <c r="O294" s="6">
+        <v>0</v>
+      </c>
+      <c r="P294" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="6">
         <v>40</v>
       </c>
-      <c r="H294" s="6">
-        <v>60</v>
-      </c>
-      <c r="I294" s="6">
-        <v>40</v>
-      </c>
-      <c r="J294" s="6">
-        <v>40</v>
-      </c>
-      <c r="K294" s="6">
-        <v>40</v>
-      </c>
-      <c r="L294" s="6">
-        <v>40</v>
-      </c>
-      <c r="M294" s="6">
-        <v>60</v>
-      </c>
-      <c r="N294" s="6">
-        <v>40</v>
-      </c>
-      <c r="O294" s="6">
-        <v>40</v>
-      </c>
-      <c r="P294" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q294" s="6">
-        <v>60</v>
-      </c>
       <c r="R294" s="6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="S294" s="6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="T294" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="78">
       <c r="A295" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="E295" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G295" s="6">
+        <v>60</v>
+      </c>
+      <c r="H295" s="6">
         <v>40</v>
       </c>
-      <c r="H295" s="6">
+      <c r="I295" s="6">
         <v>60</v>
       </c>
-      <c r="I295" s="6">
-        <v>20</v>
-      </c>
       <c r="J295" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K295" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L295" s="6">
+        <v>60</v>
+      </c>
+      <c r="M295" s="6">
         <v>40</v>
       </c>
-      <c r="M295" s="6">
+      <c r="N295" s="6">
         <v>60</v>
       </c>
-      <c r="N295" s="6">
+      <c r="O295" s="6">
+        <v>75</v>
+      </c>
+      <c r="P295" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q295" s="6">
         <v>40</v>
       </c>
-      <c r="O295" s="6">
-        <v>25</v>
-      </c>
-      <c r="P295" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q295" s="6">
-        <v>20</v>
-      </c>
       <c r="R295" s="6">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S295" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T295" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="19.5">
       <c r="A296" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>354</v>
+        <v>25</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G296" s="6">
-        <v>0</v>
-      </c>
-      <c r="H296" s="6">
-        <v>0</v>
-      </c>
-      <c r="I296" s="6">
-        <v>20</v>
-      </c>
-      <c r="J296" s="6">
-        <v>20</v>
-      </c>
-      <c r="K296" s="6">
-        <v>20</v>
-      </c>
-      <c r="L296" s="6">
-        <v>0</v>
-      </c>
-      <c r="M296" s="6">
-        <v>0</v>
-      </c>
-      <c r="N296" s="6">
-        <v>0</v>
-      </c>
-      <c r="O296" s="6">
-        <v>0</v>
-      </c>
-      <c r="P296" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q296" s="6">
-        <v>40</v>
-      </c>
-      <c r="R296" s="6">
-        <v>17</v>
-      </c>
-      <c r="S296" s="6">
-        <v>17</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G296" s="4">
+        <v>100</v>
+      </c>
+      <c r="H296" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I296" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J296" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K296" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L296" s="4">
+        <v>106</v>
+      </c>
+      <c r="M296" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N296" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O296" s="4">
+        <v>130</v>
+      </c>
+      <c r="P296" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q296" s="4">
+        <v>186.6</v>
+      </c>
+      <c r="R296" s="4">
+        <v>190.1</v>
+      </c>
+      <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="297" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" ht="29.25">
       <c r="A297" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G297" s="6">
-        <v>60</v>
-      </c>
-      <c r="H297" s="6">
-        <v>40</v>
-      </c>
-      <c r="I297" s="6">
-        <v>60</v>
-      </c>
-      <c r="J297" s="6">
-        <v>60</v>
-      </c>
-      <c r="K297" s="6">
-        <v>60</v>
-      </c>
-      <c r="L297" s="6">
-        <v>60</v>
-      </c>
-      <c r="M297" s="6">
-        <v>40</v>
-      </c>
-      <c r="N297" s="6">
-        <v>60</v>
-      </c>
-      <c r="O297" s="6">
-        <v>75</v>
-      </c>
-      <c r="P297" s="6">
-        <v>75</v>
-      </c>
-      <c r="Q297" s="6">
-        <v>40</v>
-      </c>
-      <c r="R297" s="6">
-        <v>33</v>
-      </c>
-      <c r="S297" s="6">
-        <v>50</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="G297" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H297" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I297" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J297" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K297" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L297" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M297" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N297" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O297" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P297" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q297" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="R297" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" ht="48.75">
       <c r="A298" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17530,58 +17506,58 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="G298" s="4">
-        <v>100</v>
+        <v>88.8</v>
       </c>
       <c r="H298" s="4">
-        <v>100.8</v>
+        <v>87.4</v>
       </c>
       <c r="I298" s="4">
-        <v>99.9</v>
+        <v>85.2</v>
       </c>
       <c r="J298" s="4">
-        <v>101.8</v>
+        <v>85.2</v>
       </c>
       <c r="K298" s="4">
-        <v>104.9</v>
+        <v>83.9</v>
       </c>
       <c r="L298" s="4">
-        <v>106</v>
+        <v>85.8</v>
       </c>
       <c r="M298" s="4">
-        <v>119.9</v>
+        <v>87.6</v>
       </c>
       <c r="N298" s="4">
-        <v>119.4</v>
+        <v>81.2</v>
       </c>
       <c r="O298" s="4">
-        <v>130</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="P298" s="4">
-        <v>189.5</v>
+        <v>77.5</v>
       </c>
       <c r="Q298" s="4">
-        <v>186.6</v>
+        <v>80.3</v>
       </c>
       <c r="R298" s="4">
-        <v>190.1</v>
+        <v>72</v>
       </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" ht="48.75">
       <c r="A299" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>46</v>
@@ -17590,58 +17566,58 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G299" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H299" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I299" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J299" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="K299" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="L299" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M299" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="N299" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O299" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P299" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="Q299" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="R299" s="4">
-        <v>96.7</v>
+        <v>26</v>
+      </c>
+      <c r="G299" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H299" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I299" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K299" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L299" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M299" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P299" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q299" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R299" s="7">
+        <v>0.19900000000000001</v>
       </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>46</v>
@@ -17650,58 +17626,58 @@
         <v>25</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>364</v>
+        <v>26</v>
       </c>
       <c r="G300" s="4">
-        <v>88.8</v>
+        <v>30.5</v>
       </c>
       <c r="H300" s="4">
-        <v>87.4</v>
+        <v>30.5</v>
       </c>
       <c r="I300" s="4">
-        <v>85.2</v>
+        <v>30.6</v>
       </c>
       <c r="J300" s="4">
-        <v>85.2</v>
+        <v>30.6</v>
       </c>
       <c r="K300" s="4">
-        <v>83.9</v>
+        <v>30.7</v>
       </c>
       <c r="L300" s="4">
-        <v>85.8</v>
+        <v>30.8</v>
       </c>
       <c r="M300" s="4">
-        <v>87.6</v>
+        <v>30.8</v>
       </c>
       <c r="N300" s="4">
-        <v>81.2</v>
+        <v>30.9</v>
       </c>
       <c r="O300" s="4">
-        <v>75.099999999999994</v>
+        <v>30.9</v>
       </c>
       <c r="P300" s="4">
-        <v>77.5</v>
+        <v>30.9</v>
       </c>
       <c r="Q300" s="4">
-        <v>80.3</v>
+        <v>30.9</v>
       </c>
       <c r="R300" s="4">
-        <v>72</v>
+        <v>30.9</v>
       </c>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" ht="39">
       <c r="A301" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>46</v>
@@ -17710,61 +17686,61 @@
         <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G301" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H301" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I301" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K301" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L301" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M301" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P301" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q301" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="R301" s="7">
-        <v>0.19900000000000001</v>
+        <v>145</v>
+      </c>
+      <c r="G301" s="6">
+        <v>28</v>
+      </c>
+      <c r="H301" s="6">
+        <v>27</v>
+      </c>
+      <c r="I301" s="6">
+        <v>26</v>
+      </c>
+      <c r="J301" s="6">
+        <v>25</v>
+      </c>
+      <c r="K301" s="6">
+        <v>24</v>
+      </c>
+      <c r="L301" s="6">
+        <v>23</v>
+      </c>
+      <c r="M301" s="6">
+        <v>22</v>
+      </c>
+      <c r="N301" s="6">
+        <v>22</v>
+      </c>
+      <c r="O301" s="6">
+        <v>22</v>
+      </c>
+      <c r="P301" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q301" s="6">
+        <v>19</v>
+      </c>
+      <c r="R301" s="6">
+        <v>17</v>
       </c>
       <c r="S301" s="3"/>
       <c r="T301" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" ht="39">
       <c r="A302" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>368</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>25</v>
@@ -17773,295 +17749,297 @@
         <v>26</v>
       </c>
       <c r="G302" s="4">
-        <v>30.5</v>
+        <v>64.7</v>
       </c>
       <c r="H302" s="4">
-        <v>30.5</v>
+        <v>65.7</v>
       </c>
       <c r="I302" s="4">
-        <v>30.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J302" s="4">
-        <v>30.6</v>
+        <v>70.3</v>
       </c>
       <c r="K302" s="4">
-        <v>30.7</v>
+        <v>71.5</v>
       </c>
       <c r="L302" s="4">
-        <v>30.8</v>
+        <v>72.7</v>
       </c>
       <c r="M302" s="4">
-        <v>30.8</v>
+        <v>73.5</v>
       </c>
       <c r="N302" s="4">
-        <v>30.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="O302" s="4">
-        <v>30.9</v>
+        <v>74</v>
       </c>
       <c r="P302" s="4">
-        <v>30.9</v>
+        <v>74.5</v>
       </c>
       <c r="Q302" s="4">
-        <v>30.9</v>
+        <v>74.8</v>
       </c>
       <c r="R302" s="4">
-        <v>30.9</v>
+        <v>75.2</v>
       </c>
       <c r="S302" s="3"/>
       <c r="T302" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G303" s="6">
-        <v>28</v>
-      </c>
-      <c r="H303" s="6">
-        <v>27</v>
-      </c>
-      <c r="I303" s="6">
-        <v>26</v>
-      </c>
-      <c r="J303" s="6">
-        <v>25</v>
-      </c>
-      <c r="K303" s="6">
-        <v>24</v>
-      </c>
-      <c r="L303" s="6">
-        <v>23</v>
-      </c>
-      <c r="M303" s="6">
-        <v>22</v>
-      </c>
-      <c r="N303" s="6">
-        <v>22</v>
-      </c>
-      <c r="O303" s="6">
-        <v>22</v>
-      </c>
-      <c r="P303" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q303" s="6">
-        <v>19</v>
-      </c>
-      <c r="R303" s="6">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G303" s="4">
+        <v>88</v>
+      </c>
+      <c r="H303" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I303" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J303" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K303" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L303" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M303" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N303" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O303" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P303" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q303" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="R303" s="4">
+        <v>94.6</v>
       </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G304" s="4">
-        <v>64.7</v>
+        <v>28.5</v>
       </c>
       <c r="H304" s="4">
-        <v>65.7</v>
+        <v>30.6</v>
       </c>
       <c r="I304" s="4">
-        <v>68.599999999999994</v>
+        <v>33.1</v>
       </c>
       <c r="J304" s="4">
-        <v>70.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="K304" s="4">
-        <v>71.5</v>
+        <v>37.4</v>
       </c>
       <c r="L304" s="4">
-        <v>72.7</v>
+        <v>39.6</v>
       </c>
       <c r="M304" s="4">
-        <v>73.5</v>
+        <v>41.2</v>
       </c>
       <c r="N304" s="4">
-        <v>73.599999999999994</v>
+        <v>42</v>
       </c>
       <c r="O304" s="4">
-        <v>74</v>
+        <v>42.9</v>
       </c>
       <c r="P304" s="4">
-        <v>74.5</v>
+        <v>44</v>
       </c>
       <c r="Q304" s="4">
-        <v>74.8</v>
+        <v>45.2</v>
       </c>
       <c r="R304" s="4">
-        <v>75.2</v>
+        <v>46.3</v>
       </c>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C305" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="D305" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G305" s="4">
-        <v>88</v>
-      </c>
-      <c r="H305" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="I305" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="J305" s="4">
-        <v>93.3</v>
-      </c>
-      <c r="K305" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="L305" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="M305" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="N305" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="O305" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="P305" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q305" s="4">
-        <v>94.7</v>
-      </c>
-      <c r="R305" s="4">
-        <v>94.6</v>
+      <c r="G305" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H305" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I305" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J305" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K305" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L305" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M305" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N305" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O305" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P305" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q305" s="5">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="R305" s="5">
+        <v>72.849999999999994</v>
       </c>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="29.25">
       <c r="A306" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C306" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G306" s="6">
+        <v>70</v>
+      </c>
+      <c r="H306" s="6">
+        <v>75</v>
+      </c>
+      <c r="I306" s="6">
+        <v>66</v>
+      </c>
+      <c r="J306" s="6">
+        <v>64</v>
+      </c>
+      <c r="K306" s="6">
+        <v>70</v>
+      </c>
+      <c r="L306" s="6">
+        <v>66</v>
+      </c>
+      <c r="M306" s="6">
+        <v>80</v>
+      </c>
+      <c r="N306" s="6">
+        <v>89</v>
+      </c>
+      <c r="O306" s="6">
+        <v>86</v>
+      </c>
+      <c r="P306" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q306" s="6">
+        <v>85</v>
+      </c>
+      <c r="R306" s="6">
+        <v>82</v>
+      </c>
+      <c r="S306" s="6">
+        <v>83</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="29.25">
+      <c r="A307" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D306" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F306" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G306" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="H306" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="I306" s="4">
-        <v>33.1</v>
-      </c>
-      <c r="J306" s="4">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K306" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="L306" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="M306" s="4">
-        <v>41.2</v>
-      </c>
-      <c r="N306" s="4">
-        <v>42</v>
-      </c>
-      <c r="O306" s="4">
-        <v>42.9</v>
-      </c>
-      <c r="P306" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q306" s="4">
-        <v>45.2</v>
-      </c>
-      <c r="R306" s="4">
-        <v>46.3</v>
-      </c>
-      <c r="S306" s="3"/>
-      <c r="T306" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C307" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18072,56 +18050,44 @@
       <c r="F307" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G307" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H307" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I307" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J307" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K307" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L307" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M307" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N307" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O307" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P307" s="5">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="Q307" s="5">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="R307" s="5">
-        <v>72.849999999999994</v>
-      </c>
+      <c r="G307" s="6">
+        <v>55</v>
+      </c>
+      <c r="H307" s="3"/>
+      <c r="I307" s="6">
+        <v>58</v>
+      </c>
+      <c r="J307" s="3"/>
+      <c r="K307" s="6">
+        <v>60</v>
+      </c>
+      <c r="L307" s="3"/>
+      <c r="M307" s="6">
+        <v>64</v>
+      </c>
+      <c r="N307" s="3"/>
+      <c r="O307" s="6">
+        <v>65</v>
+      </c>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="6">
+        <v>74</v>
+      </c>
+      <c r="R307" s="3"/>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>46</v>
@@ -18130,60 +18096,58 @@
         <v>25</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G308" s="6">
-        <v>70</v>
-      </c>
-      <c r="H308" s="6">
-        <v>75</v>
-      </c>
-      <c r="I308" s="6">
-        <v>66</v>
-      </c>
-      <c r="J308" s="6">
-        <v>64</v>
-      </c>
-      <c r="K308" s="6">
-        <v>70</v>
-      </c>
-      <c r="L308" s="6">
-        <v>66</v>
-      </c>
-      <c r="M308" s="6">
-        <v>80</v>
-      </c>
-      <c r="N308" s="6">
-        <v>89</v>
-      </c>
-      <c r="O308" s="6">
-        <v>86</v>
-      </c>
-      <c r="P308" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q308" s="6">
-        <v>85</v>
-      </c>
-      <c r="R308" s="6">
-        <v>82</v>
-      </c>
-      <c r="S308" s="6">
-        <v>83</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="H308" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I308" s="5">
+        <v>1</v>
+      </c>
+      <c r="J308" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K308" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L308" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M308" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N308" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O308" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P308" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="Q308" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="R308" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="S308" s="3"/>
       <c r="T308" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18192,46 +18156,54 @@
         <v>25</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>26</v>
+        <v>379</v>
       </c>
       <c r="G309" s="6">
-        <v>55</v>
-      </c>
-      <c r="H309" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="H309" s="6">
+        <v>830</v>
+      </c>
       <c r="I309" s="6">
-        <v>58</v>
-      </c>
-      <c r="J309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="J309" s="6">
+        <v>685</v>
+      </c>
       <c r="K309" s="6">
-        <v>60</v>
-      </c>
-      <c r="L309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="L309" s="6">
+        <v>685</v>
+      </c>
       <c r="M309" s="6">
-        <v>64</v>
-      </c>
-      <c r="N309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="N309" s="6">
+        <v>685</v>
+      </c>
       <c r="O309" s="6">
-        <v>65</v>
-      </c>
-      <c r="P309" s="3"/>
-      <c r="Q309" s="6">
-        <v>74</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="P309" s="6">
+        <v>685</v>
+      </c>
+      <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
       <c r="T309" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18243,177 +18215,181 @@
         <v>300</v>
       </c>
       <c r="G310" s="5">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="H310" s="5">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="I310" s="5">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="J310" s="5">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="K310" s="5">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
       <c r="L310" s="5">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="M310" s="5">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="N310" s="5">
-        <v>0.82</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O310" s="5">
-        <v>0.88</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P310" s="5">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
       <c r="Q310" s="5">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="R310" s="5">
-        <v>0.84</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="29.25">
       <c r="A311" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>382</v>
+        <v>26</v>
       </c>
       <c r="G311" s="6">
-        <v>830</v>
+        <v>10</v>
       </c>
       <c r="H311" s="6">
-        <v>830</v>
+        <v>9</v>
       </c>
       <c r="I311" s="6">
-        <v>685</v>
+        <v>11</v>
       </c>
       <c r="J311" s="6">
-        <v>685</v>
+        <v>11</v>
       </c>
       <c r="K311" s="6">
-        <v>685</v>
+        <v>15</v>
       </c>
       <c r="L311" s="6">
-        <v>685</v>
+        <v>16</v>
       </c>
       <c r="M311" s="6">
-        <v>685</v>
+        <v>19</v>
       </c>
       <c r="N311" s="6">
-        <v>685</v>
+        <v>21</v>
       </c>
       <c r="O311" s="6">
-        <v>685</v>
+        <v>25</v>
       </c>
       <c r="P311" s="6">
-        <v>685</v>
-      </c>
-      <c r="Q311" s="3"/>
-      <c r="R311" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q311" s="6">
+        <v>34</v>
+      </c>
+      <c r="R311" s="6">
+        <v>40</v>
+      </c>
       <c r="S311" s="3"/>
       <c r="T311" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="29.25">
       <c r="A312" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G312" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="H312" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I312" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J312" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K312" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L312" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="M312" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="N312" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O312" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P312" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="Q312" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="R312" s="5">
-        <v>0.28999999999999998</v>
+        <v>26</v>
+      </c>
+      <c r="G312" s="6">
+        <v>10</v>
+      </c>
+      <c r="H312" s="6">
+        <v>9</v>
+      </c>
+      <c r="I312" s="6">
+        <v>11</v>
+      </c>
+      <c r="J312" s="6">
+        <v>12</v>
+      </c>
+      <c r="K312" s="6">
+        <v>14</v>
+      </c>
+      <c r="L312" s="6">
+        <v>15</v>
+      </c>
+      <c r="M312" s="6">
+        <v>19</v>
+      </c>
+      <c r="N312" s="6">
+        <v>21</v>
+      </c>
+      <c r="O312" s="6">
+        <v>24</v>
+      </c>
+      <c r="P312" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q312" s="6">
+        <v>32</v>
+      </c>
+      <c r="R312" s="6">
+        <v>39</v>
       </c>
       <c r="S312" s="3"/>
       <c r="T312" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="29.25">
       <c r="A313" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>26</v>
@@ -18425,7 +18401,7 @@
         <v>9</v>
       </c>
       <c r="I313" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J313" s="6">
         <v>11</v>
@@ -18443,1051 +18419,1051 @@
         <v>21</v>
       </c>
       <c r="O313" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P313" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q313" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R313" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S313" s="3"/>
       <c r="T313" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="29.25">
       <c r="A314" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G314" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H314" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I314" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J314" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K314" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L314" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M314" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N314" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O314" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P314" s="6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q314" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R314" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S314" s="3"/>
       <c r="T314" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="29.25">
       <c r="A315" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G315" s="6">
+        <v>6</v>
+      </c>
+      <c r="H315" s="6">
+        <v>5</v>
+      </c>
+      <c r="I315" s="6">
+        <v>6</v>
+      </c>
+      <c r="J315" s="6">
+        <v>6</v>
+      </c>
+      <c r="K315" s="6">
+        <v>9</v>
+      </c>
+      <c r="L315" s="6">
         <v>10</v>
       </c>
-      <c r="H315" s="6">
-        <v>9</v>
-      </c>
-      <c r="I315" s="6">
-        <v>10</v>
-      </c>
-      <c r="J315" s="6">
-        <v>11</v>
-      </c>
-      <c r="K315" s="6">
-        <v>15</v>
-      </c>
-      <c r="L315" s="6">
-        <v>16</v>
-      </c>
       <c r="M315" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N315" s="6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O315" s="6">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P315" s="6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q315" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R315" s="6">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S315" s="3"/>
       <c r="T315" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="29.25">
       <c r="A316" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G316" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H316" s="6">
+        <v>6</v>
+      </c>
+      <c r="I316" s="6">
+        <v>8</v>
+      </c>
+      <c r="J316" s="6">
+        <v>9</v>
+      </c>
+      <c r="K316" s="6">
+        <v>9</v>
+      </c>
+      <c r="L316" s="6">
+        <v>8</v>
+      </c>
+      <c r="M316" s="6">
+        <v>9</v>
+      </c>
+      <c r="N316" s="6">
         <v>11</v>
       </c>
-      <c r="I316" s="6">
-        <v>13</v>
-      </c>
-      <c r="J316" s="6">
-        <v>15</v>
-      </c>
-      <c r="K316" s="6">
-        <v>18</v>
-      </c>
-      <c r="L316" s="6">
-        <v>19</v>
-      </c>
-      <c r="M316" s="6">
-        <v>23</v>
-      </c>
-      <c r="N316" s="6">
-        <v>26</v>
-      </c>
       <c r="O316" s="6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P316" s="6">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q316" s="6">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="R316" s="6">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S316" s="3"/>
       <c r="T316" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="29.25">
       <c r="A317" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G317" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H317" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I317" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J317" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K317" s="6">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L317" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M317" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N317" s="6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O317" s="6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P317" s="6">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="Q317" s="6">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="R317" s="6">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="S317" s="3"/>
       <c r="T317" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="29.25">
       <c r="A318" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G318" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H318" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I318" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J318" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K318" s="6">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L318" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M318" s="6">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N318" s="6">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="O318" s="6">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P318" s="6">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="Q318" s="6">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="R318" s="6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="S318" s="3"/>
       <c r="T318" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="29.25">
       <c r="A319" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G319" s="6">
+        <v>9</v>
+      </c>
+      <c r="H319" s="6">
+        <v>9</v>
+      </c>
+      <c r="I319" s="6">
+        <v>11</v>
+      </c>
+      <c r="J319" s="6">
+        <v>12</v>
+      </c>
+      <c r="K319" s="6">
+        <v>15</v>
+      </c>
+      <c r="L319" s="6">
+        <v>15</v>
+      </c>
+      <c r="M319" s="6">
         <v>18</v>
       </c>
-      <c r="H319" s="6">
-        <v>16</v>
-      </c>
-      <c r="I319" s="6">
+      <c r="N319" s="6">
         <v>19</v>
       </c>
-      <c r="J319" s="6">
-        <v>20</v>
-      </c>
-      <c r="K319" s="6">
-        <v>28</v>
-      </c>
-      <c r="L319" s="6">
-        <v>28</v>
-      </c>
-      <c r="M319" s="6">
+      <c r="O319" s="6">
+        <v>25</v>
+      </c>
+      <c r="P319" s="6">
         <v>32</v>
       </c>
-      <c r="N319" s="6">
+      <c r="Q319" s="6">
         <v>35</v>
       </c>
-      <c r="O319" s="6">
-        <v>39</v>
-      </c>
-      <c r="P319" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q319" s="6">
-        <v>53</v>
-      </c>
       <c r="R319" s="6">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="S319" s="3"/>
       <c r="T319" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="29.25">
       <c r="A320" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G320" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H320" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I320" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J320" s="6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K320" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L320" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M320" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N320" s="6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O320" s="6">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P320" s="6">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q320" s="6">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="R320" s="6">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="S320" s="3"/>
       <c r="T320" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="29.25">
       <c r="A321" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G321" s="6">
+        <v>2</v>
+      </c>
+      <c r="H321" s="6">
+        <v>2</v>
+      </c>
+      <c r="I321" s="6">
+        <v>2</v>
+      </c>
+      <c r="J321" s="6">
+        <v>2</v>
+      </c>
+      <c r="K321" s="6">
+        <v>4</v>
+      </c>
+      <c r="L321" s="6">
+        <v>3</v>
+      </c>
+      <c r="M321" s="6">
+        <v>4</v>
+      </c>
+      <c r="N321" s="6">
+        <v>5</v>
+      </c>
+      <c r="O321" s="6">
+        <v>6</v>
+      </c>
+      <c r="P321" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q321" s="6">
         <v>9</v>
       </c>
-      <c r="H321" s="6">
-        <v>9</v>
-      </c>
-      <c r="I321" s="6">
+      <c r="R321" s="6">
         <v>11</v>
-      </c>
-      <c r="J321" s="6">
-        <v>12</v>
-      </c>
-      <c r="K321" s="6">
-        <v>15</v>
-      </c>
-      <c r="L321" s="6">
-        <v>15</v>
-      </c>
-      <c r="M321" s="6">
-        <v>18</v>
-      </c>
-      <c r="N321" s="6">
-        <v>19</v>
-      </c>
-      <c r="O321" s="6">
-        <v>25</v>
-      </c>
-      <c r="P321" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q321" s="6">
-        <v>35</v>
-      </c>
-      <c r="R321" s="6">
-        <v>43</v>
       </c>
       <c r="S321" s="3"/>
       <c r="T321" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="29.25">
       <c r="A322" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G322" s="6">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H322" s="6">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I322" s="6">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J322" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K322" s="6">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="L322" s="6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M322" s="6">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N322" s="6">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O322" s="6">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="P322" s="6">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="Q322" s="6">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="R322" s="6">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S322" s="3"/>
       <c r="T322" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="29.25">
       <c r="A323" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G323" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H323" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I323" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J323" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K323" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L323" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M323" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N323" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O323" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P323" s="6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q323" s="6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="R323" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="S323" s="3"/>
       <c r="T323" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="29.25">
       <c r="A324" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G324" s="6">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H324" s="6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I324" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J324" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K324" s="6">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="L324" s="6">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="M324" s="6">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N324" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="O324" s="6">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="P324" s="6">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="Q324" s="6">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="R324" s="6">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="S324" s="3"/>
       <c r="T324" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="29.25">
       <c r="A325" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G325" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H325" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I325" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J325" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K325" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L325" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M325" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N325" s="6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O325" s="6">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P325" s="6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q325" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R325" s="6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="S325" s="3"/>
       <c r="T325" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="29.25">
       <c r="A326" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G326" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H326" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I326" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J326" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K326" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L326" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M326" s="6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N326" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O326" s="6">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="P326" s="6">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="Q326" s="6">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="R326" s="6">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="S326" s="3"/>
       <c r="T326" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="29.25">
       <c r="A327" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G327" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H327" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I327" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J327" s="6">
+        <v>7</v>
+      </c>
+      <c r="K327" s="6">
+        <v>7</v>
+      </c>
+      <c r="L327" s="6">
+        <v>7</v>
+      </c>
+      <c r="M327" s="6">
+        <v>7</v>
+      </c>
+      <c r="N327" s="6">
+        <v>11</v>
+      </c>
+      <c r="O327" s="6">
+        <v>10</v>
+      </c>
+      <c r="P327" s="6">
         <v>17</v>
       </c>
-      <c r="K327" s="6">
-        <v>21</v>
-      </c>
-      <c r="L327" s="6">
-        <v>23</v>
-      </c>
-      <c r="M327" s="6">
+      <c r="Q327" s="6">
         <v>25</v>
       </c>
-      <c r="N327" s="6">
-        <v>29</v>
-      </c>
-      <c r="O327" s="6">
-        <v>33</v>
-      </c>
-      <c r="P327" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q327" s="6">
-        <v>45</v>
-      </c>
       <c r="R327" s="6">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="S327" s="3"/>
       <c r="T327" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="29.25">
       <c r="A328" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G328" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H328" s="6">
+        <v>3</v>
+      </c>
+      <c r="I328" s="6">
+        <v>5</v>
+      </c>
+      <c r="J328" s="6">
+        <v>4</v>
+      </c>
+      <c r="K328" s="6">
+        <v>5</v>
+      </c>
+      <c r="L328" s="6">
+        <v>5</v>
+      </c>
+      <c r="M328" s="6">
+        <v>7</v>
+      </c>
+      <c r="N328" s="6">
+        <v>8</v>
+      </c>
+      <c r="O328" s="6">
+        <v>9</v>
+      </c>
+      <c r="P328" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q328" s="6">
         <v>14</v>
       </c>
-      <c r="I328" s="6">
-        <v>16</v>
-      </c>
-      <c r="J328" s="6">
-        <v>18</v>
-      </c>
-      <c r="K328" s="6">
-        <v>23</v>
-      </c>
-      <c r="L328" s="6">
-        <v>25</v>
-      </c>
-      <c r="M328" s="6">
-        <v>27</v>
-      </c>
-      <c r="N328" s="6">
-        <v>30</v>
-      </c>
-      <c r="O328" s="6">
-        <v>35</v>
-      </c>
-      <c r="P328" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q328" s="6">
-        <v>46</v>
-      </c>
       <c r="R328" s="6">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="S328" s="3"/>
       <c r="T328" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="29.25">
       <c r="A329" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B329" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C329" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="D329" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G329" s="6">
-        <v>8</v>
-      </c>
-      <c r="H329" s="6">
-        <v>5</v>
-      </c>
-      <c r="I329" s="6">
+      <c r="G329" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H329" s="4">
         <v>6</v>
       </c>
-      <c r="J329" s="6">
-        <v>7</v>
-      </c>
-      <c r="K329" s="6">
-        <v>7</v>
-      </c>
-      <c r="L329" s="6">
-        <v>7</v>
-      </c>
-      <c r="M329" s="6">
-        <v>7</v>
-      </c>
-      <c r="N329" s="6">
-        <v>11</v>
-      </c>
-      <c r="O329" s="6">
-        <v>10</v>
-      </c>
-      <c r="P329" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q329" s="6">
-        <v>25</v>
-      </c>
-      <c r="R329" s="6">
-        <v>22</v>
+      <c r="I329" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J329" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K329" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L329" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M329" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="N329" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="O329" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P329" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Q329" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R329" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="S329" s="3"/>
       <c r="T329" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="29.25">
       <c r="A330" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G330" s="6">
-        <v>4</v>
-      </c>
-      <c r="H330" s="6">
-        <v>3</v>
-      </c>
-      <c r="I330" s="6">
-        <v>5</v>
-      </c>
-      <c r="J330" s="6">
-        <v>4</v>
-      </c>
-      <c r="K330" s="6">
-        <v>5</v>
-      </c>
-      <c r="L330" s="6">
-        <v>5</v>
-      </c>
-      <c r="M330" s="6">
-        <v>7</v>
-      </c>
-      <c r="N330" s="6">
-        <v>8</v>
-      </c>
-      <c r="O330" s="6">
-        <v>9</v>
-      </c>
-      <c r="P330" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q330" s="6">
-        <v>14</v>
-      </c>
-      <c r="R330" s="6">
-        <v>17</v>
+        <v>388</v>
+      </c>
+      <c r="G330" s="5">
+        <v>377.75</v>
+      </c>
+      <c r="H330" s="5">
+        <v>417.47</v>
+      </c>
+      <c r="I330" s="5">
+        <v>421.06</v>
+      </c>
+      <c r="J330" s="5">
+        <v>487.12</v>
+      </c>
+      <c r="K330" s="5">
+        <v>451.84</v>
+      </c>
+      <c r="L330" s="5">
+        <v>440.89</v>
+      </c>
+      <c r="M330" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="N330" s="5">
+        <v>679.46</v>
+      </c>
+      <c r="O330" s="5">
+        <v>766.04</v>
+      </c>
+      <c r="P330" s="5">
+        <v>776.56</v>
+      </c>
+      <c r="Q330" s="5">
+        <v>829</v>
+      </c>
+      <c r="R330" s="5">
+        <v>983.51</v>
       </c>
       <c r="S330" s="3"/>
       <c r="T330" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>386</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>46</v>
@@ -19496,58 +19472,58 @@
         <v>25</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G331" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H331" s="4">
-        <v>6</v>
-      </c>
-      <c r="I331" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J331" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K331" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L331" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M331" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N331" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O331" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P331" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q331" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R331" s="4">
-        <v>4.0999999999999996</v>
+        <v>388</v>
+      </c>
+      <c r="G331" s="5">
+        <v>96.04</v>
+      </c>
+      <c r="H331" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="I331" s="5">
+        <v>111.55</v>
+      </c>
+      <c r="J331" s="5">
+        <v>127.11</v>
+      </c>
+      <c r="K331" s="5">
+        <v>82.28</v>
+      </c>
+      <c r="L331" s="5">
+        <v>100.19</v>
+      </c>
+      <c r="M331" s="5">
+        <v>148.99</v>
+      </c>
+      <c r="N331" s="5">
+        <v>222.11</v>
+      </c>
+      <c r="O331" s="5">
+        <v>244.93</v>
+      </c>
+      <c r="P331" s="5">
+        <v>223.31</v>
+      </c>
+      <c r="Q331" s="5">
+        <v>225.08</v>
+      </c>
+      <c r="R331" s="5">
+        <v>296.20999999999998</v>
       </c>
       <c r="S331" s="3"/>
       <c r="T331" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" ht="58.5">
       <c r="A332" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>46</v>
@@ -19556,190 +19532,69 @@
         <v>25</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>391</v>
+        <v>26</v>
       </c>
       <c r="G332" s="5">
-        <v>377.75</v>
+        <v>0.08</v>
       </c>
       <c r="H332" s="5">
-        <v>417.47</v>
+        <v>0.08</v>
       </c>
       <c r="I332" s="5">
-        <v>421.06</v>
+        <v>0.09</v>
       </c>
       <c r="J332" s="5">
-        <v>487.12</v>
+        <v>0.1</v>
       </c>
       <c r="K332" s="5">
-        <v>451.84</v>
+        <v>0.09</v>
       </c>
       <c r="L332" s="5">
-        <v>440.89</v>
+        <v>0.1</v>
       </c>
       <c r="M332" s="5">
-        <v>662.95</v>
+        <v>0.15</v>
       </c>
       <c r="N332" s="5">
-        <v>679.46</v>
+        <v>0.13</v>
       </c>
       <c r="O332" s="5">
-        <v>766.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P332" s="5">
-        <v>776.56</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q332" s="5">
-        <v>829</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R332" s="5">
-        <v>983.51</v>
+        <v>0.15</v>
       </c>
       <c r="S332" s="3"/>
       <c r="T332" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B333" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C333" s="2" t="s">
+    </row>
+    <row r="333" spans="1:20" ht="18" customHeight="1"/>
+    <row r="334" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A334" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="D333" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E333" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G333" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H333" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I333" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J333" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K333" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L333" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M333" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N333" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O333" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P333" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q333" s="5">
-        <v>225.08</v>
-      </c>
-      <c r="R333" s="5">
-        <v>296.20999999999998</v>
-      </c>
-      <c r="S333" s="3"/>
-      <c r="T333" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="334" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E334" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G334" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H334" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I334" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J334" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K334" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L334" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M334" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N334" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R334" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="S334" s="3"/>
-      <c r="T334" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B337" s="8"/>
-    </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B334" s="8"/>
+    </row>
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A334:B334"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/en/national_sdg_indicators.xlsx
+++ b/assets/excel/en/national_sdg_indicators.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="420">
   <si>
     <t>sdg.gov.pl/en</t>
   </si>
@@ -992,6 +997,72 @@
     <t>landfilling</t>
   </si>
   <si>
+    <t>Supporting cities in dealing with sudden changes, crises, both socio-economic and environmental, and guaranteeing safety and high quality of life for inhabitants</t>
+  </si>
+  <si>
+    <t>11.2.b Share of inhabitants using sewage systems in urban areas</t>
+  </si>
+  <si>
+    <t>11.2.c Share of inhabitants connected to water supply system in urban areas</t>
+  </si>
+  <si>
+    <t>11.2.d Share of population living in areas covered by revitalization processes in the total population in urban areas</t>
+  </si>
+  <si>
+    <t>11.2.e Share of degraded areas in the total area of urban gminas</t>
+  </si>
+  <si>
+    <t>Supporting fair and territorially sustainable economic growth by the pursuit and maintenance of the polycentric and hierarchical settlement structure of the country and creating more effective network connections between cities</t>
+  </si>
+  <si>
+    <t>11.3.a Share of area covered by local-land development plans in urban gminas</t>
+  </si>
+  <si>
+    <t>11.3.b Relation of the length of public transport lines in rural areas to the length of public transport lines in urban areas</t>
+  </si>
+  <si>
+    <t>11.3.c Range of the Index of Multimodal Accessibility of Transport in Functional Urban Areas</t>
+  </si>
+  <si>
+    <t>Building a sustainable, publicly accessible, safe and affordable transport system, especially through the development and prioritization of public transport</t>
+  </si>
+  <si>
+    <t>11.4.a Length of public transport lines per 1 thous. inhabitants</t>
+  </si>
+  <si>
+    <t>11.4.b Number of pedestrians and cyclists killed or seriously injured in road traffic accidents in a built-up area per 100 thous. population</t>
+  </si>
+  <si>
+    <t>11.4.c Number of passenger transport per 1 inhabitant of urban area</t>
+  </si>
+  <si>
+    <t>Fulfillment of housing needs of urban population by building a universal and accessible housing market, including the development of social housing</t>
+  </si>
+  <si>
+    <t>11.5.a Number of completed dwellings in urban areas per 1 thous. population</t>
+  </si>
+  <si>
+    <t>11.5.b Number of dwellings completed by public building societies and municipalities in urban areas per 1 thous. population</t>
+  </si>
+  <si>
+    <t>11.5.c Total number of households awaiting social renting in urban areas</t>
+  </si>
+  <si>
+    <t>11.5.d Total number of dwellings in gminas’ dwelling stocks in cities with powiat status</t>
+  </si>
+  <si>
+    <t>Improving air quality by reducing "low emission" (i.e. up to 40 m AGL ) i.a. from domestic boiler houses and road transport</t>
+  </si>
+  <si>
+    <t>11.6.a Total emission of particulates pollutants in cities with powiat status</t>
+  </si>
+  <si>
+    <t>11.6.b Total capacity of installed devices and installations to reduce pollution in cities with powiat status</t>
+  </si>
+  <si>
+    <t>11.6.c Number of agglomerations and cities with over 100 thous. inhabitants, where the value of average exposure indicator does not exceed the concentration threshold of exposure to PM 2.5 at 20 µg/m3</t>
+  </si>
+  <si>
     <t>Goal 12. Responsible consumption and production</t>
   </si>
   <si>
@@ -1055,6 +1126,18 @@
     <t>TJ</t>
   </si>
   <si>
+    <t>Enhancement of the role of adaptation to climate change as a means of combating climate change equivalent to mitigation</t>
+  </si>
+  <si>
+    <t>13.3.b National indicator of average exposure to PM2.5</t>
+  </si>
+  <si>
+    <t>Increasing the country's resilience to the effects of climate change</t>
+  </si>
+  <si>
+    <t>13.4.b Capacity of small water retention facilities</t>
+  </si>
+  <si>
     <t>Goal 14. Life below water</t>
   </si>
   <si>
@@ -1199,20 +1282,20 @@
     <t>17.2.a Official development assistance as a proportion of gross national income</t>
   </si>
   <si>
-    <t>Last update: 22-03-2023, 08:35</t>
+    <t>Last update: 04-04-2023, 13:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10809]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10809]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10809]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10809]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1404,6 +1487,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1424,7 +1515,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1487,7 +1578,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1519,9 +1610,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1553,6 +1645,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1728,15 +1821,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T354"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1749,17 +1842,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1821,7 +1914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="19.5">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1881,7 +1974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19.5">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1941,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19.5">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2001,7 +2094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="19.5">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="19.5">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2121,7 +2214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2181,7 +2274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2241,7 +2334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.5">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19.5">
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2361,7 +2454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19.5">
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2421,7 +2514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19.5">
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2481,7 +2574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="29.25">
+    <row r="15" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2539,7 +2632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="29.25">
+    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2597,7 +2690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="29.25">
+    <row r="17" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2655,7 +2748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="29.25">
+    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="19.5">
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2829,7 +2922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2885,7 +2978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2945,7 +3038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3061,7 +3154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3181,7 +3274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3241,7 +3334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="39">
+    <row r="28" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3299,7 +3392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3359,7 +3452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3417,7 +3510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="29.25">
+    <row r="31" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3568,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3533,7 +3626,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="29.25">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3593,7 +3686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3653,7 +3746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3713,7 +3806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3773,7 +3866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="97.5">
+    <row r="37" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3835,7 +3928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="97.5">
+    <row r="38" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3897,7 +3990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="97.5">
+    <row r="39" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3959,7 +4052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="97.5">
+    <row r="40" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -4021,7 +4114,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="97.5">
+    <row r="41" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -4083,7 +4176,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="97.5">
+    <row r="42" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4145,7 +4238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="29.25">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4187,7 +4280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="29.25">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4229,7 +4322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="29.25">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4271,7 +4364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="29.25">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4313,7 +4406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4373,7 +4466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4433,7 +4526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4493,7 +4586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4553,7 +4646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4613,7 +4706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4673,7 +4766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4733,7 +4826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4793,7 +4886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4853,7 +4946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4913,7 +5006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4973,7 +5066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -5033,7 +5126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -5093,7 +5186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -5153,7 +5246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5213,7 +5306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5273,7 +5366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5333,7 +5426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5393,7 +5486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5453,7 +5546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5513,7 +5606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5573,7 +5666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5633,7 +5726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5675,7 +5768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5717,7 +5810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="19.5">
+    <row r="71" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5777,7 +5870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5817,7 +5910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5857,7 +5950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5897,7 +5990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5937,7 +6030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5977,7 +6070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -6017,7 +6110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -6057,7 +6150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -6097,7 +6190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -6137,7 +6230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -6177,7 +6270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6217,7 +6310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6257,7 +6350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6297,7 +6390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6339,7 +6432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6381,7 +6474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6423,7 +6516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6465,7 +6558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6507,7 +6600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6549,7 +6642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6591,7 +6684,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6633,7 +6726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6675,7 +6768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6717,7 +6810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6759,7 +6852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6801,7 +6894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6843,7 +6936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6885,7 +6978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6927,7 +7020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6969,7 +7062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -7011,7 +7104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7053,7 +7146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -7095,7 +7188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -7137,7 +7230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -7179,7 +7272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -7221,7 +7314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7263,7 +7356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7305,7 +7398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7347,7 +7440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7389,7 +7482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7429,7 +7522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7469,7 +7562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7509,7 +7602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7571,7 +7664,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="29.25">
+    <row r="115" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7631,7 +7724,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7683,7 +7776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7735,7 +7828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7787,7 +7880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="19.5">
+    <row r="119" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7831,7 +7924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7891,7 +7984,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="39">
+    <row r="121" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>147</v>
       </c>
@@ -7951,7 +8044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>147</v>
       </c>
@@ -8011,7 +8104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="48.75">
+    <row r="123" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -8055,7 +8148,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="48.75">
+    <row r="124" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -8099,7 +8192,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="48.75">
+    <row r="125" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -8143,7 +8236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="48.75">
+    <row r="126" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -8187,7 +8280,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="48.75">
+    <row r="127" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -8231,7 +8324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="48.75">
+    <row r="128" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -8275,7 +8368,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
@@ -8335,7 +8428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>147</v>
       </c>
@@ -8395,7 +8488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
@@ -8455,7 +8548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="19.5">
+    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>147</v>
       </c>
@@ -8515,7 +8608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="19.5">
+    <row r="133" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>147</v>
       </c>
@@ -8575,7 +8668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="19.5">
+    <row r="134" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>147</v>
       </c>
@@ -8635,7 +8728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="19.5">
+    <row r="135" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
@@ -8695,7 +8788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="19.5">
+    <row r="136" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>147</v>
       </c>
@@ -8755,7 +8848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="19.5">
+    <row r="137" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
@@ -8815,7 +8908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="19.5">
+    <row r="138" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>147</v>
       </c>
@@ -8875,7 +8968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="19.5">
+    <row r="139" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -8935,7 +9028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="19.5">
+    <row r="140" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -8995,7 +9088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="19.5">
+    <row r="141" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
@@ -9055,7 +9148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="19.5">
+    <row r="142" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -9115,7 +9208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="58.5">
+    <row r="143" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
@@ -9155,7 +9248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="58.5">
+    <row r="144" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>147</v>
       </c>
@@ -9193,7 +9286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="58.5">
+    <row r="145" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -9231,7 +9324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="58.5">
+    <row r="146" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -9269,7 +9362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="58.5">
+    <row r="147" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -9307,7 +9400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="58.5">
+    <row r="148" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -9345,7 +9438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="58.5">
+    <row r="149" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -9383,7 +9476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="58.5">
+    <row r="150" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -9421,7 +9514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="58.5">
+    <row r="151" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>147</v>
       </c>
@@ -9459,7 +9552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="58.5">
+    <row r="152" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
@@ -9497,7 +9590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="58.5">
+    <row r="153" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
@@ -9535,7 +9628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="58.5">
+    <row r="154" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -9573,7 +9666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="58.5">
+    <row r="155" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>147</v>
       </c>
@@ -9611,7 +9704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="58.5">
+    <row r="156" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>147</v>
       </c>
@@ -9649,7 +9742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="58.5">
+    <row r="157" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>147</v>
       </c>
@@ -9687,7 +9780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="58.5">
+    <row r="158" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>147</v>
       </c>
@@ -9725,7 +9818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="58.5">
+    <row r="159" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>147</v>
       </c>
@@ -9763,7 +9856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="58.5">
+    <row r="160" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>147</v>
       </c>
@@ -9801,7 +9894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="58.5">
+    <row r="161" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>147</v>
       </c>
@@ -9839,7 +9932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="58.5">
+    <row r="162" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>147</v>
       </c>
@@ -9877,7 +9970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="58.5">
+    <row r="163" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
@@ -9915,7 +10008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="58.5">
+    <row r="164" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>147</v>
       </c>
@@ -9953,7 +10046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="58.5">
+    <row r="165" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>147</v>
       </c>
@@ -9991,7 +10084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="58.5">
+    <row r="166" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>147</v>
       </c>
@@ -10029,7 +10122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="58.5">
+    <row r="167" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>147</v>
       </c>
@@ -10067,7 +10160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>190</v>
       </c>
@@ -10127,7 +10220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>190</v>
       </c>
@@ -10187,7 +10280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>190</v>
       </c>
@@ -10247,7 +10340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
@@ -10307,7 +10400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="19.5">
+    <row r="172" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>190</v>
       </c>
@@ -10355,7 +10448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="39">
+    <row r="173" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>190</v>
       </c>
@@ -10403,7 +10496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="19.5">
+    <row r="174" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>190</v>
       </c>
@@ -10451,7 +10544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>190</v>
       </c>
@@ -10499,7 +10592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>190</v>
       </c>
@@ -10547,7 +10640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>190</v>
       </c>
@@ -10595,7 +10688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="39">
+    <row r="178" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>190</v>
       </c>
@@ -10643,7 +10736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>190</v>
       </c>
@@ -10703,7 +10796,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>190</v>
       </c>
@@ -10761,7 +10854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>190</v>
       </c>
@@ -10819,7 +10912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
@@ -10879,7 +10972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>190</v>
       </c>
@@ -10939,7 +11032,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>190</v>
       </c>
@@ -10999,7 +11092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="29.25">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>208</v>
       </c>
@@ -11057,7 +11150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="29.25">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>208</v>
       </c>
@@ -11117,7 +11210,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="39">
+    <row r="187" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>208</v>
       </c>
@@ -11177,7 +11270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="39">
+    <row r="188" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>208</v>
       </c>
@@ -11237,7 +11330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="39">
+    <row r="189" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>208</v>
       </c>
@@ -11297,7 +11390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="39">
+    <row r="190" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>208</v>
       </c>
@@ -11357,7 +11450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="29.25">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>217</v>
       </c>
@@ -11415,7 +11508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>217</v>
       </c>
@@ -11475,7 +11568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>217</v>
       </c>
@@ -11535,7 +11628,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="19.5">
+    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>217</v>
       </c>
@@ -11595,7 +11688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="19.5">
+    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>217</v>
       </c>
@@ -11655,7 +11748,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>217</v>
       </c>
@@ -11715,7 +11808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="39">
+    <row r="197" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>232</v>
       </c>
@@ -11773,7 +11866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="39">
+    <row r="198" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>232</v>
       </c>
@@ -11833,7 +11926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="39">
+    <row r="199" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>232</v>
       </c>
@@ -11889,7 +11982,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>232</v>
       </c>
@@ -11941,7 +12034,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>232</v>
       </c>
@@ -12001,7 +12094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>232</v>
       </c>
@@ -12061,7 +12154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>232</v>
       </c>
@@ -12121,7 +12214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>232</v>
       </c>
@@ -12181,7 +12274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>232</v>
       </c>
@@ -12241,7 +12334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>232</v>
       </c>
@@ -12301,7 +12394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>232</v>
       </c>
@@ -12361,7 +12454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>232</v>
       </c>
@@ -12421,7 +12514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>232</v>
       </c>
@@ -12481,7 +12574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>232</v>
       </c>
@@ -12541,7 +12634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>232</v>
       </c>
@@ -12601,7 +12694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>232</v>
       </c>
@@ -12661,7 +12754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>232</v>
       </c>
@@ -12721,7 +12814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>232</v>
       </c>
@@ -12781,7 +12874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>232</v>
       </c>
@@ -12841,7 +12934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>232</v>
       </c>
@@ -12901,7 +12994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>232</v>
       </c>
@@ -12961,7 +13054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="48.75">
+    <row r="218" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>232</v>
       </c>
@@ -13021,7 +13114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>232</v>
       </c>
@@ -13081,7 +13174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>232</v>
       </c>
@@ -13141,7 +13234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>232</v>
       </c>
@@ -13201,7 +13294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>232</v>
       </c>
@@ -13261,7 +13354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>232</v>
       </c>
@@ -13321,7 +13414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
@@ -13381,7 +13474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>232</v>
       </c>
@@ -13429,7 +13522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>232</v>
       </c>
@@ -13477,7 +13570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>232</v>
       </c>
@@ -13525,7 +13618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>232</v>
       </c>
@@ -13573,7 +13666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>232</v>
       </c>
@@ -13621,7 +13714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>232</v>
       </c>
@@ -13681,7 +13774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
@@ -13741,7 +13834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>232</v>
       </c>
@@ -13801,7 +13894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>232</v>
       </c>
@@ -13861,7 +13954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>232</v>
       </c>
@@ -13921,7 +14014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>232</v>
       </c>
@@ -13981,7 +14074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>232</v>
       </c>
@@ -14041,7 +14134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>232</v>
       </c>
@@ -14101,7 +14194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>232</v>
       </c>
@@ -14161,7 +14254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>232</v>
       </c>
@@ -14221,7 +14314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>232</v>
       </c>
@@ -14281,7 +14374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>232</v>
       </c>
@@ -14341,7 +14434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>232</v>
       </c>
@@ -14401,7 +14494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>232</v>
       </c>
@@ -14461,7 +14554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>232</v>
       </c>
@@ -14521,7 +14614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>232</v>
       </c>
@@ -14581,7 +14674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>232</v>
       </c>
@@ -14641,7 +14734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>232</v>
       </c>
@@ -14679,7 +14772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>232</v>
       </c>
@@ -14717,7 +14810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>232</v>
       </c>
@@ -14755,7 +14848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>232</v>
       </c>
@@ -14813,7 +14906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>232</v>
       </c>
@@ -14871,7 +14964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>232</v>
       </c>
@@ -14929,7 +15022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="29.25">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -14989,7 +15082,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="29.25">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>273</v>
       </c>
@@ -15049,7 +15142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="29.25">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>273</v>
       </c>
@@ -15109,7 +15202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="29.25">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>273</v>
       </c>
@@ -15169,7 +15262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="29.25">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>273</v>
       </c>
@@ -15227,7 +15320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="29.25">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>273</v>
       </c>
@@ -15287,7 +15380,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="29.25">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>273</v>
       </c>
@@ -15347,7 +15440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>273</v>
       </c>
@@ -15401,7 +15494,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="29.25">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>273</v>
       </c>
@@ -15461,7 +15554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="19.5">
+    <row r="262" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>292</v>
       </c>
@@ -15519,7 +15612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="19.5">
+    <row r="263" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>292</v>
       </c>
@@ -15579,7 +15672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>292</v>
       </c>
@@ -15633,7 +15726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>292</v>
       </c>
@@ -15693,7 +15786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>292</v>
       </c>
@@ -15743,7 +15836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>292</v>
       </c>
@@ -15793,7 +15886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="19.5">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>292</v>
       </c>
@@ -15839,7 +15932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="19.5">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>292</v>
       </c>
@@ -15885,7 +15978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="19.5">
+    <row r="270" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>292</v>
       </c>
@@ -15931,7 +16024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="19.5">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>292</v>
       </c>
@@ -15977,7 +16070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="19.5">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>292</v>
       </c>
@@ -16023,7 +16116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="19.5">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>292</v>
       </c>
@@ -16069,7 +16162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="29.25">
+    <row r="274" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>292</v>
       </c>
@@ -16115,7 +16208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="58.5">
+    <row r="275" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>309</v>
       </c>
@@ -16171,7 +16264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="58.5">
+    <row r="276" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>309</v>
       </c>
@@ -16231,7 +16324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="58.5">
+    <row r="277" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>309</v>
       </c>
@@ -16289,7 +16382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="58.5">
+    <row r="278" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>309</v>
       </c>
@@ -16349,7 +16442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="58.5">
+    <row r="279" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>309</v>
       </c>
@@ -16409,7 +16502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="58.5">
+    <row r="280" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>309</v>
       </c>
@@ -16469,7 +16562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="58.5">
+    <row r="281" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>309</v>
       </c>
@@ -16529,7 +16622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="58.5">
+    <row r="282" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>309</v>
       </c>
@@ -16589,7 +16682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="58.5">
+    <row r="283" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>309</v>
       </c>
@@ -16649,15 +16742,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="39">
+    <row r="284" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="C284" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16666,58 +16759,58 @@
         <v>25</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G284" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H284" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I284" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="J284" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K284" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L284" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M284" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="N284" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="O284" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="P284" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="Q284" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="R284" s="5">
-        <v>0.84</v>
+        <v>46</v>
+      </c>
+      <c r="G284" s="4">
+        <v>88</v>
+      </c>
+      <c r="H284" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I284" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J284" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K284" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L284" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M284" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N284" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O284" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P284" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q284" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="R284" s="4">
+        <v>94.6</v>
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" ht="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C285" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16726,58 +16819,58 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G285" s="5">
-        <v>16.32</v>
-      </c>
-      <c r="H285" s="5">
-        <v>20.22</v>
-      </c>
-      <c r="I285" s="5">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="J285" s="5">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="K285" s="5">
-        <v>16.41</v>
-      </c>
-      <c r="L285" s="5">
-        <v>16.28</v>
-      </c>
-      <c r="M285" s="5">
-        <v>16.82</v>
-      </c>
-      <c r="N285" s="5">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="O285" s="5">
-        <v>18.52</v>
-      </c>
-      <c r="P285" s="5">
-        <v>17.690000000000001</v>
-      </c>
-      <c r="Q285" s="5">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="R285" s="5">
-        <v>18.02</v>
+        <v>46</v>
+      </c>
+      <c r="G285" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="H285" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="I285" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="J285" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="K285" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="L285" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="M285" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="N285" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="O285" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="P285" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="Q285" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="R285" s="4">
+        <v>96.7</v>
       </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" ht="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>325</v>
-      </c>
       <c r="C286" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>46</v>
@@ -16786,58 +16879,38 @@
         <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G286" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="H286" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I286" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="J286" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="K286" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="L286" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="M286" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N286" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="O286" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P286" s="4">
-        <v>10.3</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
       <c r="Q286" s="4">
-        <v>7.5</v>
+        <v>15.7</v>
       </c>
       <c r="R286" s="4">
-        <v>9.1</v>
+        <v>14.8</v>
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" ht="39">
-      <c r="A287" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>46</v>
@@ -16846,56 +16919,38 @@
         <v>25</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G287" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H287" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I287" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J287" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K287" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L287" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M287" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N287" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O287" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P287" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="Q287" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="R287" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="R287" s="4">
+        <v>13.5</v>
+      </c>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" ht="48.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>46</v>
@@ -16904,56 +16959,58 @@
         <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>337</v>
+        <v>46</v>
       </c>
       <c r="G288" s="4">
-        <v>100</v>
+        <v>41.6</v>
       </c>
       <c r="H288" s="4">
-        <v>99.8</v>
+        <v>44.7</v>
       </c>
       <c r="I288" s="4">
-        <v>97.6</v>
+        <v>46.5</v>
       </c>
       <c r="J288" s="4">
-        <v>96.3</v>
+        <v>48.2</v>
       </c>
       <c r="K288" s="4">
-        <v>92.7</v>
+        <v>49.6</v>
       </c>
       <c r="L288" s="4">
-        <v>93.6</v>
+        <v>49.8</v>
       </c>
       <c r="M288" s="4">
-        <v>96.9</v>
+        <v>50.6</v>
       </c>
       <c r="N288" s="4">
-        <v>100.8</v>
+        <v>51.2</v>
       </c>
       <c r="O288" s="4">
-        <v>100.6</v>
+        <v>52.4</v>
       </c>
       <c r="P288" s="4">
-        <v>95.1</v>
+        <v>53.4</v>
       </c>
       <c r="Q288" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="R288" s="3"/>
+        <v>53.9</v>
+      </c>
+      <c r="R288" s="4">
+        <v>54.8</v>
+      </c>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="289" spans="1:20" ht="48.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -16962,56 +17019,58 @@
         <v>25</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="G289" s="4">
-        <v>100</v>
+        <v>41.6</v>
       </c>
       <c r="H289" s="4">
-        <v>99.7</v>
+        <v>44.7</v>
       </c>
       <c r="I289" s="4">
-        <v>97.9</v>
+        <v>46.5</v>
       </c>
       <c r="J289" s="4">
-        <v>96.9</v>
+        <v>48.2</v>
       </c>
       <c r="K289" s="4">
-        <v>93.8</v>
+        <v>49.6</v>
       </c>
       <c r="L289" s="4">
-        <v>94.2</v>
+        <v>49.8</v>
       </c>
       <c r="M289" s="4">
-        <v>96.9</v>
+        <v>50.6</v>
       </c>
       <c r="N289" s="4">
-        <v>100.4</v>
+        <v>51.2</v>
       </c>
       <c r="O289" s="4">
-        <v>100.1</v>
+        <v>52.4</v>
       </c>
       <c r="P289" s="4">
-        <v>94.6</v>
+        <v>53.4</v>
       </c>
       <c r="Q289" s="4">
-        <v>91.1</v>
-      </c>
-      <c r="R289" s="3"/>
+        <v>53.9</v>
+      </c>
+      <c r="R289" s="4">
+        <v>54.8</v>
+      </c>
       <c r="S289" s="3"/>
       <c r="T289" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17020,58 +17079,54 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" s="5">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H290" s="5">
-        <v>10.34</v>
-      </c>
-      <c r="I290" s="5">
-        <v>10.96</v>
-      </c>
-      <c r="J290" s="5">
-        <v>11.45</v>
-      </c>
-      <c r="K290" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L290" s="5">
-        <v>11.88</v>
-      </c>
-      <c r="M290" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N290" s="5">
-        <v>11.06</v>
-      </c>
-      <c r="O290" s="5">
-        <v>14.94</v>
-      </c>
-      <c r="P290" s="5">
-        <v>15.38</v>
-      </c>
-      <c r="Q290" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R290" s="5">
-        <v>15.62</v>
+        <v>46</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="J290" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="K290" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="L290" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="M290" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N290" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="O290" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="P290" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="Q290" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="R290" s="4">
+        <v>36.1</v>
       </c>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="291" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17080,304 +17135,282 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G291" s="6">
-        <v>563</v>
-      </c>
-      <c r="H291" s="6">
-        <v>531</v>
-      </c>
-      <c r="I291" s="6">
-        <v>661</v>
-      </c>
-      <c r="J291" s="6">
-        <v>778</v>
-      </c>
-      <c r="K291" s="6">
-        <v>847</v>
-      </c>
-      <c r="L291" s="6">
-        <v>909</v>
-      </c>
-      <c r="M291" s="6">
-        <v>930</v>
-      </c>
-      <c r="N291" s="6">
-        <v>946</v>
-      </c>
-      <c r="O291" s="6">
-        <v>991</v>
-      </c>
-      <c r="P291" s="6">
-        <v>1050</v>
-      </c>
-      <c r="Q291" s="6">
-        <v>1073</v>
-      </c>
-      <c r="R291" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="J291" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="K291" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="L291" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="M291" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="N291" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O291" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="P291" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="Q291" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="R291" s="5">
+        <v>1.58</v>
+      </c>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20" ht="78">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="6">
-        <v>40</v>
-      </c>
-      <c r="H292" s="6">
-        <v>60</v>
-      </c>
-      <c r="I292" s="6">
-        <v>40</v>
-      </c>
-      <c r="J292" s="6">
-        <v>40</v>
-      </c>
-      <c r="K292" s="6">
-        <v>40</v>
-      </c>
-      <c r="L292" s="6">
-        <v>40</v>
-      </c>
-      <c r="M292" s="6">
-        <v>60</v>
-      </c>
-      <c r="N292" s="6">
-        <v>40</v>
-      </c>
-      <c r="O292" s="6">
-        <v>40</v>
-      </c>
-      <c r="P292" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q292" s="6">
-        <v>60</v>
-      </c>
-      <c r="R292" s="6">
-        <v>67</v>
-      </c>
-      <c r="S292" s="6">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="M292" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="N292" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="O292" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="P292" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="Q292" s="4">
+        <v>9</v>
+      </c>
+      <c r="R292" s="3"/>
+      <c r="S292" s="3"/>
       <c r="T292" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20" ht="78">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G293" s="6">
-        <v>40</v>
-      </c>
-      <c r="H293" s="6">
-        <v>60</v>
-      </c>
-      <c r="I293" s="6">
-        <v>20</v>
-      </c>
-      <c r="J293" s="6">
-        <v>20</v>
-      </c>
-      <c r="K293" s="6">
-        <v>20</v>
-      </c>
-      <c r="L293" s="6">
-        <v>40</v>
-      </c>
-      <c r="M293" s="6">
-        <v>60</v>
-      </c>
-      <c r="N293" s="6">
-        <v>40</v>
-      </c>
-      <c r="O293" s="6">
+        <v>46</v>
+      </c>
+      <c r="G293" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="H293" s="4">
+        <v>166.2</v>
+      </c>
+      <c r="I293" s="4">
+        <v>165.6</v>
+      </c>
+      <c r="J293" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="K293" s="4">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="L293" s="4">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="M293" s="4">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N293" s="4">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="O293" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="P293" s="4">
+        <v>167.6</v>
+      </c>
+      <c r="Q293" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="R293" s="4">
+        <v>109.5</v>
+      </c>
+      <c r="S293" s="3"/>
+      <c r="T293" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E294" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P293" s="6">
+      <c r="F294" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G294" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H294" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I294" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J294" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K294" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L294" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M294" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N294" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O294" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P294" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="Q294" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R294" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="S294" s="3"/>
+      <c r="T294" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E295" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q293" s="6">
-        <v>20</v>
-      </c>
-      <c r="R293" s="6">
-        <v>17</v>
-      </c>
-      <c r="S293" s="6">
-        <v>0</v>
-      </c>
-      <c r="T293" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" ht="78">
-      <c r="A294" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G294" s="6">
-        <v>0</v>
-      </c>
-      <c r="H294" s="6">
-        <v>0</v>
-      </c>
-      <c r="I294" s="6">
-        <v>20</v>
-      </c>
-      <c r="J294" s="6">
-        <v>20</v>
-      </c>
-      <c r="K294" s="6">
-        <v>20</v>
-      </c>
-      <c r="L294" s="6">
-        <v>0</v>
-      </c>
-      <c r="M294" s="6">
-        <v>0</v>
-      </c>
-      <c r="N294" s="6">
-        <v>0</v>
-      </c>
-      <c r="O294" s="6">
-        <v>0</v>
-      </c>
-      <c r="P294" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q294" s="6">
-        <v>40</v>
-      </c>
-      <c r="R294" s="6">
-        <v>17</v>
-      </c>
-      <c r="S294" s="6">
-        <v>17</v>
-      </c>
-      <c r="T294" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="295" spans="1:20" ht="78">
-      <c r="A295" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>352</v>
-      </c>
       <c r="F295" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G295" s="6">
-        <v>60</v>
-      </c>
-      <c r="H295" s="6">
-        <v>40</v>
-      </c>
-      <c r="I295" s="6">
-        <v>60</v>
-      </c>
-      <c r="J295" s="6">
-        <v>60</v>
-      </c>
-      <c r="K295" s="6">
-        <v>60</v>
-      </c>
-      <c r="L295" s="6">
-        <v>60</v>
-      </c>
-      <c r="M295" s="6">
-        <v>40</v>
-      </c>
-      <c r="N295" s="6">
-        <v>60</v>
-      </c>
-      <c r="O295" s="6">
-        <v>75</v>
-      </c>
-      <c r="P295" s="6">
-        <v>75</v>
-      </c>
-      <c r="Q295" s="6">
-        <v>40</v>
-      </c>
-      <c r="R295" s="6">
-        <v>33</v>
-      </c>
-      <c r="S295" s="6">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G295" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H295" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I295" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J295" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K295" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="L295" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M295" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N295" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O295" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="P295" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q295" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="R295" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S295" s="3"/>
       <c r="T295" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="296" spans="1:20" ht="19.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>46</v>
@@ -17386,58 +17419,40 @@
         <v>25</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G296" s="4">
-        <v>100</v>
-      </c>
-      <c r="H296" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="I296" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="J296" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="K296" s="4">
-        <v>104.9</v>
-      </c>
-      <c r="L296" s="4">
-        <v>106</v>
-      </c>
-      <c r="M296" s="4">
-        <v>119.9</v>
-      </c>
-      <c r="N296" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="O296" s="4">
-        <v>130</v>
-      </c>
-      <c r="P296" s="4">
-        <v>189.5</v>
-      </c>
-      <c r="Q296" s="4">
-        <v>186.6</v>
-      </c>
-      <c r="R296" s="4">
-        <v>190.1</v>
+        <v>46</v>
+      </c>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="6">
+        <v>74110</v>
+      </c>
+      <c r="Q296" s="6">
+        <v>68436</v>
+      </c>
+      <c r="R296" s="6">
+        <v>65117</v>
       </c>
       <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="297" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>46</v>
@@ -17446,58 +17461,44 @@
         <v>25</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G297" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H297" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I297" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J297" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="K297" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="L297" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M297" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="N297" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O297" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P297" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="Q297" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="R297" s="4">
-        <v>96.7</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="6">
+        <v>546870</v>
+      </c>
+      <c r="K297" s="3"/>
+      <c r="L297" s="6">
+        <v>512116</v>
+      </c>
+      <c r="M297" s="6">
+        <v>501544</v>
+      </c>
+      <c r="N297" s="3"/>
+      <c r="O297" s="6">
+        <v>487452</v>
+      </c>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="6">
+        <v>469607</v>
+      </c>
+      <c r="R297" s="3"/>
       <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="298" spans="1:20" ht="48.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17506,58 +17507,58 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G298" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="H298" s="4">
-        <v>87.4</v>
-      </c>
-      <c r="I298" s="4">
-        <v>85.2</v>
-      </c>
-      <c r="J298" s="4">
-        <v>85.2</v>
-      </c>
-      <c r="K298" s="4">
-        <v>83.9</v>
-      </c>
-      <c r="L298" s="4">
-        <v>85.8</v>
-      </c>
-      <c r="M298" s="4">
-        <v>87.6</v>
-      </c>
-      <c r="N298" s="4">
-        <v>81.2</v>
-      </c>
-      <c r="O298" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="P298" s="4">
-        <v>77.5</v>
-      </c>
-      <c r="Q298" s="4">
-        <v>80.3</v>
-      </c>
-      <c r="R298" s="4">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="G298" s="6">
+        <v>22795</v>
+      </c>
+      <c r="H298" s="6">
+        <v>21359</v>
+      </c>
+      <c r="I298" s="6">
+        <v>20022</v>
+      </c>
+      <c r="J298" s="6">
+        <v>19636</v>
+      </c>
+      <c r="K298" s="6">
+        <v>18137</v>
+      </c>
+      <c r="L298" s="6">
+        <v>16793</v>
+      </c>
+      <c r="M298" s="6">
+        <v>15086</v>
+      </c>
+      <c r="N298" s="6">
+        <v>14505</v>
+      </c>
+      <c r="O298" s="6">
+        <v>14165</v>
+      </c>
+      <c r="P298" s="6">
+        <v>11466</v>
+      </c>
+      <c r="Q298" s="6">
+        <v>8767</v>
+      </c>
+      <c r="R298" s="6">
+        <v>8374</v>
       </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" ht="48.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>46</v>
@@ -17566,58 +17567,58 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G299" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H299" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I299" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K299" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L299" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M299" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P299" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q299" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="R299" s="7">
-        <v>0.19900000000000001</v>
+        <v>46</v>
+      </c>
+      <c r="G299" s="6">
+        <v>961</v>
+      </c>
+      <c r="H299" s="6">
+        <v>136730</v>
+      </c>
+      <c r="I299" s="6">
+        <v>11553</v>
+      </c>
+      <c r="J299" s="6">
+        <v>15701</v>
+      </c>
+      <c r="K299" s="6">
+        <v>2758</v>
+      </c>
+      <c r="L299" s="6">
+        <v>69422</v>
+      </c>
+      <c r="M299" s="6">
+        <v>44764</v>
+      </c>
+      <c r="N299" s="6">
+        <v>78118</v>
+      </c>
+      <c r="O299" s="6">
+        <v>14958</v>
+      </c>
+      <c r="P299" s="6">
+        <v>68943</v>
+      </c>
+      <c r="Q299" s="6">
+        <v>57788</v>
+      </c>
+      <c r="R299" s="6">
+        <v>27276</v>
       </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" ht="48.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>46</v>
@@ -17626,58 +17627,56 @@
         <v>25</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G300" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="H300" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="I300" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="J300" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="K300" s="4">
-        <v>30.7</v>
-      </c>
-      <c r="L300" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="M300" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="N300" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="O300" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="P300" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="Q300" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="R300" s="4">
-        <v>30.9</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G300" s="6">
+        <v>6</v>
+      </c>
+      <c r="H300" s="6">
+        <v>8</v>
+      </c>
+      <c r="I300" s="6">
+        <v>8</v>
+      </c>
+      <c r="J300" s="6">
+        <v>10</v>
+      </c>
+      <c r="K300" s="6">
+        <v>9</v>
+      </c>
+      <c r="L300" s="6">
+        <v>10</v>
+      </c>
+      <c r="M300" s="6">
+        <v>11</v>
+      </c>
+      <c r="N300" s="6">
+        <v>13</v>
+      </c>
+      <c r="O300" s="6">
+        <v>12</v>
+      </c>
+      <c r="P300" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q300" s="6">
+        <v>21</v>
+      </c>
+      <c r="R300" s="3"/>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" ht="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>46</v>
@@ -17686,238 +17685,236 @@
         <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G301" s="6">
-        <v>28</v>
-      </c>
-      <c r="H301" s="6">
-        <v>27</v>
-      </c>
-      <c r="I301" s="6">
-        <v>26</v>
-      </c>
-      <c r="J301" s="6">
-        <v>25</v>
-      </c>
-      <c r="K301" s="6">
-        <v>24</v>
-      </c>
-      <c r="L301" s="6">
-        <v>23</v>
-      </c>
-      <c r="M301" s="6">
-        <v>22</v>
-      </c>
-      <c r="N301" s="6">
-        <v>22</v>
-      </c>
-      <c r="O301" s="6">
-        <v>22</v>
-      </c>
-      <c r="P301" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q301" s="6">
-        <v>19</v>
-      </c>
-      <c r="R301" s="6">
-        <v>17</v>
+        <v>349</v>
+      </c>
+      <c r="G301" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H301" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I301" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J301" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K301" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="L301" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M301" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="N301" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="O301" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="P301" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="Q301" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="R301" s="5">
+        <v>0.84</v>
       </c>
       <c r="S301" s="3"/>
       <c r="T301" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="302" spans="1:20" ht="39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G302" s="4">
-        <v>64.7</v>
-      </c>
-      <c r="H302" s="4">
-        <v>65.7</v>
-      </c>
-      <c r="I302" s="4">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="J302" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="K302" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="L302" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="M302" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="N302" s="4">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="O302" s="4">
-        <v>74</v>
-      </c>
-      <c r="P302" s="4">
-        <v>74.5</v>
-      </c>
-      <c r="Q302" s="4">
-        <v>74.8</v>
-      </c>
-      <c r="R302" s="4">
-        <v>75.2</v>
+        <v>352</v>
+      </c>
+      <c r="G302" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="H302" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="I302" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J302" s="5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="K302" s="5">
+        <v>16.41</v>
+      </c>
+      <c r="L302" s="5">
+        <v>16.28</v>
+      </c>
+      <c r="M302" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="N302" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O302" s="5">
+        <v>18.52</v>
+      </c>
+      <c r="P302" s="5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Q302" s="5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R302" s="5">
+        <v>18.02</v>
       </c>
       <c r="S302" s="3"/>
       <c r="T302" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="303" spans="1:20" ht="39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G303" s="4">
-        <v>88</v>
+        <v>10.8</v>
       </c>
       <c r="H303" s="4">
-        <v>88.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I303" s="4">
-        <v>91.7</v>
+        <v>10.6</v>
       </c>
       <c r="J303" s="4">
-        <v>93.3</v>
+        <v>11.8</v>
       </c>
       <c r="K303" s="4">
-        <v>93.9</v>
+        <v>12.6</v>
       </c>
       <c r="L303" s="4">
-        <v>94.6</v>
+        <v>11.6</v>
       </c>
       <c r="M303" s="4">
-        <v>94.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N303" s="4">
-        <v>94.5</v>
+        <v>9.9</v>
       </c>
       <c r="O303" s="4">
-        <v>94.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P303" s="4">
-        <v>94.8</v>
+        <v>10.3</v>
       </c>
       <c r="Q303" s="4">
-        <v>94.7</v>
+        <v>7.5</v>
       </c>
       <c r="R303" s="4">
-        <v>94.6</v>
+        <v>9.1</v>
       </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="304" spans="1:20" ht="39">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G304" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="H304" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="I304" s="4">
-        <v>33.1</v>
-      </c>
-      <c r="J304" s="4">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K304" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="L304" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="M304" s="4">
-        <v>41.2</v>
-      </c>
-      <c r="N304" s="4">
-        <v>42</v>
-      </c>
-      <c r="O304" s="4">
-        <v>42.9</v>
-      </c>
-      <c r="P304" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q304" s="4">
-        <v>45.2</v>
-      </c>
-      <c r="R304" s="4">
-        <v>46.3</v>
-      </c>
+      <c r="G304" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H304" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="I304" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="J304" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="K304" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="L304" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="M304" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="N304" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="O304" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="P304" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="Q304" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="R304" s="3"/>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="305" spans="1:20" ht="39">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>46</v>
@@ -17926,58 +17923,56 @@
         <v>25</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G305" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H305" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I305" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J305" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K305" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L305" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M305" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N305" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O305" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P305" s="5">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="Q305" s="5">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="R305" s="5">
-        <v>72.849999999999994</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="G305" s="4">
+        <v>100</v>
+      </c>
+      <c r="H305" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I305" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="J305" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="K305" s="4">
+        <v>92.7</v>
+      </c>
+      <c r="L305" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="M305" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N305" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O305" s="4">
+        <v>100.6</v>
+      </c>
+      <c r="P305" s="4">
+        <v>95.1</v>
+      </c>
+      <c r="Q305" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="R305" s="3"/>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="306" spans="1:20" ht="29.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>46</v>
@@ -17986,60 +17981,56 @@
         <v>25</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G306" s="6">
-        <v>70</v>
-      </c>
-      <c r="H306" s="6">
-        <v>75</v>
-      </c>
-      <c r="I306" s="6">
-        <v>66</v>
-      </c>
-      <c r="J306" s="6">
-        <v>64</v>
-      </c>
-      <c r="K306" s="6">
-        <v>70</v>
-      </c>
-      <c r="L306" s="6">
-        <v>66</v>
-      </c>
-      <c r="M306" s="6">
-        <v>80</v>
-      </c>
-      <c r="N306" s="6">
-        <v>89</v>
-      </c>
-      <c r="O306" s="6">
-        <v>86</v>
-      </c>
-      <c r="P306" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q306" s="6">
-        <v>85</v>
-      </c>
-      <c r="R306" s="6">
-        <v>82</v>
-      </c>
-      <c r="S306" s="6">
-        <v>83</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="G306" s="4">
+        <v>100</v>
+      </c>
+      <c r="H306" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="I306" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J306" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="K306" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="L306" s="4">
+        <v>94.2</v>
+      </c>
+      <c r="M306" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N306" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="O306" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="P306" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="Q306" s="4">
+        <v>91.1</v>
+      </c>
+      <c r="R306" s="3"/>
+      <c r="S306" s="3"/>
       <c r="T306" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" ht="29.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18050,44 +18041,56 @@
       <c r="F307" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G307" s="6">
-        <v>55</v>
-      </c>
-      <c r="H307" s="3"/>
-      <c r="I307" s="6">
-        <v>58</v>
-      </c>
-      <c r="J307" s="3"/>
-      <c r="K307" s="6">
-        <v>60</v>
-      </c>
-      <c r="L307" s="3"/>
-      <c r="M307" s="6">
-        <v>64</v>
-      </c>
-      <c r="N307" s="3"/>
-      <c r="O307" s="6">
-        <v>65</v>
-      </c>
-      <c r="P307" s="3"/>
-      <c r="Q307" s="6">
-        <v>74</v>
-      </c>
-      <c r="R307" s="3"/>
+      <c r="G307" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H307" s="5">
+        <v>10.34</v>
+      </c>
+      <c r="I307" s="5">
+        <v>10.96</v>
+      </c>
+      <c r="J307" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="K307" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L307" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="M307" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N307" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="O307" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="P307" s="5">
+        <v>15.38</v>
+      </c>
+      <c r="Q307" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R307" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>46</v>
@@ -18096,58 +18099,56 @@
         <v>25</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="H308" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="I308" s="5">
-        <v>1</v>
-      </c>
-      <c r="J308" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="K308" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="L308" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="M308" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="N308" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="O308" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="P308" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="Q308" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="R308" s="5">
-        <v>0.84</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="G308" s="6">
+        <v>563</v>
+      </c>
+      <c r="H308" s="6">
+        <v>531</v>
+      </c>
+      <c r="I308" s="6">
+        <v>661</v>
+      </c>
+      <c r="J308" s="6">
+        <v>778</v>
+      </c>
+      <c r="K308" s="6">
+        <v>847</v>
+      </c>
+      <c r="L308" s="6">
+        <v>909</v>
+      </c>
+      <c r="M308" s="6">
+        <v>930</v>
+      </c>
+      <c r="N308" s="6">
+        <v>946</v>
+      </c>
+      <c r="O308" s="6">
+        <v>991</v>
+      </c>
+      <c r="P308" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Q308" s="6">
+        <v>1073</v>
+      </c>
+      <c r="R308" s="3"/>
       <c r="S308" s="3"/>
       <c r="T308" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="309" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18156,54 +18157,58 @@
         <v>25</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="G309" s="6">
-        <v>830</v>
+        <v>28</v>
       </c>
       <c r="H309" s="6">
-        <v>830</v>
+        <v>27</v>
       </c>
       <c r="I309" s="6">
-        <v>685</v>
+        <v>26</v>
       </c>
       <c r="J309" s="6">
-        <v>685</v>
+        <v>25</v>
       </c>
       <c r="K309" s="6">
-        <v>685</v>
+        <v>24</v>
       </c>
       <c r="L309" s="6">
-        <v>685</v>
+        <v>23</v>
       </c>
       <c r="M309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="N309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="O309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="P309" s="6">
-        <v>685</v>
-      </c>
-      <c r="Q309" s="3"/>
-      <c r="R309" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q309" s="6">
+        <v>19</v>
+      </c>
+      <c r="R309" s="6">
+        <v>17</v>
+      </c>
       <c r="S309" s="3"/>
       <c r="T309" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18212,352 +18217,358 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G310" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="H310" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I310" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J310" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K310" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L310" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="M310" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="N310" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O310" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P310" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="Q310" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="R310" s="5">
-        <v>0.28999999999999998</v>
+        <v>46</v>
+      </c>
+      <c r="G310" s="4">
+        <v>732401.6</v>
+      </c>
+      <c r="H310" s="4">
+        <v>740630</v>
+      </c>
+      <c r="I310" s="4">
+        <v>753624</v>
+      </c>
+      <c r="J310" s="4">
+        <v>752240.3</v>
+      </c>
+      <c r="K310" s="4">
+        <v>804401.8</v>
+      </c>
+      <c r="L310" s="4">
+        <v>830309.8</v>
+      </c>
+      <c r="M310" s="4">
+        <v>826034.2</v>
+      </c>
+      <c r="N310" s="3"/>
+      <c r="O310" s="4">
+        <v>846693.5</v>
+      </c>
+      <c r="P310" s="4">
+        <v>839607.4</v>
+      </c>
+      <c r="Q310" s="4">
+        <v>852978.8</v>
+      </c>
+      <c r="R310" s="4">
+        <v>855928.1</v>
       </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="311" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="E311" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="6">
+        <v>40</v>
+      </c>
+      <c r="H311" s="6">
+        <v>60</v>
+      </c>
+      <c r="I311" s="6">
+        <v>40</v>
+      </c>
+      <c r="J311" s="6">
+        <v>40</v>
+      </c>
+      <c r="K311" s="6">
+        <v>40</v>
+      </c>
+      <c r="L311" s="6">
+        <v>40</v>
+      </c>
+      <c r="M311" s="6">
+        <v>60</v>
+      </c>
+      <c r="N311" s="6">
+        <v>40</v>
+      </c>
+      <c r="O311" s="6">
+        <v>40</v>
+      </c>
+      <c r="P311" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q311" s="6">
+        <v>60</v>
+      </c>
+      <c r="R311" s="6">
+        <v>67</v>
+      </c>
+      <c r="S311" s="6">
+        <v>50</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G312" s="6">
+        <v>40</v>
+      </c>
+      <c r="H312" s="6">
+        <v>60</v>
+      </c>
+      <c r="I312" s="6">
+        <v>20</v>
+      </c>
+      <c r="J312" s="6">
+        <v>20</v>
+      </c>
+      <c r="K312" s="6">
+        <v>20</v>
+      </c>
+      <c r="L312" s="6">
+        <v>40</v>
+      </c>
+      <c r="M312" s="6">
+        <v>60</v>
+      </c>
+      <c r="N312" s="6">
+        <v>40</v>
+      </c>
+      <c r="O312" s="6">
         <v>25</v>
       </c>
-      <c r="F311" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G311" s="6">
-        <v>10</v>
-      </c>
-      <c r="H311" s="6">
-        <v>9</v>
-      </c>
-      <c r="I311" s="6">
-        <v>11</v>
-      </c>
-      <c r="J311" s="6">
-        <v>11</v>
-      </c>
-      <c r="K311" s="6">
-        <v>15</v>
-      </c>
-      <c r="L311" s="6">
-        <v>16</v>
-      </c>
-      <c r="M311" s="6">
-        <v>19</v>
-      </c>
-      <c r="N311" s="6">
-        <v>21</v>
-      </c>
-      <c r="O311" s="6">
+      <c r="P312" s="6">
         <v>25</v>
       </c>
-      <c r="P311" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q311" s="6">
-        <v>34</v>
-      </c>
-      <c r="R311" s="6">
+      <c r="Q312" s="6">
+        <v>20</v>
+      </c>
+      <c r="R312" s="6">
+        <v>17</v>
+      </c>
+      <c r="S312" s="6">
+        <v>0</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" s="6">
+        <v>0</v>
+      </c>
+      <c r="H313" s="6">
+        <v>0</v>
+      </c>
+      <c r="I313" s="6">
+        <v>20</v>
+      </c>
+      <c r="J313" s="6">
+        <v>20</v>
+      </c>
+      <c r="K313" s="6">
+        <v>20</v>
+      </c>
+      <c r="L313" s="6">
+        <v>0</v>
+      </c>
+      <c r="M313" s="6">
+        <v>0</v>
+      </c>
+      <c r="N313" s="6">
+        <v>0</v>
+      </c>
+      <c r="O313" s="6">
+        <v>0</v>
+      </c>
+      <c r="P313" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="6">
         <v>40</v>
       </c>
-      <c r="S311" s="3"/>
-      <c r="T311" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" ht="29.25">
-      <c r="A312" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G312" s="6">
-        <v>10</v>
-      </c>
-      <c r="H312" s="6">
-        <v>9</v>
-      </c>
-      <c r="I312" s="6">
-        <v>11</v>
-      </c>
-      <c r="J312" s="6">
-        <v>12</v>
-      </c>
-      <c r="K312" s="6">
-        <v>14</v>
-      </c>
-      <c r="L312" s="6">
-        <v>15</v>
-      </c>
-      <c r="M312" s="6">
-        <v>19</v>
-      </c>
-      <c r="N312" s="6">
-        <v>21</v>
-      </c>
-      <c r="O312" s="6">
-        <v>24</v>
-      </c>
-      <c r="P312" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q312" s="6">
-        <v>32</v>
-      </c>
-      <c r="R312" s="6">
-        <v>39</v>
-      </c>
-      <c r="S312" s="3"/>
-      <c r="T312" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" ht="29.25">
-      <c r="A313" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G313" s="6">
-        <v>10</v>
-      </c>
-      <c r="H313" s="6">
-        <v>9</v>
-      </c>
-      <c r="I313" s="6">
-        <v>10</v>
-      </c>
-      <c r="J313" s="6">
-        <v>11</v>
-      </c>
-      <c r="K313" s="6">
-        <v>15</v>
-      </c>
-      <c r="L313" s="6">
-        <v>16</v>
-      </c>
-      <c r="M313" s="6">
-        <v>19</v>
-      </c>
-      <c r="N313" s="6">
-        <v>21</v>
-      </c>
-      <c r="O313" s="6">
-        <v>26</v>
-      </c>
-      <c r="P313" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q313" s="6">
-        <v>35</v>
-      </c>
       <c r="R313" s="6">
-        <v>41</v>
-      </c>
-      <c r="S313" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="S313" s="6">
+        <v>17</v>
+      </c>
       <c r="T313" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" ht="29.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>31</v>
+        <v>374</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>32</v>
+        <v>378</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G314" s="6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="H314" s="6">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I314" s="6">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J314" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="K314" s="6">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="L314" s="6">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M314" s="6">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N314" s="6">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O314" s="6">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="P314" s="6">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Q314" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R314" s="6">
+        <v>33</v>
+      </c>
+      <c r="S314" s="6">
+        <v>50</v>
+      </c>
+      <c r="T314" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S314" s="3"/>
-      <c r="T314" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="315" spans="1:20" ht="29.25">
-      <c r="A315" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E315" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G315" s="6">
-        <v>6</v>
-      </c>
-      <c r="H315" s="6">
-        <v>5</v>
-      </c>
-      <c r="I315" s="6">
-        <v>6</v>
-      </c>
-      <c r="J315" s="6">
-        <v>6</v>
-      </c>
-      <c r="K315" s="6">
-        <v>9</v>
-      </c>
-      <c r="L315" s="6">
-        <v>10</v>
-      </c>
-      <c r="M315" s="6">
-        <v>12</v>
-      </c>
-      <c r="N315" s="6">
-        <v>13</v>
-      </c>
-      <c r="O315" s="6">
-        <v>17</v>
-      </c>
-      <c r="P315" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q315" s="6">
-        <v>25</v>
-      </c>
-      <c r="R315" s="6">
-        <v>31</v>
+        <v>362</v>
+      </c>
+      <c r="G315" s="4">
+        <v>100</v>
+      </c>
+      <c r="H315" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I315" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J315" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K315" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L315" s="4">
+        <v>106</v>
+      </c>
+      <c r="M315" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N315" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O315" s="4">
+        <v>130</v>
+      </c>
+      <c r="P315" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q315" s="4">
+        <v>186.6</v>
+      </c>
+      <c r="R315" s="4">
+        <v>190.1</v>
       </c>
       <c r="S315" s="3"/>
       <c r="T315" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="29.25">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>381</v>
@@ -18566,784 +18577,770 @@
         <v>382</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" s="6">
-        <v>10</v>
-      </c>
-      <c r="H316" s="6">
-        <v>6</v>
-      </c>
-      <c r="I316" s="6">
-        <v>8</v>
-      </c>
-      <c r="J316" s="6">
-        <v>9</v>
-      </c>
-      <c r="K316" s="6">
-        <v>9</v>
-      </c>
-      <c r="L316" s="6">
-        <v>8</v>
-      </c>
-      <c r="M316" s="6">
-        <v>9</v>
-      </c>
-      <c r="N316" s="6">
-        <v>11</v>
-      </c>
-      <c r="O316" s="6">
-        <v>16</v>
-      </c>
-      <c r="P316" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q316" s="6">
-        <v>21</v>
-      </c>
-      <c r="R316" s="6">
-        <v>27</v>
+        <v>383</v>
+      </c>
+      <c r="G316" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H316" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I316" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J316" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K316" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L316" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M316" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N316" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O316" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P316" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q316" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="R316" s="4">
+        <v>96.7</v>
       </c>
       <c r="S316" s="3"/>
       <c r="T316" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="29.25">
+    <row r="317" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G317" s="6">
-        <v>18</v>
-      </c>
-      <c r="H317" s="6">
-        <v>16</v>
-      </c>
-      <c r="I317" s="6">
-        <v>19</v>
-      </c>
-      <c r="J317" s="6">
-        <v>20</v>
-      </c>
-      <c r="K317" s="6">
-        <v>28</v>
-      </c>
-      <c r="L317" s="6">
-        <v>28</v>
-      </c>
-      <c r="M317" s="6">
-        <v>32</v>
-      </c>
-      <c r="N317" s="6">
-        <v>35</v>
-      </c>
-      <c r="O317" s="6">
-        <v>39</v>
-      </c>
-      <c r="P317" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q317" s="6">
-        <v>53</v>
-      </c>
-      <c r="R317" s="6">
-        <v>60</v>
+        <v>387</v>
+      </c>
+      <c r="G317" s="4">
+        <v>88.8</v>
+      </c>
+      <c r="H317" s="4">
+        <v>87.4</v>
+      </c>
+      <c r="I317" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="J317" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="K317" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="L317" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="M317" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="N317" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="O317" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P317" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="Q317" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="R317" s="4">
+        <v>72</v>
       </c>
       <c r="S317" s="3"/>
       <c r="T317" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="318" spans="1:20" ht="29.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G318" s="6">
-        <v>13</v>
-      </c>
-      <c r="H318" s="6">
-        <v>13</v>
-      </c>
-      <c r="I318" s="6">
-        <v>16</v>
-      </c>
-      <c r="J318" s="6">
-        <v>19</v>
-      </c>
-      <c r="K318" s="6">
-        <v>24</v>
-      </c>
-      <c r="L318" s="6">
-        <v>25</v>
-      </c>
-      <c r="M318" s="6">
-        <v>27</v>
-      </c>
-      <c r="N318" s="6">
-        <v>33</v>
-      </c>
-      <c r="O318" s="6">
-        <v>36</v>
-      </c>
-      <c r="P318" s="6">
-        <v>46</v>
-      </c>
-      <c r="Q318" s="6">
-        <v>48</v>
-      </c>
-      <c r="R318" s="6">
-        <v>57</v>
+      <c r="G318" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H318" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I318" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K318" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L318" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M318" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P318" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q318" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R318" s="7">
+        <v>0.19900000000000001</v>
       </c>
       <c r="S318" s="3"/>
       <c r="T318" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" ht="29.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G319" s="6">
-        <v>9</v>
-      </c>
-      <c r="H319" s="6">
-        <v>9</v>
-      </c>
-      <c r="I319" s="6">
-        <v>11</v>
-      </c>
-      <c r="J319" s="6">
-        <v>12</v>
-      </c>
-      <c r="K319" s="6">
-        <v>15</v>
-      </c>
-      <c r="L319" s="6">
-        <v>15</v>
-      </c>
-      <c r="M319" s="6">
-        <v>18</v>
-      </c>
-      <c r="N319" s="6">
-        <v>19</v>
-      </c>
-      <c r="O319" s="6">
-        <v>25</v>
-      </c>
-      <c r="P319" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q319" s="6">
-        <v>35</v>
-      </c>
-      <c r="R319" s="6">
-        <v>43</v>
+      <c r="G319" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="H319" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="I319" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="J319" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="K319" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="L319" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="M319" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="N319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="O319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="P319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="Q319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="R319" s="4">
+        <v>30.9</v>
       </c>
       <c r="S319" s="3"/>
       <c r="T319" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="29.25">
+    <row r="320" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D320" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G320" s="6">
+        <v>28</v>
+      </c>
+      <c r="H320" s="6">
+        <v>27</v>
+      </c>
+      <c r="I320" s="6">
+        <v>26</v>
+      </c>
+      <c r="J320" s="6">
+        <v>25</v>
+      </c>
+      <c r="K320" s="6">
         <v>24</v>
       </c>
-      <c r="E320" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G320" s="6">
-        <v>4</v>
-      </c>
-      <c r="H320" s="6">
-        <v>5</v>
-      </c>
-      <c r="I320" s="6">
-        <v>6</v>
-      </c>
-      <c r="J320" s="6">
-        <v>6</v>
-      </c>
-      <c r="K320" s="6">
-        <v>7</v>
-      </c>
       <c r="L320" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M320" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N320" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O320" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P320" s="6">
         <v>21</v>
       </c>
       <c r="Q320" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R320" s="6">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="S320" s="3"/>
       <c r="T320" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="321" spans="1:20" ht="29.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G321" s="6">
-        <v>2</v>
-      </c>
-      <c r="H321" s="6">
-        <v>2</v>
-      </c>
-      <c r="I321" s="6">
-        <v>2</v>
-      </c>
-      <c r="J321" s="6">
-        <v>2</v>
-      </c>
-      <c r="K321" s="6">
-        <v>4</v>
-      </c>
-      <c r="L321" s="6">
-        <v>3</v>
-      </c>
-      <c r="M321" s="6">
-        <v>4</v>
-      </c>
-      <c r="N321" s="6">
-        <v>5</v>
-      </c>
-      <c r="O321" s="6">
-        <v>6</v>
-      </c>
-      <c r="P321" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q321" s="6">
-        <v>9</v>
-      </c>
-      <c r="R321" s="6">
-        <v>11</v>
+      <c r="G321" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="H321" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="I321" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J321" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="K321" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="L321" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="M321" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="N321" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O321" s="4">
+        <v>74</v>
+      </c>
+      <c r="P321" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="Q321" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="R321" s="4">
+        <v>75.2</v>
       </c>
       <c r="S321" s="3"/>
       <c r="T321" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="29.25">
+    <row r="322" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G322" s="6">
-        <v>27</v>
-      </c>
-      <c r="H322" s="6">
-        <v>27</v>
-      </c>
-      <c r="I322" s="6">
-        <v>28</v>
-      </c>
-      <c r="J322" s="6">
-        <v>30</v>
-      </c>
-      <c r="K322" s="6">
-        <v>39</v>
-      </c>
-      <c r="L322" s="6">
-        <v>41</v>
-      </c>
-      <c r="M322" s="6">
-        <v>45</v>
-      </c>
-      <c r="N322" s="6">
-        <v>49</v>
-      </c>
-      <c r="O322" s="6">
-        <v>55</v>
-      </c>
-      <c r="P322" s="6">
-        <v>64</v>
-      </c>
-      <c r="Q322" s="6">
-        <v>62</v>
-      </c>
-      <c r="R322" s="6">
-        <v>71</v>
+      <c r="G322" s="4">
+        <v>88</v>
+      </c>
+      <c r="H322" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I322" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J322" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K322" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L322" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M322" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N322" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O322" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P322" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q322" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="R322" s="4">
+        <v>94.6</v>
       </c>
       <c r="S322" s="3"/>
       <c r="T322" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="29.25">
+    <row r="323" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G323" s="6">
-        <v>7</v>
-      </c>
-      <c r="H323" s="6">
-        <v>6</v>
-      </c>
-      <c r="I323" s="6">
-        <v>8</v>
-      </c>
-      <c r="J323" s="6">
-        <v>8</v>
-      </c>
-      <c r="K323" s="6">
-        <v>10</v>
-      </c>
-      <c r="L323" s="6">
-        <v>10</v>
-      </c>
-      <c r="M323" s="6">
-        <v>12</v>
-      </c>
-      <c r="N323" s="6">
-        <v>14</v>
-      </c>
-      <c r="O323" s="6">
-        <v>17</v>
-      </c>
-      <c r="P323" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q323" s="6">
-        <v>25</v>
-      </c>
-      <c r="R323" s="6">
-        <v>29</v>
+      <c r="G323" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H323" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="I323" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="J323" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K323" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="L323" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="M323" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="N323" s="4">
+        <v>42</v>
+      </c>
+      <c r="O323" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P323" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q323" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="R323" s="4">
+        <v>46.3</v>
       </c>
       <c r="S323" s="3"/>
       <c r="T323" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="29.25">
+    <row r="324" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G324" s="6">
-        <v>2</v>
-      </c>
-      <c r="H324" s="6">
-        <v>1</v>
-      </c>
-      <c r="I324" s="6">
-        <v>2</v>
-      </c>
-      <c r="J324" s="6">
-        <v>1</v>
-      </c>
-      <c r="K324" s="6">
-        <v>1</v>
-      </c>
-      <c r="L324" s="6">
-        <v>2</v>
-      </c>
-      <c r="M324" s="6">
-        <v>2</v>
-      </c>
-      <c r="N324" s="6">
-        <v>2</v>
-      </c>
-      <c r="O324" s="6">
-        <v>4</v>
-      </c>
-      <c r="P324" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q324" s="6">
-        <v>5</v>
-      </c>
-      <c r="R324" s="6">
-        <v>8</v>
+      <c r="G324" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H324" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I324" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J324" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K324" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L324" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M324" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N324" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O324" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P324" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q324" s="5">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="R324" s="5">
+        <v>72.849999999999994</v>
       </c>
       <c r="S324" s="3"/>
       <c r="T324" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="29.25">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G325" s="6">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H325" s="6">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I325" s="6">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J325" s="6">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K325" s="6">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="L325" s="6">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M325" s="6">
+        <v>80</v>
+      </c>
+      <c r="N325" s="6">
+        <v>89</v>
+      </c>
+      <c r="O325" s="6">
+        <v>86</v>
+      </c>
+      <c r="P325" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q325" s="6">
+        <v>85</v>
+      </c>
+      <c r="R325" s="6">
+        <v>82</v>
+      </c>
+      <c r="S325" s="6">
+        <v>83</v>
+      </c>
+      <c r="T325" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E326" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N325" s="6">
-        <v>29</v>
-      </c>
-      <c r="O325" s="6">
-        <v>33</v>
-      </c>
-      <c r="P325" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q325" s="6">
-        <v>45</v>
-      </c>
-      <c r="R325" s="6">
-        <v>52</v>
-      </c>
-      <c r="S325" s="3"/>
-      <c r="T325" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="326" spans="1:20" ht="29.25">
-      <c r="A326" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="F326" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G326" s="6">
-        <v>15</v>
-      </c>
-      <c r="H326" s="6">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H326" s="3"/>
       <c r="I326" s="6">
-        <v>16</v>
-      </c>
-      <c r="J326" s="6">
-        <v>18</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J326" s="3"/>
       <c r="K326" s="6">
-        <v>23</v>
-      </c>
-      <c r="L326" s="6">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L326" s="3"/>
       <c r="M326" s="6">
-        <v>27</v>
-      </c>
-      <c r="N326" s="6">
-        <v>30</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N326" s="3"/>
       <c r="O326" s="6">
-        <v>35</v>
-      </c>
-      <c r="P326" s="6">
-        <v>44</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P326" s="3"/>
       <c r="Q326" s="6">
-        <v>46</v>
-      </c>
-      <c r="R326" s="6">
-        <v>54</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="R326" s="3"/>
       <c r="S326" s="3"/>
       <c r="T326" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="327" spans="1:20" ht="29.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G327" s="6">
-        <v>8</v>
-      </c>
-      <c r="H327" s="6">
-        <v>5</v>
-      </c>
-      <c r="I327" s="6">
-        <v>6</v>
-      </c>
-      <c r="J327" s="6">
-        <v>7</v>
-      </c>
-      <c r="K327" s="6">
-        <v>7</v>
-      </c>
-      <c r="L327" s="6">
-        <v>7</v>
-      </c>
-      <c r="M327" s="6">
-        <v>7</v>
-      </c>
-      <c r="N327" s="6">
-        <v>11</v>
-      </c>
-      <c r="O327" s="6">
-        <v>10</v>
-      </c>
-      <c r="P327" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q327" s="6">
-        <v>25</v>
-      </c>
-      <c r="R327" s="6">
-        <v>22</v>
+        <v>300</v>
+      </c>
+      <c r="G327" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="H327" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I327" s="5">
+        <v>1</v>
+      </c>
+      <c r="J327" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K327" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L327" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M327" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N327" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O327" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P327" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="Q327" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="R327" s="5">
+        <v>0.84</v>
       </c>
       <c r="S327" s="3"/>
       <c r="T327" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="328" spans="1:20" ht="29.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="G328" s="6">
-        <v>4</v>
+        <v>830</v>
       </c>
       <c r="H328" s="6">
-        <v>3</v>
+        <v>830</v>
       </c>
       <c r="I328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="J328" s="6">
-        <v>4</v>
+        <v>685</v>
       </c>
       <c r="K328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="L328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="M328" s="6">
-        <v>7</v>
+        <v>685</v>
       </c>
       <c r="N328" s="6">
-        <v>8</v>
+        <v>685</v>
       </c>
       <c r="O328" s="6">
-        <v>9</v>
+        <v>685</v>
       </c>
       <c r="P328" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q328" s="6">
-        <v>14</v>
-      </c>
-      <c r="R328" s="6">
-        <v>17</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
       <c r="S328" s="3"/>
       <c r="T328" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="329" spans="1:20" ht="29.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>46</v>
@@ -19352,243 +19349,1383 @@
         <v>25</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G329" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H329" s="4">
-        <v>6</v>
-      </c>
-      <c r="I329" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J329" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K329" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L329" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M329" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N329" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O329" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P329" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q329" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R329" s="4">
-        <v>4.0999999999999996</v>
+        <v>300</v>
+      </c>
+      <c r="G329" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H329" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I329" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="J329" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K329" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L329" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="M329" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="N329" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O329" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P329" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Q329" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="R329" s="5">
+        <v>0.28999999999999998</v>
       </c>
       <c r="S329" s="3"/>
       <c r="T329" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="330" spans="1:20" ht="29.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G330" s="5">
-        <v>377.75</v>
-      </c>
-      <c r="H330" s="5">
-        <v>417.47</v>
-      </c>
-      <c r="I330" s="5">
-        <v>421.06</v>
-      </c>
-      <c r="J330" s="5">
-        <v>487.12</v>
-      </c>
-      <c r="K330" s="5">
-        <v>451.84</v>
-      </c>
-      <c r="L330" s="5">
-        <v>440.89</v>
-      </c>
-      <c r="M330" s="5">
-        <v>662.95</v>
-      </c>
-      <c r="N330" s="5">
-        <v>679.46</v>
-      </c>
-      <c r="O330" s="5">
-        <v>766.04</v>
-      </c>
-      <c r="P330" s="5">
-        <v>776.56</v>
-      </c>
-      <c r="Q330" s="5">
-        <v>829</v>
-      </c>
-      <c r="R330" s="5">
-        <v>983.51</v>
+        <v>26</v>
+      </c>
+      <c r="G330" s="6">
+        <v>10</v>
+      </c>
+      <c r="H330" s="6">
+        <v>9</v>
+      </c>
+      <c r="I330" s="6">
+        <v>11</v>
+      </c>
+      <c r="J330" s="6">
+        <v>11</v>
+      </c>
+      <c r="K330" s="6">
+        <v>15</v>
+      </c>
+      <c r="L330" s="6">
+        <v>16</v>
+      </c>
+      <c r="M330" s="6">
+        <v>19</v>
+      </c>
+      <c r="N330" s="6">
+        <v>21</v>
+      </c>
+      <c r="O330" s="6">
+        <v>25</v>
+      </c>
+      <c r="P330" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q330" s="6">
+        <v>34</v>
+      </c>
+      <c r="R330" s="6">
+        <v>40</v>
       </c>
       <c r="S330" s="3"/>
       <c r="T330" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="331" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="G331" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H331" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I331" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J331" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K331" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L331" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M331" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N331" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O331" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P331" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q331" s="5">
-        <v>225.08</v>
-      </c>
-      <c r="R331" s="5">
-        <v>296.20999999999998</v>
+        <v>26</v>
+      </c>
+      <c r="G331" s="6">
+        <v>10</v>
+      </c>
+      <c r="H331" s="6">
+        <v>9</v>
+      </c>
+      <c r="I331" s="6">
+        <v>11</v>
+      </c>
+      <c r="J331" s="6">
+        <v>12</v>
+      </c>
+      <c r="K331" s="6">
+        <v>14</v>
+      </c>
+      <c r="L331" s="6">
+        <v>15</v>
+      </c>
+      <c r="M331" s="6">
+        <v>19</v>
+      </c>
+      <c r="N331" s="6">
+        <v>21</v>
+      </c>
+      <c r="O331" s="6">
+        <v>24</v>
+      </c>
+      <c r="P331" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q331" s="6">
+        <v>32</v>
+      </c>
+      <c r="R331" s="6">
+        <v>39</v>
       </c>
       <c r="S331" s="3"/>
       <c r="T331" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="332" spans="1:20" ht="58.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G332" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H332" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I332" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J332" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K332" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L332" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M332" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N332" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R332" s="5">
-        <v>0.15</v>
+      <c r="G332" s="6">
+        <v>10</v>
+      </c>
+      <c r="H332" s="6">
+        <v>9</v>
+      </c>
+      <c r="I332" s="6">
+        <v>10</v>
+      </c>
+      <c r="J332" s="6">
+        <v>11</v>
+      </c>
+      <c r="K332" s="6">
+        <v>15</v>
+      </c>
+      <c r="L332" s="6">
+        <v>16</v>
+      </c>
+      <c r="M332" s="6">
+        <v>19</v>
+      </c>
+      <c r="N332" s="6">
+        <v>21</v>
+      </c>
+      <c r="O332" s="6">
+        <v>26</v>
+      </c>
+      <c r="P332" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q332" s="6">
+        <v>35</v>
+      </c>
+      <c r="R332" s="6">
+        <v>41</v>
       </c>
       <c r="S332" s="3"/>
       <c r="T332" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="333" spans="1:20" ht="18" customHeight="1"/>
-    <row r="334" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A334" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B334" s="8"/>
-    </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333" s="6">
+        <v>12</v>
+      </c>
+      <c r="H333" s="6">
+        <v>11</v>
+      </c>
+      <c r="I333" s="6">
+        <v>13</v>
+      </c>
+      <c r="J333" s="6">
+        <v>15</v>
+      </c>
+      <c r="K333" s="6">
+        <v>18</v>
+      </c>
+      <c r="L333" s="6">
+        <v>19</v>
+      </c>
+      <c r="M333" s="6">
+        <v>23</v>
+      </c>
+      <c r="N333" s="6">
+        <v>26</v>
+      </c>
+      <c r="O333" s="6">
+        <v>30</v>
+      </c>
+      <c r="P333" s="6">
+        <v>37</v>
+  